--- a/id.xlsx
+++ b/id.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="634">
   <si>
     <t>Aito</t>
   </si>
@@ -1923,6 +1923,12 @@
   </si>
   <si>
     <t>T9</t>
+  </si>
+  <si>
+    <t>JS3 New</t>
+  </si>
+  <si>
+    <t>H9 New</t>
   </si>
 </sst>
 </file>
@@ -1935,14 +1941,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2398,28 +2397,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2428,118 +2430,115 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2891,10 +2890,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C583"/>
+  <dimension ref="A1:C585"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A564" workbookViewId="0">
-      <selection activeCell="F580" sqref="F580"/>
+      <selection activeCell="M579" sqref="M579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -9312,6 +9311,28 @@
         <v>631</v>
       </c>
     </row>
+    <row r="584" spans="1:3">
+      <c r="A584">
+        <v>683</v>
+      </c>
+      <c r="B584" t="s">
+        <v>258</v>
+      </c>
+      <c r="C584" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585">
+        <v>684</v>
+      </c>
+      <c r="B585" t="s">
+        <v>207</v>
+      </c>
+      <c r="C585" t="s">
+        <v>633</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="649">
   <si>
     <t>Aito</t>
   </si>
@@ -1169,7 +1169,7 @@
     <t>Largus 7 мест</t>
   </si>
   <si>
-    <t>Фургон New</t>
+    <t>Largus Фургон New</t>
   </si>
   <si>
     <t>Lifan</t>
@@ -1929,6 +1929,51 @@
   </si>
   <si>
     <t>H9 New</t>
+  </si>
+  <si>
+    <t>ASX</t>
+  </si>
+  <si>
+    <t>Largus CNG</t>
+  </si>
+  <si>
+    <t>Largus Cross CNG</t>
+  </si>
+  <si>
+    <t>Largus Фургон CNG</t>
+  </si>
+  <si>
+    <t>M6 New</t>
+  </si>
+  <si>
+    <t>Jimny</t>
+  </si>
+  <si>
+    <t>DFM AX7</t>
+  </si>
+  <si>
+    <t>Vesta Sedan New NG</t>
+  </si>
+  <si>
+    <t>3909 Бортовой грузовик</t>
+  </si>
+  <si>
+    <t>3909 Микроавтобус</t>
+  </si>
+  <si>
+    <t>3909 Скорая помощь</t>
+  </si>
+  <si>
+    <t>3909 Цельнометаллический фургон</t>
+  </si>
+  <si>
+    <t>Профи</t>
+  </si>
+  <si>
+    <t>ВИС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x4 3 двери </t>
   </si>
 </sst>
 </file>
@@ -2890,10 +2935,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C585"/>
+  <dimension ref="A1:C602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A564" workbookViewId="0">
-      <selection activeCell="M579" sqref="M579"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="K604" sqref="K604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -9333,6 +9378,193 @@
         <v>633</v>
       </c>
     </row>
+    <row r="586" spans="1:3">
+      <c r="A586">
+        <v>685</v>
+      </c>
+      <c r="B586" t="s">
+        <v>424</v>
+      </c>
+      <c r="C586" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587">
+        <v>686</v>
+      </c>
+      <c r="B587" t="s">
+        <v>327</v>
+      </c>
+      <c r="C587" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588">
+        <v>687</v>
+      </c>
+      <c r="B588" t="s">
+        <v>327</v>
+      </c>
+      <c r="C588" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589">
+        <v>688</v>
+      </c>
+      <c r="B589" t="s">
+        <v>327</v>
+      </c>
+      <c r="C589" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590">
+        <v>689</v>
+      </c>
+      <c r="B590" t="s">
+        <v>207</v>
+      </c>
+      <c r="C590" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591">
+        <v>690</v>
+      </c>
+      <c r="B591" t="s">
+        <v>543</v>
+      </c>
+      <c r="C591" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592">
+        <v>691</v>
+      </c>
+      <c r="B592" t="s">
+        <v>192</v>
+      </c>
+      <c r="C592" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593">
+        <v>692</v>
+      </c>
+      <c r="B593" t="s">
+        <v>97</v>
+      </c>
+      <c r="C593" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594">
+        <v>693</v>
+      </c>
+      <c r="B594" t="s">
+        <v>327</v>
+      </c>
+      <c r="C594" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595">
+        <v>694</v>
+      </c>
+      <c r="B595" t="s">
+        <v>575</v>
+      </c>
+      <c r="C595">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596">
+        <v>695</v>
+      </c>
+      <c r="B596" t="s">
+        <v>575</v>
+      </c>
+      <c r="C596" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597">
+        <v>696</v>
+      </c>
+      <c r="B597" t="s">
+        <v>575</v>
+      </c>
+      <c r="C597" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598">
+        <v>697</v>
+      </c>
+      <c r="B598" t="s">
+        <v>575</v>
+      </c>
+      <c r="C598" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599">
+        <v>698</v>
+      </c>
+      <c r="B599" t="s">
+        <v>575</v>
+      </c>
+      <c r="C599" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600">
+        <v>699</v>
+      </c>
+      <c r="B600" t="s">
+        <v>575</v>
+      </c>
+      <c r="C600" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601">
+        <v>700</v>
+      </c>
+      <c r="B601" t="s">
+        <v>327</v>
+      </c>
+      <c r="C601" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602">
+        <v>701</v>
+      </c>
+      <c r="B602" t="s">
+        <v>327</v>
+      </c>
+      <c r="C602" t="s">
+        <v>648</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="650">
   <si>
     <t>Aito</t>
   </si>
@@ -1974,6 +1974,9 @@
   </si>
   <si>
     <t xml:space="preserve">4x4 3 двери </t>
+  </si>
+  <si>
+    <t>Профи Изотермический кузов</t>
   </si>
 </sst>
 </file>
@@ -2935,10 +2938,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C602"/>
+  <dimension ref="A1:C603"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="K604" sqref="K604"/>
+      <selection activeCell="J597" sqref="J597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -9565,6 +9568,17 @@
         <v>648</v>
       </c>
     </row>
+    <row r="603" spans="1:3">
+      <c r="A603">
+        <v>702</v>
+      </c>
+      <c r="B603" t="s">
+        <v>575</v>
+      </c>
+      <c r="C603" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="683">
   <si>
     <t>Aito</t>
   </si>
@@ -1977,6 +1977,105 @@
   </si>
   <si>
     <t>Профи Изотермический кузов</t>
+  </si>
+  <si>
+    <t>Vesta SW Sportline New</t>
+  </si>
+  <si>
+    <t>i30</t>
+  </si>
+  <si>
+    <t>Superb Sportline</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Amarok</t>
+  </si>
+  <si>
+    <t>Besturn B30</t>
+  </si>
+  <si>
+    <t>D60</t>
+  </si>
+  <si>
+    <t>Tourneo</t>
+  </si>
+  <si>
+    <t>Aeolus Shine Max</t>
+  </si>
+  <si>
+    <t>Outlander GT</t>
+  </si>
+  <si>
+    <t>UNI-K iDD Hybrid</t>
+  </si>
+  <si>
+    <t>Monjaro Hi-P Hybrid</t>
+  </si>
+  <si>
+    <t>Hongqi</t>
+  </si>
+  <si>
+    <t>E-HS9</t>
+  </si>
+  <si>
+    <t>HQ9</t>
+  </si>
+  <si>
+    <t>HS5</t>
+  </si>
+  <si>
+    <t>HS5 (I)</t>
+  </si>
+  <si>
+    <t>ВИС 2349 Бортовая платформа</t>
+  </si>
+  <si>
+    <t>ВИС 4x4 2346 Бортовая платформа</t>
+  </si>
+  <si>
+    <t>Granta Sportline</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz</t>
+  </si>
+  <si>
+    <t>GLE coupe</t>
+  </si>
+  <si>
+    <t>GLS</t>
+  </si>
+  <si>
+    <t>Sollers</t>
+  </si>
+  <si>
+    <t>Argo фургон промтоварный</t>
+  </si>
+  <si>
+    <t>Argo фургон-рефрижератор</t>
+  </si>
+  <si>
+    <t>Argo грузопассажирский фургон</t>
+  </si>
+  <si>
+    <t>Argo цельнометаллический фургон</t>
+  </si>
+  <si>
+    <t>ST6</t>
+  </si>
+  <si>
+    <t>500 Urban</t>
+  </si>
+  <si>
+    <t>Granta Sportline Liftback</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>Patriot АКПП</t>
   </si>
 </sst>
 </file>
@@ -2938,10 +3037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C603"/>
+  <dimension ref="A1:C635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="J597" sqref="J597"/>
+    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
+      <selection activeCell="K628" sqref="K628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -9579,6 +9678,358 @@
         <v>649</v>
       </c>
     </row>
+    <row r="604" spans="1:3">
+      <c r="A604">
+        <v>703</v>
+      </c>
+      <c r="B604" t="s">
+        <v>327</v>
+      </c>
+      <c r="C604" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605">
+        <v>704</v>
+      </c>
+      <c r="B605" t="s">
+        <v>233</v>
+      </c>
+      <c r="C605" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606">
+        <v>705</v>
+      </c>
+      <c r="B606" t="s">
+        <v>507</v>
+      </c>
+      <c r="C606" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607">
+        <v>706</v>
+      </c>
+      <c r="B607" t="s">
+        <v>581</v>
+      </c>
+      <c r="C607" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608">
+        <v>707</v>
+      </c>
+      <c r="B608" t="s">
+        <v>581</v>
+      </c>
+      <c r="C608" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609">
+        <v>708</v>
+      </c>
+      <c r="B609" t="s">
+        <v>126</v>
+      </c>
+      <c r="C609" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610">
+        <v>709</v>
+      </c>
+      <c r="B610" t="s">
+        <v>126</v>
+      </c>
+      <c r="C610" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611">
+        <v>710</v>
+      </c>
+      <c r="B611" t="s">
+        <v>145</v>
+      </c>
+      <c r="C611" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612">
+        <v>711</v>
+      </c>
+      <c r="B612" t="s">
+        <v>97</v>
+      </c>
+      <c r="C612" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613">
+        <v>712</v>
+      </c>
+      <c r="B613" t="s">
+        <v>424</v>
+      </c>
+      <c r="C613" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614">
+        <v>713</v>
+      </c>
+      <c r="B614" t="s">
+        <v>20</v>
+      </c>
+      <c r="C614" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615">
+        <v>714</v>
+      </c>
+      <c r="B615" t="s">
+        <v>168</v>
+      </c>
+      <c r="C615" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616">
+        <v>715</v>
+      </c>
+      <c r="B616" t="s">
+        <v>662</v>
+      </c>
+      <c r="C616" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617">
+        <v>716</v>
+      </c>
+      <c r="B617" t="s">
+        <v>662</v>
+      </c>
+      <c r="C617" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618">
+        <v>717</v>
+      </c>
+      <c r="B618" t="s">
+        <v>662</v>
+      </c>
+      <c r="C618" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619">
+        <v>718</v>
+      </c>
+      <c r="B619" t="s">
+        <v>662</v>
+      </c>
+      <c r="C619" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620">
+        <v>719</v>
+      </c>
+      <c r="B620" t="s">
+        <v>662</v>
+      </c>
+      <c r="C620" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621">
+        <v>720</v>
+      </c>
+      <c r="B621" t="s">
+        <v>662</v>
+      </c>
+      <c r="C621" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622">
+        <v>721</v>
+      </c>
+      <c r="B622" t="s">
+        <v>327</v>
+      </c>
+      <c r="C622" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623">
+        <v>722</v>
+      </c>
+      <c r="B623" t="s">
+        <v>327</v>
+      </c>
+      <c r="C623" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624">
+        <v>723</v>
+      </c>
+      <c r="B624" t="s">
+        <v>327</v>
+      </c>
+      <c r="C624" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625">
+        <v>724</v>
+      </c>
+      <c r="B625" t="s">
+        <v>670</v>
+      </c>
+      <c r="C625" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626">
+        <v>725</v>
+      </c>
+      <c r="B626" t="s">
+        <v>670</v>
+      </c>
+      <c r="C626" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627">
+        <v>726</v>
+      </c>
+      <c r="B627" t="s">
+        <v>673</v>
+      </c>
+      <c r="C627" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628">
+        <v>727</v>
+      </c>
+      <c r="B628" t="s">
+        <v>673</v>
+      </c>
+      <c r="C628" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629">
+        <v>728</v>
+      </c>
+      <c r="B629" t="s">
+        <v>673</v>
+      </c>
+      <c r="C629" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630">
+        <v>729</v>
+      </c>
+      <c r="B630" t="s">
+        <v>673</v>
+      </c>
+      <c r="C630" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631">
+        <v>730</v>
+      </c>
+      <c r="B631" t="s">
+        <v>673</v>
+      </c>
+      <c r="C631" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632">
+        <v>731</v>
+      </c>
+      <c r="B632" t="s">
+        <v>554</v>
+      </c>
+      <c r="C632" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633">
+        <v>732</v>
+      </c>
+      <c r="B633" t="s">
+        <v>327</v>
+      </c>
+      <c r="C633" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634">
+        <v>733</v>
+      </c>
+      <c r="B634" t="s">
+        <v>258</v>
+      </c>
+      <c r="C634" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635">
+        <v>734</v>
+      </c>
+      <c r="B635" t="s">
+        <v>575</v>
+      </c>
+      <c r="C635" t="s">
+        <v>682</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -1019,7 +1019,7 @@
     <t>Granta Cross</t>
   </si>
   <si>
-    <t>Granta Drive Active</t>
+    <t>Granta Sedan Drive Active</t>
   </si>
   <si>
     <t>Granta Hatchback</t>
@@ -3039,8 +3039,8 @@
   <sheetPr/>
   <dimension ref="A1:C635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
-      <selection activeCell="K628" sqref="K628"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="I310" sqref="I310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="686">
   <si>
     <t>Aito</t>
   </si>
@@ -2076,6 +2076,15 @@
   </si>
   <si>
     <t>Patriot АКПП</t>
+  </si>
+  <si>
+    <t>Seagull</t>
+  </si>
+  <si>
+    <t>Pegas</t>
+  </si>
+  <si>
+    <t>BZ4X</t>
   </si>
 </sst>
 </file>
@@ -3037,10 +3046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C635"/>
+  <dimension ref="A1:C639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="I310" sqref="I310"/>
+    <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
+      <selection activeCell="I638" sqref="I638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10030,6 +10039,50 @@
         <v>682</v>
       </c>
     </row>
+    <row r="636" spans="1:3">
+      <c r="A636">
+        <v>735</v>
+      </c>
+      <c r="B636" t="s">
+        <v>18</v>
+      </c>
+      <c r="C636" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637">
+        <v>736</v>
+      </c>
+      <c r="B637" t="s">
+        <v>282</v>
+      </c>
+      <c r="C637" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638">
+        <v>737</v>
+      </c>
+      <c r="B638" t="s">
+        <v>287</v>
+      </c>
+      <c r="C638" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639">
+        <v>738</v>
+      </c>
+      <c r="B639" t="s">
+        <v>557</v>
+      </c>
+      <c r="C639" t="s">
+        <v>685</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="687">
   <si>
     <t>Aito</t>
   </si>
@@ -2085,6 +2085,9 @@
   </si>
   <si>
     <t>BZ4X</t>
+  </si>
+  <si>
+    <t>Custin</t>
   </si>
 </sst>
 </file>
@@ -3046,10 +3049,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C639"/>
+  <dimension ref="A1:C640"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
-      <selection activeCell="I638" sqref="I638"/>
+      <selection activeCell="D640" sqref="D640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10083,6 +10086,17 @@
         <v>685</v>
       </c>
     </row>
+    <row r="640" spans="1:3">
+      <c r="A640">
+        <v>739</v>
+      </c>
+      <c r="B640" t="s">
+        <v>233</v>
+      </c>
+      <c r="C640" t="s">
+        <v>686</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="689">
   <si>
     <t>Aito</t>
   </si>
@@ -2088,6 +2088,12 @@
   </si>
   <si>
     <t>Custin</t>
+  </si>
+  <si>
+    <t>Land Cruiser 300 GR-Sport</t>
+  </si>
+  <si>
+    <t>Land Cruiser Prado New</t>
   </si>
 </sst>
 </file>
@@ -3049,10 +3055,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C640"/>
+  <dimension ref="A1:C642"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
-      <selection activeCell="D640" sqref="D640"/>
+      <selection activeCell="H629" sqref="H629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10097,6 +10103,28 @@
         <v>686</v>
       </c>
     </row>
+    <row r="641" spans="1:3">
+      <c r="A641">
+        <v>740</v>
+      </c>
+      <c r="B641" t="s">
+        <v>557</v>
+      </c>
+      <c r="C641" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642">
+        <v>741</v>
+      </c>
+      <c r="B642" t="s">
+        <v>557</v>
+      </c>
+      <c r="C642" t="s">
+        <v>688</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="690">
   <si>
     <t>Aito</t>
   </si>
@@ -2094,6 +2094,9 @@
   </si>
   <si>
     <t>Land Cruiser Prado New</t>
+  </si>
+  <si>
+    <t>U5 Plus CNG</t>
   </si>
 </sst>
 </file>
@@ -3055,10 +3058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C642"/>
+  <dimension ref="A1:C643"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
-      <selection activeCell="H629" sqref="H629"/>
+      <selection activeCell="H640" sqref="H640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10125,6 +10128,17 @@
         <v>688</v>
       </c>
     </row>
+    <row r="643" spans="1:3">
+      <c r="A643">
+        <v>742</v>
+      </c>
+      <c r="B643" t="s">
+        <v>3</v>
+      </c>
+      <c r="C643" t="s">
+        <v>689</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="691">
   <si>
     <t>Aito</t>
   </si>
@@ -2097,6 +2097,9 @@
   </si>
   <si>
     <t>U5 Plus CNG</t>
+  </si>
+  <si>
+    <t>Preface New</t>
   </si>
 </sst>
 </file>
@@ -3058,7 +3061,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C643"/>
+  <dimension ref="A1:C644"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
       <selection activeCell="H640" sqref="H640"/>
@@ -10139,6 +10142,17 @@
         <v>689</v>
       </c>
     </row>
+    <row r="644" spans="1:3">
+      <c r="A644">
+        <v>743</v>
+      </c>
+      <c r="B644" t="s">
+        <v>168</v>
+      </c>
+      <c r="C644" t="s">
+        <v>690</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="694">
   <si>
     <t>Aito</t>
   </si>
@@ -2057,7 +2057,7 @@
     <t>Argo фургон-рефрижератор</t>
   </si>
   <si>
-    <t>Argo грузопассажирский фургон</t>
+    <t>Atlant фургон грузопассажирский</t>
   </si>
   <si>
     <t>Argo цельнометаллический фургон</t>
@@ -2100,6 +2100,15 @@
   </si>
   <si>
     <t>Preface New</t>
+  </si>
+  <si>
+    <t>Argo бортовой</t>
+  </si>
+  <si>
+    <t>Atlant автобус</t>
+  </si>
+  <si>
+    <t>JS7</t>
   </si>
 </sst>
 </file>
@@ -3061,10 +3070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C644"/>
+  <dimension ref="A1:C647"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
-      <selection activeCell="H640" sqref="H640"/>
+    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
+      <selection activeCell="H641" sqref="H641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10153,6 +10162,39 @@
         <v>690</v>
       </c>
     </row>
+    <row r="645" spans="1:3">
+      <c r="A645">
+        <v>744</v>
+      </c>
+      <c r="B645" t="s">
+        <v>673</v>
+      </c>
+      <c r="C645" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646">
+        <v>745</v>
+      </c>
+      <c r="B646" t="s">
+        <v>673</v>
+      </c>
+      <c r="C646" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647">
+        <v>746</v>
+      </c>
+      <c r="B647" t="s">
+        <v>258</v>
+      </c>
+      <c r="C647" t="s">
+        <v>693</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="696">
   <si>
     <t>Aito</t>
   </si>
@@ -2109,6 +2109,12 @@
   </si>
   <si>
     <t>JS7</t>
+  </si>
+  <si>
+    <t>L7 Restyling</t>
+  </si>
+  <si>
+    <t>L9 Restyling</t>
   </si>
 </sst>
 </file>
@@ -3070,10 +3076,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C647"/>
+  <dimension ref="A1:C649"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
-      <selection activeCell="H641" sqref="H641"/>
+      <selection activeCell="H642" sqref="H642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10195,6 +10201,28 @@
         <v>693</v>
       </c>
     </row>
+    <row r="648" spans="1:3">
+      <c r="A648">
+        <v>747</v>
+      </c>
+      <c r="B648" t="s">
+        <v>392</v>
+      </c>
+      <c r="C648" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649">
+        <v>748</v>
+      </c>
+      <c r="B649" t="s">
+        <v>392</v>
+      </c>
+      <c r="C649" t="s">
+        <v>695</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="704">
   <si>
     <t>Aito</t>
   </si>
@@ -2115,6 +2115,30 @@
   </si>
   <si>
     <t>L9 Restyling</t>
+  </si>
+  <si>
+    <t>HS3</t>
+  </si>
+  <si>
+    <t>DFSK 500</t>
+  </si>
+  <si>
+    <t>Lexus</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>NX</t>
+  </si>
+  <si>
+    <t>GX New</t>
+  </si>
+  <si>
+    <t>VS5 New</t>
+  </si>
+  <si>
+    <t>VS7 New</t>
   </si>
 </sst>
 </file>
@@ -3076,10 +3100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C649"/>
+  <dimension ref="A1:C658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
-      <selection activeCell="H642" sqref="H642"/>
+    <sheetView tabSelected="1" topLeftCell="A632" workbookViewId="0">
+      <selection activeCell="F653" sqref="F653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10223,6 +10247,105 @@
         <v>695</v>
       </c>
     </row>
+    <row r="650" spans="1:3">
+      <c r="A650">
+        <v>749</v>
+      </c>
+      <c r="B650" t="s">
+        <v>662</v>
+      </c>
+      <c r="C650" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651">
+        <v>750</v>
+      </c>
+      <c r="B651" t="s">
+        <v>97</v>
+      </c>
+      <c r="C651" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652">
+        <v>751</v>
+      </c>
+      <c r="B652" t="s">
+        <v>698</v>
+      </c>
+      <c r="C652" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653">
+        <v>752</v>
+      </c>
+      <c r="B653" t="s">
+        <v>698</v>
+      </c>
+      <c r="C653" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654">
+        <v>753</v>
+      </c>
+      <c r="B654" t="s">
+        <v>698</v>
+      </c>
+      <c r="C654" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655">
+        <v>754</v>
+      </c>
+      <c r="B655" t="s">
+        <v>698</v>
+      </c>
+      <c r="C655" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656">
+        <v>755</v>
+      </c>
+      <c r="B656" t="s">
+        <v>698</v>
+      </c>
+      <c r="C656" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657">
+        <v>756</v>
+      </c>
+      <c r="B657" t="s">
+        <v>278</v>
+      </c>
+      <c r="C657" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658">
+        <v>757</v>
+      </c>
+      <c r="B658" t="s">
+        <v>278</v>
+      </c>
+      <c r="C658" t="s">
+        <v>703</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="710">
   <si>
     <t>Aito</t>
   </si>
@@ -2139,6 +2139,24 @@
   </si>
   <si>
     <t>VS7 New</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
   </si>
 </sst>
 </file>
@@ -3100,10 +3118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C658"/>
+  <dimension ref="A1:C671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A632" workbookViewId="0">
-      <selection activeCell="F653" sqref="F653"/>
+    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
+      <selection activeCell="E667" sqref="E667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10346,6 +10364,149 @@
         <v>703</v>
       </c>
     </row>
+    <row r="659" spans="1:3">
+      <c r="A659">
+        <v>758</v>
+      </c>
+      <c r="B659" t="s">
+        <v>272</v>
+      </c>
+      <c r="C659" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660">
+        <v>759</v>
+      </c>
+      <c r="B660" t="s">
+        <v>704</v>
+      </c>
+      <c r="C660">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661">
+        <v>760</v>
+      </c>
+      <c r="B661" t="s">
+        <v>704</v>
+      </c>
+      <c r="C661" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662">
+        <v>761</v>
+      </c>
+      <c r="B662" t="s">
+        <v>704</v>
+      </c>
+      <c r="C662">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663">
+        <v>762</v>
+      </c>
+      <c r="B663" t="s">
+        <v>704</v>
+      </c>
+      <c r="C663">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664">
+        <v>763</v>
+      </c>
+      <c r="B664" t="s">
+        <v>704</v>
+      </c>
+      <c r="C664" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665">
+        <v>764</v>
+      </c>
+      <c r="B665" t="s">
+        <v>704</v>
+      </c>
+      <c r="C665" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666">
+        <v>765</v>
+      </c>
+      <c r="B666" t="s">
+        <v>704</v>
+      </c>
+      <c r="C666" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667">
+        <v>766</v>
+      </c>
+      <c r="B667" t="s">
+        <v>704</v>
+      </c>
+      <c r="C667" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668">
+        <v>767</v>
+      </c>
+      <c r="B668" t="s">
+        <v>704</v>
+      </c>
+      <c r="C668" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669">
+        <v>768</v>
+      </c>
+      <c r="B669" t="s">
+        <v>704</v>
+      </c>
+      <c r="C669" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670">
+        <v>769</v>
+      </c>
+      <c r="B670" t="s">
+        <v>704</v>
+      </c>
+      <c r="C670" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671">
+        <v>770</v>
+      </c>
+      <c r="B671" t="s">
+        <v>554</v>
+      </c>
+      <c r="C671">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="714">
   <si>
     <t>Aito</t>
   </si>
@@ -2157,6 +2157,18 @@
   </si>
   <si>
     <t>X6</t>
+  </si>
+  <si>
+    <t>GA6</t>
+  </si>
+  <si>
+    <t>Cityray</t>
+  </si>
+  <si>
+    <t>Preface FS11</t>
+  </si>
+  <si>
+    <t>Профи Фургон</t>
   </si>
 </sst>
 </file>
@@ -3118,10 +3130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C671"/>
+  <dimension ref="A1:C675"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
-      <selection activeCell="E667" sqref="E667"/>
+    <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
+      <selection activeCell="J662" sqref="J662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10507,6 +10519,50 @@
         <v>700</v>
       </c>
     </row>
+    <row r="672" spans="1:3">
+      <c r="A672">
+        <v>771</v>
+      </c>
+      <c r="B672" t="s">
+        <v>156</v>
+      </c>
+      <c r="C672" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673">
+        <v>772</v>
+      </c>
+      <c r="B673" t="s">
+        <v>168</v>
+      </c>
+      <c r="C673" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674">
+        <v>773</v>
+      </c>
+      <c r="B674" t="s">
+        <v>168</v>
+      </c>
+      <c r="C674" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="A675">
+        <v>774</v>
+      </c>
+      <c r="B675" t="s">
+        <v>575</v>
+      </c>
+      <c r="C675" t="s">
+        <v>713</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="716">
   <si>
     <t>Aito</t>
   </si>
@@ -2169,6 +2169,12 @@
   </si>
   <si>
     <t>Профи Фургон</t>
+  </si>
+  <si>
+    <t>Knewstar</t>
+  </si>
+  <si>
+    <t>Cyberstar</t>
   </si>
 </sst>
 </file>
@@ -2782,8 +2788,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3130,10 +3137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C675"/>
+  <dimension ref="A1:C677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
-      <selection activeCell="J662" sqref="J662"/>
+    <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
+      <selection activeCell="C677" sqref="C677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10563,6 +10570,28 @@
         <v>713</v>
       </c>
     </row>
+    <row r="676" spans="1:3">
+      <c r="A676">
+        <v>775</v>
+      </c>
+      <c r="B676" t="s">
+        <v>714</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="A677">
+        <v>776</v>
+      </c>
+      <c r="B677" t="s">
+        <v>417</v>
+      </c>
+      <c r="C677" t="s">
+        <v>715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="722">
   <si>
     <t>Aito</t>
   </si>
@@ -2175,6 +2175,24 @@
   </si>
   <si>
     <t>Cyberstar</t>
+  </si>
+  <si>
+    <t>Argo фургон изотермический</t>
+  </si>
+  <si>
+    <t>Atlant бортовой</t>
+  </si>
+  <si>
+    <t>Atlant фургон изотермический</t>
+  </si>
+  <si>
+    <t>Atlant фургон-рефрижератор</t>
+  </si>
+  <si>
+    <t>Izoa</t>
+  </si>
+  <si>
+    <t>Crown Kluger</t>
   </si>
 </sst>
 </file>
@@ -3137,10 +3155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C677"/>
+  <dimension ref="A1:C683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
-      <selection activeCell="C677" sqref="C677"/>
+    <sheetView tabSelected="1" topLeftCell="A657" workbookViewId="0">
+      <selection activeCell="J664" sqref="J664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10592,6 +10610,72 @@
         <v>715</v>
       </c>
     </row>
+    <row r="678" spans="1:3">
+      <c r="A678">
+        <v>777</v>
+      </c>
+      <c r="B678" t="s">
+        <v>673</v>
+      </c>
+      <c r="C678" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="A679">
+        <v>778</v>
+      </c>
+      <c r="B679" t="s">
+        <v>673</v>
+      </c>
+      <c r="C679" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="A680">
+        <v>779</v>
+      </c>
+      <c r="B680" t="s">
+        <v>673</v>
+      </c>
+      <c r="C680" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3">
+      <c r="A681">
+        <v>780</v>
+      </c>
+      <c r="B681" t="s">
+        <v>673</v>
+      </c>
+      <c r="C681" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3">
+      <c r="A682">
+        <v>781</v>
+      </c>
+      <c r="B682" t="s">
+        <v>557</v>
+      </c>
+      <c r="C682" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3">
+      <c r="A683">
+        <v>782</v>
+      </c>
+      <c r="B683" t="s">
+        <v>557</v>
+      </c>
+      <c r="C683" t="s">
+        <v>721</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="725">
   <si>
     <t>Aito</t>
   </si>
@@ -2193,6 +2193,15 @@
   </si>
   <si>
     <t>Crown Kluger</t>
+  </si>
+  <si>
+    <t>C5 X</t>
+  </si>
+  <si>
+    <t>ВИС 2346</t>
+  </si>
+  <si>
+    <t>T5</t>
   </si>
 </sst>
 </file>
@@ -3155,10 +3164,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C683"/>
+  <dimension ref="A1:C686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A657" workbookViewId="0">
-      <selection activeCell="J664" sqref="J664"/>
+    <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
+      <selection activeCell="I685" sqref="I685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10676,6 +10685,39 @@
         <v>721</v>
       </c>
     </row>
+    <row r="684" spans="1:3">
+      <c r="A684">
+        <v>783</v>
+      </c>
+      <c r="B684" t="s">
+        <v>83</v>
+      </c>
+      <c r="C684" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3">
+      <c r="A685">
+        <v>784</v>
+      </c>
+      <c r="B685" t="s">
+        <v>327</v>
+      </c>
+      <c r="C685" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3">
+      <c r="A686">
+        <v>785</v>
+      </c>
+      <c r="B686" t="s">
+        <v>139</v>
+      </c>
+      <c r="C686" t="s">
+        <v>724</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="726">
   <si>
     <t>Aito</t>
   </si>
@@ -2202,6 +2202,9 @@
   </si>
   <si>
     <t>T5</t>
+  </si>
+  <si>
+    <t>X-Cross 8</t>
   </si>
 </sst>
 </file>
@@ -3164,10 +3167,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C686"/>
+  <dimension ref="A1:C688"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
-      <selection activeCell="I685" sqref="I685"/>
+      <selection activeCell="C688" sqref="C688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10718,6 +10721,28 @@
         <v>724</v>
       </c>
     </row>
+    <row r="687" spans="1:3">
+      <c r="A687">
+        <v>786</v>
+      </c>
+      <c r="B687" t="s">
+        <v>470</v>
+      </c>
+      <c r="C687">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3">
+      <c r="A688">
+        <v>787</v>
+      </c>
+      <c r="B688" t="s">
+        <v>623</v>
+      </c>
+      <c r="C688" t="s">
+        <v>725</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="729">
   <si>
     <t>Aito</t>
   </si>
@@ -2205,6 +2205,15 @@
   </si>
   <si>
     <t>X-Cross 8</t>
+  </si>
+  <si>
+    <t>Monjaro Restyling</t>
+  </si>
+  <si>
+    <t>Rox</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
 </sst>
 </file>
@@ -2821,6 +2830,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3167,10 +3177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C688"/>
+  <dimension ref="A1:C690"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
-      <selection activeCell="C688" sqref="C688"/>
+      <selection activeCell="G686" sqref="G686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10743,6 +10753,28 @@
         <v>725</v>
       </c>
     </row>
+    <row r="689" spans="1:3">
+      <c r="A689">
+        <v>788</v>
+      </c>
+      <c r="B689" t="s">
+        <v>168</v>
+      </c>
+      <c r="C689" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3">
+      <c r="A690">
+        <v>789</v>
+      </c>
+      <c r="B690" t="s">
+        <v>727</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="733">
   <si>
     <t>Aito</t>
   </si>
@@ -2214,6 +2214,18 @@
   </si>
   <si>
     <t>01</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>Maxus</t>
+  </si>
+  <si>
+    <t>Territory</t>
+  </si>
+  <si>
+    <t>Mega</t>
   </si>
 </sst>
 </file>
@@ -3177,10 +3189,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C690"/>
+  <dimension ref="A1:C693"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
-      <selection activeCell="G686" sqref="G686"/>
+      <selection activeCell="M683" sqref="M683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10775,6 +10787,39 @@
         <v>728</v>
       </c>
     </row>
+    <row r="691" spans="1:3">
+      <c r="A691">
+        <v>790</v>
+      </c>
+      <c r="B691" t="s">
+        <v>287</v>
+      </c>
+      <c r="C691" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3">
+      <c r="A692">
+        <v>791</v>
+      </c>
+      <c r="B692" t="s">
+        <v>730</v>
+      </c>
+      <c r="C692" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3">
+      <c r="A693">
+        <v>792</v>
+      </c>
+      <c r="B693" t="s">
+        <v>392</v>
+      </c>
+      <c r="C693" t="s">
+        <v>732</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="736">
   <si>
     <t>Aito</t>
   </si>
@@ -2226,6 +2226,15 @@
   </si>
   <si>
     <t>Mega</t>
+  </si>
+  <si>
+    <t>Tucson N Line</t>
+  </si>
+  <si>
+    <t>Besturn T99</t>
+  </si>
+  <si>
+    <t>Aura</t>
   </si>
 </sst>
 </file>
@@ -3189,10 +3198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C693"/>
+  <dimension ref="A1:C696"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
-      <selection activeCell="M683" sqref="M683"/>
+      <selection activeCell="C697" sqref="C697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10820,6 +10829,39 @@
         <v>732</v>
       </c>
     </row>
+    <row r="694" spans="1:3">
+      <c r="A694">
+        <v>793</v>
+      </c>
+      <c r="B694" t="s">
+        <v>233</v>
+      </c>
+      <c r="C694" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3">
+      <c r="A695">
+        <v>794</v>
+      </c>
+      <c r="B695" t="s">
+        <v>126</v>
+      </c>
+      <c r="C695" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3">
+      <c r="A696">
+        <v>795</v>
+      </c>
+      <c r="B696" t="s">
+        <v>327</v>
+      </c>
+      <c r="C696" t="s">
+        <v>735</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="753">
   <si>
     <t>Aito</t>
   </si>
@@ -2235,6 +2235,57 @@
   </si>
   <si>
     <t>Aura</t>
+  </si>
+  <si>
+    <t>Eado</t>
+  </si>
+  <si>
+    <t>CS15</t>
+  </si>
+  <si>
+    <t>Tiggo 3x</t>
+  </si>
+  <si>
+    <t>Cruze</t>
+  </si>
+  <si>
+    <t>Onix</t>
+  </si>
+  <si>
+    <t>Equinox</t>
+  </si>
+  <si>
+    <t>IX7</t>
+  </si>
+  <si>
+    <t>S-MAX</t>
+  </si>
+  <si>
+    <t>H3 New</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>IONIQ 5</t>
+  </si>
+  <si>
+    <t>Optima Rest</t>
+  </si>
+  <si>
+    <t>Montero Sport New</t>
+  </si>
+  <si>
+    <t>Almera</t>
+  </si>
+  <si>
+    <t>Octavia A7</t>
+  </si>
+  <si>
+    <t>Free New</t>
+  </si>
+  <si>
+    <t>Tiggo 2 Pro</t>
   </si>
 </sst>
 </file>
@@ -3198,10 +3249,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C696"/>
+  <dimension ref="A1:C714"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
-      <selection activeCell="C697" sqref="C697"/>
+    <sheetView tabSelected="1" topLeftCell="A691" workbookViewId="0">
+      <selection activeCell="C715" sqref="C715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10862,6 +10913,204 @@
         <v>735</v>
       </c>
     </row>
+    <row r="697" spans="1:3">
+      <c r="A697">
+        <v>796</v>
+      </c>
+      <c r="B697" t="s">
+        <v>20</v>
+      </c>
+      <c r="C697" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3">
+      <c r="A698">
+        <v>797</v>
+      </c>
+      <c r="B698" t="s">
+        <v>20</v>
+      </c>
+      <c r="C698" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3">
+      <c r="A699">
+        <v>798</v>
+      </c>
+      <c r="B699" t="s">
+        <v>49</v>
+      </c>
+      <c r="C699" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3">
+      <c r="A700">
+        <v>799</v>
+      </c>
+      <c r="B700" t="s">
+        <v>73</v>
+      </c>
+      <c r="C700" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3">
+      <c r="A701">
+        <v>800</v>
+      </c>
+      <c r="B701" t="s">
+        <v>73</v>
+      </c>
+      <c r="C701" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3">
+      <c r="A702">
+        <v>801</v>
+      </c>
+      <c r="B702" t="s">
+        <v>73</v>
+      </c>
+      <c r="C702" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3">
+      <c r="A703">
+        <v>802</v>
+      </c>
+      <c r="B703" t="s">
+        <v>97</v>
+      </c>
+      <c r="C703" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3">
+      <c r="A704">
+        <v>803</v>
+      </c>
+      <c r="B704" t="s">
+        <v>145</v>
+      </c>
+      <c r="C704" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3">
+      <c r="A705">
+        <v>804</v>
+      </c>
+      <c r="B705" t="s">
+        <v>207</v>
+      </c>
+      <c r="C705" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3">
+      <c r="A706">
+        <v>805</v>
+      </c>
+      <c r="B706" t="s">
+        <v>233</v>
+      </c>
+      <c r="C706" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3">
+      <c r="A707">
+        <v>806</v>
+      </c>
+      <c r="B707" t="s">
+        <v>233</v>
+      </c>
+      <c r="C707" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3">
+      <c r="A708">
+        <v>807</v>
+      </c>
+      <c r="B708" t="s">
+        <v>287</v>
+      </c>
+      <c r="C708" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3">
+      <c r="A709">
+        <v>808</v>
+      </c>
+      <c r="B709" t="s">
+        <v>424</v>
+      </c>
+      <c r="C709" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3">
+      <c r="A710">
+        <v>809</v>
+      </c>
+      <c r="B710" t="s">
+        <v>440</v>
+      </c>
+      <c r="C710" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3">
+      <c r="A711">
+        <v>810</v>
+      </c>
+      <c r="B711" t="s">
+        <v>507</v>
+      </c>
+      <c r="C711" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3">
+      <c r="A712">
+        <v>811</v>
+      </c>
+      <c r="B712" t="s">
+        <v>609</v>
+      </c>
+      <c r="C712" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3">
+      <c r="A713">
+        <v>812</v>
+      </c>
+      <c r="B713" t="s">
+        <v>49</v>
+      </c>
+      <c r="C713" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3">
+      <c r="A714">
+        <v>813</v>
+      </c>
+      <c r="B714" t="s">
+        <v>381</v>
+      </c>
+      <c r="C714" t="s">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="767">
   <si>
     <t>Aito</t>
   </si>
@@ -2286,6 +2286,48 @@
   </si>
   <si>
     <t>Tiggo 2 Pro</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>UNI-Z</t>
+  </si>
+  <si>
+    <t>DFSK 600</t>
+  </si>
+  <si>
+    <t>3 Hatchback</t>
+  </si>
+  <si>
+    <t>CX-90</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>C5 New</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>U70 Pro</t>
+  </si>
+  <si>
+    <t>U75 Plus</t>
+  </si>
+  <si>
+    <t>M-Hero</t>
+  </si>
+  <si>
+    <t>Besturn T55</t>
+  </si>
+  <si>
+    <t>Granta Sportline Drive Active Liftback</t>
   </si>
 </sst>
 </file>
@@ -3249,10 +3291,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C714"/>
+  <dimension ref="A1:C728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A691" workbookViewId="0">
-      <selection activeCell="C715" sqref="C715"/>
+    <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
+      <selection activeCell="H718" sqref="H718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -11111,6 +11153,160 @@
         <v>391</v>
       </c>
     </row>
+    <row r="715" spans="1:3">
+      <c r="A715">
+        <v>814</v>
+      </c>
+      <c r="B715" t="s">
+        <v>18</v>
+      </c>
+      <c r="C715" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3">
+      <c r="A716">
+        <v>815</v>
+      </c>
+      <c r="B716" t="s">
+        <v>20</v>
+      </c>
+      <c r="C716" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3">
+      <c r="A717">
+        <v>816</v>
+      </c>
+      <c r="B717" t="s">
+        <v>97</v>
+      </c>
+      <c r="C717" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3">
+      <c r="A718">
+        <v>817</v>
+      </c>
+      <c r="B718" t="s">
+        <v>402</v>
+      </c>
+      <c r="C718" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3">
+      <c r="A719">
+        <v>818</v>
+      </c>
+      <c r="B719" t="s">
+        <v>402</v>
+      </c>
+      <c r="C719" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3">
+      <c r="A720">
+        <v>819</v>
+      </c>
+      <c r="B720" t="s">
+        <v>417</v>
+      </c>
+      <c r="C720" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3">
+      <c r="A721">
+        <v>820</v>
+      </c>
+      <c r="B721" t="s">
+        <v>454</v>
+      </c>
+      <c r="C721" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3">
+      <c r="A722">
+        <v>821</v>
+      </c>
+      <c r="B722" t="s">
+        <v>534</v>
+      </c>
+      <c r="C722" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3">
+      <c r="A723">
+        <v>822</v>
+      </c>
+      <c r="B723" t="s">
+        <v>534</v>
+      </c>
+      <c r="C723" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3">
+      <c r="A724">
+        <v>823</v>
+      </c>
+      <c r="B724" t="s">
+        <v>607</v>
+      </c>
+      <c r="C724" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3">
+      <c r="A725">
+        <v>824</v>
+      </c>
+      <c r="B725" t="s">
+        <v>607</v>
+      </c>
+      <c r="C725" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
+      <c r="A726">
+        <v>825</v>
+      </c>
+      <c r="B726" t="s">
+        <v>609</v>
+      </c>
+      <c r="C726" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3">
+      <c r="A727">
+        <v>826</v>
+      </c>
+      <c r="B727" t="s">
+        <v>126</v>
+      </c>
+      <c r="C727" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3">
+      <c r="A728">
+        <v>827</v>
+      </c>
+      <c r="B728" t="s">
+        <v>327</v>
+      </c>
+      <c r="C728" t="s">
+        <v>766</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="768">
   <si>
     <t>Aito</t>
   </si>
@@ -2328,6 +2328,9 @@
   </si>
   <si>
     <t>Granta Sportline Drive Active Liftback</t>
+  </si>
+  <si>
+    <t>Pickup АКПП</t>
   </si>
 </sst>
 </file>
@@ -3291,10 +3294,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C728"/>
+  <dimension ref="A1:C729"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
-      <selection activeCell="H718" sqref="H718"/>
+      <selection activeCell="E722" sqref="E722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -11307,6 +11310,17 @@
         <v>766</v>
       </c>
     </row>
+    <row r="729" spans="1:3">
+      <c r="A729">
+        <v>828</v>
+      </c>
+      <c r="B729" t="s">
+        <v>575</v>
+      </c>
+      <c r="C729" t="s">
+        <v>767</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="770">
   <si>
     <t>Aito</t>
   </si>
@@ -2331,6 +2331,12 @@
   </si>
   <si>
     <t>Pickup АКПП</t>
+  </si>
+  <si>
+    <t>Bestune B70 New</t>
+  </si>
+  <si>
+    <t>Bestune T90</t>
   </si>
 </sst>
 </file>
@@ -3294,10 +3300,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C729"/>
+  <dimension ref="A1:C731"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
-      <selection activeCell="E722" sqref="E722"/>
+    <sheetView tabSelected="1" topLeftCell="A709" workbookViewId="0">
+      <selection activeCell="C731" sqref="C731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -11321,6 +11327,28 @@
         <v>767</v>
       </c>
     </row>
+    <row r="730" spans="1:3">
+      <c r="A730">
+        <v>829</v>
+      </c>
+      <c r="B730" t="s">
+        <v>126</v>
+      </c>
+      <c r="C730" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3">
+      <c r="A731">
+        <v>830</v>
+      </c>
+      <c r="B731" t="s">
+        <v>126</v>
+      </c>
+      <c r="C731" t="s">
+        <v>769</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="772">
   <si>
     <t>Aito</t>
   </si>
@@ -2337,6 +2337,12 @@
   </si>
   <si>
     <t>Bestune T90</t>
+  </si>
+  <si>
+    <t>Kamiq</t>
+  </si>
+  <si>
+    <t>Tiggo 9 New</t>
   </si>
 </sst>
 </file>
@@ -3300,10 +3306,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C731"/>
+  <dimension ref="A1:C733"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A709" workbookViewId="0">
-      <selection activeCell="C731" sqref="C731"/>
+      <selection activeCell="F719" sqref="F719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -11349,6 +11355,28 @@
         <v>769</v>
       </c>
     </row>
+    <row r="732" spans="1:3">
+      <c r="A732">
+        <v>831</v>
+      </c>
+      <c r="B732" t="s">
+        <v>507</v>
+      </c>
+      <c r="C732" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3">
+      <c r="A733">
+        <v>832</v>
+      </c>
+      <c r="B733" t="s">
+        <v>49</v>
+      </c>
+      <c r="C733" t="s">
+        <v>771</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$736</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="777">
   <si>
     <t>Aito</t>
   </si>
@@ -2343,6 +2346,21 @@
   </si>
   <si>
     <t>Tiggo 9 New</t>
+  </si>
+  <si>
+    <t>Bestune T90 New</t>
+  </si>
+  <si>
+    <t>RX 5</t>
+  </si>
+  <si>
+    <t>Monjaro New</t>
+  </si>
+  <si>
+    <t>i20</t>
+  </si>
+  <si>
+    <t>Carnival New</t>
   </si>
 </sst>
 </file>
@@ -3306,10 +3324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C733"/>
+  <dimension ref="A1:C738"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A709" workbookViewId="0">
-      <selection activeCell="F719" sqref="F719"/>
+    <sheetView tabSelected="1" topLeftCell="A715" workbookViewId="0">
+      <selection activeCell="H730" sqref="H730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -11377,7 +11395,65 @@
         <v>771</v>
       </c>
     </row>
+    <row r="734" spans="1:3">
+      <c r="A734">
+        <v>833</v>
+      </c>
+      <c r="B734" t="s">
+        <v>126</v>
+      </c>
+      <c r="C734" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3">
+      <c r="A735">
+        <v>834</v>
+      </c>
+      <c r="B735" t="s">
+        <v>417</v>
+      </c>
+      <c r="C735" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3">
+      <c r="A736">
+        <v>835</v>
+      </c>
+      <c r="B736" t="s">
+        <v>168</v>
+      </c>
+      <c r="C736" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3">
+      <c r="A737">
+        <v>836</v>
+      </c>
+      <c r="B737" t="s">
+        <v>233</v>
+      </c>
+      <c r="C737" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3">
+      <c r="A738">
+        <v>837</v>
+      </c>
+      <c r="B738" t="s">
+        <v>287</v>
+      </c>
+      <c r="C738" t="s">
+        <v>776</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C736" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/id.xlsx
+++ b/id.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$736</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$741</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="781">
   <si>
     <t>Aito</t>
   </si>
@@ -2361,6 +2361,18 @@
   </si>
   <si>
     <t>Carnival New</t>
+  </si>
+  <si>
+    <t>Juke New</t>
+  </si>
+  <si>
+    <t>Raeton</t>
+  </si>
+  <si>
+    <t>Besturn B70</t>
+  </si>
+  <si>
+    <t>RX 9</t>
   </si>
 </sst>
 </file>
@@ -3324,10 +3336,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C738"/>
+  <dimension ref="A1:C742"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A715" workbookViewId="0">
-      <selection activeCell="H730" sqref="H730"/>
+      <selection activeCell="O730" sqref="O730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -11450,8 +11462,52 @@
         <v>776</v>
       </c>
     </row>
+    <row r="739" spans="1:3">
+      <c r="A739">
+        <v>838</v>
+      </c>
+      <c r="B739" t="s">
+        <v>440</v>
+      </c>
+      <c r="C739" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3">
+      <c r="A740">
+        <v>839</v>
+      </c>
+      <c r="B740" t="s">
+        <v>20</v>
+      </c>
+      <c r="C740" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3">
+      <c r="A741">
+        <v>840</v>
+      </c>
+      <c r="B741" t="s">
+        <v>126</v>
+      </c>
+      <c r="C741" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3">
+      <c r="A742">
+        <v>841</v>
+      </c>
+      <c r="B742" t="s">
+        <v>417</v>
+      </c>
+      <c r="C742" t="s">
+        <v>780</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C736" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C741" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$741</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$742</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="783">
   <si>
     <t>Aito</t>
   </si>
@@ -2373,6 +2373,12 @@
   </si>
   <si>
     <t>RX 9</t>
+  </si>
+  <si>
+    <t>RX 8</t>
+  </si>
+  <si>
+    <t>HS5 New</t>
   </si>
 </sst>
 </file>
@@ -3336,10 +3342,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C742"/>
+  <dimension ref="A1:C744"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A715" workbookViewId="0">
-      <selection activeCell="O730" sqref="O730"/>
+    <sheetView tabSelected="1" topLeftCell="A724" workbookViewId="0">
+      <selection activeCell="E744" sqref="E744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -11506,8 +11512,30 @@
         <v>780</v>
       </c>
     </row>
+    <row r="743" spans="1:3">
+      <c r="A743">
+        <v>842</v>
+      </c>
+      <c r="B743" t="s">
+        <v>417</v>
+      </c>
+      <c r="C743" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3">
+      <c r="A744">
+        <v>843</v>
+      </c>
+      <c r="B744" t="s">
+        <v>662</v>
+      </c>
+      <c r="C744" t="s">
+        <v>782</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C741" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C742" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$742</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$744</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="788">
   <si>
     <t>Aito</t>
   </si>
@@ -2379,6 +2379,21 @@
   </si>
   <si>
     <t>HS5 New</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5 M</t>
+  </si>
+  <si>
+    <t>X6 M</t>
+  </si>
+  <si>
+    <t>X M</t>
+  </si>
+  <si>
+    <t>i30 универсал</t>
   </si>
 </sst>
 </file>
@@ -3342,10 +3357,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C744"/>
+  <dimension ref="A1:C752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A724" workbookViewId="0">
-      <selection activeCell="E744" sqref="E744"/>
+    <sheetView tabSelected="1" topLeftCell="A727" workbookViewId="0">
+      <selection activeCell="A752" sqref="A752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -11534,8 +11549,96 @@
         <v>782</v>
       </c>
     </row>
+    <row r="745" spans="1:3">
+      <c r="A745">
+        <v>844</v>
+      </c>
+      <c r="B745" t="s">
+        <v>704</v>
+      </c>
+      <c r="C745">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3">
+      <c r="A746">
+        <v>845</v>
+      </c>
+      <c r="B746" t="s">
+        <v>704</v>
+      </c>
+      <c r="C746" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3">
+      <c r="A747">
+        <v>846</v>
+      </c>
+      <c r="B747" t="s">
+        <v>704</v>
+      </c>
+      <c r="C747" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3">
+      <c r="A748">
+        <v>847</v>
+      </c>
+      <c r="B748" t="s">
+        <v>704</v>
+      </c>
+      <c r="C748" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3">
+      <c r="A749">
+        <v>848</v>
+      </c>
+      <c r="B749" t="s">
+        <v>704</v>
+      </c>
+      <c r="C749" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3">
+      <c r="A750">
+        <v>849</v>
+      </c>
+      <c r="B750" t="s">
+        <v>704</v>
+      </c>
+      <c r="C750" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3">
+      <c r="A751">
+        <v>850</v>
+      </c>
+      <c r="B751" t="s">
+        <v>554</v>
+      </c>
+      <c r="C751">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3">
+      <c r="A752">
+        <v>851</v>
+      </c>
+      <c r="B752" t="s">
+        <v>233</v>
+      </c>
+      <c r="C752" t="s">
+        <v>787</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C742" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C744" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$744</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$754</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="792">
   <si>
     <t>Aito</t>
   </si>
@@ -2394,6 +2394,18 @@
   </si>
   <si>
     <t>i30 универсал</t>
+  </si>
+  <si>
+    <t>Changan, UNI-S/CS55 Plus</t>
+  </si>
+  <si>
+    <t>Granta Бортовая</t>
+  </si>
+  <si>
+    <t>Granta Фургон</t>
+  </si>
+  <si>
+    <t>Niva Legend Бортовая</t>
   </si>
 </sst>
 </file>
@@ -3357,10 +3369,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C752"/>
+  <dimension ref="A1:C757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A727" workbookViewId="0">
-      <selection activeCell="A752" sqref="A752"/>
+    <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
+      <selection activeCell="G753" sqref="G753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -11637,8 +11649,63 @@
         <v>787</v>
       </c>
     </row>
+    <row r="753" spans="1:3">
+      <c r="A753">
+        <v>852</v>
+      </c>
+      <c r="B753" t="s">
+        <v>20</v>
+      </c>
+      <c r="C753" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3">
+      <c r="A754">
+        <v>853</v>
+      </c>
+      <c r="B754" t="s">
+        <v>704</v>
+      </c>
+      <c r="C754" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3">
+      <c r="A755">
+        <v>854</v>
+      </c>
+      <c r="B755" t="s">
+        <v>327</v>
+      </c>
+      <c r="C755" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3">
+      <c r="A756">
+        <v>855</v>
+      </c>
+      <c r="B756" t="s">
+        <v>327</v>
+      </c>
+      <c r="C756" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3">
+      <c r="A757">
+        <v>856</v>
+      </c>
+      <c r="B757" t="s">
+        <v>327</v>
+      </c>
+      <c r="C757" t="s">
+        <v>791</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C744" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C754" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$754</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$774</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="810">
   <si>
     <t>Aito</t>
   </si>
@@ -2406,6 +2406,60 @@
   </si>
   <si>
     <t>Niva Legend Бортовая</t>
+  </si>
+  <si>
+    <t>Maybach S-класс</t>
+  </si>
+  <si>
+    <t>GLE AMG</t>
+  </si>
+  <si>
+    <t>ВИС 2349 Пикап</t>
+  </si>
+  <si>
+    <t>ВИС 23461</t>
+  </si>
+  <si>
+    <t>Prima Kub</t>
+  </si>
+  <si>
+    <t>Seres</t>
+  </si>
+  <si>
+    <t>GLS AMG</t>
+  </si>
+  <si>
+    <t>GLE</t>
+  </si>
+  <si>
+    <t>G-класс AMG</t>
+  </si>
+  <si>
+    <t>V-класс</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Mengshi M-Hero 917</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>G70</t>
+  </si>
+  <si>
+    <t>Porshe</t>
+  </si>
+  <si>
+    <t>Cayenne</t>
+  </si>
+  <si>
+    <t>BJ60</t>
   </si>
 </sst>
 </file>
@@ -3369,10 +3423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C757"/>
+  <dimension ref="A1:C775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
-      <selection activeCell="G753" sqref="G753"/>
+    <sheetView tabSelected="1" topLeftCell="A751" workbookViewId="0">
+      <selection activeCell="F767" sqref="F767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -11704,8 +11758,206 @@
         <v>791</v>
       </c>
     </row>
+    <row r="758" spans="1:3">
+      <c r="A758">
+        <v>857</v>
+      </c>
+      <c r="B758" t="s">
+        <v>670</v>
+      </c>
+      <c r="C758" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3">
+      <c r="A759">
+        <v>858</v>
+      </c>
+      <c r="B759" t="s">
+        <v>670</v>
+      </c>
+      <c r="C759" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3">
+      <c r="A760">
+        <v>859</v>
+      </c>
+      <c r="B760" t="s">
+        <v>327</v>
+      </c>
+      <c r="C760" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3">
+      <c r="A761">
+        <v>860</v>
+      </c>
+      <c r="B761" t="s">
+        <v>327</v>
+      </c>
+      <c r="C761" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3">
+      <c r="A762">
+        <v>861</v>
+      </c>
+      <c r="B762" t="s">
+        <v>327</v>
+      </c>
+      <c r="C762" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3">
+      <c r="A763">
+        <v>862</v>
+      </c>
+      <c r="B763" t="s">
+        <v>797</v>
+      </c>
+      <c r="C763" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3">
+      <c r="A764">
+        <v>863</v>
+      </c>
+      <c r="B764" t="s">
+        <v>797</v>
+      </c>
+      <c r="C764" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3">
+      <c r="A765">
+        <v>864</v>
+      </c>
+      <c r="B765" t="s">
+        <v>670</v>
+      </c>
+      <c r="C765" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3">
+      <c r="A766">
+        <v>865</v>
+      </c>
+      <c r="B766" t="s">
+        <v>670</v>
+      </c>
+      <c r="C766" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3">
+      <c r="A767">
+        <v>866</v>
+      </c>
+      <c r="B767" t="s">
+        <v>670</v>
+      </c>
+      <c r="C767" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3">
+      <c r="A768">
+        <v>867</v>
+      </c>
+      <c r="B768" t="s">
+        <v>670</v>
+      </c>
+      <c r="C768" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3">
+      <c r="A769">
+        <v>868</v>
+      </c>
+      <c r="B769" t="s">
+        <v>613</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3">
+      <c r="A770">
+        <v>869</v>
+      </c>
+      <c r="B770" t="s">
+        <v>613</v>
+      </c>
+      <c r="C770">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3">
+      <c r="A771">
+        <v>870</v>
+      </c>
+      <c r="B771" t="s">
+        <v>613</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3">
+      <c r="A772">
+        <v>871</v>
+      </c>
+      <c r="B772" t="s">
+        <v>97</v>
+      </c>
+      <c r="C772" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3">
+      <c r="A773">
+        <v>872</v>
+      </c>
+      <c r="B773" t="s">
+        <v>805</v>
+      </c>
+      <c r="C773" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3">
+      <c r="A774">
+        <v>873</v>
+      </c>
+      <c r="B774" t="s">
+        <v>807</v>
+      </c>
+      <c r="C774" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3">
+      <c r="A775">
+        <v>874</v>
+      </c>
+      <c r="B775" t="s">
+        <v>3</v>
+      </c>
+      <c r="C775" t="s">
+        <v>809</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C754" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C774" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$774</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$776</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="817">
   <si>
     <t>Aito</t>
   </si>
@@ -2460,6 +2460,27 @@
   </si>
   <si>
     <t>BJ60</t>
+  </si>
+  <si>
+    <t>3303 Бортовой грузовик</t>
+  </si>
+  <si>
+    <t>H530</t>
+  </si>
+  <si>
+    <t>KGM</t>
+  </si>
+  <si>
+    <t>Korando</t>
+  </si>
+  <si>
+    <t>Rexton</t>
+  </si>
+  <si>
+    <t>Tivoli</t>
+  </si>
+  <si>
+    <t>Torres</t>
   </si>
 </sst>
 </file>
@@ -3423,10 +3444,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C775"/>
+  <dimension ref="A1:C781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A751" workbookViewId="0">
-      <selection activeCell="F767" sqref="F767"/>
+    <sheetView tabSelected="1" topLeftCell="A757" workbookViewId="0">
+      <selection activeCell="A783" sqref="A783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -11956,8 +11977,74 @@
         <v>809</v>
       </c>
     </row>
+    <row r="776" spans="1:3">
+      <c r="A776">
+        <v>875</v>
+      </c>
+      <c r="B776" t="s">
+        <v>575</v>
+      </c>
+      <c r="C776" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3">
+      <c r="A777">
+        <v>876</v>
+      </c>
+      <c r="B777" t="s">
+        <v>14</v>
+      </c>
+      <c r="C777" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3">
+      <c r="A778">
+        <v>877</v>
+      </c>
+      <c r="B778" t="s">
+        <v>812</v>
+      </c>
+      <c r="C778" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3">
+      <c r="A779">
+        <v>878</v>
+      </c>
+      <c r="B779" t="s">
+        <v>812</v>
+      </c>
+      <c r="C779" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3">
+      <c r="A780">
+        <v>879</v>
+      </c>
+      <c r="B780" t="s">
+        <v>812</v>
+      </c>
+      <c r="C780" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3">
+      <c r="A781">
+        <v>880</v>
+      </c>
+      <c r="B781" t="s">
+        <v>812</v>
+      </c>
+      <c r="C781" t="s">
+        <v>816</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C774" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C776" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="8615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$776</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$781</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="819">
   <si>
     <t>Aito</t>
   </si>
@@ -2481,6 +2481,12 @@
   </si>
   <si>
     <t>Torres</t>
+  </si>
+  <si>
+    <t>EX5</t>
+  </si>
+  <si>
+    <t>Outlander 7 мест</t>
   </si>
 </sst>
 </file>
@@ -3444,10 +3450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C781"/>
+  <dimension ref="A1:C783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A757" workbookViewId="0">
-      <selection activeCell="A783" sqref="A783"/>
+    <sheetView tabSelected="1" topLeftCell="A769" workbookViewId="0">
+      <selection activeCell="E779" sqref="E779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -12043,8 +12049,30 @@
         <v>816</v>
       </c>
     </row>
+    <row r="782" spans="1:3">
+      <c r="A782">
+        <v>881</v>
+      </c>
+      <c r="B782" t="s">
+        <v>168</v>
+      </c>
+      <c r="C782" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3">
+      <c r="A783">
+        <v>882</v>
+      </c>
+      <c r="B783" t="s">
+        <v>581</v>
+      </c>
+      <c r="C783" t="s">
+        <v>818</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C776" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C781" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8615"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$781</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$787</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="823">
   <si>
     <t>Aito</t>
   </si>
@@ -2487,6 +2487,18 @@
   </si>
   <si>
     <t>Outlander 7 мест</t>
+  </si>
+  <si>
+    <t>Elantra New Rest</t>
+  </si>
+  <si>
+    <t>Sonata New Rest</t>
+  </si>
+  <si>
+    <t>Soul New Rest</t>
+  </si>
+  <si>
+    <t>HT-i</t>
   </si>
 </sst>
 </file>
@@ -3450,10 +3462,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C783"/>
+  <dimension ref="A1:C787"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A769" workbookViewId="0">
-      <selection activeCell="E779" sqref="E779"/>
+    <sheetView tabSelected="1" topLeftCell="A760" workbookViewId="0">
+      <selection activeCell="C789" sqref="C789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -12071,8 +12083,52 @@
         <v>818</v>
       </c>
     </row>
+    <row r="784" spans="1:3">
+      <c r="A784">
+        <v>883</v>
+      </c>
+      <c r="B784" t="s">
+        <v>233</v>
+      </c>
+      <c r="C784" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3">
+      <c r="A785">
+        <v>884</v>
+      </c>
+      <c r="B785" t="s">
+        <v>233</v>
+      </c>
+      <c r="C785" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3">
+      <c r="A786">
+        <v>885</v>
+      </c>
+      <c r="B786" t="s">
+        <v>287</v>
+      </c>
+      <c r="C786" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3">
+      <c r="A787">
+        <v>886</v>
+      </c>
+      <c r="B787" t="s">
+        <v>505</v>
+      </c>
+      <c r="C787" t="s">
+        <v>822</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C781" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C787" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="827">
   <si>
     <t>Aito</t>
   </si>
@@ -2499,6 +2499,18 @@
   </si>
   <si>
     <t>HT-i</t>
+  </si>
+  <si>
+    <t>Land Rover</t>
+  </si>
+  <si>
+    <t>Discovery Sport</t>
+  </si>
+  <si>
+    <t>Hiace</t>
+  </si>
+  <si>
+    <t>Land Cruiser 200</t>
   </si>
 </sst>
 </file>
@@ -3462,10 +3474,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C787"/>
+  <dimension ref="A1:C790"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A760" workbookViewId="0">
-      <selection activeCell="C789" sqref="C789"/>
+    <sheetView tabSelected="1" topLeftCell="A772" workbookViewId="0">
+      <selection activeCell="C790" sqref="C790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -12125,6 +12137,39 @@
       </c>
       <c r="C787" t="s">
         <v>822</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3">
+      <c r="A788">
+        <v>887</v>
+      </c>
+      <c r="B788" t="s">
+        <v>823</v>
+      </c>
+      <c r="C788" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3">
+      <c r="A789">
+        <v>888</v>
+      </c>
+      <c r="B789" t="s">
+        <v>557</v>
+      </c>
+      <c r="C789" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3">
+      <c r="A790">
+        <v>889</v>
+      </c>
+      <c r="B790" t="s">
+        <v>557</v>
+      </c>
+      <c r="C790" t="s">
+        <v>826</v>
       </c>
     </row>
   </sheetData>

--- a/id.xlsx
+++ b/id.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$787</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$864</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="896">
   <si>
     <t>Aito</t>
   </si>
@@ -1646,7 +1646,7 @@
     <t>DX8S Chieftain Edition</t>
   </si>
   <si>
-    <t>SsangYong</t>
+    <t>KGM(SsangYong)</t>
   </si>
   <si>
     <t>Actyon</t>
@@ -1658,7 +1658,7 @@
     <t>Stavic</t>
   </si>
   <si>
-    <t>Tivol</t>
+    <t>Tivoli</t>
   </si>
   <si>
     <t>Suzuki</t>
@@ -2468,16 +2468,13 @@
     <t>H530</t>
   </si>
   <si>
-    <t>KGM</t>
-  </si>
-  <si>
     <t>Korando</t>
   </si>
   <si>
     <t>Rexton</t>
   </si>
   <si>
-    <t>Tivoli</t>
+    <t>Alsvin v7</t>
   </si>
   <si>
     <t>Torres</t>
@@ -2511,6 +2508,216 @@
   </si>
   <si>
     <t>Land Cruiser 200</t>
+  </si>
+  <si>
+    <t>Tiggo FL</t>
+  </si>
+  <si>
+    <t>Very</t>
+  </si>
+  <si>
+    <t>M11 Sedan</t>
+  </si>
+  <si>
+    <t>M11 Hatchback</t>
+  </si>
+  <si>
+    <t>Indis</t>
+  </si>
+  <si>
+    <t>Bonus 3</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Arrizo 7</t>
+  </si>
+  <si>
+    <t>H30 Cross</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>Oley</t>
+  </si>
+  <si>
+    <t>Venucia D60 Plus</t>
+  </si>
+  <si>
+    <t>Emgrand ec7 Hatchback</t>
+  </si>
+  <si>
+    <t>Emgrand ec7 Sedan</t>
+  </si>
+  <si>
+    <t>Emgrand Cross</t>
+  </si>
+  <si>
+    <t>GC6</t>
+  </si>
+  <si>
+    <t>MK Cross</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>ix35</t>
+  </si>
+  <si>
+    <t>Grand Santa Fe</t>
+  </si>
+  <si>
+    <t>i40 универсал</t>
+  </si>
+  <si>
+    <t>i40</t>
+  </si>
+  <si>
+    <t>Solaris Hatchback</t>
+  </si>
+  <si>
+    <t>Equus</t>
+  </si>
+  <si>
+    <t>Santa Fe Premium</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Optima</t>
+  </si>
+  <si>
+    <t>Rio Hatchback</t>
+  </si>
+  <si>
+    <t>Venga</t>
+  </si>
+  <si>
+    <t>Ceed JD</t>
+  </si>
+  <si>
+    <t>Quoris</t>
+  </si>
+  <si>
+    <t>Ceed GT</t>
+  </si>
+  <si>
+    <t>Pro Ceed GT</t>
+  </si>
+  <si>
+    <t>Cebrium</t>
+  </si>
+  <si>
+    <t>Celliya</t>
+  </si>
+  <si>
+    <t>Smily</t>
+  </si>
+  <si>
+    <t>CX-5 2016</t>
+  </si>
+  <si>
+    <t>Lancer X</t>
+  </si>
+  <si>
+    <t>Sentra</t>
+  </si>
+  <si>
+    <t>Teana</t>
+  </si>
+  <si>
+    <t>Tiida</t>
+  </si>
+  <si>
+    <t>Patrol</t>
+  </si>
+  <si>
+    <t>Astra GTC</t>
+  </si>
+  <si>
+    <t>Astra Sedan</t>
+  </si>
+  <si>
+    <t>Astra Universal</t>
+  </si>
+  <si>
+    <t>Mokka</t>
+  </si>
+  <si>
+    <t>Astra Hatchback</t>
+  </si>
+  <si>
+    <t>Astra Family Hatchback</t>
+  </si>
+  <si>
+    <t>Astra Family Sedan</t>
+  </si>
+  <si>
+    <t>Astra Family Universal</t>
+  </si>
+  <si>
+    <t>Antara</t>
+  </si>
+  <si>
+    <t>Fluence</t>
+  </si>
+  <si>
+    <t>Megane</t>
+  </si>
+  <si>
+    <t>Dokker Stepway</t>
+  </si>
+  <si>
+    <t>Dokker Van</t>
+  </si>
+  <si>
+    <t>Octavia RS</t>
+  </si>
+  <si>
+    <t>Yeti</t>
+  </si>
+  <si>
+    <t>Octavia Scout</t>
+  </si>
+  <si>
+    <t>Grand Vitara 5d</t>
+  </si>
+  <si>
+    <t>Grand Vitara 3d</t>
+  </si>
+  <si>
+    <t>Vitara S</t>
+  </si>
+  <si>
+    <t>Auris</t>
+  </si>
+  <si>
+    <t>Venza</t>
+  </si>
+  <si>
+    <t>Verso</t>
+  </si>
+  <si>
+    <t>Prius</t>
+  </si>
+  <si>
+    <t>Passa CC</t>
+  </si>
+  <si>
+    <t>Passat Variant</t>
+  </si>
+  <si>
+    <t>Kalina Hatchback</t>
+  </si>
+  <si>
+    <t>Kalina Cross</t>
+  </si>
+  <si>
+    <t>IX5</t>
   </si>
 </sst>
 </file>
@@ -3474,10 +3681,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C790"/>
+  <dimension ref="A1:C865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A772" workbookViewId="0">
-      <selection activeCell="C790" sqref="C790"/>
+    <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
+      <selection activeCell="G864" sqref="G864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -12034,10 +12241,10 @@
         <v>877</v>
       </c>
       <c r="B778" t="s">
+        <v>538</v>
+      </c>
+      <c r="C778" t="s">
         <v>812</v>
-      </c>
-      <c r="C778" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -12045,10 +12252,10 @@
         <v>878</v>
       </c>
       <c r="B779" t="s">
-        <v>812</v>
+        <v>538</v>
       </c>
       <c r="C779" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -12056,10 +12263,10 @@
         <v>879</v>
       </c>
       <c r="B780" t="s">
-        <v>812</v>
+        <v>20</v>
       </c>
       <c r="C780" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -12067,10 +12274,10 @@
         <v>880</v>
       </c>
       <c r="B781" t="s">
-        <v>812</v>
+        <v>538</v>
       </c>
       <c r="C781" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -12081,7 +12288,7 @@
         <v>168</v>
       </c>
       <c r="C782" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -12092,7 +12299,7 @@
         <v>581</v>
       </c>
       <c r="C783" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -12103,7 +12310,7 @@
         <v>233</v>
       </c>
       <c r="C784" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -12114,7 +12321,7 @@
         <v>233</v>
       </c>
       <c r="C785" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -12125,7 +12332,7 @@
         <v>287</v>
       </c>
       <c r="C786" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -12136,7 +12343,7 @@
         <v>505</v>
       </c>
       <c r="C787" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -12144,10 +12351,10 @@
         <v>887</v>
       </c>
       <c r="B788" t="s">
+        <v>822</v>
+      </c>
+      <c r="C788" t="s">
         <v>823</v>
-      </c>
-      <c r="C788" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -12158,7 +12365,7 @@
         <v>557</v>
       </c>
       <c r="C789" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -12169,11 +12376,836 @@
         <v>557</v>
       </c>
       <c r="C790" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3">
+      <c r="A791">
+        <v>890</v>
+      </c>
+      <c r="B791" t="s">
+        <v>49</v>
+      </c>
+      <c r="C791" t="s">
         <v>826</v>
       </c>
     </row>
+    <row r="792" spans="1:3">
+      <c r="A792">
+        <v>891</v>
+      </c>
+      <c r="B792" t="s">
+        <v>49</v>
+      </c>
+      <c r="C792" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3">
+      <c r="A793">
+        <v>892</v>
+      </c>
+      <c r="B793" t="s">
+        <v>49</v>
+      </c>
+      <c r="C793" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3">
+      <c r="A794">
+        <v>893</v>
+      </c>
+      <c r="B794" t="s">
+        <v>49</v>
+      </c>
+      <c r="C794" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3">
+      <c r="A795">
+        <v>894</v>
+      </c>
+      <c r="B795" t="s">
+        <v>49</v>
+      </c>
+      <c r="C795" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3">
+      <c r="A796">
+        <v>895</v>
+      </c>
+      <c r="B796" t="s">
+        <v>49</v>
+      </c>
+      <c r="C796" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3">
+      <c r="A797">
+        <v>896</v>
+      </c>
+      <c r="B797" t="s">
+        <v>49</v>
+      </c>
+      <c r="C797" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3">
+      <c r="A798">
+        <v>897</v>
+      </c>
+      <c r="B798" t="s">
+        <v>49</v>
+      </c>
+      <c r="C798" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3">
+      <c r="A799">
+        <v>898</v>
+      </c>
+      <c r="B799" t="s">
+        <v>97</v>
+      </c>
+      <c r="C799" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3">
+      <c r="A800">
+        <v>899</v>
+      </c>
+      <c r="B800" t="s">
+        <v>97</v>
+      </c>
+      <c r="C800" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3">
+      <c r="A801">
+        <v>900</v>
+      </c>
+      <c r="B801" t="s">
+        <v>97</v>
+      </c>
+      <c r="C801">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3">
+      <c r="A802">
+        <v>901</v>
+      </c>
+      <c r="B802" t="s">
+        <v>126</v>
+      </c>
+      <c r="C802" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3">
+      <c r="A803">
+        <v>902</v>
+      </c>
+      <c r="B803" t="s">
+        <v>139</v>
+      </c>
+      <c r="C803" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3">
+      <c r="A804">
+        <v>903</v>
+      </c>
+      <c r="B804" t="s">
+        <v>139</v>
+      </c>
+      <c r="C804" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3">
+      <c r="A805">
+        <v>904</v>
+      </c>
+      <c r="B805" t="s">
+        <v>168</v>
+      </c>
+      <c r="C805" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3">
+      <c r="A806">
+        <v>905</v>
+      </c>
+      <c r="B806" t="s">
+        <v>168</v>
+      </c>
+      <c r="C806" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3">
+      <c r="A807">
+        <v>906</v>
+      </c>
+      <c r="B807" t="s">
+        <v>168</v>
+      </c>
+      <c r="C807" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3">
+      <c r="A808">
+        <v>907</v>
+      </c>
+      <c r="B808" t="s">
+        <v>168</v>
+      </c>
+      <c r="C808" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3">
+      <c r="A809">
+        <v>908</v>
+      </c>
+      <c r="B809" t="s">
+        <v>168</v>
+      </c>
+      <c r="C809" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3">
+      <c r="A810">
+        <v>909</v>
+      </c>
+      <c r="B810" t="s">
+        <v>207</v>
+      </c>
+      <c r="C810" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3">
+      <c r="A811">
+        <v>910</v>
+      </c>
+      <c r="B811" t="s">
+        <v>233</v>
+      </c>
+      <c r="C811" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3">
+      <c r="A812">
+        <v>911</v>
+      </c>
+      <c r="B812" t="s">
+        <v>233</v>
+      </c>
+      <c r="C812" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3">
+      <c r="A813">
+        <v>912</v>
+      </c>
+      <c r="B813" t="s">
+        <v>233</v>
+      </c>
+      <c r="C813" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3">
+      <c r="A814">
+        <v>913</v>
+      </c>
+      <c r="B814" t="s">
+        <v>233</v>
+      </c>
+      <c r="C814" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3">
+      <c r="A815">
+        <v>914</v>
+      </c>
+      <c r="B815" t="s">
+        <v>233</v>
+      </c>
+      <c r="C815" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3">
+      <c r="A816">
+        <v>915</v>
+      </c>
+      <c r="B816" t="s">
+        <v>233</v>
+      </c>
+      <c r="C816" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3">
+      <c r="A817">
+        <v>916</v>
+      </c>
+      <c r="B817" t="s">
+        <v>233</v>
+      </c>
+      <c r="C817" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3">
+      <c r="A818">
+        <v>917</v>
+      </c>
+      <c r="B818" t="s">
+        <v>233</v>
+      </c>
+      <c r="C818" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3">
+      <c r="A819">
+        <v>918</v>
+      </c>
+      <c r="B819" t="s">
+        <v>258</v>
+      </c>
+      <c r="C819" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3">
+      <c r="A820">
+        <v>919</v>
+      </c>
+      <c r="B820" t="s">
+        <v>287</v>
+      </c>
+      <c r="C820" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3">
+      <c r="A821">
+        <v>920</v>
+      </c>
+      <c r="B821" t="s">
+        <v>287</v>
+      </c>
+      <c r="C821" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3">
+      <c r="A822">
+        <v>921</v>
+      </c>
+      <c r="B822" t="s">
+        <v>287</v>
+      </c>
+      <c r="C822" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3">
+      <c r="A823">
+        <v>922</v>
+      </c>
+      <c r="B823" t="s">
+        <v>287</v>
+      </c>
+      <c r="C823" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3">
+      <c r="A824">
+        <v>923</v>
+      </c>
+      <c r="B824" t="s">
+        <v>287</v>
+      </c>
+      <c r="C824" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3">
+      <c r="A825">
+        <v>924</v>
+      </c>
+      <c r="B825" t="s">
+        <v>287</v>
+      </c>
+      <c r="C825" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3">
+      <c r="A826">
+        <v>925</v>
+      </c>
+      <c r="B826" t="s">
+        <v>287</v>
+      </c>
+      <c r="C826" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3">
+      <c r="A827">
+        <v>926</v>
+      </c>
+      <c r="B827" t="s">
+        <v>381</v>
+      </c>
+      <c r="C827" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3">
+      <c r="A828">
+        <v>927</v>
+      </c>
+      <c r="B828" t="s">
+        <v>381</v>
+      </c>
+      <c r="C828" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3">
+      <c r="A829">
+        <v>928</v>
+      </c>
+      <c r="B829" t="s">
+        <v>381</v>
+      </c>
+      <c r="C829" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3">
+      <c r="A830">
+        <v>929</v>
+      </c>
+      <c r="B830" t="s">
+        <v>381</v>
+      </c>
+      <c r="C830" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3">
+      <c r="A831">
+        <v>930</v>
+      </c>
+      <c r="B831" t="s">
+        <v>402</v>
+      </c>
+      <c r="C831">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3">
+      <c r="A832">
+        <v>931</v>
+      </c>
+      <c r="B832" t="s">
+        <v>402</v>
+      </c>
+      <c r="C832" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3">
+      <c r="A833">
+        <v>932</v>
+      </c>
+      <c r="B833" t="s">
+        <v>424</v>
+      </c>
+      <c r="C833" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3">
+      <c r="A834">
+        <v>933</v>
+      </c>
+      <c r="B834" t="s">
+        <v>440</v>
+      </c>
+      <c r="C834" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3">
+      <c r="A835">
+        <v>934</v>
+      </c>
+      <c r="B835" t="s">
+        <v>440</v>
+      </c>
+      <c r="C835" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3">
+      <c r="A836">
+        <v>935</v>
+      </c>
+      <c r="B836" t="s">
+        <v>440</v>
+      </c>
+      <c r="C836" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3">
+      <c r="A837">
+        <v>936</v>
+      </c>
+      <c r="B837" t="s">
+        <v>440</v>
+      </c>
+      <c r="C837" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3">
+      <c r="A838">
+        <v>937</v>
+      </c>
+      <c r="B838" t="s">
+        <v>457</v>
+      </c>
+      <c r="C838" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3">
+      <c r="A839">
+        <v>938</v>
+      </c>
+      <c r="B839" t="s">
+        <v>457</v>
+      </c>
+      <c r="C839" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3">
+      <c r="A840">
+        <v>939</v>
+      </c>
+      <c r="B840" t="s">
+        <v>457</v>
+      </c>
+      <c r="C840" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3">
+      <c r="A841">
+        <v>940</v>
+      </c>
+      <c r="B841" t="s">
+        <v>457</v>
+      </c>
+      <c r="C841" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3">
+      <c r="A842">
+        <v>941</v>
+      </c>
+      <c r="B842" t="s">
+        <v>457</v>
+      </c>
+      <c r="C842" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3">
+      <c r="A843">
+        <v>942</v>
+      </c>
+      <c r="B843" t="s">
+        <v>457</v>
+      </c>
+      <c r="C843" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3">
+      <c r="A844">
+        <v>943</v>
+      </c>
+      <c r="B844" t="s">
+        <v>457</v>
+      </c>
+      <c r="C844" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3">
+      <c r="A845">
+        <v>944</v>
+      </c>
+      <c r="B845" t="s">
+        <v>457</v>
+      </c>
+      <c r="C845" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3">
+      <c r="A846">
+        <v>945</v>
+      </c>
+      <c r="B846" t="s">
+        <v>457</v>
+      </c>
+      <c r="C846" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3">
+      <c r="A847">
+        <v>946</v>
+      </c>
+      <c r="B847" t="s">
+        <v>483</v>
+      </c>
+      <c r="C847" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3">
+      <c r="A848">
+        <v>947</v>
+      </c>
+      <c r="B848" t="s">
+        <v>483</v>
+      </c>
+      <c r="C848" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3">
+      <c r="A849">
+        <v>948</v>
+      </c>
+      <c r="B849" t="s">
+        <v>483</v>
+      </c>
+      <c r="C849" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3">
+      <c r="A850">
+        <v>949</v>
+      </c>
+      <c r="B850" t="s">
+        <v>483</v>
+      </c>
+      <c r="C850" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3">
+      <c r="A851">
+        <v>950</v>
+      </c>
+      <c r="B851" t="s">
+        <v>507</v>
+      </c>
+      <c r="C851" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3">
+      <c r="A852">
+        <v>951</v>
+      </c>
+      <c r="B852" t="s">
+        <v>507</v>
+      </c>
+      <c r="C852" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3">
+      <c r="A853">
+        <v>952</v>
+      </c>
+      <c r="B853" t="s">
+        <v>507</v>
+      </c>
+      <c r="C853" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3">
+      <c r="A854">
+        <v>953</v>
+      </c>
+      <c r="B854" t="s">
+        <v>543</v>
+      </c>
+      <c r="C854" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3">
+      <c r="A855">
+        <v>954</v>
+      </c>
+      <c r="B855" t="s">
+        <v>543</v>
+      </c>
+      <c r="C855" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3">
+      <c r="A856">
+        <v>955</v>
+      </c>
+      <c r="B856" t="s">
+        <v>543</v>
+      </c>
+      <c r="C856" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3">
+      <c r="A857">
+        <v>956</v>
+      </c>
+      <c r="B857" t="s">
+        <v>557</v>
+      </c>
+      <c r="C857" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3">
+      <c r="A858">
+        <v>957</v>
+      </c>
+      <c r="B858" t="s">
+        <v>557</v>
+      </c>
+      <c r="C858" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3">
+      <c r="A859">
+        <v>958</v>
+      </c>
+      <c r="B859" t="s">
+        <v>557</v>
+      </c>
+      <c r="C859" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3">
+      <c r="A860">
+        <v>959</v>
+      </c>
+      <c r="B860" t="s">
+        <v>557</v>
+      </c>
+      <c r="C860" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3">
+      <c r="A861">
+        <v>960</v>
+      </c>
+      <c r="B861" t="s">
+        <v>581</v>
+      </c>
+      <c r="C861" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3">
+      <c r="A862">
+        <v>961</v>
+      </c>
+      <c r="B862" t="s">
+        <v>581</v>
+      </c>
+      <c r="C862" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3">
+      <c r="A863">
+        <v>962</v>
+      </c>
+      <c r="B863" t="s">
+        <v>327</v>
+      </c>
+      <c r="C863" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3">
+      <c r="A864">
+        <v>963</v>
+      </c>
+      <c r="B864" t="s">
+        <v>327</v>
+      </c>
+      <c r="C864" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3">
+      <c r="A865">
+        <v>964</v>
+      </c>
+      <c r="B865" t="s">
+        <v>97</v>
+      </c>
+      <c r="C865" t="s">
+        <v>895</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C787" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C864" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="8615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$864</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$871</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="903">
   <si>
     <t>Aito</t>
   </si>
@@ -2718,6 +2718,27 @@
   </si>
   <si>
     <t>IX5</t>
+  </si>
+  <si>
+    <t>CS95 Plus</t>
+  </si>
+  <si>
+    <t>EV6</t>
+  </si>
+  <si>
+    <t>K8</t>
+  </si>
+  <si>
+    <t>Accent</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>Maple</t>
+  </si>
+  <si>
+    <t>XLV</t>
   </si>
 </sst>
 </file>
@@ -3681,10 +3702,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C865"/>
+  <dimension ref="A1:C872"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
-      <selection activeCell="G864" sqref="G864"/>
+      <selection activeCell="C872" sqref="C872"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -13204,8 +13225,85 @@
         <v>895</v>
       </c>
     </row>
+    <row r="866" spans="1:3">
+      <c r="A866">
+        <v>965</v>
+      </c>
+      <c r="B866" t="s">
+        <v>20</v>
+      </c>
+      <c r="C866" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3">
+      <c r="A867">
+        <v>966</v>
+      </c>
+      <c r="B867" t="s">
+        <v>287</v>
+      </c>
+      <c r="C867" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3">
+      <c r="A868">
+        <v>967</v>
+      </c>
+      <c r="B868" t="s">
+        <v>287</v>
+      </c>
+      <c r="C868" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3">
+      <c r="A869">
+        <v>968</v>
+      </c>
+      <c r="B869" t="s">
+        <v>233</v>
+      </c>
+      <c r="C869" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3">
+      <c r="A870">
+        <v>969</v>
+      </c>
+      <c r="B870" t="s">
+        <v>3</v>
+      </c>
+      <c r="C870" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3">
+      <c r="A871">
+        <v>970</v>
+      </c>
+      <c r="B871" t="s">
+        <v>901</v>
+      </c>
+      <c r="C871" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3">
+      <c r="A872">
+        <v>971</v>
+      </c>
+      <c r="B872" t="s">
+        <v>538</v>
+      </c>
+      <c r="C872" t="s">
+        <v>902</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C864" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C871" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8615"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$871</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$872</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3704,8 +3704,8 @@
   <sheetPr/>
   <dimension ref="A1:C872"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
-      <selection activeCell="C872" sqref="C872"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="C308" sqref="C308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -13303,7 +13303,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C871" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C872" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="905">
   <si>
     <t>Aito</t>
   </si>
@@ -2739,6 +2739,12 @@
   </si>
   <si>
     <t>XLV</t>
+  </si>
+  <si>
+    <t>Besturn B70 New</t>
+  </si>
+  <si>
+    <t>Besturn T90</t>
   </si>
 </sst>
 </file>
@@ -3702,10 +3708,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C872"/>
+  <dimension ref="A1:C874"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="C308" sqref="C308"/>
+    <sheetView tabSelected="1" topLeftCell="A854" workbookViewId="0">
+      <selection activeCell="C875" sqref="C875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -13300,6 +13306,28 @@
       </c>
       <c r="C872" t="s">
         <v>902</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3">
+      <c r="A873">
+        <v>972</v>
+      </c>
+      <c r="B873" t="s">
+        <v>126</v>
+      </c>
+      <c r="C873" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3">
+      <c r="A874">
+        <v>973</v>
+      </c>
+      <c r="B874" t="s">
+        <v>126</v>
+      </c>
+      <c r="C874" t="s">
+        <v>904</v>
       </c>
     </row>
   </sheetData>

--- a/id.xlsx
+++ b/id.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$875</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$876</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="1041">
   <si>
     <t>Aito</t>
   </si>
@@ -2753,6 +2753,12 @@
   </si>
   <si>
     <t>Tiggo 4 Pro 18 YEARS EDITION</t>
+  </si>
+  <si>
+    <t>Venucia V-Online</t>
+  </si>
+  <si>
+    <t>TXL 2</t>
   </si>
   <si>
     <t>Марка</t>
@@ -4139,10 +4145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F875"/>
+  <dimension ref="A1:F877"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A860" workbookViewId="0">
+      <selection activeCell="G881" sqref="G881"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -6693,7 +6699,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:3">
       <c r="A191">
         <v>290</v>
       </c>
@@ -6702,12 +6708,6 @@
       </c>
       <c r="C191" t="s">
         <v>213</v>
-      </c>
-      <c r="D191">
-        <v>33</v>
-      </c>
-      <c r="E191">
-        <v>2599000</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -6918,7 +6918,7 @@
         <v>2599000</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>305</v>
       </c>
@@ -6927,6 +6927,12 @@
       </c>
       <c r="C206" t="s">
         <v>225</v>
+      </c>
+      <c r="D206">
+        <v>33</v>
+      </c>
+      <c r="E206">
+        <v>2599000</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -15212,8 +15218,30 @@
         <v>1970000</v>
       </c>
     </row>
+    <row r="876" spans="1:3">
+      <c r="A876">
+        <v>975</v>
+      </c>
+      <c r="B876" t="s">
+        <v>140</v>
+      </c>
+      <c r="C876" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3">
+      <c r="A877">
+        <v>976</v>
+      </c>
+      <c r="B877" t="s">
+        <v>114</v>
+      </c>
+      <c r="C877" t="s">
+        <v>908</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E875" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E876" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15227,40 +15255,40 @@
   <dimension ref="A1:E249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+      <selection activeCell="E203" sqref="E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="27.15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="2" ht="39.6" hidden="1" spans="1:5">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="2" ht="40.35" hidden="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E2" s="2">
         <v>1239900</v>
@@ -15274,10 +15302,10 @@
         <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E3" s="2">
         <v>1759000</v>
@@ -15291,10 +15319,10 @@
         <v>370</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E4" s="2">
         <v>1655000</v>
@@ -15308,10 +15336,10 @@
         <v>372</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E5" s="2">
         <v>1879000</v>
@@ -15322,13 +15350,13 @@
         <v>328</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E6" s="2">
         <v>1077000</v>
@@ -15342,10 +15370,10 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E7" s="2">
         <v>1408000</v>
@@ -15356,13 +15384,13 @@
         <v>328</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E8" s="2">
         <v>749900</v>
@@ -15376,10 +15404,10 @@
         <v>330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E9" s="2">
         <v>1175000</v>
@@ -15393,10 +15421,10 @@
         <v>242</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="E10" s="2">
         <v>2149000</v>
@@ -15410,10 +15438,10 @@
         <v>346</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E11" s="2">
         <v>1660000</v>
@@ -15427,10 +15455,10 @@
         <v>347</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E12" s="2">
         <v>2020000</v>
@@ -15444,10 +15472,10 @@
         <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E13" s="2">
         <v>1859000</v>
@@ -15461,10 +15489,10 @@
         <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E14" s="2">
         <v>1334900</v>
@@ -15475,13 +15503,13 @@
         <v>169</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E15" s="2">
         <v>3512990</v>
@@ -15498,7 +15526,7 @@
         <v>402</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E16" s="2">
         <v>2836990</v>
@@ -15515,7 +15543,7 @@
         <v>402</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E17" s="2">
         <v>1850000</v>
@@ -15529,10 +15557,10 @@
         <v>256</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E18" s="2">
         <v>2749000</v>
@@ -15546,10 +15574,10 @@
         <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E19" s="2">
         <v>2179990</v>
@@ -15560,13 +15588,13 @@
         <v>169</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E20" s="2">
         <v>2794990</v>
@@ -15580,10 +15608,10 @@
         <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E21" s="2">
         <v>3959990</v>
@@ -15591,7 +15619,7 @@
     </row>
     <row r="22" ht="27.15" hidden="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -15600,7 +15628,7 @@
         <v>402</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E22" s="2">
         <v>4499000</v>
@@ -15608,7 +15636,7 @@
     </row>
     <row r="23" ht="27.15" hidden="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
@@ -15617,7 +15645,7 @@
         <v>402</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E23" s="2">
         <v>6799000</v>
@@ -15628,13 +15656,13 @@
         <v>328</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E24" s="2">
         <v>778500</v>
@@ -15645,13 +15673,13 @@
         <v>328</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E25" s="2">
         <v>719300</v>
@@ -15662,13 +15690,13 @@
         <v>328</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E26" s="2">
         <v>950900</v>
@@ -15682,10 +15710,10 @@
         <v>363</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E27" s="2">
         <v>1316900</v>
@@ -15696,13 +15724,13 @@
         <v>234</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="E28" s="2">
         <v>2769000</v>
@@ -15716,10 +15744,10 @@
         <v>290</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E29" s="2">
         <v>2244900</v>
@@ -15733,10 +15761,10 @@
         <v>305</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E30" s="2">
         <v>1574900</v>
@@ -15750,10 +15778,10 @@
         <v>303</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E31" s="2">
         <v>1434900</v>
@@ -15764,13 +15792,13 @@
         <v>328</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E32" s="2">
         <v>1059000</v>
@@ -15784,10 +15812,10 @@
         <v>249</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="E33" s="2">
         <v>3969000</v>
@@ -15804,30 +15832,30 @@
         <v>402</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E34" s="2">
         <v>1314000</v>
       </c>
     </row>
-    <row r="35" ht="40.35" hidden="1" spans="1:5">
+    <row r="35" ht="40.35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E35" s="2">
         <v>2149000</v>
       </c>
     </row>
-    <row r="36" ht="40.35" hidden="1" spans="1:5">
+    <row r="36" ht="40.35" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>208</v>
       </c>
@@ -15835,27 +15863,27 @@
         <v>224</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E36" s="2">
         <v>2599000</v>
       </c>
     </row>
-    <row r="37" ht="40.35" hidden="1" spans="1:5">
+    <row r="37" ht="40.35" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E37" s="2">
         <v>2599000</v>
@@ -15872,7 +15900,7 @@
         <v>402</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E38" s="2">
         <v>5269000</v>
@@ -15886,10 +15914,10 @@
         <v>292</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E39" s="2">
         <v>2314900</v>
@@ -15900,13 +15928,13 @@
         <v>328</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E40" s="2">
         <v>918900</v>
@@ -15920,10 +15948,10 @@
         <v>295</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E41" s="2">
         <v>2159900</v>
@@ -15940,7 +15968,7 @@
         <v>402</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E42" s="2">
         <v>1106900</v>
@@ -15957,7 +15985,7 @@
         <v>402</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E43" s="2">
         <v>1249900</v>
@@ -15974,7 +16002,7 @@
         <v>402</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E44" s="2">
         <v>2900000</v>
@@ -15985,13 +16013,13 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E45" s="2">
         <v>2439900</v>
@@ -16005,10 +16033,10 @@
         <v>298</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E46" s="2">
         <v>2734900</v>
@@ -16022,10 +16050,10 @@
         <v>317</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E47" s="2">
         <v>1934900</v>
@@ -16042,7 +16070,7 @@
         <v>402</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E48" s="2">
         <v>2064900</v>
@@ -16056,10 +16084,10 @@
         <v>318</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E49" s="2">
         <v>2849900</v>
@@ -16067,7 +16095,7 @@
     </row>
     <row r="50" ht="27.15" hidden="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>267</v>
@@ -16076,7 +16104,7 @@
         <v>402</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E50" s="2">
         <v>1779000</v>
@@ -16084,7 +16112,7 @@
     </row>
     <row r="51" ht="27.15" hidden="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>261</v>
@@ -16093,7 +16121,7 @@
         <v>402</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E51" s="2">
         <v>2150000</v>
@@ -16101,7 +16129,7 @@
     </row>
     <row r="52" ht="27.15" hidden="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>266</v>
@@ -16110,7 +16138,7 @@
         <v>402</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E52" s="2">
         <v>2129900</v>
@@ -16118,7 +16146,7 @@
     </row>
     <row r="53" ht="27.15" hidden="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>456</v>
@@ -16127,7 +16155,7 @@
         <v>402</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E53" s="2">
         <v>2369900</v>
@@ -16144,7 +16172,7 @@
         <v>402</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E54" s="2">
         <v>1690000</v>
@@ -16161,7 +16189,7 @@
         <v>402</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E55" s="2">
         <v>2869900</v>
@@ -16172,13 +16200,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E56" s="2">
         <v>2569900</v>
@@ -16189,13 +16217,13 @@
         <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E57" s="2">
         <v>2839900</v>
@@ -16209,10 +16237,10 @@
         <v>27</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E58" s="2">
         <v>3969900</v>
@@ -16226,10 +16254,10 @@
         <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E59" s="2">
         <v>3069900</v>
@@ -16243,10 +16271,10 @@
         <v>33</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E60" s="2">
         <v>3069900</v>
@@ -16257,13 +16285,13 @@
         <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E61" s="2">
         <v>2899900</v>
@@ -16271,16 +16299,16 @@
     </row>
     <row r="62" ht="40.35" hidden="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E62" s="2">
         <v>2374000</v>
@@ -16288,16 +16316,16 @@
     </row>
     <row r="63" ht="40.35" hidden="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E63" s="2">
         <v>2411000</v>
@@ -16305,16 +16333,16 @@
     </row>
     <row r="64" ht="40.35" hidden="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E64" s="2">
         <v>2024000</v>
@@ -16328,10 +16356,10 @@
         <v>494</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E65" s="2">
         <v>1124000</v>
@@ -16345,10 +16373,10 @@
         <v>519</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E66" s="2">
         <v>1051000</v>
@@ -16362,10 +16390,10 @@
         <v>516</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E67" s="2">
         <v>1657000</v>
@@ -16379,10 +16407,10 @@
         <v>509</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E68" s="2">
         <v>1705000</v>
@@ -16396,10 +16424,10 @@
         <v>57</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="E69" s="2">
         <v>1699900</v>
@@ -16413,10 +16441,10 @@
         <v>274</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E70" s="2">
         <v>2489900</v>
@@ -16424,16 +16452,16 @@
     </row>
     <row r="71" ht="40.35" hidden="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E71" s="2">
         <v>2959900</v>
@@ -16441,16 +16469,16 @@
     </row>
     <row r="72" ht="40.35" hidden="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E72" s="2">
         <v>1765000</v>
@@ -16464,10 +16492,10 @@
         <v>447</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="E73" s="2">
         <v>4409000</v>
@@ -16481,10 +16509,10 @@
         <v>452</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="E74" s="2">
         <v>1690000</v>
@@ -16498,10 +16526,10 @@
         <v>79</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E75" s="2">
         <v>950900</v>
@@ -16518,7 +16546,7 @@
         <v>402</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E76" s="2">
         <v>880900</v>
@@ -16532,16 +16560,16 @@
         <v>77</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E77" s="2">
         <v>953900</v>
       </c>
     </row>
-    <row r="78" ht="27.15" hidden="1" spans="1:5">
+    <row r="78" ht="27.15" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>208</v>
       </c>
@@ -16549,16 +16577,16 @@
         <v>227</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E78" s="2">
         <v>2179000</v>
       </c>
     </row>
-    <row r="79" ht="27.15" hidden="1" spans="1:5">
+    <row r="79" ht="27.15" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>208</v>
       </c>
@@ -16569,13 +16597,13 @@
         <v>402</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E79" s="2">
         <v>1579000</v>
       </c>
     </row>
-    <row r="80" ht="40.35" hidden="1" spans="1:5">
+    <row r="80" ht="40.35" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>208</v>
       </c>
@@ -16583,16 +16611,16 @@
         <v>220</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E80" s="2">
         <v>4299000</v>
       </c>
     </row>
-    <row r="81" ht="27.15" hidden="1" spans="1:5">
+    <row r="81" ht="27.15" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>208</v>
       </c>
@@ -16603,13 +16631,13 @@
         <v>402</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="E81" s="2">
         <v>2049000</v>
       </c>
     </row>
-    <row r="82" ht="27.15" hidden="1" spans="1:5">
+    <row r="82" ht="27.15" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>208</v>
       </c>
@@ -16620,7 +16648,7 @@
         <v>402</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E82" s="2">
         <v>3149000</v>
@@ -16634,10 +16662,10 @@
         <v>450</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E83" s="2">
         <v>2337000</v>
@@ -16648,13 +16676,13 @@
         <v>441</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E84" s="2">
         <v>2762000</v>
@@ -16668,10 +16696,10 @@
         <v>489</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E85" s="2">
         <v>1618000</v>
@@ -16685,10 +16713,10 @@
         <v>495</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E86" s="2">
         <v>1301000</v>
@@ -16702,10 +16730,10 @@
         <v>501</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E87" s="2">
         <v>1258000</v>
@@ -16719,10 +16747,10 @@
         <v>502</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E88" s="2">
         <v>1373000</v>
@@ -16736,10 +16764,10 @@
         <v>492</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E89" s="2">
         <v>1724000</v>
@@ -16756,7 +16784,7 @@
         <v>402</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E90" s="2">
         <v>1874000</v>
@@ -16770,10 +16798,10 @@
         <v>512</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E91" s="2">
         <v>2057000</v>
@@ -16787,10 +16815,10 @@
         <v>528</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E92" s="2">
         <v>2118900</v>
@@ -16804,10 +16832,10 @@
         <v>529</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E93" s="2">
         <v>3248000</v>
@@ -16821,10 +16849,10 @@
         <v>530</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E94" s="2">
         <v>5378000</v>
@@ -16838,10 +16866,10 @@
         <v>531</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E95" s="2">
         <v>5806000</v>
@@ -16855,10 +16883,10 @@
         <v>523</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E96" s="2">
         <v>2388000</v>
@@ -16872,10 +16900,10 @@
         <v>524</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E97" s="2">
         <v>2681000</v>
@@ -16889,10 +16917,10 @@
         <v>595</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E98" s="2">
         <v>1385900</v>
@@ -16906,10 +16934,10 @@
         <v>279</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E99" s="2">
         <v>1518000</v>
@@ -16923,10 +16951,10 @@
         <v>600</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E100" s="2">
         <v>3375900</v>
@@ -16943,7 +16971,7 @@
         <v>402</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E101" s="2">
         <v>2828900</v>
@@ -16957,10 +16985,10 @@
         <v>32</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E102" s="2">
         <v>4449900</v>
@@ -16977,7 +17005,7 @@
         <v>402</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E103" s="2">
         <v>1229000</v>
@@ -16991,10 +17019,10 @@
         <v>580</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E104" s="2">
         <v>2499000</v>
@@ -17002,16 +17030,16 @@
     </row>
     <row r="105" ht="40.35" hidden="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>577</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E105" s="2">
         <v>1680000</v>
@@ -17019,16 +17047,16 @@
     </row>
     <row r="106" ht="40.35" hidden="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>979</v>
-      </c>
       <c r="D106" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E106" s="2">
         <v>1705000</v>
@@ -17036,7 +17064,7 @@
     </row>
     <row r="107" ht="27.15" hidden="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>36</v>
@@ -17045,7 +17073,7 @@
         <v>402</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E107" s="2">
         <v>1510000</v>
@@ -17062,7 +17090,7 @@
         <v>402</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E108" s="2">
         <v>2570000</v>
@@ -17079,7 +17107,7 @@
         <v>402</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E109" s="2">
         <v>3430000</v>
@@ -17090,13 +17118,13 @@
         <v>50</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E110" s="2">
         <v>2770000</v>
@@ -17110,10 +17138,10 @@
         <v>906</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E111" s="2">
         <v>1970000</v>
@@ -17124,13 +17152,13 @@
         <v>50</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E112" s="2">
         <v>3250000</v>
@@ -17141,13 +17169,13 @@
         <v>50</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E113" s="2">
         <v>3370000</v>
@@ -17164,7 +17192,7 @@
         <v>402</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E114" s="2">
         <v>3759900</v>
@@ -17178,10 +17206,10 @@
         <v>117</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E115" s="2">
         <v>3380000</v>
@@ -17195,10 +17223,10 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E116" s="2">
         <v>3810000</v>
@@ -17215,7 +17243,7 @@
         <v>402</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E117" s="2">
         <v>4910000</v>
@@ -17232,7 +17260,7 @@
         <v>402</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E118" s="2">
         <v>4550000</v>
@@ -17249,7 +17277,7 @@
         <v>402</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E119" s="2">
         <v>2080000</v>
@@ -17266,7 +17294,7 @@
         <v>402</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E120" s="2">
         <v>2225000</v>
@@ -17283,7 +17311,7 @@
         <v>402</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E121" s="2">
         <v>2970000</v>
@@ -17297,10 +17325,10 @@
         <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E122" s="2">
         <v>4350000</v>
@@ -17314,10 +17342,10 @@
         <v>277</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E123" s="2">
         <v>2999900</v>
@@ -17334,7 +17362,7 @@
         <v>402</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E124" s="2">
         <v>3479900</v>
@@ -17348,10 +17376,10 @@
         <v>281</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>914</v>
       </c>
       <c r="E125" s="2">
         <v>1990000</v>
@@ -17365,10 +17393,10 @@
         <v>282</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>914</v>
       </c>
       <c r="E126" s="2">
         <v>2149000</v>
@@ -17385,7 +17413,7 @@
         <v>402</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E127" s="2">
         <v>2115000</v>
@@ -17402,7 +17430,7 @@
         <v>402</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E128" s="2">
         <v>2238000</v>
@@ -17419,7 +17447,7 @@
         <v>402</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E129" s="2">
         <v>2514900</v>
@@ -17436,7 +17464,7 @@
         <v>402</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E130" s="2">
         <v>2997900</v>
@@ -17444,16 +17472,16 @@
     </row>
     <row r="131" ht="27.15" hidden="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E131" s="2">
         <v>2549900</v>
@@ -17461,16 +17489,16 @@
     </row>
     <row r="132" ht="27.15" hidden="1" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E132" s="2">
         <v>2629900</v>
@@ -17478,16 +17506,16 @@
     </row>
     <row r="133" ht="27.15" hidden="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E133" s="2">
         <v>4100000</v>
@@ -17504,7 +17532,7 @@
         <v>402</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E134" s="2">
         <v>2219900</v>
@@ -17515,13 +17543,13 @@
         <v>20</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E135" s="2">
         <v>2499900</v>
@@ -17529,7 +17557,7 @@
     </row>
     <row r="136" ht="27.15" hidden="1" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>138</v>
@@ -17538,7 +17566,7 @@
         <v>402</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E136" s="2">
         <v>1602000</v>
@@ -17546,16 +17574,16 @@
     </row>
     <row r="137" ht="40.35" hidden="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E137" s="2">
         <v>1508000</v>
@@ -17572,7 +17600,7 @@
         <v>402</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E138" s="2">
         <v>4549990</v>
@@ -17589,7 +17617,7 @@
         <v>402</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E139" s="2">
         <v>2479990</v>
@@ -17606,7 +17634,7 @@
         <v>402</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E140" s="2">
         <v>2075990</v>
@@ -17623,7 +17651,7 @@
         <v>402</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E141" s="2">
         <v>2080990</v>
@@ -17637,10 +17665,10 @@
         <v>369</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E142" s="2">
         <v>2273000</v>
@@ -17654,10 +17682,10 @@
         <v>651</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E143" s="2">
         <v>2443000</v>
@@ -17671,10 +17699,10 @@
         <v>670</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E144" s="2">
         <v>1341000</v>
@@ -17685,13 +17713,13 @@
         <v>328</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E145" s="2">
         <v>1381000</v>
@@ -17702,13 +17730,13 @@
         <v>328</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E146" s="2">
         <v>1493000</v>
@@ -17719,13 +17747,13 @@
         <v>328</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E147" s="2">
         <v>1533000</v>
@@ -17739,10 +17767,10 @@
         <v>348</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E148" s="2">
         <v>1670000</v>
@@ -17759,7 +17787,7 @@
         <v>402</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E149" s="2">
         <v>1487000</v>
@@ -17770,13 +17798,13 @@
         <v>50</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E150" s="2">
         <v>4850000</v>
@@ -17787,13 +17815,13 @@
         <v>50</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E151" s="2">
         <v>4000000</v>
@@ -17804,13 +17832,13 @@
         <v>50</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E152" s="2">
         <v>4930000</v>
@@ -17824,10 +17852,10 @@
         <v>187</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E153" s="2">
         <v>3692990</v>
@@ -17841,10 +17869,10 @@
         <v>734</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E154" s="2">
         <v>3979000</v>
@@ -17861,13 +17889,13 @@
         <v>402</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E155" s="2">
         <v>4099000</v>
       </c>
     </row>
-    <row r="156" ht="27.15" hidden="1" spans="1:5">
+    <row r="156" ht="27.15" spans="1:5">
       <c r="A156" s="1" t="s">
         <v>208</v>
       </c>
@@ -17878,13 +17906,13 @@
         <v>402</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E156" s="2">
         <v>3449000</v>
       </c>
     </row>
-    <row r="157" ht="27.15" hidden="1" spans="1:5">
+    <row r="157" ht="27.15" spans="1:5">
       <c r="A157" s="1" t="s">
         <v>208</v>
       </c>
@@ -17895,41 +17923,41 @@
         <v>402</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E157" s="2">
         <v>2799000</v>
       </c>
     </row>
-    <row r="158" ht="27.15" spans="1:5">
+    <row r="158" ht="27.15" hidden="1" spans="1:5">
       <c r="A158" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E158" s="2">
         <v>3549000</v>
       </c>
     </row>
-    <row r="159" ht="27.15" spans="1:5">
+    <row r="159" ht="27.15" hidden="1" spans="1:5">
       <c r="A159" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E159" s="2">
         <v>3299000</v>
@@ -17943,10 +17971,10 @@
         <v>315</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E160" s="2">
         <v>7374900</v>
@@ -17960,10 +17988,10 @@
         <v>324</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E161" s="2">
         <v>3789900</v>
@@ -17977,10 +18005,10 @@
         <v>326</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E162" s="2">
         <v>5829900</v>
@@ -17994,10 +18022,10 @@
         <v>289</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E163" s="2">
         <v>4144900</v>
@@ -18005,16 +18033,16 @@
     </row>
     <row r="164" ht="27.15" hidden="1" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E164" s="2">
         <v>1672000</v>
@@ -18031,7 +18059,7 @@
         <v>402</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E165" s="2">
         <v>2040546</v>
@@ -18048,7 +18076,7 @@
         <v>402</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E166" s="2">
         <v>3100000</v>
@@ -18065,7 +18093,7 @@
         <v>402</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E167" s="2">
         <v>2990000</v>
@@ -18079,10 +18107,10 @@
         <v>602</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="E168" s="2">
         <v>8669500</v>
@@ -18096,10 +18124,10 @@
         <v>654</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E169" s="2">
         <v>4291000</v>
@@ -18113,10 +18141,10 @@
         <v>598</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E170" s="2">
         <v>6146500</v>
@@ -18124,7 +18152,7 @@
     </row>
     <row r="171" ht="27.15" hidden="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>262</v>
@@ -18133,7 +18161,7 @@
         <v>402</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E171" s="2">
         <v>1889000</v>
@@ -18141,7 +18169,7 @@
     </row>
     <row r="172" ht="27.15" hidden="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>264</v>
@@ -18150,7 +18178,7 @@
         <v>402</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E172" s="2">
         <v>2399000</v>
@@ -18158,7 +18186,7 @@
     </row>
     <row r="173" ht="27.15" hidden="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>631</v>
@@ -18167,7 +18195,7 @@
         <v>402</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E173" s="2">
         <v>3059000</v>
@@ -18175,16 +18203,16 @@
     </row>
     <row r="174" ht="27.15" hidden="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E174" s="2">
         <v>3279000</v>
@@ -18192,7 +18220,7 @@
     </row>
     <row r="175" ht="27.15" hidden="1" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>632</v>
@@ -18201,7 +18229,7 @@
         <v>402</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E175" s="2">
         <v>3599000</v>
@@ -18209,7 +18237,7 @@
     </row>
     <row r="176" ht="27.15" hidden="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>168</v>
@@ -18218,7 +18246,7 @@
         <v>402</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E176" s="2">
         <v>5499999</v>
@@ -18226,16 +18254,16 @@
     </row>
     <row r="177" ht="27.15" hidden="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E177" s="2">
         <v>4099000</v>
@@ -18243,7 +18271,7 @@
     </row>
     <row r="178" ht="27.15" hidden="1" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>162</v>
@@ -18252,7 +18280,7 @@
         <v>402</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E178" s="2">
         <v>2449000</v>
@@ -18263,13 +18291,13 @@
         <v>20</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E179" s="2">
         <v>4529900</v>
@@ -18286,7 +18314,7 @@
         <v>402</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E180" s="2">
         <v>3739900</v>
@@ -18297,13 +18325,13 @@
         <v>20</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E181" s="2">
         <v>5219900</v>
@@ -18314,13 +18342,13 @@
         <v>50</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E182" s="2">
         <v>2780000</v>
@@ -18337,7 +18365,7 @@
         <v>402</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E183" s="2">
         <v>2020000</v>
@@ -18354,7 +18382,7 @@
         <v>402</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E184" s="2">
         <v>2650000</v>
@@ -18371,7 +18399,7 @@
         <v>402</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E185" s="2">
         <v>2080000</v>
@@ -18388,7 +18416,7 @@
         <v>402</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E186" s="2">
         <v>2181000</v>
@@ -18402,10 +18430,10 @@
         <v>5</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E187" s="2">
         <v>2279000</v>
@@ -18419,10 +18447,10 @@
         <v>6</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E188" s="2">
         <v>2899000</v>
@@ -18436,10 +18464,10 @@
         <v>424</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E189" s="2">
         <v>2379000</v>
@@ -18447,16 +18475,16 @@
     </row>
     <row r="190" ht="27.15" hidden="1" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E190" s="2">
         <v>2499000</v>
@@ -18464,7 +18492,7 @@
     </row>
     <row r="191" ht="27.15" hidden="1" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>457</v>
@@ -18473,7 +18501,7 @@
         <v>402</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E191" s="2">
         <v>2479900</v>
@@ -18490,7 +18518,7 @@
         <v>402</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E192" s="2">
         <v>3959000</v>
@@ -18501,13 +18529,13 @@
         <v>114</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E193" s="2">
         <v>2890000</v>
@@ -18518,13 +18546,13 @@
         <v>114</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E194" s="2">
         <v>4080000</v>
@@ -18535,13 +18563,13 @@
         <v>114</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E195" s="2">
         <v>6290000</v>
@@ -18549,7 +18577,7 @@
     </row>
     <row r="196" ht="27.15" hidden="1" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B196" s="2">
         <v>6</v>
@@ -18558,7 +18586,7 @@
         <v>402</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E196" s="2">
         <v>2200000</v>
@@ -18566,7 +18594,7 @@
     </row>
     <row r="197" ht="27.15" hidden="1" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>272</v>
@@ -18575,7 +18603,7 @@
         <v>402</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E197" s="2">
         <v>4599000</v>
@@ -18592,24 +18620,24 @@
         <v>402</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E198" s="2">
         <v>2199000</v>
       </c>
     </row>
-    <row r="199" ht="27.15" hidden="1" spans="1:5">
+    <row r="199" ht="27.15" spans="1:5">
       <c r="A199" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E199" s="2">
         <v>4599000</v>
@@ -18620,13 +18648,13 @@
         <v>98</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E200" s="2">
         <v>1990000</v>
@@ -18637,13 +18665,13 @@
         <v>98</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E201" s="2">
         <v>3590000</v>
@@ -18660,24 +18688,24 @@
         <v>402</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E202" s="2">
         <v>2650000</v>
       </c>
     </row>
-    <row r="203" ht="27.15" hidden="1" spans="1:5">
+    <row r="203" ht="27.15" spans="1:5">
       <c r="A203" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E203" s="2">
         <v>2849000</v>
@@ -18685,7 +18713,7 @@
     </row>
     <row r="204" ht="27.15" hidden="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>164</v>
@@ -18694,7 +18722,7 @@
         <v>402</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E204" s="2">
         <v>2099000</v>
@@ -18711,7 +18739,7 @@
         <v>402</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="E205" s="2">
         <v>1263000</v>
@@ -18728,7 +18756,7 @@
         <v>402</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E206" s="2">
         <v>1546500</v>
@@ -18745,7 +18773,7 @@
         <v>402</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E207" s="2">
         <v>883000</v>
@@ -18762,7 +18790,7 @@
         <v>402</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="E208" s="2">
         <v>825000</v>
@@ -18779,7 +18807,7 @@
         <v>402</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E209" s="2">
         <v>851000</v>
@@ -18790,30 +18818,30 @@
         <v>169</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E210" s="2">
         <v>3357990</v>
       </c>
     </row>
-    <row r="211" ht="27.15" hidden="1" spans="1:5">
+    <row r="211" ht="27.15" spans="1:5">
       <c r="A211" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E211" s="2">
         <v>3899000</v>
@@ -18830,7 +18858,7 @@
         <v>402</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E212" s="2">
         <v>1990000</v>
@@ -18847,7 +18875,7 @@
         <v>402</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E213" s="2">
         <v>2199000</v>
@@ -18864,7 +18892,7 @@
         <v>402</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E214" s="2">
         <v>789900</v>
@@ -18878,10 +18906,10 @@
         <v>388</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E215" s="2">
         <v>869900</v>
@@ -18898,7 +18926,7 @@
         <v>402</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="E216" s="2">
         <v>1089000</v>
@@ -18915,7 +18943,7 @@
         <v>402</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E217" s="2">
         <v>999900</v>
@@ -18932,7 +18960,7 @@
         <v>402</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="E218" s="2">
         <v>1455000</v>
@@ -18946,10 +18974,10 @@
         <v>386</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E219" s="2">
         <v>809900</v>
@@ -18966,7 +18994,7 @@
         <v>402</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E220" s="2">
         <v>2000000</v>
@@ -18983,7 +19011,7 @@
         <v>402</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E221" s="2">
         <v>1229900</v>
@@ -19000,7 +19028,7 @@
         <v>402</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E222" s="2">
         <v>2656800</v>
@@ -19011,13 +19039,13 @@
         <v>328</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E223" s="2">
         <v>824000</v>
@@ -19028,13 +19056,13 @@
         <v>288</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E224" s="2">
         <v>1204900</v>
@@ -19051,7 +19079,7 @@
         <v>402</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="E225" s="2">
         <v>2234900</v>
@@ -19059,16 +19087,16 @@
     </row>
     <row r="226" ht="40.35" hidden="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E226" s="2">
         <v>2673000</v>
@@ -19085,7 +19113,7 @@
         <v>402</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E227" s="2">
         <v>1419990</v>
@@ -19093,7 +19121,7 @@
     </row>
     <row r="228" ht="27.15" hidden="1" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>265</v>
@@ -19102,7 +19130,7 @@
         <v>402</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="E228" s="2">
         <v>1494000</v>
@@ -19119,7 +19147,7 @@
         <v>402</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E229" s="2">
         <v>2849990</v>
@@ -19133,10 +19161,10 @@
         <v>573</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E230" s="2">
         <v>3173000</v>
@@ -19147,13 +19175,13 @@
         <v>50</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E231" s="2">
         <v>2380000</v>
@@ -19170,7 +19198,7 @@
         <v>402</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E232" s="2">
         <v>2599000</v>
@@ -19178,16 +19206,16 @@
     </row>
     <row r="233" ht="27.15" hidden="1" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E233" s="2">
         <v>2999000</v>
@@ -19198,13 +19226,13 @@
         <v>20</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E234" s="2">
         <v>3590000</v>
@@ -19212,16 +19240,16 @@
     </row>
     <row r="235" ht="40.35" hidden="1" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E235" s="2">
         <v>2569900</v>
@@ -19238,7 +19266,7 @@
         <v>402</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E236" s="2">
         <v>4750000</v>
@@ -19246,16 +19274,16 @@
     </row>
     <row r="237" ht="40.35" hidden="1" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E237" s="2">
         <v>2499990</v>
@@ -19263,7 +19291,7 @@
     </row>
     <row r="238" ht="27.15" hidden="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>770</v>
@@ -19272,7 +19300,7 @@
         <v>402</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E238" s="2">
         <v>2779990</v>
@@ -19286,10 +19314,10 @@
         <v>13</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E239" s="2">
         <v>2649000</v>
@@ -19303,10 +19331,10 @@
         <v>580</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E240" s="2">
         <v>1899000</v>
@@ -19323,7 +19351,7 @@
         <v>402</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E241" s="2">
         <v>2825990</v>
@@ -19331,7 +19359,7 @@
     </row>
     <row r="242" ht="27.15" hidden="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B242" s="2">
         <v>400</v>
@@ -19340,7 +19368,7 @@
         <v>402</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E242" s="2">
         <v>5799000</v>
@@ -19348,7 +19376,7 @@
     </row>
     <row r="243" ht="27.15" hidden="1" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>268</v>
@@ -19357,7 +19385,7 @@
         <v>402</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E243" s="2">
         <v>2899000</v>
@@ -19374,7 +19402,7 @@
         <v>402</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E244" s="2">
         <v>1887500</v>
@@ -19391,7 +19419,7 @@
         <v>402</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E245" s="2">
         <v>1805000</v>
@@ -19408,7 +19436,7 @@
         <v>402</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E246" s="2">
         <v>1684500</v>
@@ -19416,7 +19444,7 @@
     </row>
     <row r="247" ht="27.15" hidden="1" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>762</v>
@@ -19425,7 +19453,7 @@
         <v>402</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E247" s="2">
         <v>3899000</v>
@@ -19433,7 +19461,7 @@
     </row>
     <row r="248" ht="27.15" hidden="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>761</v>
@@ -19442,7 +19470,7 @@
         <v>402</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E248" s="2">
         <v>3099000</v>
@@ -19450,7 +19478,7 @@
     </row>
     <row r="249" ht="27.15" hidden="1" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -19459,7 +19487,7 @@
         <v>402</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E249" s="2">
         <v>4162990</v>
@@ -19468,9 +19496,9 @@
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E249" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="0">
-      <filters>
-        <filter val="Great Wall"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="Haval"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>

--- a/id.xlsx
+++ b/id.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$876</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$878</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="1043">
   <si>
     <t>Aito</t>
   </si>
@@ -2759,6 +2759,12 @@
   </si>
   <si>
     <t>TXL 2</t>
+  </si>
+  <si>
+    <t>500 New</t>
+  </si>
+  <si>
+    <t>GS4</t>
   </si>
   <si>
     <t>Марка</t>
@@ -4145,10 +4151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F877"/>
+  <dimension ref="A1:F879"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A860" workbookViewId="0">
-      <selection activeCell="G881" sqref="G881"/>
+      <selection activeCell="H866" sqref="H866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -15240,8 +15246,30 @@
         <v>908</v>
       </c>
     </row>
+    <row r="878" spans="1:3">
+      <c r="A878">
+        <v>977</v>
+      </c>
+      <c r="B878" t="s">
+        <v>555</v>
+      </c>
+      <c r="C878" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3">
+      <c r="A879">
+        <v>978</v>
+      </c>
+      <c r="B879" t="s">
+        <v>157</v>
+      </c>
+      <c r="C879" t="s">
+        <v>910</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E876" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E878" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15262,19 +15290,19 @@
   <sheetData>
     <row r="1" ht="27.15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="2" ht="40.35" hidden="1" spans="1:5">
@@ -15282,13 +15310,13 @@
         <v>328</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E2" s="2">
         <v>1239900</v>
@@ -15302,10 +15330,10 @@
         <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E3" s="2">
         <v>1759000</v>
@@ -15319,10 +15347,10 @@
         <v>370</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E4" s="2">
         <v>1655000</v>
@@ -15336,10 +15364,10 @@
         <v>372</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E5" s="2">
         <v>1879000</v>
@@ -15350,13 +15378,13 @@
         <v>328</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E6" s="2">
         <v>1077000</v>
@@ -15370,10 +15398,10 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E7" s="2">
         <v>1408000</v>
@@ -15384,13 +15412,13 @@
         <v>328</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E8" s="2">
         <v>749900</v>
@@ -15404,10 +15432,10 @@
         <v>330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E9" s="2">
         <v>1175000</v>
@@ -15421,10 +15449,10 @@
         <v>242</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="E10" s="2">
         <v>2149000</v>
@@ -15438,10 +15466,10 @@
         <v>346</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E11" s="2">
         <v>1660000</v>
@@ -15455,10 +15483,10 @@
         <v>347</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E12" s="2">
         <v>2020000</v>
@@ -15472,10 +15500,10 @@
         <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E13" s="2">
         <v>1859000</v>
@@ -15489,10 +15517,10 @@
         <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E14" s="2">
         <v>1334900</v>
@@ -15503,13 +15531,13 @@
         <v>169</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E15" s="2">
         <v>3512990</v>
@@ -15526,7 +15554,7 @@
         <v>402</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E16" s="2">
         <v>2836990</v>
@@ -15543,7 +15571,7 @@
         <v>402</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E17" s="2">
         <v>1850000</v>
@@ -15557,10 +15585,10 @@
         <v>256</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E18" s="2">
         <v>2749000</v>
@@ -15574,10 +15602,10 @@
         <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E19" s="2">
         <v>2179990</v>
@@ -15588,13 +15616,13 @@
         <v>169</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E20" s="2">
         <v>2794990</v>
@@ -15608,10 +15636,10 @@
         <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E21" s="2">
         <v>3959990</v>
@@ -15619,7 +15647,7 @@
     </row>
     <row r="22" ht="27.15" hidden="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -15628,7 +15656,7 @@
         <v>402</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E22" s="2">
         <v>4499000</v>
@@ -15636,7 +15664,7 @@
     </row>
     <row r="23" ht="27.15" hidden="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
@@ -15645,7 +15673,7 @@
         <v>402</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E23" s="2">
         <v>6799000</v>
@@ -15656,13 +15684,13 @@
         <v>328</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E24" s="2">
         <v>778500</v>
@@ -15673,13 +15701,13 @@
         <v>328</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E25" s="2">
         <v>719300</v>
@@ -15690,13 +15718,13 @@
         <v>328</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E26" s="2">
         <v>950900</v>
@@ -15710,10 +15738,10 @@
         <v>363</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E27" s="2">
         <v>1316900</v>
@@ -15724,13 +15752,13 @@
         <v>234</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E28" s="2">
         <v>2769000</v>
@@ -15744,10 +15772,10 @@
         <v>290</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E29" s="2">
         <v>2244900</v>
@@ -15761,10 +15789,10 @@
         <v>305</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E30" s="2">
         <v>1574900</v>
@@ -15778,10 +15806,10 @@
         <v>303</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E31" s="2">
         <v>1434900</v>
@@ -15792,13 +15820,13 @@
         <v>328</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E32" s="2">
         <v>1059000</v>
@@ -15812,10 +15840,10 @@
         <v>249</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="E33" s="2">
         <v>3969000</v>
@@ -15832,7 +15860,7 @@
         <v>402</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E34" s="2">
         <v>1314000</v>
@@ -15843,13 +15871,13 @@
         <v>208</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E35" s="2">
         <v>2149000</v>
@@ -15863,10 +15891,10 @@
         <v>224</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E36" s="2">
         <v>2599000</v>
@@ -15877,13 +15905,13 @@
         <v>208</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E37" s="2">
         <v>2599000</v>
@@ -15900,7 +15928,7 @@
         <v>402</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E38" s="2">
         <v>5269000</v>
@@ -15914,10 +15942,10 @@
         <v>292</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E39" s="2">
         <v>2314900</v>
@@ -15928,13 +15956,13 @@
         <v>328</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E40" s="2">
         <v>918900</v>
@@ -15948,10 +15976,10 @@
         <v>295</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E41" s="2">
         <v>2159900</v>
@@ -15968,7 +15996,7 @@
         <v>402</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E42" s="2">
         <v>1106900</v>
@@ -15985,7 +16013,7 @@
         <v>402</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E43" s="2">
         <v>1249900</v>
@@ -16002,7 +16030,7 @@
         <v>402</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E44" s="2">
         <v>2900000</v>
@@ -16013,13 +16041,13 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E45" s="2">
         <v>2439900</v>
@@ -16033,10 +16061,10 @@
         <v>298</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E46" s="2">
         <v>2734900</v>
@@ -16050,10 +16078,10 @@
         <v>317</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E47" s="2">
         <v>1934900</v>
@@ -16070,7 +16098,7 @@
         <v>402</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E48" s="2">
         <v>2064900</v>
@@ -16084,10 +16112,10 @@
         <v>318</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E49" s="2">
         <v>2849900</v>
@@ -16095,7 +16123,7 @@
     </row>
     <row r="50" ht="27.15" hidden="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>267</v>
@@ -16104,7 +16132,7 @@
         <v>402</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E50" s="2">
         <v>1779000</v>
@@ -16112,7 +16140,7 @@
     </row>
     <row r="51" ht="27.15" hidden="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>261</v>
@@ -16121,7 +16149,7 @@
         <v>402</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E51" s="2">
         <v>2150000</v>
@@ -16129,7 +16157,7 @@
     </row>
     <row r="52" ht="27.15" hidden="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>266</v>
@@ -16138,7 +16166,7 @@
         <v>402</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E52" s="2">
         <v>2129900</v>
@@ -16146,7 +16174,7 @@
     </row>
     <row r="53" ht="27.15" hidden="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>456</v>
@@ -16155,7 +16183,7 @@
         <v>402</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E53" s="2">
         <v>2369900</v>
@@ -16172,7 +16200,7 @@
         <v>402</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E54" s="2">
         <v>1690000</v>
@@ -16189,7 +16217,7 @@
         <v>402</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E55" s="2">
         <v>2869900</v>
@@ -16200,13 +16228,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E56" s="2">
         <v>2569900</v>
@@ -16217,13 +16245,13 @@
         <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E57" s="2">
         <v>2839900</v>
@@ -16237,10 +16265,10 @@
         <v>27</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E58" s="2">
         <v>3969900</v>
@@ -16254,10 +16282,10 @@
         <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E59" s="2">
         <v>3069900</v>
@@ -16271,10 +16299,10 @@
         <v>33</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E60" s="2">
         <v>3069900</v>
@@ -16285,13 +16313,13 @@
         <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E61" s="2">
         <v>2899900</v>
@@ -16299,16 +16327,16 @@
     </row>
     <row r="62" ht="40.35" hidden="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E62" s="2">
         <v>2374000</v>
@@ -16316,16 +16344,16 @@
     </row>
     <row r="63" ht="40.35" hidden="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E63" s="2">
         <v>2411000</v>
@@ -16333,16 +16361,16 @@
     </row>
     <row r="64" ht="40.35" hidden="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E64" s="2">
         <v>2024000</v>
@@ -16356,10 +16384,10 @@
         <v>494</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E65" s="2">
         <v>1124000</v>
@@ -16373,10 +16401,10 @@
         <v>519</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E66" s="2">
         <v>1051000</v>
@@ -16390,10 +16418,10 @@
         <v>516</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E67" s="2">
         <v>1657000</v>
@@ -16407,10 +16435,10 @@
         <v>509</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E68" s="2">
         <v>1705000</v>
@@ -16424,10 +16452,10 @@
         <v>57</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="E69" s="2">
         <v>1699900</v>
@@ -16441,10 +16469,10 @@
         <v>274</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E70" s="2">
         <v>2489900</v>
@@ -16452,16 +16480,16 @@
     </row>
     <row r="71" ht="40.35" hidden="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E71" s="2">
         <v>2959900</v>
@@ -16469,16 +16497,16 @@
     </row>
     <row r="72" ht="40.35" hidden="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E72" s="2">
         <v>1765000</v>
@@ -16492,10 +16520,10 @@
         <v>447</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E73" s="2">
         <v>4409000</v>
@@ -16509,10 +16537,10 @@
         <v>452</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E74" s="2">
         <v>1690000</v>
@@ -16526,10 +16554,10 @@
         <v>79</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E75" s="2">
         <v>950900</v>
@@ -16546,7 +16574,7 @@
         <v>402</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E76" s="2">
         <v>880900</v>
@@ -16560,10 +16588,10 @@
         <v>77</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E77" s="2">
         <v>953900</v>
@@ -16577,10 +16605,10 @@
         <v>227</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E78" s="2">
         <v>2179000</v>
@@ -16597,7 +16625,7 @@
         <v>402</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E79" s="2">
         <v>1579000</v>
@@ -16611,10 +16639,10 @@
         <v>220</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E80" s="2">
         <v>4299000</v>
@@ -16631,7 +16659,7 @@
         <v>402</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E81" s="2">
         <v>2049000</v>
@@ -16648,7 +16676,7 @@
         <v>402</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E82" s="2">
         <v>3149000</v>
@@ -16662,10 +16690,10 @@
         <v>450</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E83" s="2">
         <v>2337000</v>
@@ -16676,13 +16704,13 @@
         <v>441</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E84" s="2">
         <v>2762000</v>
@@ -16696,10 +16724,10 @@
         <v>489</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E85" s="2">
         <v>1618000</v>
@@ -16713,10 +16741,10 @@
         <v>495</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E86" s="2">
         <v>1301000</v>
@@ -16730,10 +16758,10 @@
         <v>501</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E87" s="2">
         <v>1258000</v>
@@ -16747,10 +16775,10 @@
         <v>502</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E88" s="2">
         <v>1373000</v>
@@ -16764,10 +16792,10 @@
         <v>492</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E89" s="2">
         <v>1724000</v>
@@ -16784,7 +16812,7 @@
         <v>402</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E90" s="2">
         <v>1874000</v>
@@ -16798,10 +16826,10 @@
         <v>512</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E91" s="2">
         <v>2057000</v>
@@ -16815,10 +16843,10 @@
         <v>528</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E92" s="2">
         <v>2118900</v>
@@ -16832,10 +16860,10 @@
         <v>529</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E93" s="2">
         <v>3248000</v>
@@ -16849,10 +16877,10 @@
         <v>530</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E94" s="2">
         <v>5378000</v>
@@ -16866,10 +16894,10 @@
         <v>531</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E95" s="2">
         <v>5806000</v>
@@ -16883,10 +16911,10 @@
         <v>523</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E96" s="2">
         <v>2388000</v>
@@ -16900,10 +16928,10 @@
         <v>524</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E97" s="2">
         <v>2681000</v>
@@ -16917,10 +16945,10 @@
         <v>595</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E98" s="2">
         <v>1385900</v>
@@ -16934,10 +16962,10 @@
         <v>279</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E99" s="2">
         <v>1518000</v>
@@ -16951,10 +16979,10 @@
         <v>600</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E100" s="2">
         <v>3375900</v>
@@ -16971,7 +16999,7 @@
         <v>402</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E101" s="2">
         <v>2828900</v>
@@ -16985,10 +17013,10 @@
         <v>32</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E102" s="2">
         <v>4449900</v>
@@ -17005,7 +17033,7 @@
         <v>402</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E103" s="2">
         <v>1229000</v>
@@ -17019,10 +17047,10 @@
         <v>580</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E104" s="2">
         <v>2499000</v>
@@ -17030,16 +17058,16 @@
     </row>
     <row r="105" ht="40.35" hidden="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>577</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E105" s="2">
         <v>1680000</v>
@@ -17047,16 +17075,16 @@
     </row>
     <row r="106" ht="40.35" hidden="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>981</v>
-      </c>
       <c r="D106" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E106" s="2">
         <v>1705000</v>
@@ -17064,7 +17092,7 @@
     </row>
     <row r="107" ht="27.15" hidden="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>36</v>
@@ -17073,7 +17101,7 @@
         <v>402</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E107" s="2">
         <v>1510000</v>
@@ -17090,7 +17118,7 @@
         <v>402</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E108" s="2">
         <v>2570000</v>
@@ -17107,7 +17135,7 @@
         <v>402</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E109" s="2">
         <v>3430000</v>
@@ -17118,13 +17146,13 @@
         <v>50</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E110" s="2">
         <v>2770000</v>
@@ -17138,10 +17166,10 @@
         <v>906</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E111" s="2">
         <v>1970000</v>
@@ -17152,13 +17180,13 @@
         <v>50</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E112" s="2">
         <v>3250000</v>
@@ -17169,13 +17197,13 @@
         <v>50</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E113" s="2">
         <v>3370000</v>
@@ -17192,7 +17220,7 @@
         <v>402</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E114" s="2">
         <v>3759900</v>
@@ -17206,10 +17234,10 @@
         <v>117</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E115" s="2">
         <v>3380000</v>
@@ -17223,10 +17251,10 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E116" s="2">
         <v>3810000</v>
@@ -17243,7 +17271,7 @@
         <v>402</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E117" s="2">
         <v>4910000</v>
@@ -17260,7 +17288,7 @@
         <v>402</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E118" s="2">
         <v>4550000</v>
@@ -17277,7 +17305,7 @@
         <v>402</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E119" s="2">
         <v>2080000</v>
@@ -17294,7 +17322,7 @@
         <v>402</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E120" s="2">
         <v>2225000</v>
@@ -17311,7 +17339,7 @@
         <v>402</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E121" s="2">
         <v>2970000</v>
@@ -17325,10 +17353,10 @@
         <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E122" s="2">
         <v>4350000</v>
@@ -17342,10 +17370,10 @@
         <v>277</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E123" s="2">
         <v>2999900</v>
@@ -17362,7 +17390,7 @@
         <v>402</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E124" s="2">
         <v>3479900</v>
@@ -17376,10 +17404,10 @@
         <v>281</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>916</v>
       </c>
       <c r="E125" s="2">
         <v>1990000</v>
@@ -17393,10 +17421,10 @@
         <v>282</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>916</v>
       </c>
       <c r="E126" s="2">
         <v>2149000</v>
@@ -17413,7 +17441,7 @@
         <v>402</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E127" s="2">
         <v>2115000</v>
@@ -17430,7 +17458,7 @@
         <v>402</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E128" s="2">
         <v>2238000</v>
@@ -17447,7 +17475,7 @@
         <v>402</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E129" s="2">
         <v>2514900</v>
@@ -17464,7 +17492,7 @@
         <v>402</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E130" s="2">
         <v>2997900</v>
@@ -17472,16 +17500,16 @@
     </row>
     <row r="131" ht="27.15" hidden="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E131" s="2">
         <v>2549900</v>
@@ -17489,16 +17517,16 @@
     </row>
     <row r="132" ht="27.15" hidden="1" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E132" s="2">
         <v>2629900</v>
@@ -17506,16 +17534,16 @@
     </row>
     <row r="133" ht="27.15" hidden="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E133" s="2">
         <v>4100000</v>
@@ -17532,7 +17560,7 @@
         <v>402</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E134" s="2">
         <v>2219900</v>
@@ -17543,13 +17571,13 @@
         <v>20</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E135" s="2">
         <v>2499900</v>
@@ -17557,7 +17585,7 @@
     </row>
     <row r="136" ht="27.15" hidden="1" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>138</v>
@@ -17566,7 +17594,7 @@
         <v>402</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E136" s="2">
         <v>1602000</v>
@@ -17574,16 +17602,16 @@
     </row>
     <row r="137" ht="40.35" hidden="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E137" s="2">
         <v>1508000</v>
@@ -17600,7 +17628,7 @@
         <v>402</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E138" s="2">
         <v>4549990</v>
@@ -17617,7 +17645,7 @@
         <v>402</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E139" s="2">
         <v>2479990</v>
@@ -17634,7 +17662,7 @@
         <v>402</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E140" s="2">
         <v>2075990</v>
@@ -17651,7 +17679,7 @@
         <v>402</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E141" s="2">
         <v>2080990</v>
@@ -17665,10 +17693,10 @@
         <v>369</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E142" s="2">
         <v>2273000</v>
@@ -17682,10 +17710,10 @@
         <v>651</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E143" s="2">
         <v>2443000</v>
@@ -17699,10 +17727,10 @@
         <v>670</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E144" s="2">
         <v>1341000</v>
@@ -17713,13 +17741,13 @@
         <v>328</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E145" s="2">
         <v>1381000</v>
@@ -17730,13 +17758,13 @@
         <v>328</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E146" s="2">
         <v>1493000</v>
@@ -17747,13 +17775,13 @@
         <v>328</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E147" s="2">
         <v>1533000</v>
@@ -17767,10 +17795,10 @@
         <v>348</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E148" s="2">
         <v>1670000</v>
@@ -17787,7 +17815,7 @@
         <v>402</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E149" s="2">
         <v>1487000</v>
@@ -17798,13 +17826,13 @@
         <v>50</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E150" s="2">
         <v>4850000</v>
@@ -17815,13 +17843,13 @@
         <v>50</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E151" s="2">
         <v>4000000</v>
@@ -17832,13 +17860,13 @@
         <v>50</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E152" s="2">
         <v>4930000</v>
@@ -17852,10 +17880,10 @@
         <v>187</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E153" s="2">
         <v>3692990</v>
@@ -17869,10 +17897,10 @@
         <v>734</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E154" s="2">
         <v>3979000</v>
@@ -17889,7 +17917,7 @@
         <v>402</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E155" s="2">
         <v>4099000</v>
@@ -17906,7 +17934,7 @@
         <v>402</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E156" s="2">
         <v>3449000</v>
@@ -17923,7 +17951,7 @@
         <v>402</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E157" s="2">
         <v>2799000</v>
@@ -17934,13 +17962,13 @@
         <v>193</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E158" s="2">
         <v>3549000</v>
@@ -17951,13 +17979,13 @@
         <v>193</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E159" s="2">
         <v>3299000</v>
@@ -17971,10 +17999,10 @@
         <v>315</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E160" s="2">
         <v>7374900</v>
@@ -17988,10 +18016,10 @@
         <v>324</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E161" s="2">
         <v>3789900</v>
@@ -18005,10 +18033,10 @@
         <v>326</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E162" s="2">
         <v>5829900</v>
@@ -18022,10 +18050,10 @@
         <v>289</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E163" s="2">
         <v>4144900</v>
@@ -18033,16 +18061,16 @@
     </row>
     <row r="164" ht="27.15" hidden="1" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E164" s="2">
         <v>1672000</v>
@@ -18059,7 +18087,7 @@
         <v>402</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E165" s="2">
         <v>2040546</v>
@@ -18076,7 +18104,7 @@
         <v>402</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E166" s="2">
         <v>3100000</v>
@@ -18093,7 +18121,7 @@
         <v>402</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E167" s="2">
         <v>2990000</v>
@@ -18107,10 +18135,10 @@
         <v>602</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="E168" s="2">
         <v>8669500</v>
@@ -18124,10 +18152,10 @@
         <v>654</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E169" s="2">
         <v>4291000</v>
@@ -18141,10 +18169,10 @@
         <v>598</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E170" s="2">
         <v>6146500</v>
@@ -18152,7 +18180,7 @@
     </row>
     <row r="171" ht="27.15" hidden="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>262</v>
@@ -18161,7 +18189,7 @@
         <v>402</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E171" s="2">
         <v>1889000</v>
@@ -18169,7 +18197,7 @@
     </row>
     <row r="172" ht="27.15" hidden="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>264</v>
@@ -18178,7 +18206,7 @@
         <v>402</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E172" s="2">
         <v>2399000</v>
@@ -18186,7 +18214,7 @@
     </row>
     <row r="173" ht="27.15" hidden="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>631</v>
@@ -18195,7 +18223,7 @@
         <v>402</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E173" s="2">
         <v>3059000</v>
@@ -18203,16 +18231,16 @@
     </row>
     <row r="174" ht="27.15" hidden="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E174" s="2">
         <v>3279000</v>
@@ -18220,7 +18248,7 @@
     </row>
     <row r="175" ht="27.15" hidden="1" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>632</v>
@@ -18229,7 +18257,7 @@
         <v>402</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E175" s="2">
         <v>3599000</v>
@@ -18237,7 +18265,7 @@
     </row>
     <row r="176" ht="27.15" hidden="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>168</v>
@@ -18246,7 +18274,7 @@
         <v>402</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E176" s="2">
         <v>5499999</v>
@@ -18254,16 +18282,16 @@
     </row>
     <row r="177" ht="27.15" hidden="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E177" s="2">
         <v>4099000</v>
@@ -18271,7 +18299,7 @@
     </row>
     <row r="178" ht="27.15" hidden="1" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>162</v>
@@ -18280,7 +18308,7 @@
         <v>402</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E178" s="2">
         <v>2449000</v>
@@ -18291,13 +18319,13 @@
         <v>20</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E179" s="2">
         <v>4529900</v>
@@ -18314,7 +18342,7 @@
         <v>402</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E180" s="2">
         <v>3739900</v>
@@ -18325,13 +18353,13 @@
         <v>20</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E181" s="2">
         <v>5219900</v>
@@ -18342,13 +18370,13 @@
         <v>50</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E182" s="2">
         <v>2780000</v>
@@ -18365,7 +18393,7 @@
         <v>402</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E183" s="2">
         <v>2020000</v>
@@ -18382,7 +18410,7 @@
         <v>402</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E184" s="2">
         <v>2650000</v>
@@ -18399,7 +18427,7 @@
         <v>402</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E185" s="2">
         <v>2080000</v>
@@ -18416,7 +18444,7 @@
         <v>402</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E186" s="2">
         <v>2181000</v>
@@ -18430,10 +18458,10 @@
         <v>5</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E187" s="2">
         <v>2279000</v>
@@ -18447,10 +18475,10 @@
         <v>6</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E188" s="2">
         <v>2899000</v>
@@ -18464,10 +18492,10 @@
         <v>424</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E189" s="2">
         <v>2379000</v>
@@ -18475,16 +18503,16 @@
     </row>
     <row r="190" ht="27.15" hidden="1" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E190" s="2">
         <v>2499000</v>
@@ -18492,7 +18520,7 @@
     </row>
     <row r="191" ht="27.15" hidden="1" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>457</v>
@@ -18501,7 +18529,7 @@
         <v>402</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E191" s="2">
         <v>2479900</v>
@@ -18518,7 +18546,7 @@
         <v>402</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E192" s="2">
         <v>3959000</v>
@@ -18529,13 +18557,13 @@
         <v>114</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E193" s="2">
         <v>2890000</v>
@@ -18546,13 +18574,13 @@
         <v>114</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E194" s="2">
         <v>4080000</v>
@@ -18563,13 +18591,13 @@
         <v>114</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E195" s="2">
         <v>6290000</v>
@@ -18577,7 +18605,7 @@
     </row>
     <row r="196" ht="27.15" hidden="1" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B196" s="2">
         <v>6</v>
@@ -18586,7 +18614,7 @@
         <v>402</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E196" s="2">
         <v>2200000</v>
@@ -18594,7 +18622,7 @@
     </row>
     <row r="197" ht="27.15" hidden="1" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>272</v>
@@ -18603,7 +18631,7 @@
         <v>402</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E197" s="2">
         <v>4599000</v>
@@ -18620,7 +18648,7 @@
         <v>402</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E198" s="2">
         <v>2199000</v>
@@ -18631,13 +18659,13 @@
         <v>208</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E199" s="2">
         <v>4599000</v>
@@ -18648,13 +18676,13 @@
         <v>98</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E200" s="2">
         <v>1990000</v>
@@ -18665,13 +18693,13 @@
         <v>98</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E201" s="2">
         <v>3590000</v>
@@ -18688,7 +18716,7 @@
         <v>402</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E202" s="2">
         <v>2650000</v>
@@ -18699,13 +18727,13 @@
         <v>208</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E203" s="2">
         <v>2849000</v>
@@ -18713,7 +18741,7 @@
     </row>
     <row r="204" ht="27.15" hidden="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>164</v>
@@ -18722,7 +18750,7 @@
         <v>402</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E204" s="2">
         <v>2099000</v>
@@ -18739,7 +18767,7 @@
         <v>402</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="E205" s="2">
         <v>1263000</v>
@@ -18756,7 +18784,7 @@
         <v>402</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E206" s="2">
         <v>1546500</v>
@@ -18773,7 +18801,7 @@
         <v>402</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E207" s="2">
         <v>883000</v>
@@ -18790,7 +18818,7 @@
         <v>402</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="E208" s="2">
         <v>825000</v>
@@ -18807,7 +18835,7 @@
         <v>402</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E209" s="2">
         <v>851000</v>
@@ -18818,13 +18846,13 @@
         <v>169</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E210" s="2">
         <v>3357990</v>
@@ -18835,13 +18863,13 @@
         <v>208</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E211" s="2">
         <v>3899000</v>
@@ -18858,7 +18886,7 @@
         <v>402</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E212" s="2">
         <v>1990000</v>
@@ -18875,7 +18903,7 @@
         <v>402</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E213" s="2">
         <v>2199000</v>
@@ -18892,7 +18920,7 @@
         <v>402</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E214" s="2">
         <v>789900</v>
@@ -18906,10 +18934,10 @@
         <v>388</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E215" s="2">
         <v>869900</v>
@@ -18926,7 +18954,7 @@
         <v>402</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="E216" s="2">
         <v>1089000</v>
@@ -18943,7 +18971,7 @@
         <v>402</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E217" s="2">
         <v>999900</v>
@@ -18960,7 +18988,7 @@
         <v>402</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="E218" s="2">
         <v>1455000</v>
@@ -18974,10 +19002,10 @@
         <v>386</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E219" s="2">
         <v>809900</v>
@@ -18994,7 +19022,7 @@
         <v>402</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E220" s="2">
         <v>2000000</v>
@@ -19011,7 +19039,7 @@
         <v>402</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E221" s="2">
         <v>1229900</v>
@@ -19028,7 +19056,7 @@
         <v>402</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E222" s="2">
         <v>2656800</v>
@@ -19039,13 +19067,13 @@
         <v>328</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E223" s="2">
         <v>824000</v>
@@ -19056,13 +19084,13 @@
         <v>288</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E224" s="2">
         <v>1204900</v>
@@ -19079,7 +19107,7 @@
         <v>402</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E225" s="2">
         <v>2234900</v>
@@ -19087,16 +19115,16 @@
     </row>
     <row r="226" ht="40.35" hidden="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E226" s="2">
         <v>2673000</v>
@@ -19113,7 +19141,7 @@
         <v>402</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E227" s="2">
         <v>1419990</v>
@@ -19121,7 +19149,7 @@
     </row>
     <row r="228" ht="27.15" hidden="1" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>265</v>
@@ -19130,7 +19158,7 @@
         <v>402</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E228" s="2">
         <v>1494000</v>
@@ -19147,7 +19175,7 @@
         <v>402</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E229" s="2">
         <v>2849990</v>
@@ -19161,10 +19189,10 @@
         <v>573</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E230" s="2">
         <v>3173000</v>
@@ -19175,13 +19203,13 @@
         <v>50</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E231" s="2">
         <v>2380000</v>
@@ -19198,7 +19226,7 @@
         <v>402</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E232" s="2">
         <v>2599000</v>
@@ -19206,16 +19234,16 @@
     </row>
     <row r="233" ht="27.15" hidden="1" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E233" s="2">
         <v>2999000</v>
@@ -19226,13 +19254,13 @@
         <v>20</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E234" s="2">
         <v>3590000</v>
@@ -19240,16 +19268,16 @@
     </row>
     <row r="235" ht="40.35" hidden="1" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E235" s="2">
         <v>2569900</v>
@@ -19266,7 +19294,7 @@
         <v>402</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E236" s="2">
         <v>4750000</v>
@@ -19274,16 +19302,16 @@
     </row>
     <row r="237" ht="40.35" hidden="1" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E237" s="2">
         <v>2499990</v>
@@ -19291,7 +19319,7 @@
     </row>
     <row r="238" ht="27.15" hidden="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>770</v>
@@ -19300,7 +19328,7 @@
         <v>402</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E238" s="2">
         <v>2779990</v>
@@ -19314,10 +19342,10 @@
         <v>13</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E239" s="2">
         <v>2649000</v>
@@ -19331,10 +19359,10 @@
         <v>580</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E240" s="2">
         <v>1899000</v>
@@ -19351,7 +19379,7 @@
         <v>402</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E241" s="2">
         <v>2825990</v>
@@ -19359,7 +19387,7 @@
     </row>
     <row r="242" ht="27.15" hidden="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B242" s="2">
         <v>400</v>
@@ -19368,7 +19396,7 @@
         <v>402</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E242" s="2">
         <v>5799000</v>
@@ -19376,7 +19404,7 @@
     </row>
     <row r="243" ht="27.15" hidden="1" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>268</v>
@@ -19385,7 +19413,7 @@
         <v>402</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E243" s="2">
         <v>2899000</v>
@@ -19402,7 +19430,7 @@
         <v>402</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E244" s="2">
         <v>1887500</v>
@@ -19419,7 +19447,7 @@
         <v>402</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E245" s="2">
         <v>1805000</v>
@@ -19436,7 +19464,7 @@
         <v>402</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E246" s="2">
         <v>1684500</v>
@@ -19444,7 +19472,7 @@
     </row>
     <row r="247" ht="27.15" hidden="1" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>762</v>
@@ -19453,7 +19481,7 @@
         <v>402</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E247" s="2">
         <v>3899000</v>
@@ -19461,7 +19489,7 @@
     </row>
     <row r="248" ht="27.15" hidden="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>761</v>
@@ -19470,7 +19498,7 @@
         <v>402</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E248" s="2">
         <v>3099000</v>
@@ -19478,7 +19506,7 @@
     </row>
     <row r="249" ht="27.15" hidden="1" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -19487,7 +19515,7 @@
         <v>402</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E249" s="2">
         <v>4162990</v>

--- a/id.xlsx
+++ b/id.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="8615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$878</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$879</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="1072">
   <si>
     <t>Aito</t>
   </si>
@@ -2765,6 +2765,93 @@
   </si>
   <si>
     <t>GS4</t>
+  </si>
+  <si>
+    <t>X-Cross 5</t>
+  </si>
+  <si>
+    <t>Galaxy L7</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Combo Cargo</t>
+  </si>
+  <si>
+    <t>Vivaro</t>
+  </si>
+  <si>
+    <t>Bestune M9</t>
+  </si>
+  <si>
+    <t>Hunter Экспедиционный</t>
+  </si>
+  <si>
+    <t>3909 Экспедиционный</t>
+  </si>
+  <si>
+    <t>Berlingo</t>
+  </si>
+  <si>
+    <t>Captain-T</t>
+  </si>
+  <si>
+    <t>i-VAN</t>
+  </si>
+  <si>
+    <t>Tunland G7</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Free Sport Edition</t>
+  </si>
+  <si>
+    <t>FangChengBao Leopard 5</t>
+  </si>
+  <si>
+    <t>Tang</t>
+  </si>
+  <si>
+    <t>Song Pro</t>
+  </si>
+  <si>
+    <t>Yuan Plus</t>
+  </si>
+  <si>
+    <t>Qin Plus</t>
+  </si>
+  <si>
+    <t>EU5</t>
+  </si>
+  <si>
+    <t>T5 HEV</t>
+  </si>
+  <si>
+    <t>HS7</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>Avatr</t>
+  </si>
+  <si>
+    <t>JMC</t>
+  </si>
+  <si>
+    <t>Vigus Work</t>
+  </si>
+  <si>
+    <t>Exlantix</t>
+  </si>
+  <si>
+    <t>ET</t>
   </si>
   <si>
     <t>Марка</t>
@@ -4151,10 +4238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F879"/>
+  <dimension ref="A1:F907"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A860" workbookViewId="0">
-      <selection activeCell="H866" sqref="H866"/>
+    <sheetView tabSelected="1" topLeftCell="A890" workbookViewId="0">
+      <selection activeCell="E901" sqref="E901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -15268,8 +15355,316 @@
         <v>910</v>
       </c>
     </row>
+    <row r="880" spans="1:3">
+      <c r="A880">
+        <v>979</v>
+      </c>
+      <c r="B880" t="s">
+        <v>328</v>
+      </c>
+      <c r="C880" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3">
+      <c r="A881">
+        <v>980</v>
+      </c>
+      <c r="B881" t="s">
+        <v>169</v>
+      </c>
+      <c r="C881" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3">
+      <c r="A882">
+        <v>981</v>
+      </c>
+      <c r="B882" t="s">
+        <v>169</v>
+      </c>
+      <c r="C882" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3">
+      <c r="A883">
+        <v>982</v>
+      </c>
+      <c r="B883" t="s">
+        <v>458</v>
+      </c>
+      <c r="C883" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3">
+      <c r="A884">
+        <v>983</v>
+      </c>
+      <c r="B884" t="s">
+        <v>458</v>
+      </c>
+      <c r="C884" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3">
+      <c r="A885">
+        <v>984</v>
+      </c>
+      <c r="B885" t="s">
+        <v>127</v>
+      </c>
+      <c r="C885" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3">
+      <c r="A886">
+        <v>985</v>
+      </c>
+      <c r="B886" t="s">
+        <v>576</v>
+      </c>
+      <c r="C886" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3">
+      <c r="A887">
+        <v>986</v>
+      </c>
+      <c r="B887" t="s">
+        <v>576</v>
+      </c>
+      <c r="C887" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3">
+      <c r="A888">
+        <v>987</v>
+      </c>
+      <c r="B888" t="s">
+        <v>84</v>
+      </c>
+      <c r="C888" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3">
+      <c r="A889">
+        <v>988</v>
+      </c>
+      <c r="B889" t="s">
+        <v>98</v>
+      </c>
+      <c r="C889" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3">
+      <c r="A890">
+        <v>989</v>
+      </c>
+      <c r="B890" t="s">
+        <v>108</v>
+      </c>
+      <c r="C890" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3">
+      <c r="A891">
+        <v>990</v>
+      </c>
+      <c r="B891" t="s">
+        <v>143</v>
+      </c>
+      <c r="C891" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3">
+      <c r="A892">
+        <v>991</v>
+      </c>
+      <c r="B892" t="s">
+        <v>616</v>
+      </c>
+      <c r="C892" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3">
+      <c r="A893">
+        <v>992</v>
+      </c>
+      <c r="B893" t="s">
+        <v>610</v>
+      </c>
+      <c r="C893" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3">
+      <c r="A894">
+        <v>993</v>
+      </c>
+      <c r="B894" t="s">
+        <v>18</v>
+      </c>
+      <c r="C894" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3">
+      <c r="A895">
+        <v>994</v>
+      </c>
+      <c r="B895" t="s">
+        <v>18</v>
+      </c>
+      <c r="C895" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3">
+      <c r="A896">
+        <v>995</v>
+      </c>
+      <c r="B896" t="s">
+        <v>18</v>
+      </c>
+      <c r="C896" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3">
+      <c r="A897">
+        <v>996</v>
+      </c>
+      <c r="B897" t="s">
+        <v>18</v>
+      </c>
+      <c r="C897" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3">
+      <c r="A898">
+        <v>997</v>
+      </c>
+      <c r="B898" t="s">
+        <v>18</v>
+      </c>
+      <c r="C898" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3">
+      <c r="A899">
+        <v>998</v>
+      </c>
+      <c r="B899" t="s">
+        <v>3</v>
+      </c>
+      <c r="C899" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3">
+      <c r="A900">
+        <v>999</v>
+      </c>
+      <c r="B900" t="s">
+        <v>140</v>
+      </c>
+      <c r="C900" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3">
+      <c r="A901">
+        <v>1000</v>
+      </c>
+      <c r="B901" t="s">
+        <v>663</v>
+      </c>
+      <c r="C901" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3">
+      <c r="A902">
+        <v>1001</v>
+      </c>
+      <c r="B902" t="s">
+        <v>398</v>
+      </c>
+      <c r="C902" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3">
+      <c r="A903">
+        <v>1002</v>
+      </c>
+      <c r="B903" t="s">
+        <v>0</v>
+      </c>
+      <c r="C903" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3">
+      <c r="A904">
+        <v>1003</v>
+      </c>
+      <c r="B904" t="s">
+        <v>935</v>
+      </c>
+      <c r="C904">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3">
+      <c r="A905">
+        <v>1004</v>
+      </c>
+      <c r="B905" t="s">
+        <v>935</v>
+      </c>
+      <c r="C905">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3">
+      <c r="A906">
+        <v>1005</v>
+      </c>
+      <c r="B906" t="s">
+        <v>936</v>
+      </c>
+      <c r="C906" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3">
+      <c r="A907">
+        <v>1006</v>
+      </c>
+      <c r="B907" t="s">
+        <v>938</v>
+      </c>
+      <c r="C907" t="s">
+        <v>939</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E878" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E879" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15290,19 +15685,19 @@
   <sheetData>
     <row r="1" ht="27.15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>911</v>
+        <v>940</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>912</v>
+        <v>941</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>913</v>
+        <v>942</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>914</v>
+        <v>943</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>915</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2" ht="40.35" hidden="1" spans="1:5">
@@ -15310,13 +15705,13 @@
         <v>328</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>916</v>
+        <v>945</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>917</v>
+        <v>946</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E2" s="2">
         <v>1239900</v>
@@ -15330,10 +15725,10 @@
         <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>917</v>
+        <v>946</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E3" s="2">
         <v>1759000</v>
@@ -15347,10 +15742,10 @@
         <v>370</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>917</v>
+        <v>946</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E4" s="2">
         <v>1655000</v>
@@ -15364,10 +15759,10 @@
         <v>372</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>917</v>
+        <v>946</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E5" s="2">
         <v>1879000</v>
@@ -15378,13 +15773,13 @@
         <v>328</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>919</v>
+        <v>948</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E6" s="2">
         <v>1077000</v>
@@ -15398,10 +15793,10 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>923</v>
+        <v>952</v>
       </c>
       <c r="E7" s="2">
         <v>1408000</v>
@@ -15412,13 +15807,13 @@
         <v>328</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>924</v>
+        <v>953</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E8" s="2">
         <v>749900</v>
@@ -15432,10 +15827,10 @@
         <v>330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E9" s="2">
         <v>1175000</v>
@@ -15449,10 +15844,10 @@
         <v>242</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>925</v>
+        <v>954</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>926</v>
+        <v>955</v>
       </c>
       <c r="E10" s="2">
         <v>2149000</v>
@@ -15466,10 +15861,10 @@
         <v>346</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E11" s="2">
         <v>1660000</v>
@@ -15483,10 +15878,10 @@
         <v>347</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E12" s="2">
         <v>2020000</v>
@@ -15500,10 +15895,10 @@
         <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>929</v>
+        <v>958</v>
       </c>
       <c r="E13" s="2">
         <v>1859000</v>
@@ -15517,10 +15912,10 @@
         <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E14" s="2">
         <v>1334900</v>
@@ -15531,13 +15926,13 @@
         <v>169</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>931</v>
+        <v>960</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E15" s="2">
         <v>3512990</v>
@@ -15554,7 +15949,7 @@
         <v>402</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E16" s="2">
         <v>2836990</v>
@@ -15571,7 +15966,7 @@
         <v>402</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>933</v>
+        <v>962</v>
       </c>
       <c r="E17" s="2">
         <v>1850000</v>
@@ -15585,10 +15980,10 @@
         <v>256</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>934</v>
+        <v>963</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>935</v>
+        <v>964</v>
       </c>
       <c r="E18" s="2">
         <v>2749000</v>
@@ -15602,10 +15997,10 @@
         <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E19" s="2">
         <v>2179990</v>
@@ -15616,13 +16011,13 @@
         <v>169</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>936</v>
+        <v>965</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E20" s="2">
         <v>2794990</v>
@@ -15636,10 +16031,10 @@
         <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E21" s="2">
         <v>3959990</v>
@@ -15647,7 +16042,7 @@
     </row>
     <row r="22" ht="27.15" hidden="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>937</v>
+        <v>966</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -15656,7 +16051,7 @@
         <v>402</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E22" s="2">
         <v>4499000</v>
@@ -15664,7 +16059,7 @@
     </row>
     <row r="23" ht="27.15" hidden="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>937</v>
+        <v>966</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
@@ -15673,7 +16068,7 @@
         <v>402</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E23" s="2">
         <v>6799000</v>
@@ -15684,13 +16079,13 @@
         <v>328</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>938</v>
+        <v>967</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E24" s="2">
         <v>778500</v>
@@ -15701,13 +16096,13 @@
         <v>328</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>939</v>
+        <v>968</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E25" s="2">
         <v>719300</v>
@@ -15718,13 +16113,13 @@
         <v>328</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>940</v>
+        <v>969</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E26" s="2">
         <v>950900</v>
@@ -15738,10 +16133,10 @@
         <v>363</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>917</v>
+        <v>946</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E27" s="2">
         <v>1316900</v>
@@ -15752,13 +16147,13 @@
         <v>234</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>941</v>
+        <v>970</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>942</v>
+        <v>971</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>943</v>
+        <v>972</v>
       </c>
       <c r="E28" s="2">
         <v>2769000</v>
@@ -15772,10 +16167,10 @@
         <v>290</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E29" s="2">
         <v>2244900</v>
@@ -15789,10 +16184,10 @@
         <v>305</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>944</v>
+        <v>973</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>923</v>
+        <v>952</v>
       </c>
       <c r="E30" s="2">
         <v>1574900</v>
@@ -15806,10 +16201,10 @@
         <v>303</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>944</v>
+        <v>973</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>923</v>
+        <v>952</v>
       </c>
       <c r="E31" s="2">
         <v>1434900</v>
@@ -15820,13 +16215,13 @@
         <v>328</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>945</v>
+        <v>974</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E32" s="2">
         <v>1059000</v>
@@ -15840,10 +16235,10 @@
         <v>249</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>944</v>
+        <v>973</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>926</v>
+        <v>955</v>
       </c>
       <c r="E33" s="2">
         <v>3969000</v>
@@ -15860,7 +16255,7 @@
         <v>402</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>947</v>
+        <v>976</v>
       </c>
       <c r="E34" s="2">
         <v>1314000</v>
@@ -15871,13 +16266,13 @@
         <v>208</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>948</v>
+        <v>977</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E35" s="2">
         <v>2149000</v>
@@ -15891,10 +16286,10 @@
         <v>224</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>950</v>
+        <v>979</v>
       </c>
       <c r="E36" s="2">
         <v>2599000</v>
@@ -15905,13 +16300,13 @@
         <v>208</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>951</v>
+        <v>980</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>950</v>
+        <v>979</v>
       </c>
       <c r="E37" s="2">
         <v>2599000</v>
@@ -15928,7 +16323,7 @@
         <v>402</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="E38" s="2">
         <v>5269000</v>
@@ -15942,10 +16337,10 @@
         <v>292</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E39" s="2">
         <v>2314900</v>
@@ -15956,13 +16351,13 @@
         <v>328</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>953</v>
+        <v>982</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E40" s="2">
         <v>918900</v>
@@ -15976,10 +16371,10 @@
         <v>295</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>944</v>
+        <v>973</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E41" s="2">
         <v>2159900</v>
@@ -15996,7 +16391,7 @@
         <v>402</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>954</v>
+        <v>983</v>
       </c>
       <c r="E42" s="2">
         <v>1106900</v>
@@ -16013,7 +16408,7 @@
         <v>402</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>954</v>
+        <v>983</v>
       </c>
       <c r="E43" s="2">
         <v>1249900</v>
@@ -16030,7 +16425,7 @@
         <v>402</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E44" s="2">
         <v>2900000</v>
@@ -16041,13 +16436,13 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E45" s="2">
         <v>2439900</v>
@@ -16061,10 +16456,10 @@
         <v>298</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>956</v>
+        <v>985</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E46" s="2">
         <v>2734900</v>
@@ -16078,10 +16473,10 @@
         <v>317</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>956</v>
+        <v>985</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E47" s="2">
         <v>1934900</v>
@@ -16098,7 +16493,7 @@
         <v>402</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E48" s="2">
         <v>2064900</v>
@@ -16112,10 +16507,10 @@
         <v>318</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>958</v>
+        <v>987</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E49" s="2">
         <v>2849900</v>
@@ -16123,7 +16518,7 @@
     </row>
     <row r="50" ht="27.15" hidden="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>959</v>
+        <v>988</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>267</v>
@@ -16132,7 +16527,7 @@
         <v>402</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E50" s="2">
         <v>1779000</v>
@@ -16140,7 +16535,7 @@
     </row>
     <row r="51" ht="27.15" hidden="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>959</v>
+        <v>988</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>261</v>
@@ -16149,7 +16544,7 @@
         <v>402</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E51" s="2">
         <v>2150000</v>
@@ -16157,7 +16552,7 @@
     </row>
     <row r="52" ht="27.15" hidden="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>960</v>
+        <v>989</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>266</v>
@@ -16166,7 +16561,7 @@
         <v>402</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E52" s="2">
         <v>2129900</v>
@@ -16174,7 +16569,7 @@
     </row>
     <row r="53" ht="27.15" hidden="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>960</v>
+        <v>989</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>456</v>
@@ -16183,7 +16578,7 @@
         <v>402</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E53" s="2">
         <v>2369900</v>
@@ -16200,7 +16595,7 @@
         <v>402</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E54" s="2">
         <v>1690000</v>
@@ -16217,7 +16612,7 @@
         <v>402</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E55" s="2">
         <v>2869900</v>
@@ -16228,13 +16623,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>961</v>
+        <v>990</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E56" s="2">
         <v>2569900</v>
@@ -16245,13 +16640,13 @@
         <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>962</v>
+        <v>991</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E57" s="2">
         <v>2839900</v>
@@ -16265,10 +16660,10 @@
         <v>27</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E58" s="2">
         <v>3969900</v>
@@ -16282,10 +16677,10 @@
         <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E59" s="2">
         <v>3069900</v>
@@ -16299,10 +16694,10 @@
         <v>33</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E60" s="2">
         <v>3069900</v>
@@ -16313,13 +16708,13 @@
         <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>964</v>
+        <v>993</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>965</v>
+        <v>994</v>
       </c>
       <c r="E61" s="2">
         <v>2899900</v>
@@ -16327,16 +16722,16 @@
     </row>
     <row r="62" ht="40.35" hidden="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>966</v>
+        <v>995</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E62" s="2">
         <v>2374000</v>
@@ -16344,16 +16739,16 @@
     </row>
     <row r="63" ht="40.35" hidden="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>966</v>
+        <v>995</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E63" s="2">
         <v>2411000</v>
@@ -16361,16 +16756,16 @@
     </row>
     <row r="64" ht="40.35" hidden="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>966</v>
+        <v>995</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E64" s="2">
         <v>2024000</v>
@@ -16384,10 +16779,10 @@
         <v>494</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="E65" s="2">
         <v>1124000</v>
@@ -16401,10 +16796,10 @@
         <v>519</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E66" s="2">
         <v>1051000</v>
@@ -16418,10 +16813,10 @@
         <v>516</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>967</v>
+        <v>996</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E67" s="2">
         <v>1657000</v>
@@ -16435,10 +16830,10 @@
         <v>509</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E68" s="2">
         <v>1705000</v>
@@ -16452,10 +16847,10 @@
         <v>57</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>968</v>
+        <v>997</v>
       </c>
       <c r="E69" s="2">
         <v>1699900</v>
@@ -16469,10 +16864,10 @@
         <v>274</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E70" s="2">
         <v>2489900</v>
@@ -16480,16 +16875,16 @@
     </row>
     <row r="71" ht="40.35" hidden="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>969</v>
+        <v>998</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E71" s="2">
         <v>2959900</v>
@@ -16497,16 +16892,16 @@
     </row>
     <row r="72" ht="40.35" hidden="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>970</v>
+        <v>999</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E72" s="2">
         <v>1765000</v>
@@ -16520,10 +16915,10 @@
         <v>447</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>971</v>
+        <v>1000</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>972</v>
+        <v>1001</v>
       </c>
       <c r="E73" s="2">
         <v>4409000</v>
@@ -16537,10 +16932,10 @@
         <v>452</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>971</v>
+        <v>1000</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>972</v>
+        <v>1001</v>
       </c>
       <c r="E74" s="2">
         <v>1690000</v>
@@ -16554,10 +16949,10 @@
         <v>79</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>973</v>
+        <v>1002</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E75" s="2">
         <v>950900</v>
@@ -16574,7 +16969,7 @@
         <v>402</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>947</v>
+        <v>976</v>
       </c>
       <c r="E76" s="2">
         <v>880900</v>
@@ -16588,10 +16983,10 @@
         <v>77</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E77" s="2">
         <v>953900</v>
@@ -16605,10 +17000,10 @@
         <v>227</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E78" s="2">
         <v>2179000</v>
@@ -16625,7 +17020,7 @@
         <v>402</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>974</v>
+        <v>1003</v>
       </c>
       <c r="E79" s="2">
         <v>1579000</v>
@@ -16639,10 +17034,10 @@
         <v>220</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>947</v>
+        <v>976</v>
       </c>
       <c r="E80" s="2">
         <v>4299000</v>
@@ -16659,7 +17054,7 @@
         <v>402</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>975</v>
+        <v>1004</v>
       </c>
       <c r="E81" s="2">
         <v>2049000</v>
@@ -16676,7 +17071,7 @@
         <v>402</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E82" s="2">
         <v>3149000</v>
@@ -16690,10 +17085,10 @@
         <v>450</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>976</v>
+        <v>1005</v>
       </c>
       <c r="E83" s="2">
         <v>2337000</v>
@@ -16704,13 +17099,13 @@
         <v>441</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>977</v>
+        <v>1006</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>976</v>
+        <v>1005</v>
       </c>
       <c r="E84" s="2">
         <v>2762000</v>
@@ -16724,10 +17119,10 @@
         <v>489</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E85" s="2">
         <v>1618000</v>
@@ -16741,10 +17136,10 @@
         <v>495</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="E86" s="2">
         <v>1301000</v>
@@ -16758,10 +17153,10 @@
         <v>501</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="E87" s="2">
         <v>1258000</v>
@@ -16775,10 +17170,10 @@
         <v>502</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="E88" s="2">
         <v>1373000</v>
@@ -16792,10 +17187,10 @@
         <v>492</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>923</v>
+        <v>952</v>
       </c>
       <c r="E89" s="2">
         <v>1724000</v>
@@ -16812,7 +17207,7 @@
         <v>402</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E90" s="2">
         <v>1874000</v>
@@ -16826,10 +17221,10 @@
         <v>512</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E91" s="2">
         <v>2057000</v>
@@ -16843,10 +17238,10 @@
         <v>528</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E92" s="2">
         <v>2118900</v>
@@ -16860,10 +17255,10 @@
         <v>529</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E93" s="2">
         <v>3248000</v>
@@ -16877,10 +17272,10 @@
         <v>530</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E94" s="2">
         <v>5378000</v>
@@ -16894,10 +17289,10 @@
         <v>531</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E95" s="2">
         <v>5806000</v>
@@ -16911,10 +17306,10 @@
         <v>523</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E96" s="2">
         <v>2388000</v>
@@ -16928,10 +17323,10 @@
         <v>524</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E97" s="2">
         <v>2681000</v>
@@ -16945,10 +17340,10 @@
         <v>595</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>978</v>
+        <v>1007</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>923</v>
+        <v>952</v>
       </c>
       <c r="E98" s="2">
         <v>1385900</v>
@@ -16962,10 +17357,10 @@
         <v>279</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>979</v>
+        <v>1008</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>980</v>
+        <v>1009</v>
       </c>
       <c r="E99" s="2">
         <v>1518000</v>
@@ -16979,10 +17374,10 @@
         <v>600</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E100" s="2">
         <v>3375900</v>
@@ -16999,7 +17394,7 @@
         <v>402</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E101" s="2">
         <v>2828900</v>
@@ -17013,10 +17408,10 @@
         <v>32</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E102" s="2">
         <v>4449900</v>
@@ -17033,7 +17428,7 @@
         <v>402</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>981</v>
+        <v>1010</v>
       </c>
       <c r="E103" s="2">
         <v>1229000</v>
@@ -17047,10 +17442,10 @@
         <v>580</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E104" s="2">
         <v>2499000</v>
@@ -17058,16 +17453,16 @@
     </row>
     <row r="105" ht="40.35" hidden="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>982</v>
+        <v>1011</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>577</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>983</v>
+        <v>1012</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>984</v>
+        <v>1013</v>
       </c>
       <c r="E105" s="2">
         <v>1680000</v>
@@ -17075,16 +17470,16 @@
     </row>
     <row r="106" ht="40.35" hidden="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>982</v>
+        <v>1011</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>985</v>
+        <v>1014</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>983</v>
+        <v>1012</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>984</v>
+        <v>1013</v>
       </c>
       <c r="E106" s="2">
         <v>1705000</v>
@@ -17092,7 +17487,7 @@
     </row>
     <row r="107" ht="27.15" hidden="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>982</v>
+        <v>1011</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>36</v>
@@ -17101,7 +17496,7 @@
         <v>402</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>986</v>
+        <v>1015</v>
       </c>
       <c r="E107" s="2">
         <v>1510000</v>
@@ -17118,7 +17513,7 @@
         <v>402</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E108" s="2">
         <v>2570000</v>
@@ -17135,7 +17530,7 @@
         <v>402</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E109" s="2">
         <v>3430000</v>
@@ -17146,13 +17541,13 @@
         <v>50</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>987</v>
+        <v>1016</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E110" s="2">
         <v>2770000</v>
@@ -17166,10 +17561,10 @@
         <v>906</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E111" s="2">
         <v>1970000</v>
@@ -17180,13 +17575,13 @@
         <v>50</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>988</v>
+        <v>1017</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E112" s="2">
         <v>3250000</v>
@@ -17197,13 +17592,13 @@
         <v>50</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>989</v>
+        <v>1018</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E113" s="2">
         <v>3370000</v>
@@ -17220,7 +17615,7 @@
         <v>402</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E114" s="2">
         <v>3759900</v>
@@ -17234,10 +17629,10 @@
         <v>117</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E115" s="2">
         <v>3380000</v>
@@ -17251,10 +17646,10 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E116" s="2">
         <v>3810000</v>
@@ -17271,7 +17666,7 @@
         <v>402</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E117" s="2">
         <v>4910000</v>
@@ -17288,7 +17683,7 @@
         <v>402</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E118" s="2">
         <v>4550000</v>
@@ -17305,7 +17700,7 @@
         <v>402</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E119" s="2">
         <v>2080000</v>
@@ -17322,7 +17717,7 @@
         <v>402</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E120" s="2">
         <v>2225000</v>
@@ -17339,7 +17734,7 @@
         <v>402</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E121" s="2">
         <v>2970000</v>
@@ -17353,10 +17748,10 @@
         <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E122" s="2">
         <v>4350000</v>
@@ -17370,10 +17765,10 @@
         <v>277</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E123" s="2">
         <v>2999900</v>
@@ -17390,7 +17785,7 @@
         <v>402</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E124" s="2">
         <v>3479900</v>
@@ -17404,10 +17799,10 @@
         <v>281</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E125" s="2">
         <v>1990000</v>
@@ -17421,10 +17816,10 @@
         <v>282</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E126" s="2">
         <v>2149000</v>
@@ -17441,7 +17836,7 @@
         <v>402</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E127" s="2">
         <v>2115000</v>
@@ -17458,7 +17853,7 @@
         <v>402</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E128" s="2">
         <v>2238000</v>
@@ -17475,7 +17870,7 @@
         <v>402</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E129" s="2">
         <v>2514900</v>
@@ -17492,7 +17887,7 @@
         <v>402</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E130" s="2">
         <v>2997900</v>
@@ -17500,16 +17895,16 @@
     </row>
     <row r="131" ht="27.15" hidden="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>990</v>
+        <v>1019</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>991</v>
+        <v>1020</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E131" s="2">
         <v>2549900</v>
@@ -17517,16 +17912,16 @@
     </row>
     <row r="132" ht="27.15" hidden="1" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>990</v>
+        <v>1019</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>992</v>
+        <v>1021</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E132" s="2">
         <v>2629900</v>
@@ -17534,16 +17929,16 @@
     </row>
     <row r="133" ht="27.15" hidden="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>970</v>
+        <v>999</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>993</v>
+        <v>1022</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E133" s="2">
         <v>4100000</v>
@@ -17560,7 +17955,7 @@
         <v>402</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>976</v>
+        <v>1005</v>
       </c>
       <c r="E134" s="2">
         <v>2219900</v>
@@ -17571,13 +17966,13 @@
         <v>20</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>994</v>
+        <v>1023</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E135" s="2">
         <v>2499900</v>
@@ -17585,7 +17980,7 @@
     </row>
     <row r="136" ht="27.15" hidden="1" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>966</v>
+        <v>995</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>138</v>
@@ -17594,7 +17989,7 @@
         <v>402</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>995</v>
+        <v>1024</v>
       </c>
       <c r="E136" s="2">
         <v>1602000</v>
@@ -17602,16 +17997,16 @@
     </row>
     <row r="137" ht="40.35" hidden="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>966</v>
+        <v>995</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="E137" s="2">
         <v>1508000</v>
@@ -17628,7 +18023,7 @@
         <v>402</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E138" s="2">
         <v>4549990</v>
@@ -17645,7 +18040,7 @@
         <v>402</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E139" s="2">
         <v>2479990</v>
@@ -17662,7 +18057,7 @@
         <v>402</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>996</v>
+        <v>1025</v>
       </c>
       <c r="E140" s="2">
         <v>2075990</v>
@@ -17679,7 +18074,7 @@
         <v>402</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E141" s="2">
         <v>2080990</v>
@@ -17693,10 +18088,10 @@
         <v>369</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>917</v>
+        <v>946</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E142" s="2">
         <v>2273000</v>
@@ -17710,10 +18105,10 @@
         <v>651</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>917</v>
+        <v>946</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E143" s="2">
         <v>2443000</v>
@@ -17727,10 +18122,10 @@
         <v>670</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E144" s="2">
         <v>1341000</v>
@@ -17741,13 +18136,13 @@
         <v>328</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>997</v>
+        <v>1026</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E145" s="2">
         <v>1381000</v>
@@ -17758,13 +18153,13 @@
         <v>328</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>998</v>
+        <v>1027</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E146" s="2">
         <v>1493000</v>
@@ -17775,13 +18170,13 @@
         <v>328</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>999</v>
+        <v>1028</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E147" s="2">
         <v>1533000</v>
@@ -17795,10 +18190,10 @@
         <v>348</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E148" s="2">
         <v>1670000</v>
@@ -17815,7 +18210,7 @@
         <v>402</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E149" s="2">
         <v>1487000</v>
@@ -17826,13 +18221,13 @@
         <v>50</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1000</v>
+        <v>1029</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E150" s="2">
         <v>4850000</v>
@@ -17843,13 +18238,13 @@
         <v>50</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1001</v>
+        <v>1030</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E151" s="2">
         <v>4000000</v>
@@ -17860,13 +18255,13 @@
         <v>50</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1002</v>
+        <v>1031</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E152" s="2">
         <v>4930000</v>
@@ -17880,10 +18275,10 @@
         <v>187</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E153" s="2">
         <v>3692990</v>
@@ -17897,10 +18292,10 @@
         <v>734</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>934</v>
+        <v>963</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>935</v>
+        <v>964</v>
       </c>
       <c r="E154" s="2">
         <v>3979000</v>
@@ -17917,7 +18312,7 @@
         <v>402</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E155" s="2">
         <v>4099000</v>
@@ -17934,7 +18329,7 @@
         <v>402</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E156" s="2">
         <v>3449000</v>
@@ -17951,7 +18346,7 @@
         <v>402</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E157" s="2">
         <v>2799000</v>
@@ -17962,13 +18357,13 @@
         <v>193</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1003</v>
+        <v>1032</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E158" s="2">
         <v>3549000</v>
@@ -17979,13 +18374,13 @@
         <v>193</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1004</v>
+        <v>1033</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E159" s="2">
         <v>3299000</v>
@@ -17999,10 +18394,10 @@
         <v>315</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1005</v>
+        <v>1034</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E160" s="2">
         <v>7374900</v>
@@ -18016,10 +18411,10 @@
         <v>324</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>934</v>
+        <v>963</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E161" s="2">
         <v>3789900</v>
@@ -18033,10 +18428,10 @@
         <v>326</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1006</v>
+        <v>1035</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E162" s="2">
         <v>5829900</v>
@@ -18050,10 +18445,10 @@
         <v>289</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>934</v>
+        <v>963</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E163" s="2">
         <v>4144900</v>
@@ -18061,16 +18456,16 @@
     </row>
     <row r="164" ht="27.15" hidden="1" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>990</v>
+        <v>1019</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1007</v>
+        <v>1036</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E164" s="2">
         <v>1672000</v>
@@ -18087,7 +18482,7 @@
         <v>402</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E165" s="2">
         <v>2040546</v>
@@ -18104,7 +18499,7 @@
         <v>402</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E166" s="2">
         <v>3100000</v>
@@ -18121,7 +18516,7 @@
         <v>402</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E167" s="2">
         <v>2990000</v>
@@ -18135,10 +18530,10 @@
         <v>602</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>956</v>
+        <v>985</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>968</v>
+        <v>997</v>
       </c>
       <c r="E168" s="2">
         <v>8669500</v>
@@ -18152,10 +18547,10 @@
         <v>654</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1008</v>
+        <v>1037</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E169" s="2">
         <v>4291000</v>
@@ -18169,10 +18564,10 @@
         <v>598</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E170" s="2">
         <v>6146500</v>
@@ -18180,7 +18575,7 @@
     </row>
     <row r="171" ht="27.15" hidden="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>959</v>
+        <v>988</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>262</v>
@@ -18189,7 +18584,7 @@
         <v>402</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E171" s="2">
         <v>1889000</v>
@@ -18197,7 +18592,7 @@
     </row>
     <row r="172" ht="27.15" hidden="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>959</v>
+        <v>988</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>264</v>
@@ -18206,7 +18601,7 @@
         <v>402</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E172" s="2">
         <v>2399000</v>
@@ -18214,7 +18609,7 @@
     </row>
     <row r="173" ht="27.15" hidden="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>959</v>
+        <v>988</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>631</v>
@@ -18223,7 +18618,7 @@
         <v>402</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E173" s="2">
         <v>3059000</v>
@@ -18231,16 +18626,16 @@
     </row>
     <row r="174" ht="27.15" hidden="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>959</v>
+        <v>988</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1009</v>
+        <v>1038</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E174" s="2">
         <v>3279000</v>
@@ -18248,7 +18643,7 @@
     </row>
     <row r="175" ht="27.15" hidden="1" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>959</v>
+        <v>988</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>632</v>
@@ -18257,7 +18652,7 @@
         <v>402</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E175" s="2">
         <v>3599000</v>
@@ -18265,7 +18660,7 @@
     </row>
     <row r="176" ht="27.15" hidden="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1010</v>
+        <v>1039</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>168</v>
@@ -18274,7 +18669,7 @@
         <v>402</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E176" s="2">
         <v>5499999</v>
@@ -18282,16 +18677,16 @@
     </row>
     <row r="177" ht="27.15" hidden="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>1010</v>
+        <v>1039</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E177" s="2">
         <v>4099000</v>
@@ -18299,7 +18694,7 @@
     </row>
     <row r="178" ht="27.15" hidden="1" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>1010</v>
+        <v>1039</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>162</v>
@@ -18308,7 +18703,7 @@
         <v>402</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E178" s="2">
         <v>2449000</v>
@@ -18319,13 +18714,13 @@
         <v>20</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1011</v>
+        <v>1040</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1006</v>
+        <v>1035</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E179" s="2">
         <v>4529900</v>
@@ -18342,7 +18737,7 @@
         <v>402</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E180" s="2">
         <v>3739900</v>
@@ -18353,13 +18748,13 @@
         <v>20</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1012</v>
+        <v>1041</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E181" s="2">
         <v>5219900</v>
@@ -18370,13 +18765,13 @@
         <v>50</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1013</v>
+        <v>1042</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E182" s="2">
         <v>2780000</v>
@@ -18393,7 +18788,7 @@
         <v>402</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E183" s="2">
         <v>2020000</v>
@@ -18410,7 +18805,7 @@
         <v>402</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E184" s="2">
         <v>2650000</v>
@@ -18427,7 +18822,7 @@
         <v>402</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E185" s="2">
         <v>2080000</v>
@@ -18444,7 +18839,7 @@
         <v>402</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E186" s="2">
         <v>2181000</v>
@@ -18458,10 +18853,10 @@
         <v>5</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>947</v>
+        <v>976</v>
       </c>
       <c r="E187" s="2">
         <v>2279000</v>
@@ -18475,10 +18870,10 @@
         <v>6</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>947</v>
+        <v>976</v>
       </c>
       <c r="E188" s="2">
         <v>2899000</v>
@@ -18492,10 +18887,10 @@
         <v>424</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="E189" s="2">
         <v>2379000</v>
@@ -18503,16 +18898,16 @@
     </row>
     <row r="190" ht="27.15" hidden="1" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>1014</v>
+        <v>1043</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1015</v>
+        <v>1044</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E190" s="2">
         <v>2499000</v>
@@ -18520,7 +18915,7 @@
     </row>
     <row r="191" ht="27.15" hidden="1" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>960</v>
+        <v>989</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>457</v>
@@ -18529,7 +18924,7 @@
         <v>402</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E191" s="2">
         <v>2479900</v>
@@ -18546,7 +18941,7 @@
         <v>402</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E192" s="2">
         <v>3959000</v>
@@ -18557,13 +18952,13 @@
         <v>114</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1016</v>
+        <v>1045</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1006</v>
+        <v>1035</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E193" s="2">
         <v>2890000</v>
@@ -18574,13 +18969,13 @@
         <v>114</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1017</v>
+        <v>1046</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1006</v>
+        <v>1035</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E194" s="2">
         <v>4080000</v>
@@ -18591,13 +18986,13 @@
         <v>114</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1018</v>
+        <v>1047</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E195" s="2">
         <v>6290000</v>
@@ -18605,7 +19000,7 @@
     </row>
     <row r="196" ht="27.15" hidden="1" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>970</v>
+        <v>999</v>
       </c>
       <c r="B196" s="2">
         <v>6</v>
@@ -18614,7 +19009,7 @@
         <v>402</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E196" s="2">
         <v>2200000</v>
@@ -18622,7 +19017,7 @@
     </row>
     <row r="197" ht="27.15" hidden="1" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>969</v>
+        <v>998</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>272</v>
@@ -18631,7 +19026,7 @@
         <v>402</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E197" s="2">
         <v>4599000</v>
@@ -18648,7 +19043,7 @@
         <v>402</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E198" s="2">
         <v>2199000</v>
@@ -18659,13 +19054,13 @@
         <v>208</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1019</v>
+        <v>1048</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E199" s="2">
         <v>4599000</v>
@@ -18676,13 +19071,13 @@
         <v>98</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1020</v>
+        <v>1049</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E200" s="2">
         <v>1990000</v>
@@ -18693,13 +19088,13 @@
         <v>98</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1021</v>
+        <v>1050</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E201" s="2">
         <v>3590000</v>
@@ -18716,7 +19111,7 @@
         <v>402</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E202" s="2">
         <v>2650000</v>
@@ -18727,13 +19122,13 @@
         <v>208</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1022</v>
+        <v>1051</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E203" s="2">
         <v>2849000</v>
@@ -18741,7 +19136,7 @@
     </row>
     <row r="204" ht="27.15" hidden="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>1010</v>
+        <v>1039</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>164</v>
@@ -18750,7 +19145,7 @@
         <v>402</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E204" s="2">
         <v>2099000</v>
@@ -18767,7 +19162,7 @@
         <v>402</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1023</v>
+        <v>1052</v>
       </c>
       <c r="E205" s="2">
         <v>1263000</v>
@@ -18784,7 +19179,7 @@
         <v>402</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E206" s="2">
         <v>1546500</v>
@@ -18801,7 +19196,7 @@
         <v>402</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1024</v>
+        <v>1053</v>
       </c>
       <c r="E207" s="2">
         <v>883000</v>
@@ -18818,7 +19213,7 @@
         <v>402</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1025</v>
+        <v>1054</v>
       </c>
       <c r="E208" s="2">
         <v>825000</v>
@@ -18835,7 +19230,7 @@
         <v>402</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1024</v>
+        <v>1053</v>
       </c>
       <c r="E209" s="2">
         <v>851000</v>
@@ -18846,13 +19241,13 @@
         <v>169</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1026</v>
+        <v>1055</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1006</v>
+        <v>1035</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E210" s="2">
         <v>3357990</v>
@@ -18863,13 +19258,13 @@
         <v>208</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1027</v>
+        <v>1056</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E211" s="2">
         <v>3899000</v>
@@ -18886,7 +19281,7 @@
         <v>402</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E212" s="2">
         <v>1990000</v>
@@ -18903,7 +19298,7 @@
         <v>402</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E213" s="2">
         <v>2199000</v>
@@ -18920,7 +19315,7 @@
         <v>402</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>981</v>
+        <v>1010</v>
       </c>
       <c r="E214" s="2">
         <v>789900</v>
@@ -18934,10 +19329,10 @@
         <v>388</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1006</v>
+        <v>1035</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1028</v>
+        <v>1057</v>
       </c>
       <c r="E215" s="2">
         <v>869900</v>
@@ -18954,7 +19349,7 @@
         <v>402</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1029</v>
+        <v>1058</v>
       </c>
       <c r="E216" s="2">
         <v>1089000</v>
@@ -18971,7 +19366,7 @@
         <v>402</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1024</v>
+        <v>1053</v>
       </c>
       <c r="E217" s="2">
         <v>999900</v>
@@ -18988,7 +19383,7 @@
         <v>402</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1025</v>
+        <v>1054</v>
       </c>
       <c r="E218" s="2">
         <v>1455000</v>
@@ -19002,10 +19397,10 @@
         <v>386</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1028</v>
+        <v>1057</v>
       </c>
       <c r="E219" s="2">
         <v>809900</v>
@@ -19022,7 +19417,7 @@
         <v>402</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>935</v>
+        <v>964</v>
       </c>
       <c r="E220" s="2">
         <v>2000000</v>
@@ -19039,7 +19434,7 @@
         <v>402</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1024</v>
+        <v>1053</v>
       </c>
       <c r="E221" s="2">
         <v>1229900</v>
@@ -19056,7 +19451,7 @@
         <v>402</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="E222" s="2">
         <v>2656800</v>
@@ -19067,13 +19462,13 @@
         <v>328</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1030</v>
+        <v>1059</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>974</v>
+        <v>1003</v>
       </c>
       <c r="E223" s="2">
         <v>824000</v>
@@ -19084,13 +19479,13 @@
         <v>288</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1031</v>
+        <v>1060</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>980</v>
+        <v>1009</v>
       </c>
       <c r="E224" s="2">
         <v>1204900</v>
@@ -19107,7 +19502,7 @@
         <v>402</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>943</v>
+        <v>972</v>
       </c>
       <c r="E225" s="2">
         <v>2234900</v>
@@ -19115,16 +19510,16 @@
     </row>
     <row r="226" ht="40.35" hidden="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>966</v>
+        <v>995</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>950</v>
+        <v>979</v>
       </c>
       <c r="E226" s="2">
         <v>2673000</v>
@@ -19141,7 +19536,7 @@
         <v>402</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1032</v>
+        <v>1061</v>
       </c>
       <c r="E227" s="2">
         <v>1419990</v>
@@ -19149,7 +19544,7 @@
     </row>
     <row r="228" ht="27.15" hidden="1" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>959</v>
+        <v>988</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>265</v>
@@ -19158,7 +19553,7 @@
         <v>402</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1033</v>
+        <v>1062</v>
       </c>
       <c r="E228" s="2">
         <v>1494000</v>
@@ -19175,7 +19570,7 @@
         <v>402</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E229" s="2">
         <v>2849990</v>
@@ -19189,10 +19584,10 @@
         <v>573</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1034</v>
+        <v>1063</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="E230" s="2">
         <v>3173000</v>
@@ -19203,13 +19598,13 @@
         <v>50</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>1006</v>
-      </c>
       <c r="D231" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E231" s="2">
         <v>2380000</v>
@@ -19226,7 +19621,7 @@
         <v>402</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E232" s="2">
         <v>2599000</v>
@@ -19234,16 +19629,16 @@
     </row>
     <row r="233" ht="27.15" hidden="1" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>1014</v>
+        <v>1043</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1036</v>
+        <v>1065</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E233" s="2">
         <v>2999000</v>
@@ -19254,13 +19649,13 @@
         <v>20</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1037</v>
+        <v>1066</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>956</v>
+        <v>985</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E234" s="2">
         <v>3590000</v>
@@ -19268,16 +19663,16 @@
     </row>
     <row r="235" ht="40.35" hidden="1" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>960</v>
+        <v>989</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1038</v>
+        <v>1067</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E235" s="2">
         <v>2569900</v>
@@ -19294,7 +19689,7 @@
         <v>402</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E236" s="2">
         <v>4750000</v>
@@ -19302,16 +19697,16 @@
     </row>
     <row r="237" ht="40.35" hidden="1" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>966</v>
+        <v>995</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1039</v>
+        <v>1068</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E237" s="2">
         <v>2499990</v>
@@ -19319,7 +19714,7 @@
     </row>
     <row r="238" ht="27.15" hidden="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>966</v>
+        <v>995</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>770</v>
@@ -19328,7 +19723,7 @@
         <v>402</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E238" s="2">
         <v>2779990</v>
@@ -19342,10 +19737,10 @@
         <v>13</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1006</v>
+        <v>1035</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E239" s="2">
         <v>2649000</v>
@@ -19359,10 +19754,10 @@
         <v>580</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E240" s="2">
         <v>1899000</v>
@@ -19379,7 +19774,7 @@
         <v>402</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E241" s="2">
         <v>2825990</v>
@@ -19387,7 +19782,7 @@
     </row>
     <row r="242" ht="27.15" hidden="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>937</v>
+        <v>966</v>
       </c>
       <c r="B242" s="2">
         <v>400</v>
@@ -19396,7 +19791,7 @@
         <v>402</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="E242" s="2">
         <v>5799000</v>
@@ -19404,7 +19799,7 @@
     </row>
     <row r="243" ht="27.15" hidden="1" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>959</v>
+        <v>988</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>268</v>
@@ -19413,7 +19808,7 @@
         <v>402</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
       <c r="E243" s="2">
         <v>2899000</v>
@@ -19430,7 +19825,7 @@
         <v>402</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E244" s="2">
         <v>1887500</v>
@@ -19447,7 +19842,7 @@
         <v>402</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="E245" s="2">
         <v>1805000</v>
@@ -19464,7 +19859,7 @@
         <v>402</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E246" s="2">
         <v>1684500</v>
@@ -19472,7 +19867,7 @@
     </row>
     <row r="247" ht="27.15" hidden="1" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>1041</v>
+        <v>1070</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>762</v>
@@ -19481,7 +19876,7 @@
         <v>402</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E247" s="2">
         <v>3899000</v>
@@ -19489,7 +19884,7 @@
     </row>
     <row r="248" ht="27.15" hidden="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>1041</v>
+        <v>1070</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>761</v>
@@ -19498,7 +19893,7 @@
         <v>402</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E248" s="2">
         <v>3099000</v>
@@ -19506,7 +19901,7 @@
     </row>
     <row r="249" ht="27.15" hidden="1" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1042</v>
+        <v>1071</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -19515,7 +19910,7 @@
         <v>402</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E249" s="2">
         <v>4162990</v>

--- a/id.xlsx
+++ b/id.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8615"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$879</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$907</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="1074">
   <si>
     <t>Aito</t>
   </si>
@@ -2852,6 +2852,12 @@
   </si>
   <si>
     <t>ET</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>Empow</t>
   </si>
   <si>
     <t>Марка</t>
@@ -4238,10 +4244,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F907"/>
+  <dimension ref="A1:F909"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A890" workbookViewId="0">
-      <selection activeCell="E901" sqref="E901"/>
+    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
+      <selection activeCell="G908" sqref="G908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -15663,8 +15669,30 @@
         <v>939</v>
       </c>
     </row>
+    <row r="908" spans="1:3">
+      <c r="A908">
+        <v>1007</v>
+      </c>
+      <c r="B908" t="s">
+        <v>208</v>
+      </c>
+      <c r="C908" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3">
+      <c r="A909">
+        <v>1008</v>
+      </c>
+      <c r="B909" t="s">
+        <v>157</v>
+      </c>
+      <c r="C909" t="s">
+        <v>941</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E879" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E907" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15685,19 +15713,19 @@
   <sheetData>
     <row r="1" ht="27.15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="2" ht="40.35" hidden="1" spans="1:5">
@@ -15705,13 +15733,13 @@
         <v>328</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E2" s="2">
         <v>1239900</v>
@@ -15725,10 +15753,10 @@
         <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E3" s="2">
         <v>1759000</v>
@@ -15742,10 +15770,10 @@
         <v>370</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E4" s="2">
         <v>1655000</v>
@@ -15759,10 +15787,10 @@
         <v>372</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E5" s="2">
         <v>1879000</v>
@@ -15773,13 +15801,13 @@
         <v>328</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E6" s="2">
         <v>1077000</v>
@@ -15793,10 +15821,10 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E7" s="2">
         <v>1408000</v>
@@ -15807,13 +15835,13 @@
         <v>328</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E8" s="2">
         <v>749900</v>
@@ -15827,10 +15855,10 @@
         <v>330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E9" s="2">
         <v>1175000</v>
@@ -15844,10 +15872,10 @@
         <v>242</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E10" s="2">
         <v>2149000</v>
@@ -15861,10 +15889,10 @@
         <v>346</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E11" s="2">
         <v>1660000</v>
@@ -15878,10 +15906,10 @@
         <v>347</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E12" s="2">
         <v>2020000</v>
@@ -15895,10 +15923,10 @@
         <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E13" s="2">
         <v>1859000</v>
@@ -15912,10 +15940,10 @@
         <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E14" s="2">
         <v>1334900</v>
@@ -15926,13 +15954,13 @@
         <v>169</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E15" s="2">
         <v>3512990</v>
@@ -15949,7 +15977,7 @@
         <v>402</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E16" s="2">
         <v>2836990</v>
@@ -15966,7 +15994,7 @@
         <v>402</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E17" s="2">
         <v>1850000</v>
@@ -15980,10 +16008,10 @@
         <v>256</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="E18" s="2">
         <v>2749000</v>
@@ -15997,10 +16025,10 @@
         <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E19" s="2">
         <v>2179990</v>
@@ -16011,13 +16039,13 @@
         <v>169</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E20" s="2">
         <v>2794990</v>
@@ -16031,10 +16059,10 @@
         <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E21" s="2">
         <v>3959990</v>
@@ -16042,7 +16070,7 @@
     </row>
     <row r="22" ht="27.15" hidden="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -16051,7 +16079,7 @@
         <v>402</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E22" s="2">
         <v>4499000</v>
@@ -16059,7 +16087,7 @@
     </row>
     <row r="23" ht="27.15" hidden="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
@@ -16068,7 +16096,7 @@
         <v>402</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E23" s="2">
         <v>6799000</v>
@@ -16079,13 +16107,13 @@
         <v>328</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E24" s="2">
         <v>778500</v>
@@ -16096,13 +16124,13 @@
         <v>328</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E25" s="2">
         <v>719300</v>
@@ -16113,13 +16141,13 @@
         <v>328</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E26" s="2">
         <v>950900</v>
@@ -16133,10 +16161,10 @@
         <v>363</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E27" s="2">
         <v>1316900</v>
@@ -16147,13 +16175,13 @@
         <v>234</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E28" s="2">
         <v>2769000</v>
@@ -16167,10 +16195,10 @@
         <v>290</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E29" s="2">
         <v>2244900</v>
@@ -16184,10 +16212,10 @@
         <v>305</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E30" s="2">
         <v>1574900</v>
@@ -16201,10 +16229,10 @@
         <v>303</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E31" s="2">
         <v>1434900</v>
@@ -16215,13 +16243,13 @@
         <v>328</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E32" s="2">
         <v>1059000</v>
@@ -16235,10 +16263,10 @@
         <v>249</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E33" s="2">
         <v>3969000</v>
@@ -16255,7 +16283,7 @@
         <v>402</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E34" s="2">
         <v>1314000</v>
@@ -16266,13 +16294,13 @@
         <v>208</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E35" s="2">
         <v>2149000</v>
@@ -16286,10 +16314,10 @@
         <v>224</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E36" s="2">
         <v>2599000</v>
@@ -16300,13 +16328,13 @@
         <v>208</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E37" s="2">
         <v>2599000</v>
@@ -16323,7 +16351,7 @@
         <v>402</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E38" s="2">
         <v>5269000</v>
@@ -16337,10 +16365,10 @@
         <v>292</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E39" s="2">
         <v>2314900</v>
@@ -16351,13 +16379,13 @@
         <v>328</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E40" s="2">
         <v>918900</v>
@@ -16371,10 +16399,10 @@
         <v>295</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E41" s="2">
         <v>2159900</v>
@@ -16391,7 +16419,7 @@
         <v>402</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E42" s="2">
         <v>1106900</v>
@@ -16408,7 +16436,7 @@
         <v>402</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E43" s="2">
         <v>1249900</v>
@@ -16425,7 +16453,7 @@
         <v>402</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E44" s="2">
         <v>2900000</v>
@@ -16436,13 +16464,13 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E45" s="2">
         <v>2439900</v>
@@ -16456,10 +16484,10 @@
         <v>298</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E46" s="2">
         <v>2734900</v>
@@ -16473,10 +16501,10 @@
         <v>317</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E47" s="2">
         <v>1934900</v>
@@ -16493,7 +16521,7 @@
         <v>402</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E48" s="2">
         <v>2064900</v>
@@ -16507,10 +16535,10 @@
         <v>318</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E49" s="2">
         <v>2849900</v>
@@ -16518,7 +16546,7 @@
     </row>
     <row r="50" ht="27.15" hidden="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>267</v>
@@ -16527,7 +16555,7 @@
         <v>402</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E50" s="2">
         <v>1779000</v>
@@ -16535,7 +16563,7 @@
     </row>
     <row r="51" ht="27.15" hidden="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>261</v>
@@ -16544,7 +16572,7 @@
         <v>402</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E51" s="2">
         <v>2150000</v>
@@ -16552,7 +16580,7 @@
     </row>
     <row r="52" ht="27.15" hidden="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>266</v>
@@ -16561,7 +16589,7 @@
         <v>402</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E52" s="2">
         <v>2129900</v>
@@ -16569,7 +16597,7 @@
     </row>
     <row r="53" ht="27.15" hidden="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>456</v>
@@ -16578,7 +16606,7 @@
         <v>402</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E53" s="2">
         <v>2369900</v>
@@ -16595,7 +16623,7 @@
         <v>402</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E54" s="2">
         <v>1690000</v>
@@ -16612,7 +16640,7 @@
         <v>402</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E55" s="2">
         <v>2869900</v>
@@ -16623,13 +16651,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E56" s="2">
         <v>2569900</v>
@@ -16640,13 +16668,13 @@
         <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E57" s="2">
         <v>2839900</v>
@@ -16660,10 +16688,10 @@
         <v>27</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E58" s="2">
         <v>3969900</v>
@@ -16677,10 +16705,10 @@
         <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E59" s="2">
         <v>3069900</v>
@@ -16694,10 +16722,10 @@
         <v>33</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E60" s="2">
         <v>3069900</v>
@@ -16708,13 +16736,13 @@
         <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E61" s="2">
         <v>2899900</v>
@@ -16722,16 +16750,16 @@
     </row>
     <row r="62" ht="40.35" hidden="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E62" s="2">
         <v>2374000</v>
@@ -16739,16 +16767,16 @@
     </row>
     <row r="63" ht="40.35" hidden="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E63" s="2">
         <v>2411000</v>
@@ -16756,16 +16784,16 @@
     </row>
     <row r="64" ht="40.35" hidden="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E64" s="2">
         <v>2024000</v>
@@ -16779,10 +16807,10 @@
         <v>494</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E65" s="2">
         <v>1124000</v>
@@ -16796,10 +16824,10 @@
         <v>519</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E66" s="2">
         <v>1051000</v>
@@ -16813,10 +16841,10 @@
         <v>516</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E67" s="2">
         <v>1657000</v>
@@ -16830,10 +16858,10 @@
         <v>509</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E68" s="2">
         <v>1705000</v>
@@ -16847,10 +16875,10 @@
         <v>57</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E69" s="2">
         <v>1699900</v>
@@ -16864,10 +16892,10 @@
         <v>274</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E70" s="2">
         <v>2489900</v>
@@ -16875,16 +16903,16 @@
     </row>
     <row r="71" ht="40.35" hidden="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E71" s="2">
         <v>2959900</v>
@@ -16892,16 +16920,16 @@
     </row>
     <row r="72" ht="40.35" hidden="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E72" s="2">
         <v>1765000</v>
@@ -16915,10 +16943,10 @@
         <v>447</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E73" s="2">
         <v>4409000</v>
@@ -16932,10 +16960,10 @@
         <v>452</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E74" s="2">
         <v>1690000</v>
@@ -16949,10 +16977,10 @@
         <v>79</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E75" s="2">
         <v>950900</v>
@@ -16969,7 +16997,7 @@
         <v>402</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E76" s="2">
         <v>880900</v>
@@ -16983,10 +17011,10 @@
         <v>77</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E77" s="2">
         <v>953900</v>
@@ -17000,10 +17028,10 @@
         <v>227</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E78" s="2">
         <v>2179000</v>
@@ -17020,7 +17048,7 @@
         <v>402</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E79" s="2">
         <v>1579000</v>
@@ -17034,10 +17062,10 @@
         <v>220</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E80" s="2">
         <v>4299000</v>
@@ -17054,7 +17082,7 @@
         <v>402</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E81" s="2">
         <v>2049000</v>
@@ -17071,7 +17099,7 @@
         <v>402</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E82" s="2">
         <v>3149000</v>
@@ -17085,10 +17113,10 @@
         <v>450</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E83" s="2">
         <v>2337000</v>
@@ -17099,13 +17127,13 @@
         <v>441</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E84" s="2">
         <v>2762000</v>
@@ -17119,10 +17147,10 @@
         <v>489</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E85" s="2">
         <v>1618000</v>
@@ -17136,10 +17164,10 @@
         <v>495</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E86" s="2">
         <v>1301000</v>
@@ -17153,10 +17181,10 @@
         <v>501</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E87" s="2">
         <v>1258000</v>
@@ -17170,10 +17198,10 @@
         <v>502</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E88" s="2">
         <v>1373000</v>
@@ -17187,10 +17215,10 @@
         <v>492</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E89" s="2">
         <v>1724000</v>
@@ -17207,7 +17235,7 @@
         <v>402</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E90" s="2">
         <v>1874000</v>
@@ -17221,10 +17249,10 @@
         <v>512</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E91" s="2">
         <v>2057000</v>
@@ -17238,10 +17266,10 @@
         <v>528</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E92" s="2">
         <v>2118900</v>
@@ -17255,10 +17283,10 @@
         <v>529</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E93" s="2">
         <v>3248000</v>
@@ -17272,10 +17300,10 @@
         <v>530</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E94" s="2">
         <v>5378000</v>
@@ -17289,10 +17317,10 @@
         <v>531</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E95" s="2">
         <v>5806000</v>
@@ -17306,10 +17334,10 @@
         <v>523</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E96" s="2">
         <v>2388000</v>
@@ -17323,10 +17351,10 @@
         <v>524</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E97" s="2">
         <v>2681000</v>
@@ -17340,10 +17368,10 @@
         <v>595</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E98" s="2">
         <v>1385900</v>
@@ -17357,10 +17385,10 @@
         <v>279</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="E99" s="2">
         <v>1518000</v>
@@ -17374,10 +17402,10 @@
         <v>600</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E100" s="2">
         <v>3375900</v>
@@ -17394,7 +17422,7 @@
         <v>402</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E101" s="2">
         <v>2828900</v>
@@ -17408,10 +17436,10 @@
         <v>32</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E102" s="2">
         <v>4449900</v>
@@ -17428,7 +17456,7 @@
         <v>402</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E103" s="2">
         <v>1229000</v>
@@ -17442,10 +17470,10 @@
         <v>580</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E104" s="2">
         <v>2499000</v>
@@ -17453,16 +17481,16 @@
     </row>
     <row r="105" ht="40.35" hidden="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>577</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="E105" s="2">
         <v>1680000</v>
@@ -17470,16 +17498,16 @@
     </row>
     <row r="106" ht="40.35" hidden="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>1012</v>
-      </c>
       <c r="D106" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="E106" s="2">
         <v>1705000</v>
@@ -17487,7 +17515,7 @@
     </row>
     <row r="107" ht="27.15" hidden="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>36</v>
@@ -17496,7 +17524,7 @@
         <v>402</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E107" s="2">
         <v>1510000</v>
@@ -17513,7 +17541,7 @@
         <v>402</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E108" s="2">
         <v>2570000</v>
@@ -17530,7 +17558,7 @@
         <v>402</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E109" s="2">
         <v>3430000</v>
@@ -17541,13 +17569,13 @@
         <v>50</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E110" s="2">
         <v>2770000</v>
@@ -17561,10 +17589,10 @@
         <v>906</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E111" s="2">
         <v>1970000</v>
@@ -17575,13 +17603,13 @@
         <v>50</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E112" s="2">
         <v>3250000</v>
@@ -17592,13 +17620,13 @@
         <v>50</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E113" s="2">
         <v>3370000</v>
@@ -17615,7 +17643,7 @@
         <v>402</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E114" s="2">
         <v>3759900</v>
@@ -17629,10 +17657,10 @@
         <v>117</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E115" s="2">
         <v>3380000</v>
@@ -17646,10 +17674,10 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E116" s="2">
         <v>3810000</v>
@@ -17666,7 +17694,7 @@
         <v>402</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E117" s="2">
         <v>4910000</v>
@@ -17683,7 +17711,7 @@
         <v>402</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E118" s="2">
         <v>4550000</v>
@@ -17700,7 +17728,7 @@
         <v>402</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E119" s="2">
         <v>2080000</v>
@@ -17717,7 +17745,7 @@
         <v>402</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E120" s="2">
         <v>2225000</v>
@@ -17734,7 +17762,7 @@
         <v>402</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E121" s="2">
         <v>2970000</v>
@@ -17748,10 +17776,10 @@
         <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E122" s="2">
         <v>4350000</v>
@@ -17765,10 +17793,10 @@
         <v>277</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E123" s="2">
         <v>2999900</v>
@@ -17785,7 +17813,7 @@
         <v>402</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E124" s="2">
         <v>3479900</v>
@@ -17799,10 +17827,10 @@
         <v>281</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>947</v>
       </c>
       <c r="E125" s="2">
         <v>1990000</v>
@@ -17816,10 +17844,10 @@
         <v>282</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>947</v>
       </c>
       <c r="E126" s="2">
         <v>2149000</v>
@@ -17836,7 +17864,7 @@
         <v>402</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E127" s="2">
         <v>2115000</v>
@@ -17853,7 +17881,7 @@
         <v>402</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E128" s="2">
         <v>2238000</v>
@@ -17870,7 +17898,7 @@
         <v>402</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E129" s="2">
         <v>2514900</v>
@@ -17887,7 +17915,7 @@
         <v>402</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E130" s="2">
         <v>2997900</v>
@@ -17895,16 +17923,16 @@
     </row>
     <row r="131" ht="27.15" hidden="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E131" s="2">
         <v>2549900</v>
@@ -17912,16 +17940,16 @@
     </row>
     <row r="132" ht="27.15" hidden="1" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E132" s="2">
         <v>2629900</v>
@@ -17929,16 +17957,16 @@
     </row>
     <row r="133" ht="27.15" hidden="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E133" s="2">
         <v>4100000</v>
@@ -17955,7 +17983,7 @@
         <v>402</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E134" s="2">
         <v>2219900</v>
@@ -17966,13 +17994,13 @@
         <v>20</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E135" s="2">
         <v>2499900</v>
@@ -17980,7 +18008,7 @@
     </row>
     <row r="136" ht="27.15" hidden="1" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>138</v>
@@ -17989,7 +18017,7 @@
         <v>402</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E136" s="2">
         <v>1602000</v>
@@ -17997,16 +18025,16 @@
     </row>
     <row r="137" ht="40.35" hidden="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E137" s="2">
         <v>1508000</v>
@@ -18023,7 +18051,7 @@
         <v>402</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E138" s="2">
         <v>4549990</v>
@@ -18040,7 +18068,7 @@
         <v>402</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E139" s="2">
         <v>2479990</v>
@@ -18057,7 +18085,7 @@
         <v>402</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="E140" s="2">
         <v>2075990</v>
@@ -18074,7 +18102,7 @@
         <v>402</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E141" s="2">
         <v>2080990</v>
@@ -18088,10 +18116,10 @@
         <v>369</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E142" s="2">
         <v>2273000</v>
@@ -18105,10 +18133,10 @@
         <v>651</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E143" s="2">
         <v>2443000</v>
@@ -18122,10 +18150,10 @@
         <v>670</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E144" s="2">
         <v>1341000</v>
@@ -18136,13 +18164,13 @@
         <v>328</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E145" s="2">
         <v>1381000</v>
@@ -18153,13 +18181,13 @@
         <v>328</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E146" s="2">
         <v>1493000</v>
@@ -18170,13 +18198,13 @@
         <v>328</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E147" s="2">
         <v>1533000</v>
@@ -18190,10 +18218,10 @@
         <v>348</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E148" s="2">
         <v>1670000</v>
@@ -18210,7 +18238,7 @@
         <v>402</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E149" s="2">
         <v>1487000</v>
@@ -18221,13 +18249,13 @@
         <v>50</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E150" s="2">
         <v>4850000</v>
@@ -18238,13 +18266,13 @@
         <v>50</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E151" s="2">
         <v>4000000</v>
@@ -18255,13 +18283,13 @@
         <v>50</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E152" s="2">
         <v>4930000</v>
@@ -18275,10 +18303,10 @@
         <v>187</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E153" s="2">
         <v>3692990</v>
@@ -18292,10 +18320,10 @@
         <v>734</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="E154" s="2">
         <v>3979000</v>
@@ -18312,7 +18340,7 @@
         <v>402</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E155" s="2">
         <v>4099000</v>
@@ -18329,7 +18357,7 @@
         <v>402</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E156" s="2">
         <v>3449000</v>
@@ -18346,7 +18374,7 @@
         <v>402</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E157" s="2">
         <v>2799000</v>
@@ -18357,13 +18385,13 @@
         <v>193</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E158" s="2">
         <v>3549000</v>
@@ -18374,13 +18402,13 @@
         <v>193</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E159" s="2">
         <v>3299000</v>
@@ -18394,10 +18422,10 @@
         <v>315</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E160" s="2">
         <v>7374900</v>
@@ -18411,10 +18439,10 @@
         <v>324</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E161" s="2">
         <v>3789900</v>
@@ -18428,10 +18456,10 @@
         <v>326</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E162" s="2">
         <v>5829900</v>
@@ -18445,10 +18473,10 @@
         <v>289</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E163" s="2">
         <v>4144900</v>
@@ -18456,16 +18484,16 @@
     </row>
     <row r="164" ht="27.15" hidden="1" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E164" s="2">
         <v>1672000</v>
@@ -18482,7 +18510,7 @@
         <v>402</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E165" s="2">
         <v>2040546</v>
@@ -18499,7 +18527,7 @@
         <v>402</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E166" s="2">
         <v>3100000</v>
@@ -18516,7 +18544,7 @@
         <v>402</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E167" s="2">
         <v>2990000</v>
@@ -18530,10 +18558,10 @@
         <v>602</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E168" s="2">
         <v>8669500</v>
@@ -18547,10 +18575,10 @@
         <v>654</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E169" s="2">
         <v>4291000</v>
@@ -18564,10 +18592,10 @@
         <v>598</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E170" s="2">
         <v>6146500</v>
@@ -18575,7 +18603,7 @@
     </row>
     <row r="171" ht="27.15" hidden="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>262</v>
@@ -18584,7 +18612,7 @@
         <v>402</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E171" s="2">
         <v>1889000</v>
@@ -18592,7 +18620,7 @@
     </row>
     <row r="172" ht="27.15" hidden="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>264</v>
@@ -18601,7 +18629,7 @@
         <v>402</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E172" s="2">
         <v>2399000</v>
@@ -18609,7 +18637,7 @@
     </row>
     <row r="173" ht="27.15" hidden="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>631</v>
@@ -18618,7 +18646,7 @@
         <v>402</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E173" s="2">
         <v>3059000</v>
@@ -18626,16 +18654,16 @@
     </row>
     <row r="174" ht="27.15" hidden="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E174" s="2">
         <v>3279000</v>
@@ -18643,7 +18671,7 @@
     </row>
     <row r="175" ht="27.15" hidden="1" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>632</v>
@@ -18652,7 +18680,7 @@
         <v>402</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E175" s="2">
         <v>3599000</v>
@@ -18660,7 +18688,7 @@
     </row>
     <row r="176" ht="27.15" hidden="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>168</v>
@@ -18669,7 +18697,7 @@
         <v>402</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E176" s="2">
         <v>5499999</v>
@@ -18677,16 +18705,16 @@
     </row>
     <row r="177" ht="27.15" hidden="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E177" s="2">
         <v>4099000</v>
@@ -18694,7 +18722,7 @@
     </row>
     <row r="178" ht="27.15" hidden="1" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>162</v>
@@ -18703,7 +18731,7 @@
         <v>402</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E178" s="2">
         <v>2449000</v>
@@ -18714,13 +18742,13 @@
         <v>20</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E179" s="2">
         <v>4529900</v>
@@ -18737,7 +18765,7 @@
         <v>402</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E180" s="2">
         <v>3739900</v>
@@ -18748,13 +18776,13 @@
         <v>20</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E181" s="2">
         <v>5219900</v>
@@ -18765,13 +18793,13 @@
         <v>50</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E182" s="2">
         <v>2780000</v>
@@ -18788,7 +18816,7 @@
         <v>402</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E183" s="2">
         <v>2020000</v>
@@ -18805,7 +18833,7 @@
         <v>402</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E184" s="2">
         <v>2650000</v>
@@ -18822,7 +18850,7 @@
         <v>402</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E185" s="2">
         <v>2080000</v>
@@ -18839,7 +18867,7 @@
         <v>402</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E186" s="2">
         <v>2181000</v>
@@ -18853,10 +18881,10 @@
         <v>5</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E187" s="2">
         <v>2279000</v>
@@ -18870,10 +18898,10 @@
         <v>6</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E188" s="2">
         <v>2899000</v>
@@ -18887,10 +18915,10 @@
         <v>424</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E189" s="2">
         <v>2379000</v>
@@ -18898,16 +18926,16 @@
     </row>
     <row r="190" ht="27.15" hidden="1" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E190" s="2">
         <v>2499000</v>
@@ -18915,7 +18943,7 @@
     </row>
     <row r="191" ht="27.15" hidden="1" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>457</v>
@@ -18924,7 +18952,7 @@
         <v>402</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E191" s="2">
         <v>2479900</v>
@@ -18941,7 +18969,7 @@
         <v>402</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E192" s="2">
         <v>3959000</v>
@@ -18952,13 +18980,13 @@
         <v>114</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E193" s="2">
         <v>2890000</v>
@@ -18969,13 +18997,13 @@
         <v>114</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E194" s="2">
         <v>4080000</v>
@@ -18986,13 +19014,13 @@
         <v>114</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E195" s="2">
         <v>6290000</v>
@@ -19000,7 +19028,7 @@
     </row>
     <row r="196" ht="27.15" hidden="1" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B196" s="2">
         <v>6</v>
@@ -19009,7 +19037,7 @@
         <v>402</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E196" s="2">
         <v>2200000</v>
@@ -19017,7 +19045,7 @@
     </row>
     <row r="197" ht="27.15" hidden="1" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>272</v>
@@ -19026,7 +19054,7 @@
         <v>402</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E197" s="2">
         <v>4599000</v>
@@ -19043,7 +19071,7 @@
         <v>402</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E198" s="2">
         <v>2199000</v>
@@ -19054,13 +19082,13 @@
         <v>208</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E199" s="2">
         <v>4599000</v>
@@ -19071,13 +19099,13 @@
         <v>98</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E200" s="2">
         <v>1990000</v>
@@ -19088,13 +19116,13 @@
         <v>98</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E201" s="2">
         <v>3590000</v>
@@ -19111,7 +19139,7 @@
         <v>402</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E202" s="2">
         <v>2650000</v>
@@ -19122,13 +19150,13 @@
         <v>208</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E203" s="2">
         <v>2849000</v>
@@ -19136,7 +19164,7 @@
     </row>
     <row r="204" ht="27.15" hidden="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>164</v>
@@ -19145,7 +19173,7 @@
         <v>402</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E204" s="2">
         <v>2099000</v>
@@ -19162,7 +19190,7 @@
         <v>402</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E205" s="2">
         <v>1263000</v>
@@ -19179,7 +19207,7 @@
         <v>402</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E206" s="2">
         <v>1546500</v>
@@ -19196,7 +19224,7 @@
         <v>402</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E207" s="2">
         <v>883000</v>
@@ -19213,7 +19241,7 @@
         <v>402</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E208" s="2">
         <v>825000</v>
@@ -19230,7 +19258,7 @@
         <v>402</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E209" s="2">
         <v>851000</v>
@@ -19241,13 +19269,13 @@
         <v>169</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E210" s="2">
         <v>3357990</v>
@@ -19258,13 +19286,13 @@
         <v>208</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E211" s="2">
         <v>3899000</v>
@@ -19281,7 +19309,7 @@
         <v>402</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E212" s="2">
         <v>1990000</v>
@@ -19298,7 +19326,7 @@
         <v>402</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E213" s="2">
         <v>2199000</v>
@@ -19315,7 +19343,7 @@
         <v>402</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E214" s="2">
         <v>789900</v>
@@ -19329,10 +19357,10 @@
         <v>388</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E215" s="2">
         <v>869900</v>
@@ -19349,7 +19377,7 @@
         <v>402</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E216" s="2">
         <v>1089000</v>
@@ -19366,7 +19394,7 @@
         <v>402</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E217" s="2">
         <v>999900</v>
@@ -19383,7 +19411,7 @@
         <v>402</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E218" s="2">
         <v>1455000</v>
@@ -19397,10 +19425,10 @@
         <v>386</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E219" s="2">
         <v>809900</v>
@@ -19417,7 +19445,7 @@
         <v>402</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="E220" s="2">
         <v>2000000</v>
@@ -19434,7 +19462,7 @@
         <v>402</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E221" s="2">
         <v>1229900</v>
@@ -19451,7 +19479,7 @@
         <v>402</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E222" s="2">
         <v>2656800</v>
@@ -19462,13 +19490,13 @@
         <v>328</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E223" s="2">
         <v>824000</v>
@@ -19479,13 +19507,13 @@
         <v>288</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="E224" s="2">
         <v>1204900</v>
@@ -19502,7 +19530,7 @@
         <v>402</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E225" s="2">
         <v>2234900</v>
@@ -19510,16 +19538,16 @@
     </row>
     <row r="226" ht="40.35" hidden="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E226" s="2">
         <v>2673000</v>
@@ -19536,7 +19564,7 @@
         <v>402</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E227" s="2">
         <v>1419990</v>
@@ -19544,7 +19572,7 @@
     </row>
     <row r="228" ht="27.15" hidden="1" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>265</v>
@@ -19553,7 +19581,7 @@
         <v>402</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E228" s="2">
         <v>1494000</v>
@@ -19570,7 +19598,7 @@
         <v>402</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E229" s="2">
         <v>2849990</v>
@@ -19584,10 +19612,10 @@
         <v>573</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E230" s="2">
         <v>3173000</v>
@@ -19598,13 +19626,13 @@
         <v>50</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E231" s="2">
         <v>2380000</v>
@@ -19621,7 +19649,7 @@
         <v>402</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E232" s="2">
         <v>2599000</v>
@@ -19629,16 +19657,16 @@
     </row>
     <row r="233" ht="27.15" hidden="1" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E233" s="2">
         <v>2999000</v>
@@ -19649,13 +19677,13 @@
         <v>20</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E234" s="2">
         <v>3590000</v>
@@ -19663,16 +19691,16 @@
     </row>
     <row r="235" ht="40.35" hidden="1" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E235" s="2">
         <v>2569900</v>
@@ -19689,7 +19717,7 @@
         <v>402</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E236" s="2">
         <v>4750000</v>
@@ -19697,16 +19725,16 @@
     </row>
     <row r="237" ht="40.35" hidden="1" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E237" s="2">
         <v>2499990</v>
@@ -19714,7 +19742,7 @@
     </row>
     <row r="238" ht="27.15" hidden="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>770</v>
@@ -19723,7 +19751,7 @@
         <v>402</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E238" s="2">
         <v>2779990</v>
@@ -19737,10 +19765,10 @@
         <v>13</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E239" s="2">
         <v>2649000</v>
@@ -19754,10 +19782,10 @@
         <v>580</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E240" s="2">
         <v>1899000</v>
@@ -19774,7 +19802,7 @@
         <v>402</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E241" s="2">
         <v>2825990</v>
@@ -19782,7 +19810,7 @@
     </row>
     <row r="242" ht="27.15" hidden="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B242" s="2">
         <v>400</v>
@@ -19791,7 +19819,7 @@
         <v>402</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E242" s="2">
         <v>5799000</v>
@@ -19799,7 +19827,7 @@
     </row>
     <row r="243" ht="27.15" hidden="1" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>268</v>
@@ -19808,7 +19836,7 @@
         <v>402</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E243" s="2">
         <v>2899000</v>
@@ -19825,7 +19853,7 @@
         <v>402</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E244" s="2">
         <v>1887500</v>
@@ -19842,7 +19870,7 @@
         <v>402</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E245" s="2">
         <v>1805000</v>
@@ -19859,7 +19887,7 @@
         <v>402</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E246" s="2">
         <v>1684500</v>
@@ -19867,7 +19895,7 @@
     </row>
     <row r="247" ht="27.15" hidden="1" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>762</v>
@@ -19876,7 +19904,7 @@
         <v>402</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E247" s="2">
         <v>3899000</v>
@@ -19884,7 +19912,7 @@
     </row>
     <row r="248" ht="27.15" hidden="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>761</v>
@@ -19893,7 +19921,7 @@
         <v>402</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E248" s="2">
         <v>3099000</v>
@@ -19901,7 +19929,7 @@
     </row>
     <row r="249" ht="27.15" hidden="1" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -19910,7 +19938,7 @@
         <v>402</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E249" s="2">
         <v>4162990</v>

--- a/id.xlsx
+++ b/id.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$907</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$909</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="1075">
   <si>
     <t>Aito</t>
   </si>
@@ -2858,6 +2858,9 @@
   </si>
   <si>
     <t>Empow</t>
+  </si>
+  <si>
+    <t>C5 FL</t>
   </si>
   <si>
     <t>Марка</t>
@@ -4244,7 +4247,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F909"/>
+  <dimension ref="A1:F910"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
       <selection activeCell="G908" sqref="G908"/>
@@ -15691,8 +15694,19 @@
         <v>941</v>
       </c>
     </row>
+    <row r="910" spans="1:3">
+      <c r="A910">
+        <v>1009</v>
+      </c>
+      <c r="B910" t="s">
+        <v>455</v>
+      </c>
+      <c r="C910" t="s">
+        <v>942</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E907" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E909" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15713,19 +15727,19 @@
   <sheetData>
     <row r="1" ht="27.15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="2" ht="40.35" hidden="1" spans="1:5">
@@ -15733,13 +15747,13 @@
         <v>328</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E2" s="2">
         <v>1239900</v>
@@ -15753,10 +15767,10 @@
         <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E3" s="2">
         <v>1759000</v>
@@ -15770,10 +15784,10 @@
         <v>370</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E4" s="2">
         <v>1655000</v>
@@ -15787,10 +15801,10 @@
         <v>372</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E5" s="2">
         <v>1879000</v>
@@ -15801,13 +15815,13 @@
         <v>328</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E6" s="2">
         <v>1077000</v>
@@ -15821,10 +15835,10 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E7" s="2">
         <v>1408000</v>
@@ -15835,13 +15849,13 @@
         <v>328</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E8" s="2">
         <v>749900</v>
@@ -15855,10 +15869,10 @@
         <v>330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E9" s="2">
         <v>1175000</v>
@@ -15872,10 +15886,10 @@
         <v>242</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E10" s="2">
         <v>2149000</v>
@@ -15889,10 +15903,10 @@
         <v>346</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E11" s="2">
         <v>1660000</v>
@@ -15906,10 +15920,10 @@
         <v>347</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E12" s="2">
         <v>2020000</v>
@@ -15923,10 +15937,10 @@
         <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E13" s="2">
         <v>1859000</v>
@@ -15940,10 +15954,10 @@
         <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E14" s="2">
         <v>1334900</v>
@@ -15954,13 +15968,13 @@
         <v>169</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E15" s="2">
         <v>3512990</v>
@@ -15977,7 +15991,7 @@
         <v>402</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E16" s="2">
         <v>2836990</v>
@@ -15994,7 +16008,7 @@
         <v>402</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E17" s="2">
         <v>1850000</v>
@@ -16008,10 +16022,10 @@
         <v>256</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E18" s="2">
         <v>2749000</v>
@@ -16025,10 +16039,10 @@
         <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>958</v>
       </c>
       <c r="E19" s="2">
         <v>2179990</v>
@@ -16039,13 +16053,13 @@
         <v>169</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E20" s="2">
         <v>2794990</v>
@@ -16059,10 +16073,10 @@
         <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E21" s="2">
         <v>3959990</v>
@@ -16070,7 +16084,7 @@
     </row>
     <row r="22" ht="27.15" hidden="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -16079,7 +16093,7 @@
         <v>402</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E22" s="2">
         <v>4499000</v>
@@ -16087,7 +16101,7 @@
     </row>
     <row r="23" ht="27.15" hidden="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
@@ -16096,7 +16110,7 @@
         <v>402</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E23" s="2">
         <v>6799000</v>
@@ -16107,13 +16121,13 @@
         <v>328</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E24" s="2">
         <v>778500</v>
@@ -16124,13 +16138,13 @@
         <v>328</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E25" s="2">
         <v>719300</v>
@@ -16141,13 +16155,13 @@
         <v>328</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E26" s="2">
         <v>950900</v>
@@ -16161,10 +16175,10 @@
         <v>363</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E27" s="2">
         <v>1316900</v>
@@ -16175,13 +16189,13 @@
         <v>234</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E28" s="2">
         <v>2769000</v>
@@ -16195,10 +16209,10 @@
         <v>290</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E29" s="2">
         <v>2244900</v>
@@ -16212,10 +16226,10 @@
         <v>305</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E30" s="2">
         <v>1574900</v>
@@ -16229,10 +16243,10 @@
         <v>303</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E31" s="2">
         <v>1434900</v>
@@ -16243,13 +16257,13 @@
         <v>328</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E32" s="2">
         <v>1059000</v>
@@ -16263,10 +16277,10 @@
         <v>249</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E33" s="2">
         <v>3969000</v>
@@ -16283,7 +16297,7 @@
         <v>402</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E34" s="2">
         <v>1314000</v>
@@ -16294,13 +16308,13 @@
         <v>208</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E35" s="2">
         <v>2149000</v>
@@ -16314,10 +16328,10 @@
         <v>224</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E36" s="2">
         <v>2599000</v>
@@ -16328,13 +16342,13 @@
         <v>208</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>981</v>
       </c>
       <c r="E37" s="2">
         <v>2599000</v>
@@ -16351,7 +16365,7 @@
         <v>402</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E38" s="2">
         <v>5269000</v>
@@ -16365,10 +16379,10 @@
         <v>292</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E39" s="2">
         <v>2314900</v>
@@ -16379,13 +16393,13 @@
         <v>328</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E40" s="2">
         <v>918900</v>
@@ -16399,10 +16413,10 @@
         <v>295</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E41" s="2">
         <v>2159900</v>
@@ -16419,7 +16433,7 @@
         <v>402</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E42" s="2">
         <v>1106900</v>
@@ -16436,7 +16450,7 @@
         <v>402</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E43" s="2">
         <v>1249900</v>
@@ -16453,7 +16467,7 @@
         <v>402</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E44" s="2">
         <v>2900000</v>
@@ -16464,13 +16478,13 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E45" s="2">
         <v>2439900</v>
@@ -16484,10 +16498,10 @@
         <v>298</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E46" s="2">
         <v>2734900</v>
@@ -16501,10 +16515,10 @@
         <v>317</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E47" s="2">
         <v>1934900</v>
@@ -16521,7 +16535,7 @@
         <v>402</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E48" s="2">
         <v>2064900</v>
@@ -16535,10 +16549,10 @@
         <v>318</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E49" s="2">
         <v>2849900</v>
@@ -16546,7 +16560,7 @@
     </row>
     <row r="50" ht="27.15" hidden="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>267</v>
@@ -16555,7 +16569,7 @@
         <v>402</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E50" s="2">
         <v>1779000</v>
@@ -16563,7 +16577,7 @@
     </row>
     <row r="51" ht="27.15" hidden="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>261</v>
@@ -16572,7 +16586,7 @@
         <v>402</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E51" s="2">
         <v>2150000</v>
@@ -16580,7 +16594,7 @@
     </row>
     <row r="52" ht="27.15" hidden="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>266</v>
@@ -16589,7 +16603,7 @@
         <v>402</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E52" s="2">
         <v>2129900</v>
@@ -16597,7 +16611,7 @@
     </row>
     <row r="53" ht="27.15" hidden="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>456</v>
@@ -16606,7 +16620,7 @@
         <v>402</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E53" s="2">
         <v>2369900</v>
@@ -16623,7 +16637,7 @@
         <v>402</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E54" s="2">
         <v>1690000</v>
@@ -16640,7 +16654,7 @@
         <v>402</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E55" s="2">
         <v>2869900</v>
@@ -16651,13 +16665,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E56" s="2">
         <v>2569900</v>
@@ -16668,13 +16682,13 @@
         <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E57" s="2">
         <v>2839900</v>
@@ -16688,10 +16702,10 @@
         <v>27</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E58" s="2">
         <v>3969900</v>
@@ -16705,10 +16719,10 @@
         <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E59" s="2">
         <v>3069900</v>
@@ -16722,10 +16736,10 @@
         <v>33</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E60" s="2">
         <v>3069900</v>
@@ -16736,13 +16750,13 @@
         <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>994</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E61" s="2">
         <v>2899900</v>
@@ -16750,16 +16764,16 @@
     </row>
     <row r="62" ht="40.35" hidden="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E62" s="2">
         <v>2374000</v>
@@ -16767,16 +16781,16 @@
     </row>
     <row r="63" ht="40.35" hidden="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E63" s="2">
         <v>2411000</v>
@@ -16784,16 +16798,16 @@
     </row>
     <row r="64" ht="40.35" hidden="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E64" s="2">
         <v>2024000</v>
@@ -16807,10 +16821,10 @@
         <v>494</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E65" s="2">
         <v>1124000</v>
@@ -16824,10 +16838,10 @@
         <v>519</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E66" s="2">
         <v>1051000</v>
@@ -16841,10 +16855,10 @@
         <v>516</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E67" s="2">
         <v>1657000</v>
@@ -16858,10 +16872,10 @@
         <v>509</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E68" s="2">
         <v>1705000</v>
@@ -16875,10 +16889,10 @@
         <v>57</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E69" s="2">
         <v>1699900</v>
@@ -16892,10 +16906,10 @@
         <v>274</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E70" s="2">
         <v>2489900</v>
@@ -16903,16 +16917,16 @@
     </row>
     <row r="71" ht="40.35" hidden="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E71" s="2">
         <v>2959900</v>
@@ -16920,16 +16934,16 @@
     </row>
     <row r="72" ht="40.35" hidden="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E72" s="2">
         <v>1765000</v>
@@ -16943,10 +16957,10 @@
         <v>447</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E73" s="2">
         <v>4409000</v>
@@ -16960,10 +16974,10 @@
         <v>452</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E74" s="2">
         <v>1690000</v>
@@ -16977,10 +16991,10 @@
         <v>79</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E75" s="2">
         <v>950900</v>
@@ -16997,7 +17011,7 @@
         <v>402</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E76" s="2">
         <v>880900</v>
@@ -17011,10 +17025,10 @@
         <v>77</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E77" s="2">
         <v>953900</v>
@@ -17028,10 +17042,10 @@
         <v>227</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>958</v>
       </c>
       <c r="E78" s="2">
         <v>2179000</v>
@@ -17048,7 +17062,7 @@
         <v>402</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E79" s="2">
         <v>1579000</v>
@@ -17062,10 +17076,10 @@
         <v>220</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E80" s="2">
         <v>4299000</v>
@@ -17082,7 +17096,7 @@
         <v>402</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E81" s="2">
         <v>2049000</v>
@@ -17099,7 +17113,7 @@
         <v>402</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E82" s="2">
         <v>3149000</v>
@@ -17113,10 +17127,10 @@
         <v>450</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E83" s="2">
         <v>2337000</v>
@@ -17127,13 +17141,13 @@
         <v>441</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>1007</v>
       </c>
       <c r="E84" s="2">
         <v>2762000</v>
@@ -17147,10 +17161,10 @@
         <v>489</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E85" s="2">
         <v>1618000</v>
@@ -17164,10 +17178,10 @@
         <v>495</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E86" s="2">
         <v>1301000</v>
@@ -17181,10 +17195,10 @@
         <v>501</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E87" s="2">
         <v>1258000</v>
@@ -17198,10 +17212,10 @@
         <v>502</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E88" s="2">
         <v>1373000</v>
@@ -17215,10 +17229,10 @@
         <v>492</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E89" s="2">
         <v>1724000</v>
@@ -17235,7 +17249,7 @@
         <v>402</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E90" s="2">
         <v>1874000</v>
@@ -17249,10 +17263,10 @@
         <v>512</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E91" s="2">
         <v>2057000</v>
@@ -17266,10 +17280,10 @@
         <v>528</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E92" s="2">
         <v>2118900</v>
@@ -17283,10 +17297,10 @@
         <v>529</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E93" s="2">
         <v>3248000</v>
@@ -17300,10 +17314,10 @@
         <v>530</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E94" s="2">
         <v>5378000</v>
@@ -17317,10 +17331,10 @@
         <v>531</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E95" s="2">
         <v>5806000</v>
@@ -17334,10 +17348,10 @@
         <v>523</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E96" s="2">
         <v>2388000</v>
@@ -17351,10 +17365,10 @@
         <v>524</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E97" s="2">
         <v>2681000</v>
@@ -17368,10 +17382,10 @@
         <v>595</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E98" s="2">
         <v>1385900</v>
@@ -17385,10 +17399,10 @@
         <v>279</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E99" s="2">
         <v>1518000</v>
@@ -17402,10 +17416,10 @@
         <v>600</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E100" s="2">
         <v>3375900</v>
@@ -17422,7 +17436,7 @@
         <v>402</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E101" s="2">
         <v>2828900</v>
@@ -17436,10 +17450,10 @@
         <v>32</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E102" s="2">
         <v>4449900</v>
@@ -17456,7 +17470,7 @@
         <v>402</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E103" s="2">
         <v>1229000</v>
@@ -17470,10 +17484,10 @@
         <v>580</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>958</v>
       </c>
       <c r="E104" s="2">
         <v>2499000</v>
@@ -17481,16 +17495,16 @@
     </row>
     <row r="105" ht="40.35" hidden="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>577</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E105" s="2">
         <v>1680000</v>
@@ -17498,16 +17512,16 @@
     </row>
     <row r="106" ht="40.35" hidden="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>1015</v>
       </c>
       <c r="E106" s="2">
         <v>1705000</v>
@@ -17515,7 +17529,7 @@
     </row>
     <row r="107" ht="27.15" hidden="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>36</v>
@@ -17524,7 +17538,7 @@
         <v>402</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E107" s="2">
         <v>1510000</v>
@@ -17541,7 +17555,7 @@
         <v>402</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E108" s="2">
         <v>2570000</v>
@@ -17558,7 +17572,7 @@
         <v>402</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E109" s="2">
         <v>3430000</v>
@@ -17569,13 +17583,13 @@
         <v>50</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E110" s="2">
         <v>2770000</v>
@@ -17589,10 +17603,10 @@
         <v>906</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E111" s="2">
         <v>1970000</v>
@@ -17603,13 +17617,13 @@
         <v>50</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E112" s="2">
         <v>3250000</v>
@@ -17620,13 +17634,13 @@
         <v>50</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E113" s="2">
         <v>3370000</v>
@@ -17643,7 +17657,7 @@
         <v>402</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E114" s="2">
         <v>3759900</v>
@@ -17657,10 +17671,10 @@
         <v>117</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E115" s="2">
         <v>3380000</v>
@@ -17674,10 +17688,10 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E116" s="2">
         <v>3810000</v>
@@ -17694,7 +17708,7 @@
         <v>402</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E117" s="2">
         <v>4910000</v>
@@ -17711,7 +17725,7 @@
         <v>402</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E118" s="2">
         <v>4550000</v>
@@ -17728,7 +17742,7 @@
         <v>402</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E119" s="2">
         <v>2080000</v>
@@ -17745,7 +17759,7 @@
         <v>402</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E120" s="2">
         <v>2225000</v>
@@ -17762,7 +17776,7 @@
         <v>402</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E121" s="2">
         <v>2970000</v>
@@ -17776,10 +17790,10 @@
         <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E122" s="2">
         <v>4350000</v>
@@ -17793,10 +17807,10 @@
         <v>277</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E123" s="2">
         <v>2999900</v>
@@ -17813,7 +17827,7 @@
         <v>402</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E124" s="2">
         <v>3479900</v>
@@ -17827,10 +17841,10 @@
         <v>281</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E125" s="2">
         <v>1990000</v>
@@ -17844,10 +17858,10 @@
         <v>282</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E126" s="2">
         <v>2149000</v>
@@ -17864,7 +17878,7 @@
         <v>402</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E127" s="2">
         <v>2115000</v>
@@ -17881,7 +17895,7 @@
         <v>402</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E128" s="2">
         <v>2238000</v>
@@ -17898,7 +17912,7 @@
         <v>402</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E129" s="2">
         <v>2514900</v>
@@ -17915,7 +17929,7 @@
         <v>402</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E130" s="2">
         <v>2997900</v>
@@ -17923,16 +17937,16 @@
     </row>
     <row r="131" ht="27.15" hidden="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E131" s="2">
         <v>2549900</v>
@@ -17940,16 +17954,16 @@
     </row>
     <row r="132" ht="27.15" hidden="1" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E132" s="2">
         <v>2629900</v>
@@ -17957,16 +17971,16 @@
     </row>
     <row r="133" ht="27.15" hidden="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E133" s="2">
         <v>4100000</v>
@@ -17983,7 +17997,7 @@
         <v>402</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E134" s="2">
         <v>2219900</v>
@@ -17994,13 +18008,13 @@
         <v>20</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E135" s="2">
         <v>2499900</v>
@@ -18008,7 +18022,7 @@
     </row>
     <row r="136" ht="27.15" hidden="1" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>138</v>
@@ -18017,7 +18031,7 @@
         <v>402</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E136" s="2">
         <v>1602000</v>
@@ -18025,16 +18039,16 @@
     </row>
     <row r="137" ht="40.35" hidden="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E137" s="2">
         <v>1508000</v>
@@ -18051,7 +18065,7 @@
         <v>402</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E138" s="2">
         <v>4549990</v>
@@ -18068,7 +18082,7 @@
         <v>402</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E139" s="2">
         <v>2479990</v>
@@ -18085,7 +18099,7 @@
         <v>402</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E140" s="2">
         <v>2075990</v>
@@ -18102,7 +18116,7 @@
         <v>402</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E141" s="2">
         <v>2080990</v>
@@ -18116,10 +18130,10 @@
         <v>369</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E142" s="2">
         <v>2273000</v>
@@ -18133,10 +18147,10 @@
         <v>651</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E143" s="2">
         <v>2443000</v>
@@ -18150,10 +18164,10 @@
         <v>670</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E144" s="2">
         <v>1341000</v>
@@ -18164,13 +18178,13 @@
         <v>328</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E145" s="2">
         <v>1381000</v>
@@ -18181,13 +18195,13 @@
         <v>328</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E146" s="2">
         <v>1493000</v>
@@ -18198,13 +18212,13 @@
         <v>328</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E147" s="2">
         <v>1533000</v>
@@ -18218,10 +18232,10 @@
         <v>348</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E148" s="2">
         <v>1670000</v>
@@ -18238,7 +18252,7 @@
         <v>402</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E149" s="2">
         <v>1487000</v>
@@ -18249,13 +18263,13 @@
         <v>50</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E150" s="2">
         <v>4850000</v>
@@ -18266,13 +18280,13 @@
         <v>50</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E151" s="2">
         <v>4000000</v>
@@ -18283,13 +18297,13 @@
         <v>50</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E152" s="2">
         <v>4930000</v>
@@ -18303,10 +18317,10 @@
         <v>187</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E153" s="2">
         <v>3692990</v>
@@ -18320,10 +18334,10 @@
         <v>734</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E154" s="2">
         <v>3979000</v>
@@ -18340,7 +18354,7 @@
         <v>402</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E155" s="2">
         <v>4099000</v>
@@ -18357,7 +18371,7 @@
         <v>402</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E156" s="2">
         <v>3449000</v>
@@ -18374,7 +18388,7 @@
         <v>402</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E157" s="2">
         <v>2799000</v>
@@ -18385,13 +18399,13 @@
         <v>193</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E158" s="2">
         <v>3549000</v>
@@ -18402,13 +18416,13 @@
         <v>193</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E159" s="2">
         <v>3299000</v>
@@ -18422,10 +18436,10 @@
         <v>315</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E160" s="2">
         <v>7374900</v>
@@ -18439,10 +18453,10 @@
         <v>324</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E161" s="2">
         <v>3789900</v>
@@ -18456,10 +18470,10 @@
         <v>326</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E162" s="2">
         <v>5829900</v>
@@ -18473,10 +18487,10 @@
         <v>289</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E163" s="2">
         <v>4144900</v>
@@ -18484,16 +18498,16 @@
     </row>
     <row r="164" ht="27.15" hidden="1" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E164" s="2">
         <v>1672000</v>
@@ -18510,7 +18524,7 @@
         <v>402</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E165" s="2">
         <v>2040546</v>
@@ -18527,7 +18541,7 @@
         <v>402</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E166" s="2">
         <v>3100000</v>
@@ -18544,7 +18558,7 @@
         <v>402</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E167" s="2">
         <v>2990000</v>
@@ -18558,10 +18572,10 @@
         <v>602</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E168" s="2">
         <v>8669500</v>
@@ -18575,10 +18589,10 @@
         <v>654</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E169" s="2">
         <v>4291000</v>
@@ -18592,10 +18606,10 @@
         <v>598</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E170" s="2">
         <v>6146500</v>
@@ -18603,7 +18617,7 @@
     </row>
     <row r="171" ht="27.15" hidden="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>262</v>
@@ -18612,7 +18626,7 @@
         <v>402</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E171" s="2">
         <v>1889000</v>
@@ -18620,7 +18634,7 @@
     </row>
     <row r="172" ht="27.15" hidden="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>264</v>
@@ -18629,7 +18643,7 @@
         <v>402</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E172" s="2">
         <v>2399000</v>
@@ -18637,7 +18651,7 @@
     </row>
     <row r="173" ht="27.15" hidden="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>631</v>
@@ -18646,7 +18660,7 @@
         <v>402</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E173" s="2">
         <v>3059000</v>
@@ -18654,16 +18668,16 @@
     </row>
     <row r="174" ht="27.15" hidden="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E174" s="2">
         <v>3279000</v>
@@ -18671,7 +18685,7 @@
     </row>
     <row r="175" ht="27.15" hidden="1" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>632</v>
@@ -18680,7 +18694,7 @@
         <v>402</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E175" s="2">
         <v>3599000</v>
@@ -18688,7 +18702,7 @@
     </row>
     <row r="176" ht="27.15" hidden="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>168</v>
@@ -18697,7 +18711,7 @@
         <v>402</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E176" s="2">
         <v>5499999</v>
@@ -18705,16 +18719,16 @@
     </row>
     <row r="177" ht="27.15" hidden="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C177" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>958</v>
       </c>
       <c r="E177" s="2">
         <v>4099000</v>
@@ -18722,7 +18736,7 @@
     </row>
     <row r="178" ht="27.15" hidden="1" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>162</v>
@@ -18731,7 +18745,7 @@
         <v>402</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E178" s="2">
         <v>2449000</v>
@@ -18742,13 +18756,13 @@
         <v>20</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E179" s="2">
         <v>4529900</v>
@@ -18765,7 +18779,7 @@
         <v>402</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E180" s="2">
         <v>3739900</v>
@@ -18776,13 +18790,13 @@
         <v>20</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E181" s="2">
         <v>5219900</v>
@@ -18793,13 +18807,13 @@
         <v>50</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E182" s="2">
         <v>2780000</v>
@@ -18816,7 +18830,7 @@
         <v>402</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E183" s="2">
         <v>2020000</v>
@@ -18833,7 +18847,7 @@
         <v>402</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E184" s="2">
         <v>2650000</v>
@@ -18850,7 +18864,7 @@
         <v>402</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E185" s="2">
         <v>2080000</v>
@@ -18867,7 +18881,7 @@
         <v>402</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E186" s="2">
         <v>2181000</v>
@@ -18881,10 +18895,10 @@
         <v>5</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E187" s="2">
         <v>2279000</v>
@@ -18898,10 +18912,10 @@
         <v>6</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E188" s="2">
         <v>2899000</v>
@@ -18915,10 +18929,10 @@
         <v>424</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E189" s="2">
         <v>2379000</v>
@@ -18926,16 +18940,16 @@
     </row>
     <row r="190" ht="27.15" hidden="1" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E190" s="2">
         <v>2499000</v>
@@ -18943,7 +18957,7 @@
     </row>
     <row r="191" ht="27.15" hidden="1" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>457</v>
@@ -18952,7 +18966,7 @@
         <v>402</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E191" s="2">
         <v>2479900</v>
@@ -18969,7 +18983,7 @@
         <v>402</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E192" s="2">
         <v>3959000</v>
@@ -18980,13 +18994,13 @@
         <v>114</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E193" s="2">
         <v>2890000</v>
@@ -18997,13 +19011,13 @@
         <v>114</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E194" s="2">
         <v>4080000</v>
@@ -19014,13 +19028,13 @@
         <v>114</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E195" s="2">
         <v>6290000</v>
@@ -19028,7 +19042,7 @@
     </row>
     <row r="196" ht="27.15" hidden="1" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B196" s="2">
         <v>6</v>
@@ -19037,7 +19051,7 @@
         <v>402</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E196" s="2">
         <v>2200000</v>
@@ -19045,7 +19059,7 @@
     </row>
     <row r="197" ht="27.15" hidden="1" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>272</v>
@@ -19054,7 +19068,7 @@
         <v>402</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E197" s="2">
         <v>4599000</v>
@@ -19071,7 +19085,7 @@
         <v>402</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E198" s="2">
         <v>2199000</v>
@@ -19082,13 +19096,13 @@
         <v>208</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E199" s="2">
         <v>4599000</v>
@@ -19099,13 +19113,13 @@
         <v>98</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E200" s="2">
         <v>1990000</v>
@@ -19116,13 +19130,13 @@
         <v>98</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E201" s="2">
         <v>3590000</v>
@@ -19139,7 +19153,7 @@
         <v>402</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E202" s="2">
         <v>2650000</v>
@@ -19150,13 +19164,13 @@
         <v>208</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E203" s="2">
         <v>2849000</v>
@@ -19164,7 +19178,7 @@
     </row>
     <row r="204" ht="27.15" hidden="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>164</v>
@@ -19173,7 +19187,7 @@
         <v>402</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E204" s="2">
         <v>2099000</v>
@@ -19190,7 +19204,7 @@
         <v>402</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E205" s="2">
         <v>1263000</v>
@@ -19207,7 +19221,7 @@
         <v>402</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E206" s="2">
         <v>1546500</v>
@@ -19224,7 +19238,7 @@
         <v>402</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E207" s="2">
         <v>883000</v>
@@ -19241,7 +19255,7 @@
         <v>402</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E208" s="2">
         <v>825000</v>
@@ -19258,7 +19272,7 @@
         <v>402</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E209" s="2">
         <v>851000</v>
@@ -19269,13 +19283,13 @@
         <v>169</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E210" s="2">
         <v>3357990</v>
@@ -19286,13 +19300,13 @@
         <v>208</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E211" s="2">
         <v>3899000</v>
@@ -19309,7 +19323,7 @@
         <v>402</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E212" s="2">
         <v>1990000</v>
@@ -19326,7 +19340,7 @@
         <v>402</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E213" s="2">
         <v>2199000</v>
@@ -19343,7 +19357,7 @@
         <v>402</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E214" s="2">
         <v>789900</v>
@@ -19357,10 +19371,10 @@
         <v>388</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E215" s="2">
         <v>869900</v>
@@ -19377,7 +19391,7 @@
         <v>402</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E216" s="2">
         <v>1089000</v>
@@ -19394,7 +19408,7 @@
         <v>402</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E217" s="2">
         <v>999900</v>
@@ -19411,7 +19425,7 @@
         <v>402</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E218" s="2">
         <v>1455000</v>
@@ -19425,10 +19439,10 @@
         <v>386</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E219" s="2">
         <v>809900</v>
@@ -19445,7 +19459,7 @@
         <v>402</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E220" s="2">
         <v>2000000</v>
@@ -19462,7 +19476,7 @@
         <v>402</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E221" s="2">
         <v>1229900</v>
@@ -19479,7 +19493,7 @@
         <v>402</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E222" s="2">
         <v>2656800</v>
@@ -19490,13 +19504,13 @@
         <v>328</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E223" s="2">
         <v>824000</v>
@@ -19507,13 +19521,13 @@
         <v>288</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E224" s="2">
         <v>1204900</v>
@@ -19530,7 +19544,7 @@
         <v>402</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E225" s="2">
         <v>2234900</v>
@@ -19538,16 +19552,16 @@
     </row>
     <row r="226" ht="40.35" hidden="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E226" s="2">
         <v>2673000</v>
@@ -19564,7 +19578,7 @@
         <v>402</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E227" s="2">
         <v>1419990</v>
@@ -19572,7 +19586,7 @@
     </row>
     <row r="228" ht="27.15" hidden="1" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>265</v>
@@ -19581,7 +19595,7 @@
         <v>402</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E228" s="2">
         <v>1494000</v>
@@ -19598,7 +19612,7 @@
         <v>402</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E229" s="2">
         <v>2849990</v>
@@ -19612,10 +19626,10 @@
         <v>573</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E230" s="2">
         <v>3173000</v>
@@ -19626,13 +19640,13 @@
         <v>50</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E231" s="2">
         <v>2380000</v>
@@ -19649,7 +19663,7 @@
         <v>402</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E232" s="2">
         <v>2599000</v>
@@ -19657,16 +19671,16 @@
     </row>
     <row r="233" ht="27.15" hidden="1" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E233" s="2">
         <v>2999000</v>
@@ -19677,13 +19691,13 @@
         <v>20</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E234" s="2">
         <v>3590000</v>
@@ -19691,16 +19705,16 @@
     </row>
     <row r="235" ht="40.35" hidden="1" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E235" s="2">
         <v>2569900</v>
@@ -19717,7 +19731,7 @@
         <v>402</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E236" s="2">
         <v>4750000</v>
@@ -19725,16 +19739,16 @@
     </row>
     <row r="237" ht="40.35" hidden="1" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E237" s="2">
         <v>2499990</v>
@@ -19742,7 +19756,7 @@
     </row>
     <row r="238" ht="27.15" hidden="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>770</v>
@@ -19751,7 +19765,7 @@
         <v>402</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E238" s="2">
         <v>2779990</v>
@@ -19765,10 +19779,10 @@
         <v>13</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E239" s="2">
         <v>2649000</v>
@@ -19782,10 +19796,10 @@
         <v>580</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E240" s="2">
         <v>1899000</v>
@@ -19802,7 +19816,7 @@
         <v>402</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E241" s="2">
         <v>2825990</v>
@@ -19810,7 +19824,7 @@
     </row>
     <row r="242" ht="27.15" hidden="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B242" s="2">
         <v>400</v>
@@ -19819,7 +19833,7 @@
         <v>402</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E242" s="2">
         <v>5799000</v>
@@ -19827,7 +19841,7 @@
     </row>
     <row r="243" ht="27.15" hidden="1" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>268</v>
@@ -19836,7 +19850,7 @@
         <v>402</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E243" s="2">
         <v>2899000</v>
@@ -19853,7 +19867,7 @@
         <v>402</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E244" s="2">
         <v>1887500</v>
@@ -19870,7 +19884,7 @@
         <v>402</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E245" s="2">
         <v>1805000</v>
@@ -19887,7 +19901,7 @@
         <v>402</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E246" s="2">
         <v>1684500</v>
@@ -19895,7 +19909,7 @@
     </row>
     <row r="247" ht="27.15" hidden="1" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>762</v>
@@ -19904,7 +19918,7 @@
         <v>402</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E247" s="2">
         <v>3899000</v>
@@ -19912,7 +19926,7 @@
     </row>
     <row r="248" ht="27.15" hidden="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>761</v>
@@ -19921,7 +19935,7 @@
         <v>402</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E248" s="2">
         <v>3099000</v>
@@ -19929,7 +19943,7 @@
     </row>
     <row r="249" ht="27.15" hidden="1" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -19938,7 +19952,7 @@
         <v>402</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E249" s="2">
         <v>4162990</v>

--- a/id.xlsx
+++ b/id.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$909</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$E$911</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="1076">
   <si>
     <t>Aito</t>
   </si>
@@ -2401,7 +2401,7 @@
     <t>i30 универсал</t>
   </si>
   <si>
-    <t>Changan, UNI-S/CS55 Plus</t>
+    <t>UNI-S/CS55 Plus</t>
   </si>
   <si>
     <t>Granta Бортовая</t>
@@ -2861,6 +2861,9 @@
   </si>
   <si>
     <t>C5 FL</t>
+  </si>
+  <si>
+    <t>ST8</t>
   </si>
   <si>
     <t>Марка</t>
@@ -4247,15 +4250,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F910"/>
+  <dimension ref="A1:F911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
-      <selection activeCell="G908" sqref="G908"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="23.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -15705,8 +15709,19 @@
         <v>942</v>
       </c>
     </row>
+    <row r="911" spans="1:3">
+      <c r="A911">
+        <v>1010</v>
+      </c>
+      <c r="B911" t="s">
+        <v>674</v>
+      </c>
+      <c r="C911" t="s">
+        <v>943</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E909" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E911" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15727,19 +15742,19 @@
   <sheetData>
     <row r="1" ht="27.15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="2" ht="40.35" hidden="1" spans="1:5">
@@ -15747,13 +15762,13 @@
         <v>328</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E2" s="2">
         <v>1239900</v>
@@ -15767,10 +15782,10 @@
         <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E3" s="2">
         <v>1759000</v>
@@ -15784,10 +15799,10 @@
         <v>370</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E4" s="2">
         <v>1655000</v>
@@ -15801,10 +15816,10 @@
         <v>372</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E5" s="2">
         <v>1879000</v>
@@ -15815,13 +15830,13 @@
         <v>328</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E6" s="2">
         <v>1077000</v>
@@ -15835,10 +15850,10 @@
         <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E7" s="2">
         <v>1408000</v>
@@ -15849,13 +15864,13 @@
         <v>328</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E8" s="2">
         <v>749900</v>
@@ -15869,10 +15884,10 @@
         <v>330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E9" s="2">
         <v>1175000</v>
@@ -15886,10 +15901,10 @@
         <v>242</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E10" s="2">
         <v>2149000</v>
@@ -15903,10 +15918,10 @@
         <v>346</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E11" s="2">
         <v>1660000</v>
@@ -15920,10 +15935,10 @@
         <v>347</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E12" s="2">
         <v>2020000</v>
@@ -15937,10 +15952,10 @@
         <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E13" s="2">
         <v>1859000</v>
@@ -15954,10 +15969,10 @@
         <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E14" s="2">
         <v>1334900</v>
@@ -15968,13 +15983,13 @@
         <v>169</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E15" s="2">
         <v>3512990</v>
@@ -15991,7 +16006,7 @@
         <v>402</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E16" s="2">
         <v>2836990</v>
@@ -16008,7 +16023,7 @@
         <v>402</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E17" s="2">
         <v>1850000</v>
@@ -16022,10 +16037,10 @@
         <v>256</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E18" s="2">
         <v>2749000</v>
@@ -16039,10 +16054,10 @@
         <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>960</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>959</v>
       </c>
       <c r="E19" s="2">
         <v>2179990</v>
@@ -16053,13 +16068,13 @@
         <v>169</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E20" s="2">
         <v>2794990</v>
@@ -16073,10 +16088,10 @@
         <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E21" s="2">
         <v>3959990</v>
@@ -16084,7 +16099,7 @@
     </row>
     <row r="22" ht="27.15" hidden="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -16093,7 +16108,7 @@
         <v>402</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E22" s="2">
         <v>4499000</v>
@@ -16101,7 +16116,7 @@
     </row>
     <row r="23" ht="27.15" hidden="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
@@ -16110,7 +16125,7 @@
         <v>402</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E23" s="2">
         <v>6799000</v>
@@ -16121,13 +16136,13 @@
         <v>328</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E24" s="2">
         <v>778500</v>
@@ -16138,13 +16153,13 @@
         <v>328</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E25" s="2">
         <v>719300</v>
@@ -16155,13 +16170,13 @@
         <v>328</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E26" s="2">
         <v>950900</v>
@@ -16175,10 +16190,10 @@
         <v>363</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E27" s="2">
         <v>1316900</v>
@@ -16189,13 +16204,13 @@
         <v>234</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E28" s="2">
         <v>2769000</v>
@@ -16209,10 +16224,10 @@
         <v>290</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E29" s="2">
         <v>2244900</v>
@@ -16226,10 +16241,10 @@
         <v>305</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E30" s="2">
         <v>1574900</v>
@@ -16243,10 +16258,10 @@
         <v>303</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E31" s="2">
         <v>1434900</v>
@@ -16257,13 +16272,13 @@
         <v>328</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E32" s="2">
         <v>1059000</v>
@@ -16277,10 +16292,10 @@
         <v>249</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E33" s="2">
         <v>3969000</v>
@@ -16297,7 +16312,7 @@
         <v>402</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E34" s="2">
         <v>1314000</v>
@@ -16308,13 +16323,13 @@
         <v>208</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E35" s="2">
         <v>2149000</v>
@@ -16328,10 +16343,10 @@
         <v>224</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E36" s="2">
         <v>2599000</v>
@@ -16342,13 +16357,13 @@
         <v>208</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>982</v>
       </c>
       <c r="E37" s="2">
         <v>2599000</v>
@@ -16365,7 +16380,7 @@
         <v>402</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E38" s="2">
         <v>5269000</v>
@@ -16379,10 +16394,10 @@
         <v>292</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E39" s="2">
         <v>2314900</v>
@@ -16393,13 +16408,13 @@
         <v>328</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E40" s="2">
         <v>918900</v>
@@ -16413,10 +16428,10 @@
         <v>295</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E41" s="2">
         <v>2159900</v>
@@ -16433,7 +16448,7 @@
         <v>402</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E42" s="2">
         <v>1106900</v>
@@ -16450,7 +16465,7 @@
         <v>402</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E43" s="2">
         <v>1249900</v>
@@ -16467,7 +16482,7 @@
         <v>402</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E44" s="2">
         <v>2900000</v>
@@ -16478,13 +16493,13 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E45" s="2">
         <v>2439900</v>
@@ -16498,10 +16513,10 @@
         <v>298</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E46" s="2">
         <v>2734900</v>
@@ -16515,10 +16530,10 @@
         <v>317</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E47" s="2">
         <v>1934900</v>
@@ -16535,7 +16550,7 @@
         <v>402</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E48" s="2">
         <v>2064900</v>
@@ -16549,10 +16564,10 @@
         <v>318</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E49" s="2">
         <v>2849900</v>
@@ -16560,7 +16575,7 @@
     </row>
     <row r="50" ht="27.15" hidden="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>267</v>
@@ -16569,7 +16584,7 @@
         <v>402</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E50" s="2">
         <v>1779000</v>
@@ -16577,7 +16592,7 @@
     </row>
     <row r="51" ht="27.15" hidden="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>261</v>
@@ -16586,7 +16601,7 @@
         <v>402</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E51" s="2">
         <v>2150000</v>
@@ -16594,7 +16609,7 @@
     </row>
     <row r="52" ht="27.15" hidden="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>266</v>
@@ -16603,7 +16618,7 @@
         <v>402</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E52" s="2">
         <v>2129900</v>
@@ -16611,7 +16626,7 @@
     </row>
     <row r="53" ht="27.15" hidden="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>456</v>
@@ -16620,7 +16635,7 @@
         <v>402</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E53" s="2">
         <v>2369900</v>
@@ -16637,7 +16652,7 @@
         <v>402</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E54" s="2">
         <v>1690000</v>
@@ -16654,7 +16669,7 @@
         <v>402</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E55" s="2">
         <v>2869900</v>
@@ -16665,13 +16680,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E56" s="2">
         <v>2569900</v>
@@ -16682,13 +16697,13 @@
         <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E57" s="2">
         <v>2839900</v>
@@ -16702,10 +16717,10 @@
         <v>27</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E58" s="2">
         <v>3969900</v>
@@ -16719,10 +16734,10 @@
         <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E59" s="2">
         <v>3069900</v>
@@ -16736,10 +16751,10 @@
         <v>33</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E60" s="2">
         <v>3069900</v>
@@ -16750,13 +16765,13 @@
         <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>995</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E61" s="2">
         <v>2899900</v>
@@ -16764,16 +16779,16 @@
     </row>
     <row r="62" ht="40.35" hidden="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E62" s="2">
         <v>2374000</v>
@@ -16781,16 +16796,16 @@
     </row>
     <row r="63" ht="40.35" hidden="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E63" s="2">
         <v>2411000</v>
@@ -16798,16 +16813,16 @@
     </row>
     <row r="64" ht="40.35" hidden="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E64" s="2">
         <v>2024000</v>
@@ -16821,10 +16836,10 @@
         <v>494</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E65" s="2">
         <v>1124000</v>
@@ -16838,10 +16853,10 @@
         <v>519</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E66" s="2">
         <v>1051000</v>
@@ -16855,10 +16870,10 @@
         <v>516</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E67" s="2">
         <v>1657000</v>
@@ -16872,10 +16887,10 @@
         <v>509</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E68" s="2">
         <v>1705000</v>
@@ -16889,10 +16904,10 @@
         <v>57</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E69" s="2">
         <v>1699900</v>
@@ -16906,10 +16921,10 @@
         <v>274</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E70" s="2">
         <v>2489900</v>
@@ -16917,16 +16932,16 @@
     </row>
     <row r="71" ht="40.35" hidden="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E71" s="2">
         <v>2959900</v>
@@ -16934,16 +16949,16 @@
     </row>
     <row r="72" ht="40.35" hidden="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E72" s="2">
         <v>1765000</v>
@@ -16957,10 +16972,10 @@
         <v>447</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E73" s="2">
         <v>4409000</v>
@@ -16974,10 +16989,10 @@
         <v>452</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E74" s="2">
         <v>1690000</v>
@@ -16991,10 +17006,10 @@
         <v>79</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E75" s="2">
         <v>950900</v>
@@ -17011,7 +17026,7 @@
         <v>402</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E76" s="2">
         <v>880900</v>
@@ -17025,10 +17040,10 @@
         <v>77</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E77" s="2">
         <v>953900</v>
@@ -17042,10 +17057,10 @@
         <v>227</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>960</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>959</v>
       </c>
       <c r="E78" s="2">
         <v>2179000</v>
@@ -17062,7 +17077,7 @@
         <v>402</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E79" s="2">
         <v>1579000</v>
@@ -17076,10 +17091,10 @@
         <v>220</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E80" s="2">
         <v>4299000</v>
@@ -17096,7 +17111,7 @@
         <v>402</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E81" s="2">
         <v>2049000</v>
@@ -17113,7 +17128,7 @@
         <v>402</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E82" s="2">
         <v>3149000</v>
@@ -17127,10 +17142,10 @@
         <v>450</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E83" s="2">
         <v>2337000</v>
@@ -17141,13 +17156,13 @@
         <v>441</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>1008</v>
       </c>
       <c r="E84" s="2">
         <v>2762000</v>
@@ -17161,10 +17176,10 @@
         <v>489</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E85" s="2">
         <v>1618000</v>
@@ -17178,10 +17193,10 @@
         <v>495</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E86" s="2">
         <v>1301000</v>
@@ -17195,10 +17210,10 @@
         <v>501</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E87" s="2">
         <v>1258000</v>
@@ -17212,10 +17227,10 @@
         <v>502</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E88" s="2">
         <v>1373000</v>
@@ -17229,10 +17244,10 @@
         <v>492</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E89" s="2">
         <v>1724000</v>
@@ -17249,7 +17264,7 @@
         <v>402</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E90" s="2">
         <v>1874000</v>
@@ -17263,10 +17278,10 @@
         <v>512</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E91" s="2">
         <v>2057000</v>
@@ -17280,10 +17295,10 @@
         <v>528</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E92" s="2">
         <v>2118900</v>
@@ -17297,10 +17312,10 @@
         <v>529</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E93" s="2">
         <v>3248000</v>
@@ -17314,10 +17329,10 @@
         <v>530</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E94" s="2">
         <v>5378000</v>
@@ -17331,10 +17346,10 @@
         <v>531</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E95" s="2">
         <v>5806000</v>
@@ -17348,10 +17363,10 @@
         <v>523</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E96" s="2">
         <v>2388000</v>
@@ -17365,10 +17380,10 @@
         <v>524</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E97" s="2">
         <v>2681000</v>
@@ -17382,10 +17397,10 @@
         <v>595</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E98" s="2">
         <v>1385900</v>
@@ -17399,10 +17414,10 @@
         <v>279</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E99" s="2">
         <v>1518000</v>
@@ -17416,10 +17431,10 @@
         <v>600</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E100" s="2">
         <v>3375900</v>
@@ -17436,7 +17451,7 @@
         <v>402</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E101" s="2">
         <v>2828900</v>
@@ -17450,10 +17465,10 @@
         <v>32</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E102" s="2">
         <v>4449900</v>
@@ -17470,7 +17485,7 @@
         <v>402</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E103" s="2">
         <v>1229000</v>
@@ -17484,10 +17499,10 @@
         <v>580</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>960</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>959</v>
       </c>
       <c r="E104" s="2">
         <v>2499000</v>
@@ -17495,16 +17510,16 @@
     </row>
     <row r="105" ht="40.35" hidden="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>577</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E105" s="2">
         <v>1680000</v>
@@ -17512,16 +17527,16 @@
     </row>
     <row r="106" ht="40.35" hidden="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>1016</v>
       </c>
       <c r="E106" s="2">
         <v>1705000</v>
@@ -17529,7 +17544,7 @@
     </row>
     <row r="107" ht="27.15" hidden="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>36</v>
@@ -17538,7 +17553,7 @@
         <v>402</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E107" s="2">
         <v>1510000</v>
@@ -17555,7 +17570,7 @@
         <v>402</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E108" s="2">
         <v>2570000</v>
@@ -17572,7 +17587,7 @@
         <v>402</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E109" s="2">
         <v>3430000</v>
@@ -17583,13 +17598,13 @@
         <v>50</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E110" s="2">
         <v>2770000</v>
@@ -17603,10 +17618,10 @@
         <v>906</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E111" s="2">
         <v>1970000</v>
@@ -17617,13 +17632,13 @@
         <v>50</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E112" s="2">
         <v>3250000</v>
@@ -17634,13 +17649,13 @@
         <v>50</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E113" s="2">
         <v>3370000</v>
@@ -17657,7 +17672,7 @@
         <v>402</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E114" s="2">
         <v>3759900</v>
@@ -17671,10 +17686,10 @@
         <v>117</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E115" s="2">
         <v>3380000</v>
@@ -17688,10 +17703,10 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E116" s="2">
         <v>3810000</v>
@@ -17708,7 +17723,7 @@
         <v>402</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E117" s="2">
         <v>4910000</v>
@@ -17725,7 +17740,7 @@
         <v>402</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E118" s="2">
         <v>4550000</v>
@@ -17742,7 +17757,7 @@
         <v>402</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E119" s="2">
         <v>2080000</v>
@@ -17759,7 +17774,7 @@
         <v>402</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E120" s="2">
         <v>2225000</v>
@@ -17776,7 +17791,7 @@
         <v>402</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E121" s="2">
         <v>2970000</v>
@@ -17790,10 +17805,10 @@
         <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E122" s="2">
         <v>4350000</v>
@@ -17807,10 +17822,10 @@
         <v>277</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E123" s="2">
         <v>2999900</v>
@@ -17827,7 +17842,7 @@
         <v>402</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E124" s="2">
         <v>3479900</v>
@@ -17841,10 +17856,10 @@
         <v>281</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E125" s="2">
         <v>1990000</v>
@@ -17858,10 +17873,10 @@
         <v>282</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E126" s="2">
         <v>2149000</v>
@@ -17878,7 +17893,7 @@
         <v>402</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E127" s="2">
         <v>2115000</v>
@@ -17895,7 +17910,7 @@
         <v>402</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E128" s="2">
         <v>2238000</v>
@@ -17912,7 +17927,7 @@
         <v>402</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E129" s="2">
         <v>2514900</v>
@@ -17929,7 +17944,7 @@
         <v>402</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E130" s="2">
         <v>2997900</v>
@@ -17937,16 +17952,16 @@
     </row>
     <row r="131" ht="27.15" hidden="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E131" s="2">
         <v>2549900</v>
@@ -17954,16 +17969,16 @@
     </row>
     <row r="132" ht="27.15" hidden="1" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E132" s="2">
         <v>2629900</v>
@@ -17971,16 +17986,16 @@
     </row>
     <row r="133" ht="27.15" hidden="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E133" s="2">
         <v>4100000</v>
@@ -17997,7 +18012,7 @@
         <v>402</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E134" s="2">
         <v>2219900</v>
@@ -18008,13 +18023,13 @@
         <v>20</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E135" s="2">
         <v>2499900</v>
@@ -18022,7 +18037,7 @@
     </row>
     <row r="136" ht="27.15" hidden="1" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>138</v>
@@ -18031,7 +18046,7 @@
         <v>402</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E136" s="2">
         <v>1602000</v>
@@ -18039,16 +18054,16 @@
     </row>
     <row r="137" ht="40.35" hidden="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E137" s="2">
         <v>1508000</v>
@@ -18065,7 +18080,7 @@
         <v>402</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E138" s="2">
         <v>4549990</v>
@@ -18082,7 +18097,7 @@
         <v>402</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E139" s="2">
         <v>2479990</v>
@@ -18099,7 +18114,7 @@
         <v>402</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E140" s="2">
         <v>2075990</v>
@@ -18116,7 +18131,7 @@
         <v>402</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E141" s="2">
         <v>2080990</v>
@@ -18130,10 +18145,10 @@
         <v>369</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E142" s="2">
         <v>2273000</v>
@@ -18147,10 +18162,10 @@
         <v>651</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E143" s="2">
         <v>2443000</v>
@@ -18164,10 +18179,10 @@
         <v>670</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E144" s="2">
         <v>1341000</v>
@@ -18178,13 +18193,13 @@
         <v>328</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E145" s="2">
         <v>1381000</v>
@@ -18195,13 +18210,13 @@
         <v>328</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E146" s="2">
         <v>1493000</v>
@@ -18212,13 +18227,13 @@
         <v>328</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E147" s="2">
         <v>1533000</v>
@@ -18232,10 +18247,10 @@
         <v>348</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E148" s="2">
         <v>1670000</v>
@@ -18252,7 +18267,7 @@
         <v>402</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E149" s="2">
         <v>1487000</v>
@@ -18263,13 +18278,13 @@
         <v>50</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E150" s="2">
         <v>4850000</v>
@@ -18280,13 +18295,13 @@
         <v>50</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E151" s="2">
         <v>4000000</v>
@@ -18297,13 +18312,13 @@
         <v>50</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E152" s="2">
         <v>4930000</v>
@@ -18317,10 +18332,10 @@
         <v>187</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E153" s="2">
         <v>3692990</v>
@@ -18334,10 +18349,10 @@
         <v>734</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E154" s="2">
         <v>3979000</v>
@@ -18354,7 +18369,7 @@
         <v>402</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E155" s="2">
         <v>4099000</v>
@@ -18371,7 +18386,7 @@
         <v>402</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E156" s="2">
         <v>3449000</v>
@@ -18388,7 +18403,7 @@
         <v>402</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E157" s="2">
         <v>2799000</v>
@@ -18399,13 +18414,13 @@
         <v>193</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E158" s="2">
         <v>3549000</v>
@@ -18416,13 +18431,13 @@
         <v>193</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E159" s="2">
         <v>3299000</v>
@@ -18436,10 +18451,10 @@
         <v>315</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E160" s="2">
         <v>7374900</v>
@@ -18453,10 +18468,10 @@
         <v>324</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E161" s="2">
         <v>3789900</v>
@@ -18470,10 +18485,10 @@
         <v>326</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E162" s="2">
         <v>5829900</v>
@@ -18487,10 +18502,10 @@
         <v>289</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E163" s="2">
         <v>4144900</v>
@@ -18498,16 +18513,16 @@
     </row>
     <row r="164" ht="27.15" hidden="1" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E164" s="2">
         <v>1672000</v>
@@ -18524,7 +18539,7 @@
         <v>402</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E165" s="2">
         <v>2040546</v>
@@ -18541,7 +18556,7 @@
         <v>402</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E166" s="2">
         <v>3100000</v>
@@ -18558,7 +18573,7 @@
         <v>402</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E167" s="2">
         <v>2990000</v>
@@ -18572,10 +18587,10 @@
         <v>602</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E168" s="2">
         <v>8669500</v>
@@ -18589,10 +18604,10 @@
         <v>654</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E169" s="2">
         <v>4291000</v>
@@ -18606,10 +18621,10 @@
         <v>598</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E170" s="2">
         <v>6146500</v>
@@ -18617,7 +18632,7 @@
     </row>
     <row r="171" ht="27.15" hidden="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>262</v>
@@ -18626,7 +18641,7 @@
         <v>402</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E171" s="2">
         <v>1889000</v>
@@ -18634,7 +18649,7 @@
     </row>
     <row r="172" ht="27.15" hidden="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>264</v>
@@ -18643,7 +18658,7 @@
         <v>402</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E172" s="2">
         <v>2399000</v>
@@ -18651,7 +18666,7 @@
     </row>
     <row r="173" ht="27.15" hidden="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>631</v>
@@ -18660,7 +18675,7 @@
         <v>402</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E173" s="2">
         <v>3059000</v>
@@ -18668,16 +18683,16 @@
     </row>
     <row r="174" ht="27.15" hidden="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E174" s="2">
         <v>3279000</v>
@@ -18685,7 +18700,7 @@
     </row>
     <row r="175" ht="27.15" hidden="1" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>632</v>
@@ -18694,7 +18709,7 @@
         <v>402</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E175" s="2">
         <v>3599000</v>
@@ -18702,7 +18717,7 @@
     </row>
     <row r="176" ht="27.15" hidden="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>168</v>
@@ -18711,7 +18726,7 @@
         <v>402</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E176" s="2">
         <v>5499999</v>
@@ -18719,16 +18734,16 @@
     </row>
     <row r="177" ht="27.15" hidden="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C177" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>960</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>959</v>
       </c>
       <c r="E177" s="2">
         <v>4099000</v>
@@ -18736,7 +18751,7 @@
     </row>
     <row r="178" ht="27.15" hidden="1" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>162</v>
@@ -18745,7 +18760,7 @@
         <v>402</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E178" s="2">
         <v>2449000</v>
@@ -18756,13 +18771,13 @@
         <v>20</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E179" s="2">
         <v>4529900</v>
@@ -18779,7 +18794,7 @@
         <v>402</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E180" s="2">
         <v>3739900</v>
@@ -18790,13 +18805,13 @@
         <v>20</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E181" s="2">
         <v>5219900</v>
@@ -18807,13 +18822,13 @@
         <v>50</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E182" s="2">
         <v>2780000</v>
@@ -18830,7 +18845,7 @@
         <v>402</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E183" s="2">
         <v>2020000</v>
@@ -18847,7 +18862,7 @@
         <v>402</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E184" s="2">
         <v>2650000</v>
@@ -18864,7 +18879,7 @@
         <v>402</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E185" s="2">
         <v>2080000</v>
@@ -18881,7 +18896,7 @@
         <v>402</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E186" s="2">
         <v>2181000</v>
@@ -18895,10 +18910,10 @@
         <v>5</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E187" s="2">
         <v>2279000</v>
@@ -18912,10 +18927,10 @@
         <v>6</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E188" s="2">
         <v>2899000</v>
@@ -18929,10 +18944,10 @@
         <v>424</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E189" s="2">
         <v>2379000</v>
@@ -18940,16 +18955,16 @@
     </row>
     <row r="190" ht="27.15" hidden="1" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E190" s="2">
         <v>2499000</v>
@@ -18957,7 +18972,7 @@
     </row>
     <row r="191" ht="27.15" hidden="1" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>457</v>
@@ -18966,7 +18981,7 @@
         <v>402</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E191" s="2">
         <v>2479900</v>
@@ -18983,7 +18998,7 @@
         <v>402</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E192" s="2">
         <v>3959000</v>
@@ -18994,13 +19009,13 @@
         <v>114</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E193" s="2">
         <v>2890000</v>
@@ -19011,13 +19026,13 @@
         <v>114</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E194" s="2">
         <v>4080000</v>
@@ -19028,13 +19043,13 @@
         <v>114</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E195" s="2">
         <v>6290000</v>
@@ -19042,7 +19057,7 @@
     </row>
     <row r="196" ht="27.15" hidden="1" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B196" s="2">
         <v>6</v>
@@ -19051,7 +19066,7 @@
         <v>402</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E196" s="2">
         <v>2200000</v>
@@ -19059,7 +19074,7 @@
     </row>
     <row r="197" ht="27.15" hidden="1" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>272</v>
@@ -19068,7 +19083,7 @@
         <v>402</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E197" s="2">
         <v>4599000</v>
@@ -19085,7 +19100,7 @@
         <v>402</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E198" s="2">
         <v>2199000</v>
@@ -19096,13 +19111,13 @@
         <v>208</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E199" s="2">
         <v>4599000</v>
@@ -19113,13 +19128,13 @@
         <v>98</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E200" s="2">
         <v>1990000</v>
@@ -19130,13 +19145,13 @@
         <v>98</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E201" s="2">
         <v>3590000</v>
@@ -19153,7 +19168,7 @@
         <v>402</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E202" s="2">
         <v>2650000</v>
@@ -19164,13 +19179,13 @@
         <v>208</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E203" s="2">
         <v>2849000</v>
@@ -19178,7 +19193,7 @@
     </row>
     <row r="204" ht="27.15" hidden="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>164</v>
@@ -19187,7 +19202,7 @@
         <v>402</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E204" s="2">
         <v>2099000</v>
@@ -19204,7 +19219,7 @@
         <v>402</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E205" s="2">
         <v>1263000</v>
@@ -19221,7 +19236,7 @@
         <v>402</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E206" s="2">
         <v>1546500</v>
@@ -19238,7 +19253,7 @@
         <v>402</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E207" s="2">
         <v>883000</v>
@@ -19255,7 +19270,7 @@
         <v>402</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E208" s="2">
         <v>825000</v>
@@ -19272,7 +19287,7 @@
         <v>402</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E209" s="2">
         <v>851000</v>
@@ -19283,13 +19298,13 @@
         <v>169</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E210" s="2">
         <v>3357990</v>
@@ -19300,13 +19315,13 @@
         <v>208</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E211" s="2">
         <v>3899000</v>
@@ -19323,7 +19338,7 @@
         <v>402</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E212" s="2">
         <v>1990000</v>
@@ -19340,7 +19355,7 @@
         <v>402</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E213" s="2">
         <v>2199000</v>
@@ -19357,7 +19372,7 @@
         <v>402</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E214" s="2">
         <v>789900</v>
@@ -19371,10 +19386,10 @@
         <v>388</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E215" s="2">
         <v>869900</v>
@@ -19391,7 +19406,7 @@
         <v>402</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E216" s="2">
         <v>1089000</v>
@@ -19408,7 +19423,7 @@
         <v>402</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E217" s="2">
         <v>999900</v>
@@ -19425,7 +19440,7 @@
         <v>402</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E218" s="2">
         <v>1455000</v>
@@ -19439,10 +19454,10 @@
         <v>386</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E219" s="2">
         <v>809900</v>
@@ -19459,7 +19474,7 @@
         <v>402</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E220" s="2">
         <v>2000000</v>
@@ -19476,7 +19491,7 @@
         <v>402</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E221" s="2">
         <v>1229900</v>
@@ -19493,7 +19508,7 @@
         <v>402</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E222" s="2">
         <v>2656800</v>
@@ -19504,13 +19519,13 @@
         <v>328</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E223" s="2">
         <v>824000</v>
@@ -19521,13 +19536,13 @@
         <v>288</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E224" s="2">
         <v>1204900</v>
@@ -19544,7 +19559,7 @@
         <v>402</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E225" s="2">
         <v>2234900</v>
@@ -19552,16 +19567,16 @@
     </row>
     <row r="226" ht="40.35" hidden="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E226" s="2">
         <v>2673000</v>
@@ -19578,7 +19593,7 @@
         <v>402</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E227" s="2">
         <v>1419990</v>
@@ -19586,7 +19601,7 @@
     </row>
     <row r="228" ht="27.15" hidden="1" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>265</v>
@@ -19595,7 +19610,7 @@
         <v>402</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E228" s="2">
         <v>1494000</v>
@@ -19612,7 +19627,7 @@
         <v>402</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E229" s="2">
         <v>2849990</v>
@@ -19626,10 +19641,10 @@
         <v>573</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E230" s="2">
         <v>3173000</v>
@@ -19640,13 +19655,13 @@
         <v>50</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E231" s="2">
         <v>2380000</v>
@@ -19663,7 +19678,7 @@
         <v>402</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E232" s="2">
         <v>2599000</v>
@@ -19671,16 +19686,16 @@
     </row>
     <row r="233" ht="27.15" hidden="1" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>402</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E233" s="2">
         <v>2999000</v>
@@ -19691,13 +19706,13 @@
         <v>20</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E234" s="2">
         <v>3590000</v>
@@ -19705,16 +19720,16 @@
     </row>
     <row r="235" ht="40.35" hidden="1" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E235" s="2">
         <v>2569900</v>
@@ -19731,7 +19746,7 @@
         <v>402</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E236" s="2">
         <v>4750000</v>
@@ -19739,16 +19754,16 @@
     </row>
     <row r="237" ht="40.35" hidden="1" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E237" s="2">
         <v>2499990</v>
@@ -19756,7 +19771,7 @@
     </row>
     <row r="238" ht="27.15" hidden="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>770</v>
@@ -19765,7 +19780,7 @@
         <v>402</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E238" s="2">
         <v>2779990</v>
@@ -19779,10 +19794,10 @@
         <v>13</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E239" s="2">
         <v>2649000</v>
@@ -19796,10 +19811,10 @@
         <v>580</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E240" s="2">
         <v>1899000</v>
@@ -19816,7 +19831,7 @@
         <v>402</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E241" s="2">
         <v>2825990</v>
@@ -19824,7 +19839,7 @@
     </row>
     <row r="242" ht="27.15" hidden="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B242" s="2">
         <v>400</v>
@@ -19833,7 +19848,7 @@
         <v>402</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E242" s="2">
         <v>5799000</v>
@@ -19841,7 +19856,7 @@
     </row>
     <row r="243" ht="27.15" hidden="1" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>268</v>
@@ -19850,7 +19865,7 @@
         <v>402</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E243" s="2">
         <v>2899000</v>
@@ -19867,7 +19882,7 @@
         <v>402</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E244" s="2">
         <v>1887500</v>
@@ -19884,7 +19899,7 @@
         <v>402</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E245" s="2">
         <v>1805000</v>
@@ -19901,7 +19916,7 @@
         <v>402</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E246" s="2">
         <v>1684500</v>
@@ -19909,7 +19924,7 @@
     </row>
     <row r="247" ht="27.15" hidden="1" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>762</v>
@@ -19918,7 +19933,7 @@
         <v>402</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E247" s="2">
         <v>3899000</v>
@@ -19926,7 +19941,7 @@
     </row>
     <row r="248" ht="27.15" hidden="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>761</v>
@@ -19935,7 +19950,7 @@
         <v>402</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E248" s="2">
         <v>3099000</v>
@@ -19943,7 +19958,7 @@
     </row>
     <row r="249" ht="27.15" hidden="1" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -19952,7 +19967,7 @@
         <v>402</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E249" s="2">
         <v>4162990</v>

--- a/id.xlsx
+++ b/id.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$911</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$912</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="1081">
   <si>
     <t>Aito</t>
   </si>
@@ -2936,6 +2936,12 @@
   </si>
   <si>
     <t>Avante</t>
+  </si>
+  <si>
+    <t>GS8 Traveller</t>
+  </si>
+  <si>
+    <t>X70 New</t>
   </si>
   <si>
     <t>Марка</t>
@@ -4259,10 +4265,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G912"/>
+  <dimension ref="A1:G914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A893" workbookViewId="0">
-      <selection activeCell="E909" sqref="E909"/>
+      <selection activeCell="G910" sqref="G910"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -16418,8 +16424,30 @@
         <v>967</v>
       </c>
     </row>
+    <row r="913" spans="1:3">
+      <c r="A913">
+        <v>1012</v>
+      </c>
+      <c r="B913" t="s">
+        <v>164</v>
+      </c>
+      <c r="C913" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3">
+      <c r="A914">
+        <v>1013</v>
+      </c>
+      <c r="B914" t="s">
+        <v>285</v>
+      </c>
+      <c r="C914" t="s">
+        <v>969</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G911" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G912" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16440,19 +16468,19 @@
   <sheetData>
     <row r="1" ht="27.15" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="2" ht="40.35" hidden="1" customHeight="1" spans="1:5">
@@ -16460,13 +16488,13 @@
         <v>344</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>380</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E2" s="2">
         <v>1239900</v>
@@ -16483,7 +16511,7 @@
         <v>380</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E3" s="2">
         <v>1759000</v>
@@ -16500,7 +16528,7 @@
         <v>380</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E4" s="2">
         <v>1655000</v>
@@ -16517,7 +16545,7 @@
         <v>380</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E5" s="2">
         <v>1879000</v>
@@ -16528,13 +16556,13 @@
         <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E6" s="2">
         <v>1077000</v>
@@ -16551,7 +16579,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E7" s="2">
         <v>1408000</v>
@@ -16562,13 +16590,13 @@
         <v>344</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E8" s="2">
         <v>749900</v>
@@ -16585,7 +16613,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E9" s="2">
         <v>1175000</v>
@@ -16602,7 +16630,7 @@
         <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E10" s="2">
         <v>2149000</v>
@@ -16619,7 +16647,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E11" s="2">
         <v>1660000</v>
@@ -16636,7 +16664,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E12" s="2">
         <v>2020000</v>
@@ -16653,7 +16681,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E13" s="2">
         <v>1859000</v>
@@ -16670,7 +16698,7 @@
         <v>303</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E14" s="2">
         <v>1334900</v>
@@ -16681,13 +16709,13 @@
         <v>176</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E15" s="2">
         <v>3512990</v>
@@ -16704,7 +16732,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E16" s="2">
         <v>2836990</v>
@@ -16721,7 +16749,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E17" s="2">
         <v>1850000</v>
@@ -16738,7 +16766,7 @@
         <v>270</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E18" s="2">
         <v>2749000</v>
@@ -16755,7 +16783,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E19" s="2">
         <v>2179990</v>
@@ -16766,13 +16794,13 @@
         <v>176</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E20" s="2">
         <v>2794990</v>
@@ -16789,7 +16817,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E21" s="2">
         <v>3959990</v>
@@ -16797,7 +16825,7 @@
     </row>
     <row r="22" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -16806,7 +16834,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E22" s="2">
         <v>4499000</v>
@@ -16814,7 +16842,7 @@
     </row>
     <row r="23" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
@@ -16823,7 +16851,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E23" s="2">
         <v>6799000</v>
@@ -16834,13 +16862,13 @@
         <v>344</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E24" s="2">
         <v>778500</v>
@@ -16851,13 +16879,13 @@
         <v>344</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E25" s="2">
         <v>719300</v>
@@ -16868,13 +16896,13 @@
         <v>344</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E26" s="2">
         <v>950900</v>
@@ -16891,7 +16919,7 @@
         <v>380</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E27" s="2">
         <v>1316900</v>
@@ -16902,13 +16930,13 @@
         <v>242</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E28" s="2">
         <v>2769000</v>
@@ -16925,7 +16953,7 @@
         <v>303</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E29" s="2">
         <v>2244900</v>
@@ -16942,7 +16970,7 @@
         <v>259</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E30" s="2">
         <v>1574900</v>
@@ -16959,7 +16987,7 @@
         <v>259</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E31" s="2">
         <v>1434900</v>
@@ -16970,13 +16998,13 @@
         <v>344</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E32" s="2">
         <v>1059000</v>
@@ -16993,7 +17021,7 @@
         <v>259</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E33" s="2">
         <v>3969000</v>
@@ -17010,7 +17038,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="E34" s="2">
         <v>1314000</v>
@@ -17021,13 +17049,13 @@
         <v>215</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E35" s="2">
         <v>2149000</v>
@@ -17044,7 +17072,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E36" s="2">
         <v>2599000</v>
@@ -17055,13 +17083,13 @@
         <v>215</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E37" s="2">
         <v>2599000</v>
@@ -17078,7 +17106,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E38" s="2">
         <v>5269000</v>
@@ -17095,7 +17123,7 @@
         <v>303</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E39" s="2">
         <v>2314900</v>
@@ -17106,13 +17134,13 @@
         <v>344</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E40" s="2">
         <v>918900</v>
@@ -17129,7 +17157,7 @@
         <v>259</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E41" s="2">
         <v>2159900</v>
@@ -17146,7 +17174,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E42" s="2">
         <v>1106900</v>
@@ -17163,7 +17191,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E43" s="2">
         <v>1249900</v>
@@ -17180,7 +17208,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E44" s="2">
         <v>2900000</v>
@@ -17191,13 +17219,13 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E45" s="2">
         <v>2439900</v>
@@ -17214,7 +17242,7 @@
         <v>312</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E46" s="2">
         <v>2734900</v>
@@ -17231,7 +17259,7 @@
         <v>312</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E47" s="2">
         <v>1934900</v>
@@ -17248,7 +17276,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E48" s="2">
         <v>2064900</v>
@@ -17265,7 +17293,7 @@
         <v>334</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E49" s="2">
         <v>2849900</v>
@@ -17273,7 +17301,7 @@
     </row>
     <row r="50" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>279</v>
@@ -17282,7 +17310,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E50" s="2">
         <v>1779000</v>
@@ -17290,7 +17318,7 @@
     </row>
     <row r="51" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>273</v>
@@ -17299,7 +17327,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E51" s="2">
         <v>2150000</v>
@@ -17307,7 +17335,7 @@
     </row>
     <row r="52" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>278</v>
@@ -17316,7 +17344,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E52" s="2">
         <v>2129900</v>
@@ -17324,7 +17352,7 @@
     </row>
     <row r="53" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>472</v>
@@ -17333,7 +17361,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E53" s="2">
         <v>2369900</v>
@@ -17350,7 +17378,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E54" s="2">
         <v>1690000</v>
@@ -17367,7 +17395,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E55" s="2">
         <v>2869900</v>
@@ -17378,13 +17406,13 @@
         <v>22</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E56" s="2">
         <v>2569900</v>
@@ -17395,13 +17423,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E57" s="2">
         <v>2839900</v>
@@ -17418,7 +17446,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E58" s="2">
         <v>3969900</v>
@@ -17435,7 +17463,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E59" s="2">
         <v>3069900</v>
@@ -17452,7 +17480,7 @@
         <v>26</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E60" s="2">
         <v>3069900</v>
@@ -17463,13 +17491,13 @@
         <v>22</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E61" s="2">
         <v>2899900</v>
@@ -17477,7 +17505,7 @@
     </row>
     <row r="62" ht="40.35" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>135</v>
@@ -17486,7 +17514,7 @@
         <v>26</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E62" s="2">
         <v>2374000</v>
@@ -17494,7 +17522,7 @@
     </row>
     <row r="63" ht="40.35" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>136</v>
@@ -17503,7 +17531,7 @@
         <v>26</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E63" s="2">
         <v>2411000</v>
@@ -17511,7 +17539,7 @@
     </row>
     <row r="64" ht="40.35" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>137</v>
@@ -17520,7 +17548,7 @@
         <v>26</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E64" s="2">
         <v>2024000</v>
@@ -17537,7 +17565,7 @@
         <v>82</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E65" s="2">
         <v>1124000</v>
@@ -17554,7 +17582,7 @@
         <v>103</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E66" s="2">
         <v>1051000</v>
@@ -17571,7 +17599,7 @@
         <v>534</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E67" s="2">
         <v>1657000</v>
@@ -17588,7 +17616,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E68" s="2">
         <v>1705000</v>
@@ -17605,7 +17633,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E69" s="2">
         <v>1699900</v>
@@ -17622,7 +17650,7 @@
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E70" s="2">
         <v>2489900</v>
@@ -17630,7 +17658,7 @@
     </row>
     <row r="71" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>273</v>
@@ -17639,7 +17667,7 @@
         <v>26</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E71" s="2">
         <v>2959900</v>
@@ -17647,7 +17675,7 @@
     </row>
     <row r="72" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
@@ -17656,7 +17684,7 @@
         <v>26</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E72" s="2">
         <v>1765000</v>
@@ -17673,7 +17701,7 @@
         <v>226</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E73" s="2">
         <v>4409000</v>
@@ -17690,7 +17718,7 @@
         <v>226</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E74" s="2">
         <v>1690000</v>
@@ -17707,7 +17735,7 @@
         <v>85</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E75" s="2">
         <v>950900</v>
@@ -17724,7 +17752,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="E76" s="2">
         <v>880900</v>
@@ -17741,7 +17769,7 @@
         <v>82</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E77" s="2">
         <v>953900</v>
@@ -17758,7 +17786,7 @@
         <v>103</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E78" s="2">
         <v>2179000</v>
@@ -17775,7 +17803,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E79" s="2">
         <v>1579000</v>
@@ -17792,7 +17820,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="E80" s="2">
         <v>4299000</v>
@@ -17809,7 +17837,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E81" s="2">
         <v>2049000</v>
@@ -17826,7 +17854,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E82" s="2">
         <v>3149000</v>
@@ -17843,7 +17871,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E83" s="2">
         <v>2337000</v>
@@ -17854,13 +17882,13 @@
         <v>457</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E84" s="2">
         <v>2762000</v>
@@ -17877,7 +17905,7 @@
         <v>103</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E85" s="2">
         <v>1618000</v>
@@ -17894,7 +17922,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E86" s="2">
         <v>1301000</v>
@@ -17911,7 +17939,7 @@
         <v>82</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E87" s="2">
         <v>1258000</v>
@@ -17928,7 +17956,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E88" s="2">
         <v>1373000</v>
@@ -17945,7 +17973,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E89" s="2">
         <v>1724000</v>
@@ -17962,7 +17990,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E90" s="2">
         <v>1874000</v>
@@ -17979,7 +18007,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E91" s="2">
         <v>2057000</v>
@@ -17996,7 +18024,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E92" s="2">
         <v>2118900</v>
@@ -18013,7 +18041,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E93" s="2">
         <v>3248000</v>
@@ -18030,7 +18058,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E94" s="2">
         <v>5378000</v>
@@ -18047,7 +18075,7 @@
         <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E95" s="2">
         <v>5806000</v>
@@ -18064,7 +18092,7 @@
         <v>303</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E96" s="2">
         <v>2388000</v>
@@ -18081,7 +18109,7 @@
         <v>303</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E97" s="2">
         <v>2681000</v>
@@ -18098,7 +18126,7 @@
         <v>617</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E98" s="2">
         <v>1385900</v>
@@ -18115,7 +18143,7 @@
         <v>608</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E99" s="2">
         <v>1518000</v>
@@ -18132,7 +18160,7 @@
         <v>82</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E100" s="2">
         <v>3375900</v>
@@ -18149,7 +18177,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E101" s="2">
         <v>2828900</v>
@@ -18166,7 +18194,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E102" s="2">
         <v>4449900</v>
@@ -18183,7 +18211,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="E103" s="2">
         <v>1229000</v>
@@ -18200,7 +18228,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E104" s="2">
         <v>2499000</v>
@@ -18208,7 +18236,7 @@
     </row>
     <row r="105" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>595</v>
@@ -18217,7 +18245,7 @@
         <v>596</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="E105" s="2">
         <v>1680000</v>
@@ -18225,16 +18253,16 @@
     </row>
     <row r="106" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>596</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="E106" s="2">
         <v>1705000</v>
@@ -18242,7 +18270,7 @@
     </row>
     <row r="107" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>39</v>
@@ -18251,7 +18279,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="E107" s="2">
         <v>1510000</v>
@@ -18268,7 +18296,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E108" s="2">
         <v>2570000</v>
@@ -18285,7 +18313,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E109" s="2">
         <v>3430000</v>
@@ -18296,13 +18324,13 @@
         <v>54</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E110" s="2">
         <v>2770000</v>
@@ -18319,7 +18347,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E111" s="2">
         <v>1970000</v>
@@ -18330,13 +18358,13 @@
         <v>54</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E112" s="2">
         <v>3250000</v>
@@ -18347,13 +18375,13 @@
         <v>54</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E113" s="2">
         <v>3370000</v>
@@ -18370,7 +18398,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E114" s="2">
         <v>3759900</v>
@@ -18387,7 +18415,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E115" s="2">
         <v>3380000</v>
@@ -18404,7 +18432,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E116" s="2">
         <v>3810000</v>
@@ -18421,7 +18449,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E117" s="2">
         <v>4910000</v>
@@ -18438,7 +18466,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E118" s="2">
         <v>4550000</v>
@@ -18455,7 +18483,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E119" s="2">
         <v>2080000</v>
@@ -18472,7 +18500,7 @@
         <v>8</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E120" s="2">
         <v>2225000</v>
@@ -18489,7 +18517,7 @@
         <v>8</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E121" s="2">
         <v>2970000</v>
@@ -18506,7 +18534,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E122" s="2">
         <v>4350000</v>
@@ -18523,7 +18551,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E123" s="2">
         <v>2999900</v>
@@ -18540,7 +18568,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E124" s="2">
         <v>3479900</v>
@@ -18557,7 +18585,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E125" s="2">
         <v>1990000</v>
@@ -18574,7 +18602,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E126" s="2">
         <v>2149000</v>
@@ -18591,7 +18619,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E127" s="2">
         <v>2115000</v>
@@ -18608,7 +18636,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E128" s="2">
         <v>2238000</v>
@@ -18625,7 +18653,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E129" s="2">
         <v>2514900</v>
@@ -18642,7 +18670,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E130" s="2">
         <v>2997900</v>
@@ -18650,16 +18678,16 @@
     </row>
     <row r="131" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E131" s="2">
         <v>2549900</v>
@@ -18667,16 +18695,16 @@
     </row>
     <row r="132" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E132" s="2">
         <v>2629900</v>
@@ -18684,16 +18712,16 @@
     </row>
     <row r="133" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E133" s="2">
         <v>4100000</v>
@@ -18710,7 +18738,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E134" s="2">
         <v>2219900</v>
@@ -18721,13 +18749,13 @@
         <v>22</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E135" s="2">
         <v>2499900</v>
@@ -18735,7 +18763,7 @@
     </row>
     <row r="136" ht="27.15" customHeight="1" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>145</v>
@@ -18744,7 +18772,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E136" s="2">
         <v>1602000</v>
@@ -18752,7 +18780,7 @@
     </row>
     <row r="137" ht="40.35" customHeight="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>146</v>
@@ -18761,7 +18789,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E137" s="2">
         <v>1508000</v>
@@ -18778,7 +18806,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E138" s="2">
         <v>4549990</v>
@@ -18795,7 +18823,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E139" s="2">
         <v>2479990</v>
@@ -18812,7 +18840,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E140" s="2">
         <v>2075990</v>
@@ -18829,7 +18857,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E141" s="2">
         <v>2080990</v>
@@ -18846,7 +18874,7 @@
         <v>380</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E142" s="2">
         <v>2273000</v>
@@ -18863,7 +18891,7 @@
         <v>380</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E143" s="2">
         <v>2443000</v>
@@ -18880,7 +18908,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E144" s="2">
         <v>1341000</v>
@@ -18891,13 +18919,13 @@
         <v>344</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E145" s="2">
         <v>1381000</v>
@@ -18908,13 +18936,13 @@
         <v>344</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E146" s="2">
         <v>1493000</v>
@@ -18925,13 +18953,13 @@
         <v>344</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E147" s="2">
         <v>1533000</v>
@@ -18948,7 +18976,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E148" s="2">
         <v>1670000</v>
@@ -18965,7 +18993,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E149" s="2">
         <v>1487000</v>
@@ -18976,13 +19004,13 @@
         <v>54</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E150" s="2">
         <v>4850000</v>
@@ -18993,13 +19021,13 @@
         <v>54</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E151" s="2">
         <v>4000000</v>
@@ -19010,13 +19038,13 @@
         <v>54</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E152" s="2">
         <v>4930000</v>
@@ -19033,7 +19061,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E153" s="2">
         <v>3692990</v>
@@ -19050,7 +19078,7 @@
         <v>270</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E154" s="2">
         <v>3979000</v>
@@ -19067,7 +19095,7 @@
         <v>8</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E155" s="2">
         <v>4099000</v>
@@ -19084,7 +19112,7 @@
         <v>8</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E156" s="2">
         <v>3449000</v>
@@ -19101,7 +19129,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E157" s="2">
         <v>2799000</v>
@@ -19112,13 +19140,13 @@
         <v>200</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E158" s="2">
         <v>3549000</v>
@@ -19129,13 +19157,13 @@
         <v>200</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E159" s="2">
         <v>3299000</v>
@@ -19152,7 +19180,7 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E160" s="2">
         <v>7374900</v>
@@ -19169,7 +19197,7 @@
         <v>270</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E161" s="2">
         <v>3789900</v>
@@ -19186,7 +19214,7 @@
         <v>51</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E162" s="2">
         <v>5829900</v>
@@ -19203,7 +19231,7 @@
         <v>270</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E163" s="2">
         <v>4144900</v>
@@ -19211,16 +19239,16 @@
     </row>
     <row r="164" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E164" s="2">
         <v>1672000</v>
@@ -19237,7 +19265,7 @@
         <v>8</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E165" s="2">
         <v>2040546</v>
@@ -19254,7 +19282,7 @@
         <v>8</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E166" s="2">
         <v>3100000</v>
@@ -19271,7 +19299,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E167" s="2">
         <v>2990000</v>
@@ -19288,7 +19316,7 @@
         <v>312</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E168" s="2">
         <v>8669500</v>
@@ -19305,7 +19333,7 @@
         <v>677</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E169" s="2">
         <v>4291000</v>
@@ -19322,7 +19350,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E170" s="2">
         <v>6146500</v>
@@ -19330,7 +19358,7 @@
     </row>
     <row r="171" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>274</v>
@@ -19339,7 +19367,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E171" s="2">
         <v>1889000</v>
@@ -19347,7 +19375,7 @@
     </row>
     <row r="172" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>276</v>
@@ -19356,7 +19384,7 @@
         <v>8</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E172" s="2">
         <v>2399000</v>
@@ -19364,7 +19392,7 @@
     </row>
     <row r="173" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>653</v>
@@ -19373,7 +19401,7 @@
         <v>8</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E173" s="2">
         <v>3059000</v>
@@ -19381,16 +19409,16 @@
     </row>
     <row r="174" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E174" s="2">
         <v>3279000</v>
@@ -19398,7 +19426,7 @@
     </row>
     <row r="175" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>654</v>
@@ -19407,7 +19435,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E175" s="2">
         <v>3599000</v>
@@ -19415,7 +19443,7 @@
     </row>
     <row r="176" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>175</v>
@@ -19424,7 +19452,7 @@
         <v>8</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E176" s="2">
         <v>5499999</v>
@@ -19432,7 +19460,7 @@
     </row>
     <row r="177" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>172</v>
@@ -19441,7 +19469,7 @@
         <v>103</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E177" s="2">
         <v>4099000</v>
@@ -19449,7 +19477,7 @@
     </row>
     <row r="178" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>169</v>
@@ -19458,7 +19486,7 @@
         <v>8</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E178" s="2">
         <v>2449000</v>
@@ -19469,13 +19497,13 @@
         <v>22</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E179" s="2">
         <v>4529900</v>
@@ -19492,7 +19520,7 @@
         <v>8</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E180" s="2">
         <v>3739900</v>
@@ -19503,13 +19531,13 @@
         <v>22</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E181" s="2">
         <v>5219900</v>
@@ -19520,13 +19548,13 @@
         <v>54</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E182" s="2">
         <v>2780000</v>
@@ -19543,7 +19571,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E183" s="2">
         <v>2020000</v>
@@ -19560,7 +19588,7 @@
         <v>8</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E184" s="2">
         <v>2650000</v>
@@ -19577,7 +19605,7 @@
         <v>8</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E185" s="2">
         <v>2080000</v>
@@ -19594,7 +19622,7 @@
         <v>8</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E186" s="2">
         <v>2181000</v>
@@ -19611,7 +19639,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="E187" s="2">
         <v>2279000</v>
@@ -19628,7 +19656,7 @@
         <v>103</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="E188" s="2">
         <v>2899000</v>
@@ -19645,7 +19673,7 @@
         <v>82</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E189" s="2">
         <v>2379000</v>
@@ -19653,16 +19681,16 @@
     </row>
     <row r="190" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E190" s="2">
         <v>2499000</v>
@@ -19670,7 +19698,7 @@
     </row>
     <row r="191" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>473</v>
@@ -19679,7 +19707,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E191" s="2">
         <v>2479900</v>
@@ -19696,7 +19724,7 @@
         <v>8</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E192" s="2">
         <v>3959000</v>
@@ -19707,13 +19735,13 @@
         <v>121</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E193" s="2">
         <v>2890000</v>
@@ -19724,13 +19752,13 @@
         <v>121</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E194" s="2">
         <v>4080000</v>
@@ -19741,13 +19769,13 @@
         <v>121</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E195" s="2">
         <v>6290000</v>
@@ -19755,7 +19783,7 @@
     </row>
     <row r="196" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B196" s="2">
         <v>6</v>
@@ -19764,7 +19792,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E196" s="2">
         <v>2200000</v>
@@ -19772,7 +19800,7 @@
     </row>
     <row r="197" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>284</v>
@@ -19781,7 +19809,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E197" s="2">
         <v>4599000</v>
@@ -19798,7 +19826,7 @@
         <v>8</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E198" s="2">
         <v>2199000</v>
@@ -19809,13 +19837,13 @@
         <v>215</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E199" s="2">
         <v>4599000</v>
@@ -19826,13 +19854,13 @@
         <v>105</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E200" s="2">
         <v>1990000</v>
@@ -19843,13 +19871,13 @@
         <v>105</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E201" s="2">
         <v>3590000</v>
@@ -19866,7 +19894,7 @@
         <v>8</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E202" s="2">
         <v>2650000</v>
@@ -19877,13 +19905,13 @@
         <v>215</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E203" s="2">
         <v>2849000</v>
@@ -19891,7 +19919,7 @@
     </row>
     <row r="204" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>171</v>
@@ -19900,7 +19928,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E204" s="2">
         <v>2099000</v>
@@ -19917,7 +19945,7 @@
         <v>8</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E205" s="2">
         <v>1263000</v>
@@ -19934,7 +19962,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E206" s="2">
         <v>1546500</v>
@@ -19951,7 +19979,7 @@
         <v>8</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E207" s="2">
         <v>883000</v>
@@ -19968,7 +19996,7 @@
         <v>8</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E208" s="2">
         <v>825000</v>
@@ -19985,7 +20013,7 @@
         <v>8</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E209" s="2">
         <v>851000</v>
@@ -19996,13 +20024,13 @@
         <v>176</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E210" s="2">
         <v>3357990</v>
@@ -20013,13 +20041,13 @@
         <v>215</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E211" s="2">
         <v>3899000</v>
@@ -20036,7 +20064,7 @@
         <v>8</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E212" s="2">
         <v>1990000</v>
@@ -20053,7 +20081,7 @@
         <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E213" s="2">
         <v>2199000</v>
@@ -20070,7 +20098,7 @@
         <v>8</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="E214" s="2">
         <v>789900</v>
@@ -20087,7 +20115,7 @@
         <v>51</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E215" s="2">
         <v>869900</v>
@@ -20104,7 +20132,7 @@
         <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E216" s="2">
         <v>1089000</v>
@@ -20121,7 +20149,7 @@
         <v>8</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E217" s="2">
         <v>999900</v>
@@ -20138,7 +20166,7 @@
         <v>8</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E218" s="2">
         <v>1455000</v>
@@ -20155,7 +20183,7 @@
         <v>103</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E219" s="2">
         <v>809900</v>
@@ -20172,7 +20200,7 @@
         <v>8</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E220" s="2">
         <v>2000000</v>
@@ -20189,7 +20217,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E221" s="2">
         <v>1229900</v>
@@ -20206,7 +20234,7 @@
         <v>8</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E222" s="2">
         <v>2656800</v>
@@ -20217,13 +20245,13 @@
         <v>344</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E223" s="2">
         <v>824000</v>
@@ -20234,13 +20262,13 @@
         <v>300</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E224" s="2">
         <v>1204900</v>
@@ -20257,7 +20285,7 @@
         <v>8</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E225" s="2">
         <v>2234900</v>
@@ -20265,7 +20293,7 @@
     </row>
     <row r="226" ht="40.35" customHeight="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>138</v>
@@ -20274,7 +20302,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E226" s="2">
         <v>2673000</v>
@@ -20291,7 +20319,7 @@
         <v>8</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E227" s="2">
         <v>1419990</v>
@@ -20299,7 +20327,7 @@
     </row>
     <row r="228" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>277</v>
@@ -20308,7 +20336,7 @@
         <v>8</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E228" s="2">
         <v>1494000</v>
@@ -20325,7 +20353,7 @@
         <v>8</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E229" s="2">
         <v>2849990</v>
@@ -20339,10 +20367,10 @@
         <v>591</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E230" s="2">
         <v>3173000</v>
@@ -20353,13 +20381,13 @@
         <v>54</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E231" s="2">
         <v>2380000</v>
@@ -20376,7 +20404,7 @@
         <v>8</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E232" s="2">
         <v>2599000</v>
@@ -20384,16 +20412,16 @@
     </row>
     <row r="233" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E233" s="2">
         <v>2999000</v>
@@ -20404,13 +20432,13 @@
         <v>22</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E234" s="2">
         <v>3590000</v>
@@ -20418,16 +20446,16 @@
     </row>
     <row r="235" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E235" s="2">
         <v>2569900</v>
@@ -20444,7 +20472,7 @@
         <v>8</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E236" s="2">
         <v>4750000</v>
@@ -20452,16 +20480,16 @@
     </row>
     <row r="237" ht="40.35" customHeight="1" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E237" s="2">
         <v>2499990</v>
@@ -20469,7 +20497,7 @@
     </row>
     <row r="238" ht="27.15" customHeight="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>793</v>
@@ -20478,7 +20506,7 @@
         <v>8</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E238" s="2">
         <v>2779990</v>
@@ -20495,7 +20523,7 @@
         <v>51</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E239" s="2">
         <v>2649000</v>
@@ -20512,7 +20540,7 @@
         <v>5</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E240" s="2">
         <v>1899000</v>
@@ -20529,7 +20557,7 @@
         <v>8</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E241" s="2">
         <v>2825990</v>
@@ -20537,7 +20565,7 @@
     </row>
     <row r="242" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B242" s="2">
         <v>400</v>
@@ -20546,7 +20574,7 @@
         <v>8</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E242" s="2">
         <v>5799000</v>
@@ -20554,7 +20582,7 @@
     </row>
     <row r="243" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>280</v>
@@ -20563,7 +20591,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="E243" s="2">
         <v>2899000</v>
@@ -20580,7 +20608,7 @@
         <v>8</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E244" s="2">
         <v>1887500</v>
@@ -20597,7 +20625,7 @@
         <v>8</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E245" s="2">
         <v>1805000</v>
@@ -20614,7 +20642,7 @@
         <v>8</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E246" s="2">
         <v>1684500</v>
@@ -20622,7 +20650,7 @@
     </row>
     <row r="247" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>785</v>
@@ -20631,7 +20659,7 @@
         <v>8</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E247" s="2">
         <v>3899000</v>
@@ -20639,7 +20667,7 @@
     </row>
     <row r="248" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>784</v>
@@ -20648,7 +20676,7 @@
         <v>8</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E248" s="2">
         <v>3099000</v>
@@ -20656,7 +20684,7 @@
     </row>
     <row r="249" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -20665,7 +20693,7 @@
         <v>8</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E249" s="2">
         <v>4162990</v>

--- a/id.xlsx
+++ b/id.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$912</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$914</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4264,11 +4264,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A893" workbookViewId="0">
-      <selection activeCell="G910" sqref="G910"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="F423" sqref="F423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4288,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" hidden="1" spans="1:3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" hidden="1" spans="1:3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" hidden="1" spans="1:3">
       <c r="A11">
         <v>110</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" hidden="1" spans="1:3">
       <c r="A12">
         <v>111</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" hidden="1" spans="1:3">
       <c r="A13">
         <v>112</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" hidden="1" spans="1:3">
       <c r="A14">
         <v>113</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" hidden="1" spans="1:3">
       <c r="A15">
         <v>114</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" hidden="1" spans="1:3">
       <c r="A16">
         <v>115</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" hidden="1" spans="1:3">
       <c r="A28">
         <v>127</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" hidden="1" spans="1:3">
       <c r="A30">
         <v>129</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" hidden="1" spans="1:3">
       <c r="A32">
         <v>131</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" hidden="1" spans="1:3">
       <c r="A33">
         <v>132</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" hidden="1" spans="1:3">
       <c r="A34">
         <v>133</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" hidden="1" spans="1:3">
       <c r="A35">
         <v>134</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" hidden="1" spans="1:3">
       <c r="A37">
         <v>136</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" hidden="1" spans="1:3">
       <c r="A38">
         <v>137</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" hidden="1" spans="1:3">
       <c r="A39">
         <v>138</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" hidden="1" spans="1:3">
       <c r="A40">
         <v>139</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" hidden="1" spans="1:3">
       <c r="A43">
         <v>142</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" hidden="1" spans="1:3">
       <c r="A45">
         <v>144</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" hidden="1" spans="1:3">
       <c r="A46">
         <v>145</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" hidden="1" spans="1:3">
       <c r="A47">
         <v>146</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" hidden="1" spans="1:3">
       <c r="A49">
         <v>148</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" hidden="1" spans="1:3">
       <c r="A51">
         <v>150</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" hidden="1" spans="1:3">
       <c r="A53">
         <v>152</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" hidden="1" spans="1:3">
       <c r="A54">
         <v>153</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" hidden="1" spans="1:3">
       <c r="A61">
         <v>160</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" hidden="1" spans="1:3">
       <c r="A63">
         <v>162</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" hidden="1" spans="1:3">
       <c r="A64">
         <v>163</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" hidden="1" spans="1:3">
       <c r="A66">
         <v>165</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" hidden="1" spans="1:3">
       <c r="A67">
         <v>166</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" hidden="1" spans="1:3">
       <c r="A68">
         <v>167</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" hidden="1" spans="1:3">
       <c r="A72">
         <v>171</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" hidden="1" spans="1:3">
       <c r="A73">
         <v>172</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" hidden="1" spans="1:3">
       <c r="A74">
         <v>173</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" hidden="1" spans="1:3">
       <c r="A75">
         <v>174</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" hidden="1" spans="1:3">
       <c r="A76">
         <v>175</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" hidden="1" spans="1:3">
       <c r="A77">
         <v>176</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" hidden="1" spans="1:3">
       <c r="A78">
         <v>177</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" hidden="1" spans="1:3">
       <c r="A79">
         <v>178</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" hidden="1" spans="1:3">
       <c r="A80">
         <v>179</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" hidden="1" spans="1:3">
       <c r="A81">
         <v>180</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" hidden="1" spans="1:3">
       <c r="A82">
         <v>181</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" hidden="1" spans="1:3">
       <c r="A87">
         <v>186</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" hidden="1" spans="1:3">
       <c r="A88">
         <v>187</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" hidden="1" spans="1:3">
       <c r="A89">
         <v>188</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" hidden="1" spans="1:3">
       <c r="A90">
         <v>189</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" hidden="1" spans="1:3">
       <c r="A91">
         <v>190</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" hidden="1" spans="1:3">
       <c r="A92">
         <v>191</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" hidden="1" spans="1:3">
       <c r="A93">
         <v>192</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" hidden="1" spans="1:3">
       <c r="A94">
         <v>193</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" hidden="1" spans="1:3">
       <c r="A95">
         <v>194</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" hidden="1" spans="1:3">
       <c r="A96">
         <v>195</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" hidden="1" spans="1:3">
       <c r="A97">
         <v>196</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" hidden="1" spans="1:3">
       <c r="A98">
         <v>197</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" hidden="1" spans="1:3">
       <c r="A99">
         <v>198</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" hidden="1" spans="1:3">
       <c r="A100">
         <v>199</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" hidden="1" spans="1:3">
       <c r="A101">
         <v>200</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" hidden="1" spans="1:3">
       <c r="A103">
         <v>202</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" hidden="1" spans="1:3">
       <c r="A107">
         <v>206</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" hidden="1" spans="1:3">
       <c r="A108">
         <v>207</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" hidden="1" spans="1:3">
       <c r="A109">
         <v>208</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" hidden="1" spans="1:3">
       <c r="A110">
         <v>209</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" hidden="1" spans="1:3">
       <c r="A111">
         <v>210</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" hidden="1" spans="1:3">
       <c r="A112">
         <v>211</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" hidden="1" spans="1:3">
       <c r="A113">
         <v>212</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" hidden="1" spans="1:3">
       <c r="A117">
         <v>216</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" hidden="1" spans="1:3">
       <c r="A118">
         <v>217</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" hidden="1" spans="1:3">
       <c r="A119">
         <v>218</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" hidden="1" spans="1:3">
       <c r="A120">
         <v>219</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" hidden="1" spans="1:3">
       <c r="A121">
         <v>220</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" hidden="1" spans="1:3">
       <c r="A122">
         <v>221</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" hidden="1" spans="1:3">
       <c r="A123">
         <v>222</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" hidden="1" spans="1:3">
       <c r="A126">
         <v>225</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" hidden="1" spans="1:3">
       <c r="A127">
         <v>226</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" hidden="1" spans="1:3">
       <c r="A128">
         <v>227</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" hidden="1" spans="1:3">
       <c r="A129">
         <v>228</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" hidden="1" spans="1:3">
       <c r="A130">
         <v>229</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" hidden="1" spans="1:3">
       <c r="A131">
         <v>230</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" hidden="1" spans="1:3">
       <c r="A132">
         <v>231</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" hidden="1" spans="1:3">
       <c r="A133">
         <v>232</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" hidden="1" spans="1:3">
       <c r="A134">
         <v>233</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" hidden="1" spans="1:3">
       <c r="A135">
         <v>234</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" hidden="1" spans="1:3">
       <c r="A136">
         <v>235</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" hidden="1" spans="1:3">
       <c r="A137">
         <v>236</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" hidden="1" spans="1:3">
       <c r="A138">
         <v>237</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" hidden="1" spans="1:3">
       <c r="A139">
         <v>238</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" hidden="1" spans="1:3">
       <c r="A140">
         <v>239</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" hidden="1" spans="1:3">
       <c r="A141">
         <v>240</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" hidden="1" spans="1:3">
       <c r="A142">
         <v>241</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" hidden="1" spans="1:3">
       <c r="A143">
         <v>242</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" hidden="1" spans="1:3">
       <c r="A145">
         <v>244</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" hidden="1" spans="1:3">
       <c r="A146">
         <v>245</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" hidden="1" spans="1:3">
       <c r="A148">
         <v>247</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" hidden="1" spans="1:3">
       <c r="A149">
         <v>248</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" hidden="1" spans="1:3">
       <c r="A154">
         <v>253</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" hidden="1" spans="1:3">
       <c r="A157">
         <v>256</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" hidden="1" spans="1:3">
       <c r="A161">
         <v>260</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" hidden="1" spans="1:3">
       <c r="A162">
         <v>261</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" hidden="1" spans="1:3">
       <c r="A163">
         <v>262</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" hidden="1" spans="1:3">
       <c r="A164">
         <v>263</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" hidden="1" spans="1:3">
       <c r="A167">
         <v>266</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" hidden="1" spans="1:3">
       <c r="A169">
         <v>268</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" hidden="1" spans="1:3">
       <c r="A170">
         <v>269</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" hidden="1" spans="1:3">
       <c r="A171">
         <v>270</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" hidden="1" spans="1:3">
       <c r="A172">
         <v>271</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" hidden="1" spans="1:3">
       <c r="A175">
         <v>274</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" hidden="1" spans="1:3">
       <c r="A176">
         <v>275</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" hidden="1" spans="1:3">
       <c r="A177">
         <v>276</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" hidden="1" spans="1:3">
       <c r="A179">
         <v>278</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" hidden="1" spans="1:3">
       <c r="A180">
         <v>279</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" hidden="1" spans="1:3">
       <c r="A181">
         <v>280</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" hidden="1" spans="1:3">
       <c r="A182">
         <v>281</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" hidden="1" spans="1:3">
       <c r="A183">
         <v>282</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" hidden="1" spans="1:3">
       <c r="A184">
         <v>283</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" hidden="1" spans="1:3">
       <c r="A185">
         <v>284</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" hidden="1" spans="1:3">
       <c r="A186">
         <v>285</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" hidden="1" spans="1:3">
       <c r="A189">
         <v>288</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" hidden="1" spans="1:3">
       <c r="A190">
         <v>289</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" hidden="1" spans="1:3">
       <c r="A191">
         <v>290</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" hidden="1" spans="1:3">
       <c r="A192">
         <v>291</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" hidden="1" spans="1:3">
       <c r="A193">
         <v>292</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" hidden="1" spans="1:3">
       <c r="A194">
         <v>293</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" hidden="1" spans="1:3">
       <c r="A195">
         <v>294</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" hidden="1" spans="1:3">
       <c r="A200">
         <v>299</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" hidden="1" spans="1:3">
       <c r="A203">
         <v>302</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" hidden="1" spans="1:3">
       <c r="A207">
         <v>306</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" hidden="1" spans="1:3">
       <c r="A209">
         <v>308</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" hidden="1" spans="1:3">
       <c r="A210">
         <v>309</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" hidden="1" spans="1:3">
       <c r="A211">
         <v>310</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" hidden="1" spans="1:3">
       <c r="A212">
         <v>311</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" hidden="1" spans="1:3">
       <c r="A213">
         <v>312</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" hidden="1" spans="1:3">
       <c r="A214">
         <v>313</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" hidden="1" spans="1:3">
       <c r="A216">
         <v>315</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" hidden="1" spans="1:3">
       <c r="A217">
         <v>316</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" hidden="1" spans="1:3">
       <c r="A218">
         <v>317</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" hidden="1" spans="1:3">
       <c r="A219">
         <v>318</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" hidden="1" spans="1:3">
       <c r="A220">
         <v>319</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" hidden="1" spans="1:3">
       <c r="A222">
         <v>321</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" hidden="1" spans="1:3">
       <c r="A223">
         <v>322</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" hidden="1" spans="1:3">
       <c r="A225">
         <v>324</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" hidden="1" spans="1:3">
       <c r="A226">
         <v>325</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" hidden="1" spans="1:3">
       <c r="A228">
         <v>327</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" hidden="1" spans="1:3">
       <c r="A229">
         <v>328</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" hidden="1" spans="1:3">
       <c r="A233">
         <v>332</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" hidden="1" spans="1:3">
       <c r="A234">
         <v>333</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" hidden="1" spans="1:3">
       <c r="A235">
         <v>334</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" hidden="1" spans="1:3">
       <c r="A237">
         <v>336</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" hidden="1" spans="1:3">
       <c r="A240">
         <v>339</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" hidden="1" spans="1:3">
       <c r="A245">
         <v>344</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" hidden="1" spans="1:3">
       <c r="A247">
         <v>346</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" hidden="1" spans="1:3">
       <c r="A249">
         <v>348</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" hidden="1" spans="1:3">
       <c r="A251">
         <v>350</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" hidden="1" spans="1:3">
       <c r="A252">
         <v>351</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" hidden="1" spans="1:3">
       <c r="A253">
         <v>352</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" hidden="1" spans="1:3">
       <c r="A265">
         <v>364</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" hidden="1" spans="1:3">
       <c r="A267">
         <v>366</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" hidden="1" spans="1:3">
       <c r="A268">
         <v>367</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" hidden="1" spans="1:3">
       <c r="A270">
         <v>369</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" hidden="1" spans="1:3">
       <c r="A271">
         <v>370</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" hidden="1" spans="1:3">
       <c r="A273">
         <v>372</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" hidden="1" spans="1:3">
       <c r="A275">
         <v>374</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" hidden="1" spans="1:3">
       <c r="A278">
         <v>377</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" hidden="1" spans="1:3">
       <c r="A280">
         <v>379</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" hidden="1" spans="1:3">
       <c r="A283">
         <v>382</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" hidden="1" spans="1:3">
       <c r="A284">
         <v>383</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" hidden="1" spans="1:3">
       <c r="A285">
         <v>384</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" hidden="1" spans="1:3">
       <c r="A286">
         <v>385</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" hidden="1" spans="1:3">
       <c r="A287">
         <v>386</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" hidden="1" spans="1:3">
       <c r="A288">
         <v>387</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" hidden="1" spans="1:3">
       <c r="A290">
         <v>389</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" hidden="1" spans="1:3">
       <c r="A293">
         <v>392</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" hidden="1" spans="1:3">
       <c r="A294">
         <v>393</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" hidden="1" spans="1:3">
       <c r="A295">
         <v>394</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" hidden="1" spans="1:3">
       <c r="A297">
         <v>396</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" hidden="1" spans="1:3">
       <c r="A299">
         <v>398</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" hidden="1" spans="1:3">
       <c r="A301">
         <v>400</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" hidden="1" spans="1:3">
       <c r="A302">
         <v>401</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" hidden="1" spans="1:3">
       <c r="A308">
         <v>407</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" hidden="1" spans="1:3">
       <c r="A309">
         <v>408</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" hidden="1" spans="1:3">
       <c r="A311">
         <v>410</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" hidden="1" spans="1:3">
       <c r="A313">
         <v>412</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" hidden="1" spans="1:3">
       <c r="A314">
         <v>413</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" hidden="1" spans="1:3">
       <c r="A316">
         <v>415</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" hidden="1" spans="1:3">
       <c r="A317">
         <v>416</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" hidden="1" spans="1:3">
       <c r="A318">
         <v>417</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" hidden="1" spans="1:3">
       <c r="A322">
         <v>421</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" hidden="1" spans="1:3">
       <c r="A323">
         <v>422</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" hidden="1" spans="1:3">
       <c r="A326">
         <v>425</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" hidden="1" spans="1:3">
       <c r="A327">
         <v>426</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" hidden="1" spans="1:3">
       <c r="A328">
         <v>427</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" hidden="1" spans="1:3">
       <c r="A329">
         <v>428</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" hidden="1" spans="1:3">
       <c r="A330">
         <v>429</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" hidden="1" spans="1:3">
       <c r="A331">
         <v>430</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" hidden="1" spans="1:3">
       <c r="A332">
         <v>431</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" hidden="1" spans="1:3">
       <c r="A334">
         <v>433</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" hidden="1" spans="1:3">
       <c r="A342">
         <v>441</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" hidden="1" spans="1:3">
       <c r="A350">
         <v>449</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" hidden="1" spans="1:3">
       <c r="A351">
         <v>450</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" hidden="1" spans="1:3">
       <c r="A352">
         <v>451</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" hidden="1" spans="1:3">
       <c r="A353">
         <v>452</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" hidden="1" spans="1:3">
       <c r="A354">
         <v>453</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" hidden="1" spans="1:3">
       <c r="A355">
         <v>454</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" hidden="1" spans="1:3">
       <c r="A357">
         <v>456</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" hidden="1" spans="1:3">
       <c r="A359">
         <v>458</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" hidden="1" spans="1:3">
       <c r="A363">
         <v>462</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" hidden="1" spans="1:3">
       <c r="A368">
         <v>467</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" hidden="1" spans="1:3">
       <c r="A369">
         <v>468</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" hidden="1" spans="1:3">
       <c r="A370">
         <v>469</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" hidden="1" spans="1:3">
       <c r="A371">
         <v>470</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" hidden="1" spans="1:3">
       <c r="A372">
         <v>471</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" hidden="1" spans="1:3">
       <c r="A373">
         <v>472</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" hidden="1" spans="1:3">
       <c r="A374">
         <v>473</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" hidden="1" spans="1:3">
       <c r="A375">
         <v>474</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" hidden="1" spans="1:3">
       <c r="A376">
         <v>475</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" hidden="1" spans="1:3">
       <c r="A377">
         <v>476</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" hidden="1" spans="1:3">
       <c r="A378">
         <v>477</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" hidden="1" spans="1:3">
       <c r="A379">
         <v>478</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" hidden="1" spans="1:3">
       <c r="A380">
         <v>479</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" hidden="1" spans="1:3">
       <c r="A381">
         <v>480</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" hidden="1" spans="1:3">
       <c r="A382">
         <v>481</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" hidden="1" spans="1:3">
       <c r="A383">
         <v>482</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" hidden="1" spans="1:3">
       <c r="A384">
         <v>483</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" hidden="1" spans="1:3">
       <c r="A385">
         <v>484</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" hidden="1" spans="1:3">
       <c r="A386">
         <v>485</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" hidden="1" spans="1:3">
       <c r="A387">
         <v>486</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" hidden="1" spans="1:3">
       <c r="A388">
         <v>487</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" hidden="1" spans="1:3">
       <c r="A389">
         <v>488</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" hidden="1" spans="1:3">
       <c r="A390">
         <v>489</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" hidden="1" spans="1:3">
       <c r="A391">
         <v>490</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" hidden="1" spans="1:3">
       <c r="A392">
         <v>491</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" hidden="1" spans="1:3">
       <c r="A393">
         <v>492</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" hidden="1" spans="1:3">
       <c r="A394">
         <v>493</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" hidden="1" spans="1:3">
       <c r="A395">
         <v>494</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" hidden="1" spans="1:3">
       <c r="A396">
         <v>495</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" hidden="1" spans="1:3">
       <c r="A397">
         <v>496</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" hidden="1" spans="1:3">
       <c r="A398">
         <v>497</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" hidden="1" spans="1:3">
       <c r="A399">
         <v>498</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" hidden="1" spans="1:3">
       <c r="A400">
         <v>499</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" hidden="1" spans="1:3">
       <c r="A401">
         <v>500</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" hidden="1" spans="1:3">
       <c r="A402">
         <v>501</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" hidden="1" spans="1:3">
       <c r="A403">
         <v>502</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" hidden="1" spans="1:3">
       <c r="A404">
         <v>503</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" hidden="1" spans="1:3">
       <c r="A405">
         <v>504</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" hidden="1" spans="1:3">
       <c r="A406">
         <v>505</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" hidden="1" spans="1:3">
       <c r="A407">
         <v>506</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" hidden="1" spans="1:3">
       <c r="A408">
         <v>507</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" hidden="1" spans="1:3">
       <c r="A409">
         <v>508</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" ht="15.15" spans="1:7">
       <c r="A411">
         <v>510</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" hidden="1" spans="1:3">
       <c r="A412">
         <v>511</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" hidden="1" spans="1:3">
       <c r="A413">
         <v>512</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" hidden="1" spans="1:3">
       <c r="A414">
         <v>513</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" hidden="1" spans="1:3">
       <c r="A415">
         <v>514</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" hidden="1" spans="1:3">
       <c r="A416">
         <v>515</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="417" ht="15.15" customHeight="1" spans="1:3">
+    <row r="417" ht="15.15" hidden="1" customHeight="1" spans="1:3">
       <c r="A417">
         <v>516</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" hidden="1" spans="1:3">
       <c r="A419">
         <v>518</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" hidden="1" spans="1:3">
       <c r="A420">
         <v>519</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" hidden="1" spans="1:3">
       <c r="A422">
         <v>521</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" hidden="1" spans="1:3">
       <c r="A425">
         <v>524</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" hidden="1" spans="1:3">
       <c r="A428">
         <v>527</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" hidden="1" spans="1:3">
       <c r="A429">
         <v>528</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" hidden="1" spans="1:3">
       <c r="A430">
         <v>529</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" hidden="1" spans="1:3">
       <c r="A431">
         <v>530</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" hidden="1" spans="1:3">
       <c r="A432">
         <v>531</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" hidden="1" spans="1:3">
       <c r="A433">
         <v>532</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" hidden="1" spans="1:3">
       <c r="A434">
         <v>533</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" hidden="1" spans="1:3">
       <c r="A435">
         <v>534</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" hidden="1" spans="1:3">
       <c r="A436">
         <v>535</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" hidden="1" spans="1:3">
       <c r="A437">
         <v>536</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" hidden="1" spans="1:3">
       <c r="A438">
         <v>537</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" hidden="1" spans="1:3">
       <c r="A439">
         <v>538</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" hidden="1" spans="1:3">
       <c r="A440">
         <v>539</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" hidden="1" spans="1:3">
       <c r="A441">
         <v>540</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" hidden="1" spans="1:3">
       <c r="A442">
         <v>541</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" hidden="1" spans="1:3">
       <c r="A443">
         <v>542</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" hidden="1" spans="1:3">
       <c r="A444">
         <v>543</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" hidden="1" spans="1:3">
       <c r="A445">
         <v>544</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" hidden="1" spans="1:3">
       <c r="A449">
         <v>548</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" hidden="1" spans="1:3">
       <c r="A451">
         <v>550</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" hidden="1" spans="1:3">
       <c r="A452">
         <v>551</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" hidden="1" spans="1:3">
       <c r="A454">
         <v>553</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" hidden="1" spans="1:3">
       <c r="A455">
         <v>554</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" hidden="1" spans="1:3">
       <c r="A458">
         <v>557</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" hidden="1" spans="1:3">
       <c r="A462">
         <v>561</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" hidden="1" spans="1:3">
       <c r="A463">
         <v>562</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" hidden="1" spans="1:3">
       <c r="A464">
         <v>563</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" hidden="1" spans="1:3">
       <c r="A465">
         <v>564</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" hidden="1" spans="1:3">
       <c r="A469">
         <v>568</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" hidden="1" spans="1:3">
       <c r="A470">
         <v>569</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" hidden="1" spans="1:3">
       <c r="A471">
         <v>570</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" hidden="1" spans="1:3">
       <c r="A473">
         <v>572</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" hidden="1" spans="1:3">
       <c r="A474">
         <v>573</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" hidden="1" spans="1:3">
       <c r="A476">
         <v>575</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" hidden="1" spans="1:3">
       <c r="A478">
         <v>577</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" hidden="1" spans="1:3">
       <c r="A479">
         <v>578</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" hidden="1" spans="1:3">
       <c r="A481">
         <v>580</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" hidden="1" spans="1:3">
       <c r="A483">
         <v>582</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" hidden="1" spans="1:3">
       <c r="A484">
         <v>583</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" hidden="1" spans="1:3">
       <c r="A485">
         <v>584</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" hidden="1" spans="1:3">
       <c r="A488">
         <v>587</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" hidden="1" spans="1:3">
       <c r="A489">
         <v>588</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" hidden="1" spans="1:3">
       <c r="A499">
         <v>598</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" hidden="1" spans="1:3">
       <c r="A500">
         <v>599</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" hidden="1" spans="1:3">
       <c r="A501">
         <v>600</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" hidden="1" spans="1:3">
       <c r="A502">
         <v>601</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" hidden="1" spans="1:3">
       <c r="A503">
         <v>602</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" hidden="1" spans="1:3">
       <c r="A504">
         <v>603</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" hidden="1" spans="1:3">
       <c r="A505">
         <v>604</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" hidden="1" spans="1:3">
       <c r="A506">
         <v>605</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" hidden="1" spans="1:3">
       <c r="A507">
         <v>606</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" hidden="1" spans="1:3">
       <c r="A508">
         <v>607</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" hidden="1" spans="1:3">
       <c r="A509">
         <v>608</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" hidden="1" spans="1:3">
       <c r="A510">
         <v>609</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" hidden="1" spans="1:3">
       <c r="A511">
         <v>610</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" hidden="1" spans="1:3">
       <c r="A512">
         <v>611</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" hidden="1" spans="1:3">
       <c r="A513">
         <v>612</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" hidden="1" spans="1:3">
       <c r="A514">
         <v>613</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" hidden="1" spans="1:3">
       <c r="A517">
         <v>616</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" hidden="1" spans="1:3">
       <c r="A518">
         <v>617</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" hidden="1" spans="1:3">
       <c r="A519">
         <v>618</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" hidden="1" spans="1:3">
       <c r="A520">
         <v>619</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" hidden="1" spans="1:3">
       <c r="A521">
         <v>620</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" hidden="1" spans="1:3">
       <c r="A522">
         <v>621</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" hidden="1" spans="1:3">
       <c r="A523">
         <v>622</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" hidden="1" spans="1:3">
       <c r="A524">
         <v>623</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" hidden="1" spans="1:3">
       <c r="A525">
         <v>624</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" hidden="1" spans="1:3">
       <c r="A526">
         <v>625</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" hidden="1" spans="1:3">
       <c r="A527">
         <v>626</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" hidden="1" spans="1:3">
       <c r="A528">
         <v>627</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" hidden="1" spans="1:3">
       <c r="A529">
         <v>628</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" hidden="1" spans="1:3">
       <c r="A530">
         <v>629</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" hidden="1" spans="1:3">
       <c r="A531">
         <v>630</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" hidden="1" spans="1:3">
       <c r="A532">
         <v>631</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" hidden="1" spans="1:3">
       <c r="A533">
         <v>632</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" hidden="1" spans="1:3">
       <c r="A536">
         <v>635</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" hidden="1" spans="1:3">
       <c r="A538">
         <v>637</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" hidden="1" spans="1:3">
       <c r="A539">
         <v>638</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" hidden="1" spans="1:3">
       <c r="A540">
         <v>639</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" hidden="1" spans="1:3">
       <c r="A541">
         <v>640</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" hidden="1" spans="1:3">
       <c r="A542">
         <v>641</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" hidden="1" spans="1:3">
       <c r="A543">
         <v>642</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" hidden="1" spans="1:3">
       <c r="A544">
         <v>643</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" hidden="1" spans="1:3">
       <c r="A545">
         <v>644</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" hidden="1" spans="1:3">
       <c r="A547">
         <v>646</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" hidden="1" spans="1:3">
       <c r="A548">
         <v>647</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" hidden="1" spans="1:3">
       <c r="A549">
         <v>648</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" hidden="1" spans="1:3">
       <c r="A551">
         <v>650</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" hidden="1" spans="1:3">
       <c r="A552">
         <v>651</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" hidden="1" spans="1:3">
       <c r="A555">
         <v>654</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" hidden="1" spans="1:3">
       <c r="A557">
         <v>656</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" hidden="1" spans="1:3">
       <c r="A558">
         <v>657</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" hidden="1" spans="1:3">
       <c r="A561">
         <v>660</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" hidden="1" spans="1:3">
       <c r="A562">
         <v>661</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" hidden="1" spans="1:3">
       <c r="A563">
         <v>662</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" hidden="1" spans="1:3">
       <c r="A564">
         <v>663</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" hidden="1" spans="1:3">
       <c r="A565">
         <v>664</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" hidden="1" spans="1:3">
       <c r="A566">
         <v>665</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" hidden="1" spans="1:3">
       <c r="A567">
         <v>666</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" hidden="1" spans="1:3">
       <c r="A568">
         <v>667</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" hidden="1" spans="1:3">
       <c r="A569">
         <v>668</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" hidden="1" spans="1:3">
       <c r="A570">
         <v>669</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" hidden="1" spans="1:3">
       <c r="A571">
         <v>670</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" hidden="1" spans="1:3">
       <c r="A572">
         <v>671</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" hidden="1" spans="1:3">
       <c r="A574">
         <v>673</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" hidden="1" spans="1:3">
       <c r="A576">
         <v>675</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" hidden="1" spans="1:3">
       <c r="A577">
         <v>676</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" hidden="1" spans="1:3">
       <c r="A581">
         <v>680</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" hidden="1" spans="1:3">
       <c r="A584">
         <v>683</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" hidden="1" spans="1:3">
       <c r="A586">
         <v>685</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" hidden="1" spans="1:3">
       <c r="A587">
         <v>686</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" hidden="1" spans="1:3">
       <c r="A588">
         <v>687</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" hidden="1" spans="1:3">
       <c r="A589">
         <v>688</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" hidden="1" spans="1:3">
       <c r="A590">
         <v>689</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" hidden="1" spans="1:3">
       <c r="A591">
         <v>690</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" hidden="1" spans="1:3">
       <c r="A592">
         <v>691</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" hidden="1" spans="1:3">
       <c r="A593">
         <v>692</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" hidden="1" spans="1:3">
       <c r="A594">
         <v>693</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" hidden="1" spans="1:3">
       <c r="A595">
         <v>694</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" hidden="1" spans="1:3">
       <c r="A596">
         <v>695</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" hidden="1" spans="1:3">
       <c r="A597">
         <v>696</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" hidden="1" spans="1:3">
       <c r="A598">
         <v>697</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" hidden="1" spans="1:3">
       <c r="A599">
         <v>698</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" hidden="1" spans="1:3">
       <c r="A600">
         <v>699</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" hidden="1" spans="1:3">
       <c r="A601">
         <v>700</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" hidden="1" spans="1:3">
       <c r="A602">
         <v>701</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" hidden="1" spans="1:3">
       <c r="A603">
         <v>702</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" hidden="1" spans="1:3">
       <c r="A605">
         <v>704</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" hidden="1" spans="1:3">
       <c r="A606">
         <v>705</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" hidden="1" spans="1:3">
       <c r="A608">
         <v>707</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" hidden="1" spans="1:3">
       <c r="A609">
         <v>708</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" hidden="1" spans="1:3">
       <c r="A610">
         <v>709</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" hidden="1" spans="1:3">
       <c r="A611">
         <v>710</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" hidden="1" spans="1:3">
       <c r="A612">
         <v>711</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" hidden="1" spans="1:3">
       <c r="A613">
         <v>712</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" hidden="1" spans="1:3">
       <c r="A615">
         <v>714</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" hidden="1" spans="1:3">
       <c r="A616">
         <v>715</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" hidden="1" spans="1:3">
       <c r="A617">
         <v>716</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" hidden="1" spans="1:3">
       <c r="A618">
         <v>717</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" hidden="1" spans="1:3">
       <c r="A619">
         <v>718</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" hidden="1" spans="1:3">
       <c r="A620">
         <v>719</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" hidden="1" spans="1:3">
       <c r="A621">
         <v>720</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" hidden="1" spans="1:3">
       <c r="A622">
         <v>721</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" hidden="1" spans="1:3">
       <c r="A623">
         <v>722</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" hidden="1" spans="1:3">
       <c r="A625">
         <v>724</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" hidden="1" spans="1:3">
       <c r="A626">
         <v>725</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" hidden="1" spans="1:3">
       <c r="A627">
         <v>726</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" hidden="1" spans="1:3">
       <c r="A628">
         <v>727</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" hidden="1" spans="1:3">
       <c r="A629">
         <v>728</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" hidden="1" spans="1:3">
       <c r="A630">
         <v>729</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" hidden="1" spans="1:3">
       <c r="A631">
         <v>730</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" hidden="1" spans="1:3">
       <c r="A632">
         <v>731</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" hidden="1" spans="1:3">
       <c r="A634">
         <v>733</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" hidden="1" spans="1:3">
       <c r="A635">
         <v>734</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" hidden="1" spans="1:3">
       <c r="A636">
         <v>735</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" hidden="1" spans="1:3">
       <c r="A637">
         <v>736</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" hidden="1" spans="1:3">
       <c r="A638">
         <v>737</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" hidden="1" spans="1:3">
       <c r="A639">
         <v>738</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" hidden="1" spans="1:3">
       <c r="A640">
         <v>739</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" hidden="1" spans="1:3">
       <c r="A641">
         <v>740</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" hidden="1" spans="1:3">
       <c r="A642">
         <v>741</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" hidden="1" spans="1:3">
       <c r="A644">
         <v>743</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" hidden="1" spans="1:3">
       <c r="A645">
         <v>744</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" hidden="1" spans="1:3">
       <c r="A646">
         <v>745</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" hidden="1" spans="1:3">
       <c r="A647">
         <v>746</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" hidden="1" spans="1:3">
       <c r="A648">
         <v>747</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" hidden="1" spans="1:3">
       <c r="A649">
         <v>748</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" hidden="1" spans="1:3">
       <c r="A650">
         <v>749</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" hidden="1" spans="1:3">
       <c r="A651">
         <v>750</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" hidden="1" spans="1:3">
       <c r="A652">
         <v>751</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" hidden="1" spans="1:3">
       <c r="A653">
         <v>752</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" hidden="1" spans="1:3">
       <c r="A654">
         <v>753</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" hidden="1" spans="1:3">
       <c r="A655">
         <v>754</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" hidden="1" spans="1:3">
       <c r="A656">
         <v>755</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" hidden="1" spans="1:3">
       <c r="A657">
         <v>756</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" hidden="1" spans="1:3">
       <c r="A658">
         <v>757</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" hidden="1" spans="1:3">
       <c r="A659">
         <v>758</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" hidden="1" spans="1:3">
       <c r="A660">
         <v>759</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" hidden="1" spans="1:3">
       <c r="A661">
         <v>760</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" hidden="1" spans="1:3">
       <c r="A662">
         <v>761</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" hidden="1" spans="1:3">
       <c r="A663">
         <v>762</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" hidden="1" spans="1:3">
       <c r="A664">
         <v>763</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" hidden="1" spans="1:3">
       <c r="A665">
         <v>764</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" hidden="1" spans="1:3">
       <c r="A666">
         <v>765</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" hidden="1" spans="1:3">
       <c r="A667">
         <v>766</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" hidden="1" spans="1:3">
       <c r="A668">
         <v>767</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" hidden="1" spans="1:3">
       <c r="A669">
         <v>768</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" hidden="1" spans="1:3">
       <c r="A670">
         <v>769</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" hidden="1" spans="1:3">
       <c r="A671">
         <v>770</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" hidden="1" spans="1:3">
       <c r="A672">
         <v>771</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" hidden="1" spans="1:3">
       <c r="A673">
         <v>772</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" hidden="1" spans="1:3">
       <c r="A674">
         <v>773</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" hidden="1" spans="1:3">
       <c r="A675">
         <v>774</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" hidden="1" spans="1:3">
       <c r="A676">
         <v>775</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" hidden="1" spans="1:3">
       <c r="A677">
         <v>776</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" hidden="1" spans="1:3">
       <c r="A678">
         <v>777</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" hidden="1" spans="1:3">
       <c r="A679">
         <v>778</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" hidden="1" spans="1:3">
       <c r="A680">
         <v>779</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" hidden="1" spans="1:3">
       <c r="A681">
         <v>780</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" hidden="1" spans="1:3">
       <c r="A682">
         <v>781</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" hidden="1" spans="1:3">
       <c r="A683">
         <v>782</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" hidden="1" spans="1:3">
       <c r="A684">
         <v>783</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" hidden="1" spans="1:3">
       <c r="A685">
         <v>784</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" hidden="1" spans="1:3">
       <c r="A686">
         <v>785</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" hidden="1" spans="1:3">
       <c r="A687">
         <v>786</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" hidden="1" spans="1:3">
       <c r="A688">
         <v>787</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" hidden="1" spans="1:3">
       <c r="A689">
         <v>788</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" hidden="1" spans="1:3">
       <c r="A690">
         <v>789</v>
       </c>
@@ -13955,7 +13955,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" hidden="1" spans="1:3">
       <c r="A691">
         <v>790</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" hidden="1" spans="1:3">
       <c r="A692">
         <v>791</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" hidden="1" spans="1:3">
       <c r="A693">
         <v>792</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" hidden="1" spans="1:3">
       <c r="A695">
         <v>794</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" hidden="1" spans="1:3">
       <c r="A696">
         <v>795</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" hidden="1" spans="1:3">
       <c r="A697">
         <v>796</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" hidden="1" spans="1:3">
       <c r="A698">
         <v>797</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" hidden="1" spans="1:3">
       <c r="A699">
         <v>798</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" hidden="1" spans="1:3">
       <c r="A700">
         <v>799</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" hidden="1" spans="1:3">
       <c r="A701">
         <v>800</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" hidden="1" spans="1:3">
       <c r="A702">
         <v>801</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" hidden="1" spans="1:3">
       <c r="A703">
         <v>802</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" hidden="1" spans="1:3">
       <c r="A704">
         <v>803</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" hidden="1" spans="1:3">
       <c r="A705">
         <v>804</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" hidden="1" spans="1:3">
       <c r="A706">
         <v>805</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" hidden="1" spans="1:3">
       <c r="A707">
         <v>806</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" hidden="1" spans="1:3">
       <c r="A708">
         <v>807</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" hidden="1" spans="1:3">
       <c r="A709">
         <v>808</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" hidden="1" spans="1:3">
       <c r="A710">
         <v>809</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" hidden="1" spans="1:3">
       <c r="A711">
         <v>810</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" hidden="1" spans="1:3">
       <c r="A712">
         <v>811</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" hidden="1" spans="1:3">
       <c r="A713">
         <v>812</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" hidden="1" spans="1:3">
       <c r="A714">
         <v>813</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" hidden="1" spans="1:3">
       <c r="A715">
         <v>814</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" hidden="1" spans="1:3">
       <c r="A716">
         <v>815</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" hidden="1" spans="1:3">
       <c r="A717">
         <v>816</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" hidden="1" spans="1:3">
       <c r="A718">
         <v>817</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" hidden="1" spans="1:3">
       <c r="A719">
         <v>818</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" hidden="1" spans="1:3">
       <c r="A720">
         <v>819</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" hidden="1" spans="1:3">
       <c r="A721">
         <v>820</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="722" spans="1:3">
+    <row r="722" hidden="1" spans="1:3">
       <c r="A722">
         <v>821</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="723" spans="1:3">
+    <row r="723" hidden="1" spans="1:3">
       <c r="A723">
         <v>822</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="724" spans="1:3">
+    <row r="724" hidden="1" spans="1:3">
       <c r="A724">
         <v>823</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="725" spans="1:3">
+    <row r="725" hidden="1" spans="1:3">
       <c r="A725">
         <v>824</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="726" spans="1:3">
+    <row r="726" hidden="1" spans="1:3">
       <c r="A726">
         <v>825</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="727" spans="1:3">
+    <row r="727" hidden="1" spans="1:3">
       <c r="A727">
         <v>826</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="728" spans="1:3">
+    <row r="728" hidden="1" spans="1:3">
       <c r="A728">
         <v>827</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="729" spans="1:3">
+    <row r="729" hidden="1" spans="1:3">
       <c r="A729">
         <v>828</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="730" spans="1:3">
+    <row r="730" hidden="1" spans="1:3">
       <c r="A730">
         <v>829</v>
       </c>
@@ -14404,7 +14404,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="731" spans="1:3">
+    <row r="731" hidden="1" spans="1:3">
       <c r="A731">
         <v>830</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="732" spans="1:3">
+    <row r="732" hidden="1" spans="1:3">
       <c r="A732">
         <v>831</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="733" spans="1:3">
+    <row r="733" hidden="1" spans="1:3">
       <c r="A733">
         <v>832</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="734" spans="1:3">
+    <row r="734" hidden="1" spans="1:3">
       <c r="A734">
         <v>833</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="735" spans="1:3">
+    <row r="735" hidden="1" spans="1:3">
       <c r="A735">
         <v>834</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="736" spans="1:3">
+    <row r="736" hidden="1" spans="1:3">
       <c r="A736">
         <v>835</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="737" spans="1:3">
+    <row r="737" hidden="1" spans="1:3">
       <c r="A737">
         <v>836</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="738" spans="1:3">
+    <row r="738" hidden="1" spans="1:3">
       <c r="A738">
         <v>837</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="739" spans="1:3">
+    <row r="739" hidden="1" spans="1:3">
       <c r="A739">
         <v>838</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="740" spans="1:3">
+    <row r="740" hidden="1" spans="1:3">
       <c r="A740">
         <v>839</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="741" spans="1:3">
+    <row r="741" hidden="1" spans="1:3">
       <c r="A741">
         <v>840</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="742" spans="1:3">
+    <row r="742" hidden="1" spans="1:3">
       <c r="A742">
         <v>841</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="743" spans="1:3">
+    <row r="743" hidden="1" spans="1:3">
       <c r="A743">
         <v>842</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="744" spans="1:3">
+    <row r="744" hidden="1" spans="1:3">
       <c r="A744">
         <v>843</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="745" spans="1:3">
+    <row r="745" hidden="1" spans="1:3">
       <c r="A745">
         <v>844</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="746" spans="1:3">
+    <row r="746" hidden="1" spans="1:3">
       <c r="A746">
         <v>845</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:3">
+    <row r="747" hidden="1" spans="1:3">
       <c r="A747">
         <v>846</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="748" spans="1:3">
+    <row r="748" hidden="1" spans="1:3">
       <c r="A748">
         <v>847</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="749" spans="1:3">
+    <row r="749" hidden="1" spans="1:3">
       <c r="A749">
         <v>848</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="750" spans="1:3">
+    <row r="750" hidden="1" spans="1:3">
       <c r="A750">
         <v>849</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="751" spans="1:3">
+    <row r="751" hidden="1" spans="1:3">
       <c r="A751">
         <v>850</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="752" spans="1:3">
+    <row r="752" hidden="1" spans="1:3">
       <c r="A752">
         <v>851</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="754" spans="1:3">
+    <row r="754" hidden="1" spans="1:3">
       <c r="A754">
         <v>853</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="755" spans="1:3">
+    <row r="755" hidden="1" spans="1:3">
       <c r="A755">
         <v>854</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="756" spans="1:3">
+    <row r="756" hidden="1" spans="1:3">
       <c r="A756">
         <v>855</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="757" spans="1:3">
+    <row r="757" hidden="1" spans="1:3">
       <c r="A757">
         <v>856</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="758" spans="1:3">
+    <row r="758" hidden="1" spans="1:3">
       <c r="A758">
         <v>857</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="759" spans="1:3">
+    <row r="759" hidden="1" spans="1:3">
       <c r="A759">
         <v>858</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="760" spans="1:3">
+    <row r="760" hidden="1" spans="1:3">
       <c r="A760">
         <v>859</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="761" spans="1:3">
+    <row r="761" hidden="1" spans="1:3">
       <c r="A761">
         <v>860</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="762" spans="1:3">
+    <row r="762" hidden="1" spans="1:3">
       <c r="A762">
         <v>861</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="763" spans="1:3">
+    <row r="763" hidden="1" spans="1:3">
       <c r="A763">
         <v>862</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="764" spans="1:3">
+    <row r="764" hidden="1" spans="1:3">
       <c r="A764">
         <v>863</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:3">
+    <row r="765" hidden="1" spans="1:3">
       <c r="A765">
         <v>864</v>
       </c>
@@ -14798,7 +14798,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="766" spans="1:3">
+    <row r="766" hidden="1" spans="1:3">
       <c r="A766">
         <v>865</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="767" spans="1:3">
+    <row r="767" hidden="1" spans="1:3">
       <c r="A767">
         <v>866</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="768" spans="1:3">
+    <row r="768" hidden="1" spans="1:3">
       <c r="A768">
         <v>867</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="769" spans="1:3">
+    <row r="769" hidden="1" spans="1:3">
       <c r="A769">
         <v>868</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="770" spans="1:3">
+    <row r="770" hidden="1" spans="1:3">
       <c r="A770">
         <v>869</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="771" spans="1:3">
+    <row r="771" hidden="1" spans="1:3">
       <c r="A771">
         <v>870</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="772" spans="1:3">
+    <row r="772" hidden="1" spans="1:3">
       <c r="A772">
         <v>871</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="773" spans="1:3">
+    <row r="773" hidden="1" spans="1:3">
       <c r="A773">
         <v>872</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="774" spans="1:3">
+    <row r="774" hidden="1" spans="1:3">
       <c r="A774">
         <v>873</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="775" spans="1:3">
+    <row r="775" hidden="1" spans="1:3">
       <c r="A775">
         <v>874</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="776" spans="1:3">
+    <row r="776" hidden="1" spans="1:3">
       <c r="A776">
         <v>875</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="777" spans="1:3">
+    <row r="777" hidden="1" spans="1:3">
       <c r="A777">
         <v>876</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="778" spans="1:3">
+    <row r="778" hidden="1" spans="1:3">
       <c r="A778">
         <v>877</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="779" spans="1:3">
+    <row r="779" hidden="1" spans="1:3">
       <c r="A779">
         <v>878</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="780" spans="1:3">
+    <row r="780" hidden="1" spans="1:3">
       <c r="A780">
         <v>879</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="781" spans="1:3">
+    <row r="781" hidden="1" spans="1:3">
       <c r="A781">
         <v>880</v>
       </c>
@@ -14974,7 +14974,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="782" spans="1:3">
+    <row r="782" hidden="1" spans="1:3">
       <c r="A782">
         <v>881</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="783" spans="1:3">
+    <row r="783" hidden="1" spans="1:3">
       <c r="A783">
         <v>882</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="784" spans="1:3">
+    <row r="784" hidden="1" spans="1:3">
       <c r="A784">
         <v>883</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="785" spans="1:3">
+    <row r="785" hidden="1" spans="1:3">
       <c r="A785">
         <v>884</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="786" spans="1:3">
+    <row r="786" hidden="1" spans="1:3">
       <c r="A786">
         <v>885</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="787" spans="1:3">
+    <row r="787" hidden="1" spans="1:3">
       <c r="A787">
         <v>886</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="788" spans="1:3">
+    <row r="788" hidden="1" spans="1:3">
       <c r="A788">
         <v>887</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="789" spans="1:3">
+    <row r="789" hidden="1" spans="1:3">
       <c r="A789">
         <v>888</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="790" spans="1:3">
+    <row r="790" hidden="1" spans="1:3">
       <c r="A790">
         <v>889</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="791" spans="1:3">
+    <row r="791" hidden="1" spans="1:3">
       <c r="A791">
         <v>890</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="792" spans="1:3">
+    <row r="792" hidden="1" spans="1:3">
       <c r="A792">
         <v>891</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="793" spans="1:3">
+    <row r="793" hidden="1" spans="1:3">
       <c r="A793">
         <v>892</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="794" spans="1:3">
+    <row r="794" hidden="1" spans="1:3">
       <c r="A794">
         <v>893</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="795" spans="1:3">
+    <row r="795" hidden="1" spans="1:3">
       <c r="A795">
         <v>894</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="796" spans="1:3">
+    <row r="796" hidden="1" spans="1:3">
       <c r="A796">
         <v>895</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="797" spans="1:3">
+    <row r="797" hidden="1" spans="1:3">
       <c r="A797">
         <v>896</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="798" spans="1:3">
+    <row r="798" hidden="1" spans="1:3">
       <c r="A798">
         <v>897</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="799" spans="1:3">
+    <row r="799" hidden="1" spans="1:3">
       <c r="A799">
         <v>898</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="800" spans="1:3">
+    <row r="800" hidden="1" spans="1:3">
       <c r="A800">
         <v>899</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="801" spans="1:3">
+    <row r="801" hidden="1" spans="1:3">
       <c r="A801">
         <v>900</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="802" spans="1:3">
+    <row r="802" hidden="1" spans="1:3">
       <c r="A802">
         <v>901</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="803" spans="1:3">
+    <row r="803" hidden="1" spans="1:3">
       <c r="A803">
         <v>902</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="804" spans="1:3">
+    <row r="804" hidden="1" spans="1:3">
       <c r="A804">
         <v>903</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="805" spans="1:3">
+    <row r="805" hidden="1" spans="1:3">
       <c r="A805">
         <v>904</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="806" spans="1:3">
+    <row r="806" hidden="1" spans="1:3">
       <c r="A806">
         <v>905</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="807" spans="1:3">
+    <row r="807" hidden="1" spans="1:3">
       <c r="A807">
         <v>906</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="808" spans="1:3">
+    <row r="808" hidden="1" spans="1:3">
       <c r="A808">
         <v>907</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="809" spans="1:3">
+    <row r="809" hidden="1" spans="1:3">
       <c r="A809">
         <v>908</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="810" spans="1:3">
+    <row r="810" hidden="1" spans="1:3">
       <c r="A810">
         <v>909</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="811" spans="1:3">
+    <row r="811" hidden="1" spans="1:3">
       <c r="A811">
         <v>910</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="812" spans="1:3">
+    <row r="812" hidden="1" spans="1:3">
       <c r="A812">
         <v>911</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="813" spans="1:3">
+    <row r="813" hidden="1" spans="1:3">
       <c r="A813">
         <v>912</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="814" spans="1:3">
+    <row r="814" hidden="1" spans="1:3">
       <c r="A814">
         <v>913</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="815" spans="1:3">
+    <row r="815" hidden="1" spans="1:3">
       <c r="A815">
         <v>914</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="816" spans="1:3">
+    <row r="816" hidden="1" spans="1:3">
       <c r="A816">
         <v>915</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="817" spans="1:3">
+    <row r="817" hidden="1" spans="1:3">
       <c r="A817">
         <v>916</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="818" spans="1:3">
+    <row r="818" hidden="1" spans="1:3">
       <c r="A818">
         <v>917</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="819" spans="1:3">
+    <row r="819" hidden="1" spans="1:3">
       <c r="A819">
         <v>918</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="820" spans="1:3">
+    <row r="820" hidden="1" spans="1:3">
       <c r="A820">
         <v>919</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="821" spans="1:3">
+    <row r="821" hidden="1" spans="1:3">
       <c r="A821">
         <v>920</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="822" spans="1:3">
+    <row r="822" hidden="1" spans="1:3">
       <c r="A822">
         <v>921</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="823" spans="1:3">
+    <row r="823" hidden="1" spans="1:3">
       <c r="A823">
         <v>922</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="824" spans="1:3">
+    <row r="824" hidden="1" spans="1:3">
       <c r="A824">
         <v>923</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="825" spans="1:3">
+    <row r="825" hidden="1" spans="1:3">
       <c r="A825">
         <v>924</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="826" spans="1:3">
+    <row r="826" hidden="1" spans="1:3">
       <c r="A826">
         <v>925</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="827" spans="1:3">
+    <row r="827" hidden="1" spans="1:3">
       <c r="A827">
         <v>926</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="828" spans="1:3">
+    <row r="828" hidden="1" spans="1:3">
       <c r="A828">
         <v>927</v>
       </c>
@@ -15491,7 +15491,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="829" spans="1:3">
+    <row r="829" hidden="1" spans="1:3">
       <c r="A829">
         <v>928</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="830" spans="1:3">
+    <row r="830" hidden="1" spans="1:3">
       <c r="A830">
         <v>929</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="831" spans="1:3">
+    <row r="831" hidden="1" spans="1:3">
       <c r="A831">
         <v>930</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="832" spans="1:3">
+    <row r="832" hidden="1" spans="1:3">
       <c r="A832">
         <v>931</v>
       </c>
@@ -15535,7 +15535,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="833" spans="1:3">
+    <row r="833" hidden="1" spans="1:3">
       <c r="A833">
         <v>932</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="834" spans="1:3">
+    <row r="834" hidden="1" spans="1:3">
       <c r="A834">
         <v>933</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="835" spans="1:3">
+    <row r="835" hidden="1" spans="1:3">
       <c r="A835">
         <v>934</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="836" spans="1:3">
+    <row r="836" hidden="1" spans="1:3">
       <c r="A836">
         <v>935</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="837" spans="1:3">
+    <row r="837" hidden="1" spans="1:3">
       <c r="A837">
         <v>936</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="838" spans="1:3">
+    <row r="838" hidden="1" spans="1:3">
       <c r="A838">
         <v>937</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="839" spans="1:3">
+    <row r="839" hidden="1" spans="1:3">
       <c r="A839">
         <v>938</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="840" spans="1:3">
+    <row r="840" hidden="1" spans="1:3">
       <c r="A840">
         <v>939</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="841" spans="1:3">
+    <row r="841" hidden="1" spans="1:3">
       <c r="A841">
         <v>940</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="842" spans="1:3">
+    <row r="842" hidden="1" spans="1:3">
       <c r="A842">
         <v>941</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="843" spans="1:3">
+    <row r="843" hidden="1" spans="1:3">
       <c r="A843">
         <v>942</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="844" spans="1:3">
+    <row r="844" hidden="1" spans="1:3">
       <c r="A844">
         <v>943</v>
       </c>
@@ -15667,7 +15667,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="845" spans="1:3">
+    <row r="845" hidden="1" spans="1:3">
       <c r="A845">
         <v>944</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="846" spans="1:3">
+    <row r="846" hidden="1" spans="1:3">
       <c r="A846">
         <v>945</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="847" spans="1:3">
+    <row r="847" hidden="1" spans="1:3">
       <c r="A847">
         <v>946</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="848" spans="1:3">
+    <row r="848" hidden="1" spans="1:3">
       <c r="A848">
         <v>947</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="849" spans="1:3">
+    <row r="849" hidden="1" spans="1:3">
       <c r="A849">
         <v>948</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="850" spans="1:3">
+    <row r="850" hidden="1" spans="1:3">
       <c r="A850">
         <v>949</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="851" spans="1:3">
+    <row r="851" hidden="1" spans="1:3">
       <c r="A851">
         <v>950</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="852" spans="1:3">
+    <row r="852" hidden="1" spans="1:3">
       <c r="A852">
         <v>951</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="853" spans="1:3">
+    <row r="853" hidden="1" spans="1:3">
       <c r="A853">
         <v>952</v>
       </c>
@@ -15766,7 +15766,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="854" spans="1:3">
+    <row r="854" hidden="1" spans="1:3">
       <c r="A854">
         <v>953</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="855" spans="1:3">
+    <row r="855" hidden="1" spans="1:3">
       <c r="A855">
         <v>954</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="856" spans="1:3">
+    <row r="856" hidden="1" spans="1:3">
       <c r="A856">
         <v>955</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="857" spans="1:3">
+    <row r="857" hidden="1" spans="1:3">
       <c r="A857">
         <v>956</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="858" spans="1:3">
+    <row r="858" hidden="1" spans="1:3">
       <c r="A858">
         <v>957</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="859" spans="1:3">
+    <row r="859" hidden="1" spans="1:3">
       <c r="A859">
         <v>958</v>
       </c>
@@ -15832,7 +15832,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="860" spans="1:3">
+    <row r="860" hidden="1" spans="1:3">
       <c r="A860">
         <v>959</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="861" spans="1:3">
+    <row r="861" hidden="1" spans="1:3">
       <c r="A861">
         <v>960</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="862" spans="1:3">
+    <row r="862" hidden="1" spans="1:3">
       <c r="A862">
         <v>961</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="863" spans="1:3">
+    <row r="863" hidden="1" spans="1:3">
       <c r="A863">
         <v>962</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="864" spans="1:3">
+    <row r="864" hidden="1" spans="1:3">
       <c r="A864">
         <v>963</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="865" spans="1:3">
+    <row r="865" hidden="1" spans="1:3">
       <c r="A865">
         <v>964</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="866" spans="1:3">
+    <row r="866" hidden="1" spans="1:3">
       <c r="A866">
         <v>965</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="867" spans="1:3">
+    <row r="867" hidden="1" spans="1:3">
       <c r="A867">
         <v>966</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="868" spans="1:3">
+    <row r="868" hidden="1" spans="1:3">
       <c r="A868">
         <v>967</v>
       </c>
@@ -15931,7 +15931,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="869" spans="1:3">
+    <row r="869" hidden="1" spans="1:3">
       <c r="A869">
         <v>968</v>
       </c>
@@ -15942,7 +15942,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="870" spans="1:3">
+    <row r="870" hidden="1" spans="1:3">
       <c r="A870">
         <v>969</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="871" spans="1:3">
+    <row r="871" hidden="1" spans="1:3">
       <c r="A871">
         <v>970</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="872" spans="1:3">
+    <row r="872" hidden="1" spans="1:3">
       <c r="A872">
         <v>971</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="873" spans="1:3">
+    <row r="873" hidden="1" spans="1:3">
       <c r="A873">
         <v>972</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="874" spans="1:3">
+    <row r="874" hidden="1" spans="1:3">
       <c r="A874">
         <v>973</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="876" spans="1:3">
+    <row r="876" hidden="1" spans="1:3">
       <c r="A876">
         <v>975</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="877" spans="1:3">
+    <row r="877" hidden="1" spans="1:3">
       <c r="A877">
         <v>976</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="878" spans="1:3">
+    <row r="878" hidden="1" spans="1:3">
       <c r="A878">
         <v>977</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="879" spans="1:3">
+    <row r="879" hidden="1" spans="1:3">
       <c r="A879">
         <v>978</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="880" spans="1:3">
+    <row r="880" hidden="1" spans="1:3">
       <c r="A880">
         <v>979</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="881" spans="1:3">
+    <row r="881" hidden="1" spans="1:3">
       <c r="A881">
         <v>980</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="882" spans="1:3">
+    <row r="882" hidden="1" spans="1:3">
       <c r="A882">
         <v>981</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="883" spans="1:3">
+    <row r="883" hidden="1" spans="1:3">
       <c r="A883">
         <v>982</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="884" spans="1:3">
+    <row r="884" hidden="1" spans="1:3">
       <c r="A884">
         <v>983</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="885" spans="1:3">
+    <row r="885" hidden="1" spans="1:3">
       <c r="A885">
         <v>984</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="886" spans="1:3">
+    <row r="886" hidden="1" spans="1:3">
       <c r="A886">
         <v>985</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="887" spans="1:3">
+    <row r="887" hidden="1" spans="1:3">
       <c r="A887">
         <v>986</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="888" spans="1:3">
+    <row r="888" hidden="1" spans="1:3">
       <c r="A888">
         <v>987</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="889" spans="1:3">
+    <row r="889" hidden="1" spans="1:3">
       <c r="A889">
         <v>988</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="890" spans="1:3">
+    <row r="890" hidden="1" spans="1:3">
       <c r="A890">
         <v>989</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="891" spans="1:3">
+    <row r="891" hidden="1" spans="1:3">
       <c r="A891">
         <v>990</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="892" spans="1:3">
+    <row r="892" hidden="1" spans="1:3">
       <c r="A892">
         <v>991</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="893" spans="1:3">
+    <row r="893" hidden="1" spans="1:3">
       <c r="A893">
         <v>992</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="894" spans="1:3">
+    <row r="894" hidden="1" spans="1:3">
       <c r="A894">
         <v>993</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="895" spans="1:3">
+    <row r="895" hidden="1" spans="1:3">
       <c r="A895">
         <v>994</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="896" spans="1:3">
+    <row r="896" hidden="1" spans="1:3">
       <c r="A896">
         <v>995</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="897" spans="1:3">
+    <row r="897" hidden="1" spans="1:3">
       <c r="A897">
         <v>996</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="898" spans="1:3">
+    <row r="898" hidden="1" spans="1:3">
       <c r="A898">
         <v>997</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="899" spans="1:3">
+    <row r="899" hidden="1" spans="1:3">
       <c r="A899">
         <v>998</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="900" spans="1:3">
+    <row r="900" hidden="1" spans="1:3">
       <c r="A900">
         <v>999</v>
       </c>
@@ -16292,7 +16292,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="901" spans="1:3">
+    <row r="901" hidden="1" spans="1:3">
       <c r="A901">
         <v>1000</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="902" spans="1:3">
+    <row r="902" hidden="1" spans="1:3">
       <c r="A902">
         <v>1001</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="903" spans="1:3">
+    <row r="903" hidden="1" spans="1:3">
       <c r="A903">
         <v>1002</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="904" spans="1:3">
+    <row r="904" hidden="1" spans="1:3">
       <c r="A904">
         <v>1003</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="905" spans="1:3">
+    <row r="905" hidden="1" spans="1:3">
       <c r="A905">
         <v>1004</v>
       </c>
@@ -16347,7 +16347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="906" spans="1:3">
+    <row r="906" hidden="1" spans="1:3">
       <c r="A906">
         <v>1005</v>
       </c>
@@ -16358,7 +16358,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="907" spans="1:3">
+    <row r="907" hidden="1" spans="1:3">
       <c r="A907">
         <v>1006</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="908" spans="1:3">
+    <row r="908" hidden="1" spans="1:3">
       <c r="A908">
         <v>1007</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="909" spans="1:3">
+    <row r="909" hidden="1" spans="1:3">
       <c r="A909">
         <v>1008</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="910" spans="1:3">
+    <row r="910" hidden="1" spans="1:3">
       <c r="A910">
         <v>1009</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="911" spans="1:3">
+    <row r="911" hidden="1" spans="1:3">
       <c r="A911">
         <v>1010</v>
       </c>
@@ -16413,7 +16413,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="912" spans="1:3">
+    <row r="912" hidden="1" spans="1:3">
       <c r="A912">
         <v>1011</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="913" spans="1:3">
+    <row r="913" hidden="1" spans="1:3">
       <c r="A913">
         <v>1012</v>
       </c>
@@ -16435,7 +16435,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="914" spans="1:3">
+    <row r="914" hidden="1" spans="1:3">
       <c r="A914">
         <v>1013</v>
       </c>
@@ -16447,7 +16447,237 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G912" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G914" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="100"/>
+        <filter val="200"/>
+        <filter val="1"/>
+        <filter val="101"/>
+        <filter val="201"/>
+        <filter val="2"/>
+        <filter val="102"/>
+        <filter val="202"/>
+        <filter val="3"/>
+        <filter val="103"/>
+        <filter val="203"/>
+        <filter val="4"/>
+        <filter val="104"/>
+        <filter val="204"/>
+        <filter val="5"/>
+        <filter val="105"/>
+        <filter val="205"/>
+        <filter val="6"/>
+        <filter val="106"/>
+        <filter val="206"/>
+        <filter val="7"/>
+        <filter val="107"/>
+        <filter val="207"/>
+        <filter val="8"/>
+        <filter val="108"/>
+        <filter val="208"/>
+        <filter val="9"/>
+        <filter val="109"/>
+        <filter val="209"/>
+        <filter val="10"/>
+        <filter val="110"/>
+        <filter val="210"/>
+        <filter val="11"/>
+        <filter val="111"/>
+        <filter val="211"/>
+        <filter val="12"/>
+        <filter val="112"/>
+        <filter val="212"/>
+        <filter val="13"/>
+        <filter val="113"/>
+        <filter val="213"/>
+        <filter val="14"/>
+        <filter val="114"/>
+        <filter val="214"/>
+        <filter val="15"/>
+        <filter val="115"/>
+        <filter val="215"/>
+        <filter val="16"/>
+        <filter val="116"/>
+        <filter val="216"/>
+        <filter val="17"/>
+        <filter val="117"/>
+        <filter val="217"/>
+        <filter val="18"/>
+        <filter val="118"/>
+        <filter val="218"/>
+        <filter val="19"/>
+        <filter val="119"/>
+        <filter val="219"/>
+        <filter val="20"/>
+        <filter val="120"/>
+        <filter val="220"/>
+        <filter val="21"/>
+        <filter val="121"/>
+        <filter val="221"/>
+        <filter val="22"/>
+        <filter val="122"/>
+        <filter val="222"/>
+        <filter val="23"/>
+        <filter val="123"/>
+        <filter val="223"/>
+        <filter val="24"/>
+        <filter val="124"/>
+        <filter val="224"/>
+        <filter val="25"/>
+        <filter val="125"/>
+        <filter val="225"/>
+        <filter val="26"/>
+        <filter val="126"/>
+        <filter val="226"/>
+        <filter val="27"/>
+        <filter val="127"/>
+        <filter val="227"/>
+        <filter val="28"/>
+        <filter val="128"/>
+        <filter val="228"/>
+        <filter val="29"/>
+        <filter val="129"/>
+        <filter val="229"/>
+        <filter val="30"/>
+        <filter val="130"/>
+        <filter val="230"/>
+        <filter val="31"/>
+        <filter val="131"/>
+        <filter val="32"/>
+        <filter val="132"/>
+        <filter val="33"/>
+        <filter val="133"/>
+        <filter val="34"/>
+        <filter val="134"/>
+        <filter val="35"/>
+        <filter val="135"/>
+        <filter val="36"/>
+        <filter val="136"/>
+        <filter val="37"/>
+        <filter val="137"/>
+        <filter val="38"/>
+        <filter val="138"/>
+        <filter val="39"/>
+        <filter val="139"/>
+        <filter val="40"/>
+        <filter val="140"/>
+        <filter val="41"/>
+        <filter val="141"/>
+        <filter val="42"/>
+        <filter val="142"/>
+        <filter val="43"/>
+        <filter val="143"/>
+        <filter val="44"/>
+        <filter val="144"/>
+        <filter val="45"/>
+        <filter val="145"/>
+        <filter val="46"/>
+        <filter val="146"/>
+        <filter val="47"/>
+        <filter val="147"/>
+        <filter val="48"/>
+        <filter val="148"/>
+        <filter val="49"/>
+        <filter val="149"/>
+        <filter val="50"/>
+        <filter val="150"/>
+        <filter val="51"/>
+        <filter val="151"/>
+        <filter val="52"/>
+        <filter val="152"/>
+        <filter val="53"/>
+        <filter val="153"/>
+        <filter val="54"/>
+        <filter val="154"/>
+        <filter val="55"/>
+        <filter val="155"/>
+        <filter val="56"/>
+        <filter val="156"/>
+        <filter val="57"/>
+        <filter val="157"/>
+        <filter val="58"/>
+        <filter val="158"/>
+        <filter val="59"/>
+        <filter val="159"/>
+        <filter val="60"/>
+        <filter val="160"/>
+        <filter val="61"/>
+        <filter val="161"/>
+        <filter val="62"/>
+        <filter val="63"/>
+        <filter val="64"/>
+        <filter val="65"/>
+        <filter val="66"/>
+        <filter val="166"/>
+        <filter val="67"/>
+        <filter val="167"/>
+        <filter val="68"/>
+        <filter val="168"/>
+        <filter val="69"/>
+        <filter val="169"/>
+        <filter val="70"/>
+        <filter val="170"/>
+        <filter val="71"/>
+        <filter val="171"/>
+        <filter val="72"/>
+        <filter val="172"/>
+        <filter val="73"/>
+        <filter val="173"/>
+        <filter val="74"/>
+        <filter val="174"/>
+        <filter val="75"/>
+        <filter val="175"/>
+        <filter val="76"/>
+        <filter val="176"/>
+        <filter val="77"/>
+        <filter val="177"/>
+        <filter val="78"/>
+        <filter val="178"/>
+        <filter val="79"/>
+        <filter val="179"/>
+        <filter val="80"/>
+        <filter val="180"/>
+        <filter val="81"/>
+        <filter val="181"/>
+        <filter val="82"/>
+        <filter val="182"/>
+        <filter val="83"/>
+        <filter val="183"/>
+        <filter val="84"/>
+        <filter val="184"/>
+        <filter val="85"/>
+        <filter val="185"/>
+        <filter val="86"/>
+        <filter val="186"/>
+        <filter val="87"/>
+        <filter val="187"/>
+        <filter val="88"/>
+        <filter val="188"/>
+        <filter val="89"/>
+        <filter val="189"/>
+        <filter val="90"/>
+        <filter val="190"/>
+        <filter val="91"/>
+        <filter val="191"/>
+        <filter val="92"/>
+        <filter val="192"/>
+        <filter val="93"/>
+        <filter val="193"/>
+        <filter val="94"/>
+        <filter val="194"/>
+        <filter val="95"/>
+        <filter val="195"/>
+        <filter val="96"/>
+        <filter val="196"/>
+        <filter val="97"/>
+        <filter val="197"/>
+        <filter val="98"/>
+        <filter val="198"/>
+        <filter val="99"/>
+        <filter val="199"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$914</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$916</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="1082">
   <si>
     <t>Aito</t>
   </si>
@@ -2942,6 +2942,9 @@
   </si>
   <si>
     <t>X70 New</t>
+  </si>
+  <si>
+    <t>Niva Sport</t>
   </si>
   <si>
     <t>Марка</t>
@@ -4264,11 +4267,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G914"/>
+  <sheetPr/>
+  <dimension ref="A1:G916"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="F423" sqref="F423"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H910" sqref="H910"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4288,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -4450,7 +4453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>110</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>111</v>
       </c>
@@ -4472,7 +4475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>112</v>
       </c>
@@ -4483,7 +4486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>113</v>
       </c>
@@ -4494,7 +4497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>114</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>115</v>
       </c>
@@ -4742,7 +4745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>127</v>
       </c>
@@ -4773,7 +4776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>129</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>131</v>
       </c>
@@ -4815,7 +4818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>132</v>
       </c>
@@ -4826,7 +4829,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>133</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>134</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>136</v>
       </c>
@@ -4879,7 +4882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>137</v>
       </c>
@@ -4890,7 +4893,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>138</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>139</v>
       </c>
@@ -4952,7 +4955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>142</v>
       </c>
@@ -4983,7 +4986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>144</v>
       </c>
@@ -4994,7 +4997,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>145</v>
       </c>
@@ -5005,7 +5008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>146</v>
       </c>
@@ -5039,7 +5042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>148</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>150</v>
       </c>
@@ -5101,7 +5104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>152</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>153</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>160</v>
       </c>
@@ -5277,7 +5280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>162</v>
       </c>
@@ -5288,7 +5291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>163</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>165</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>166</v>
       </c>
@@ -5341,7 +5344,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>167</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>171</v>
       </c>
@@ -5423,7 +5426,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>172</v>
       </c>
@@ -5434,7 +5437,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>173</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>174</v>
       </c>
@@ -5456,7 +5459,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>175</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>176</v>
       </c>
@@ -5478,7 +5481,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>177</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>178</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>179</v>
       </c>
@@ -5511,7 +5514,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>180</v>
       </c>
@@ -5522,7 +5525,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>181</v>
       </c>
@@ -5625,7 +5628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>186</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>187</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>188</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>189</v>
       </c>
@@ -5669,7 +5672,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:3">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>190</v>
       </c>
@@ -5680,7 +5683,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>191</v>
       </c>
@@ -5691,7 +5694,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>192</v>
       </c>
@@ -5702,7 +5705,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>193</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>194</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>195</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>196</v>
       </c>
@@ -5746,7 +5749,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>197</v>
       </c>
@@ -5757,7 +5760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>198</v>
       </c>
@@ -5768,7 +5771,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>199</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>200</v>
       </c>
@@ -5810,7 +5813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:3">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>202</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:3">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>206</v>
       </c>
@@ -5892,7 +5895,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:3">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>207</v>
       </c>
@@ -5903,7 +5906,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:3">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>208</v>
       </c>
@@ -5914,7 +5917,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:3">
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>209</v>
       </c>
@@ -5925,7 +5928,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:3">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>210</v>
       </c>
@@ -5936,7 +5939,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:3">
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>211</v>
       </c>
@@ -5947,7 +5950,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:3">
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>212</v>
       </c>
@@ -6021,7 +6024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:3">
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>216</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:3">
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>217</v>
       </c>
@@ -6043,7 +6046,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:3">
+    <row r="119" spans="1:3">
       <c r="A119">
         <v>218</v>
       </c>
@@ -6054,7 +6057,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:3">
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>219</v>
       </c>
@@ -6065,7 +6068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:3">
+    <row r="121" spans="1:3">
       <c r="A121">
         <v>220</v>
       </c>
@@ -6076,7 +6079,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:3">
+    <row r="122" spans="1:3">
       <c r="A122">
         <v>221</v>
       </c>
@@ -6087,7 +6090,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:3">
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>222</v>
       </c>
@@ -6138,7 +6141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:3">
+    <row r="126" spans="1:3">
       <c r="A126">
         <v>225</v>
       </c>
@@ -6149,7 +6152,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:3">
+    <row r="127" spans="1:3">
       <c r="A127">
         <v>226</v>
       </c>
@@ -6160,7 +6163,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:3">
+    <row r="128" spans="1:3">
       <c r="A128">
         <v>227</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:3">
+    <row r="129" spans="1:3">
       <c r="A129">
         <v>228</v>
       </c>
@@ -6182,7 +6185,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:3">
+    <row r="130" spans="1:3">
       <c r="A130">
         <v>229</v>
       </c>
@@ -6193,7 +6196,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:3">
+    <row r="131" spans="1:3">
       <c r="A131">
         <v>230</v>
       </c>
@@ -6204,7 +6207,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:3">
+    <row r="132" spans="1:3">
       <c r="A132">
         <v>231</v>
       </c>
@@ -6215,7 +6218,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:3">
+    <row r="133" spans="1:3">
       <c r="A133">
         <v>232</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:3">
+    <row r="134" spans="1:3">
       <c r="A134">
         <v>233</v>
       </c>
@@ -6237,7 +6240,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:3">
+    <row r="135" spans="1:3">
       <c r="A135">
         <v>234</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:3">
+    <row r="136" spans="1:3">
       <c r="A136">
         <v>235</v>
       </c>
@@ -6259,7 +6262,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:3">
+    <row r="137" spans="1:3">
       <c r="A137">
         <v>236</v>
       </c>
@@ -6270,7 +6273,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:3">
+    <row r="138" spans="1:3">
       <c r="A138">
         <v>237</v>
       </c>
@@ -6281,7 +6284,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:3">
+    <row r="139" spans="1:3">
       <c r="A139">
         <v>238</v>
       </c>
@@ -6292,7 +6295,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:3">
+    <row r="140" spans="1:3">
       <c r="A140">
         <v>239</v>
       </c>
@@ -6303,7 +6306,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:3">
+    <row r="141" spans="1:3">
       <c r="A141">
         <v>240</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:3">
+    <row r="142" spans="1:3">
       <c r="A142">
         <v>241</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:3">
+    <row r="143" spans="1:3">
       <c r="A143">
         <v>242</v>
       </c>
@@ -6356,7 +6359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:3">
+    <row r="145" spans="1:3">
       <c r="A145">
         <v>244</v>
       </c>
@@ -6367,7 +6370,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:3">
+    <row r="146" spans="1:3">
       <c r="A146">
         <v>245</v>
       </c>
@@ -6398,7 +6401,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:3">
+    <row r="148" spans="1:3">
       <c r="A148">
         <v>247</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:3">
+    <row r="149" spans="1:3">
       <c r="A149">
         <v>248</v>
       </c>
@@ -6500,7 +6503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:3">
+    <row r="154" spans="1:3">
       <c r="A154">
         <v>253</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:3">
+    <row r="157" spans="1:3">
       <c r="A157">
         <v>256</v>
       </c>
@@ -6628,7 +6631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:3">
+    <row r="161" spans="1:3">
       <c r="A161">
         <v>260</v>
       </c>
@@ -6639,7 +6642,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:3">
+    <row r="162" spans="1:3">
       <c r="A162">
         <v>261</v>
       </c>
@@ -6650,7 +6653,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:3">
+    <row r="163" spans="1:3">
       <c r="A163">
         <v>262</v>
       </c>
@@ -6661,7 +6664,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:3">
+    <row r="164" spans="1:3">
       <c r="A164">
         <v>263</v>
       </c>
@@ -6712,7 +6715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:3">
+    <row r="167" spans="1:3">
       <c r="A167">
         <v>266</v>
       </c>
@@ -6743,7 +6746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:3">
+    <row r="169" spans="1:3">
       <c r="A169">
         <v>268</v>
       </c>
@@ -6754,7 +6757,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:3">
+    <row r="170" spans="1:3">
       <c r="A170">
         <v>269</v>
       </c>
@@ -6765,7 +6768,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:3">
+    <row r="171" spans="1:3">
       <c r="A171">
         <v>270</v>
       </c>
@@ -6776,7 +6779,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:3">
+    <row r="172" spans="1:3">
       <c r="A172">
         <v>271</v>
       </c>
@@ -6827,7 +6830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:3">
+    <row r="175" spans="1:3">
       <c r="A175">
         <v>274</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:3">
+    <row r="176" spans="1:3">
       <c r="A176">
         <v>275</v>
       </c>
@@ -6849,7 +6852,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:3">
+    <row r="177" spans="1:3">
       <c r="A177">
         <v>276</v>
       </c>
@@ -6880,7 +6883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:3">
+    <row r="179" spans="1:3">
       <c r="A179">
         <v>278</v>
       </c>
@@ -6891,7 +6894,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:3">
+    <row r="180" spans="1:3">
       <c r="A180">
         <v>279</v>
       </c>
@@ -6902,7 +6905,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:3">
+    <row r="181" spans="1:3">
       <c r="A181">
         <v>280</v>
       </c>
@@ -6913,7 +6916,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:3">
+    <row r="182" spans="1:3">
       <c r="A182">
         <v>281</v>
       </c>
@@ -6924,7 +6927,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:3">
+    <row r="183" spans="1:3">
       <c r="A183">
         <v>282</v>
       </c>
@@ -6935,7 +6938,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:3">
+    <row r="184" spans="1:3">
       <c r="A184">
         <v>283</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:3">
+    <row r="185" spans="1:3">
       <c r="A185">
         <v>284</v>
       </c>
@@ -6957,7 +6960,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:3">
+    <row r="186" spans="1:3">
       <c r="A186">
         <v>285</v>
       </c>
@@ -7008,7 +7011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:3">
+    <row r="189" spans="1:3">
       <c r="A189">
         <v>288</v>
       </c>
@@ -7019,7 +7022,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:3">
+    <row r="190" spans="1:3">
       <c r="A190">
         <v>289</v>
       </c>
@@ -7030,7 +7033,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:3">
+    <row r="191" spans="1:3">
       <c r="A191">
         <v>290</v>
       </c>
@@ -7041,7 +7044,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:3">
+    <row r="192" spans="1:3">
       <c r="A192">
         <v>291</v>
       </c>
@@ -7052,7 +7055,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:3">
+    <row r="193" spans="1:3">
       <c r="A193">
         <v>292</v>
       </c>
@@ -7063,7 +7066,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:3">
+    <row r="194" spans="1:3">
       <c r="A194">
         <v>293</v>
       </c>
@@ -7074,7 +7077,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:3">
+    <row r="195" spans="1:3">
       <c r="A195">
         <v>294</v>
       </c>
@@ -7171,7 +7174,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:3">
+    <row r="200" spans="1:3">
       <c r="A200">
         <v>299</v>
       </c>
@@ -7222,7 +7225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:3">
+    <row r="203" spans="1:3">
       <c r="A203">
         <v>302</v>
       </c>
@@ -7293,7 +7296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:3">
+    <row r="207" spans="1:3">
       <c r="A207">
         <v>306</v>
       </c>
@@ -7324,7 +7327,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:3">
+    <row r="209" spans="1:3">
       <c r="A209">
         <v>308</v>
       </c>
@@ -7335,7 +7338,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:3">
+    <row r="210" spans="1:3">
       <c r="A210">
         <v>309</v>
       </c>
@@ -7346,7 +7349,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:3">
+    <row r="211" spans="1:3">
       <c r="A211">
         <v>310</v>
       </c>
@@ -7357,7 +7360,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:3">
+    <row r="212" spans="1:3">
       <c r="A212">
         <v>311</v>
       </c>
@@ -7368,7 +7371,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:3">
+    <row r="213" spans="1:3">
       <c r="A213">
         <v>312</v>
       </c>
@@ -7379,7 +7382,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:3">
+    <row r="214" spans="1:3">
       <c r="A214">
         <v>313</v>
       </c>
@@ -7410,7 +7413,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:3">
+    <row r="216" spans="1:3">
       <c r="A216">
         <v>315</v>
       </c>
@@ -7421,7 +7424,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:3">
+    <row r="217" spans="1:3">
       <c r="A217">
         <v>316</v>
       </c>
@@ -7432,7 +7435,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:3">
+    <row r="218" spans="1:3">
       <c r="A218">
         <v>317</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:3">
+    <row r="219" spans="1:3">
       <c r="A219">
         <v>318</v>
       </c>
@@ -7454,7 +7457,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:3">
+    <row r="220" spans="1:3">
       <c r="A220">
         <v>319</v>
       </c>
@@ -7485,7 +7488,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:3">
+    <row r="222" spans="1:3">
       <c r="A222">
         <v>321</v>
       </c>
@@ -7496,7 +7499,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:3">
+    <row r="223" spans="1:3">
       <c r="A223">
         <v>322</v>
       </c>
@@ -7527,7 +7530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:3">
+    <row r="225" spans="1:3">
       <c r="A225">
         <v>324</v>
       </c>
@@ -7538,7 +7541,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:3">
+    <row r="226" spans="1:3">
       <c r="A226">
         <v>325</v>
       </c>
@@ -7569,7 +7572,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:3">
+    <row r="228" spans="1:3">
       <c r="A228">
         <v>327</v>
       </c>
@@ -7580,7 +7583,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:3">
+    <row r="229" spans="1:3">
       <c r="A229">
         <v>328</v>
       </c>
@@ -7651,7 +7654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:3">
+    <row r="233" spans="1:3">
       <c r="A233">
         <v>332</v>
       </c>
@@ -7662,7 +7665,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:3">
+    <row r="234" spans="1:3">
       <c r="A234">
         <v>333</v>
       </c>
@@ -7673,7 +7676,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:3">
+    <row r="235" spans="1:3">
       <c r="A235">
         <v>334</v>
       </c>
@@ -7704,7 +7707,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:3">
+    <row r="237" spans="1:3">
       <c r="A237">
         <v>336</v>
       </c>
@@ -7755,7 +7758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:3">
+    <row r="240" spans="1:3">
       <c r="A240">
         <v>339</v>
       </c>
@@ -7849,7 +7852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:3">
+    <row r="245" spans="1:3">
       <c r="A245">
         <v>344</v>
       </c>
@@ -7880,7 +7883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:3">
+    <row r="247" spans="1:3">
       <c r="A247">
         <v>346</v>
       </c>
@@ -7911,7 +7914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:3">
+    <row r="249" spans="1:3">
       <c r="A249">
         <v>348</v>
       </c>
@@ -7942,7 +7945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:3">
+    <row r="251" spans="1:3">
       <c r="A251">
         <v>350</v>
       </c>
@@ -7953,7 +7956,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:3">
+    <row r="252" spans="1:3">
       <c r="A252">
         <v>351</v>
       </c>
@@ -7964,7 +7967,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:3">
+    <row r="253" spans="1:3">
       <c r="A253">
         <v>352</v>
       </c>
@@ -8195,7 +8198,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:3">
+    <row r="265" spans="1:3">
       <c r="A265">
         <v>364</v>
       </c>
@@ -8226,7 +8229,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:3">
+    <row r="267" spans="1:3">
       <c r="A267">
         <v>366</v>
       </c>
@@ -8237,7 +8240,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:3">
+    <row r="268" spans="1:3">
       <c r="A268">
         <v>367</v>
       </c>
@@ -8268,7 +8271,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:3">
+    <row r="270" spans="1:3">
       <c r="A270">
         <v>369</v>
       </c>
@@ -8279,7 +8282,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:3">
+    <row r="271" spans="1:3">
       <c r="A271">
         <v>370</v>
       </c>
@@ -8310,7 +8313,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:3">
+    <row r="273" spans="1:3">
       <c r="A273">
         <v>372</v>
       </c>
@@ -8341,7 +8344,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:3">
+    <row r="275" spans="1:3">
       <c r="A275">
         <v>374</v>
       </c>
@@ -8392,7 +8395,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:3">
+    <row r="278" spans="1:3">
       <c r="A278">
         <v>377</v>
       </c>
@@ -8423,7 +8426,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:3">
+    <row r="280" spans="1:3">
       <c r="A280">
         <v>379</v>
       </c>
@@ -8477,7 +8480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:3">
+    <row r="283" spans="1:3">
       <c r="A283">
         <v>382</v>
       </c>
@@ -8488,7 +8491,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:3">
+    <row r="284" spans="1:3">
       <c r="A284">
         <v>383</v>
       </c>
@@ -8499,7 +8502,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:3">
+    <row r="285" spans="1:3">
       <c r="A285">
         <v>384</v>
       </c>
@@ -8510,7 +8513,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:3">
+    <row r="286" spans="1:3">
       <c r="A286">
         <v>385</v>
       </c>
@@ -8521,7 +8524,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:3">
+    <row r="287" spans="1:3">
       <c r="A287">
         <v>386</v>
       </c>
@@ -8532,7 +8535,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:3">
+    <row r="288" spans="1:3">
       <c r="A288">
         <v>387</v>
       </c>
@@ -8563,7 +8566,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:3">
+    <row r="290" spans="1:3">
       <c r="A290">
         <v>389</v>
       </c>
@@ -8614,7 +8617,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="1:3">
+    <row r="293" spans="1:3">
       <c r="A293">
         <v>392</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:3">
+    <row r="294" spans="1:3">
       <c r="A294">
         <v>393</v>
       </c>
@@ -8636,7 +8639,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:3">
+    <row r="295" spans="1:3">
       <c r="A295">
         <v>394</v>
       </c>
@@ -8667,7 +8670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:3">
+    <row r="297" spans="1:3">
       <c r="A297">
         <v>396</v>
       </c>
@@ -8698,7 +8701,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:3">
+    <row r="299" spans="1:3">
       <c r="A299">
         <v>398</v>
       </c>
@@ -8729,7 +8732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="1:3">
+    <row r="301" spans="1:3">
       <c r="A301">
         <v>400</v>
       </c>
@@ -8740,7 +8743,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:3">
+    <row r="302" spans="1:3">
       <c r="A302">
         <v>401</v>
       </c>
@@ -8851,7 +8854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:3">
+    <row r="308" spans="1:3">
       <c r="A308">
         <v>407</v>
       </c>
@@ -8862,7 +8865,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:3">
+    <row r="309" spans="1:3">
       <c r="A309">
         <v>408</v>
       </c>
@@ -8893,7 +8896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="1:3">
+    <row r="311" spans="1:3">
       <c r="A311">
         <v>410</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" hidden="1" spans="1:3">
+    <row r="313" spans="1:3">
       <c r="A313">
         <v>412</v>
       </c>
@@ -8935,7 +8938,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="1:3">
+    <row r="314" spans="1:3">
       <c r="A314">
         <v>413</v>
       </c>
@@ -8966,7 +8969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" hidden="1" spans="1:3">
+    <row r="316" spans="1:3">
       <c r="A316">
         <v>415</v>
       </c>
@@ -8977,7 +8980,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="1:3">
+    <row r="317" spans="1:3">
       <c r="A317">
         <v>416</v>
       </c>
@@ -8988,7 +8991,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:3">
+    <row r="318" spans="1:3">
       <c r="A318">
         <v>417</v>
       </c>
@@ -9059,7 +9062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="1:3">
+    <row r="322" spans="1:3">
       <c r="A322">
         <v>421</v>
       </c>
@@ -9070,7 +9073,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:3">
+    <row r="323" spans="1:3">
       <c r="A323">
         <v>422</v>
       </c>
@@ -9121,7 +9124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="1:3">
+    <row r="326" spans="1:3">
       <c r="A326">
         <v>425</v>
       </c>
@@ -9132,7 +9135,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:3">
+    <row r="327" spans="1:3">
       <c r="A327">
         <v>426</v>
       </c>
@@ -9143,7 +9146,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="328" hidden="1" spans="1:3">
+    <row r="328" spans="1:3">
       <c r="A328">
         <v>427</v>
       </c>
@@ -9154,7 +9157,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:3">
+    <row r="329" spans="1:3">
       <c r="A329">
         <v>428</v>
       </c>
@@ -9165,7 +9168,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:3">
+    <row r="330" spans="1:3">
       <c r="A330">
         <v>429</v>
       </c>
@@ -9176,7 +9179,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="1:3">
+    <row r="331" spans="1:3">
       <c r="A331">
         <v>430</v>
       </c>
@@ -9187,7 +9190,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="1:3">
+    <row r="332" spans="1:3">
       <c r="A332">
         <v>431</v>
       </c>
@@ -9218,7 +9221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" hidden="1" spans="1:3">
+    <row r="334" spans="1:3">
       <c r="A334">
         <v>433</v>
       </c>
@@ -9378,7 +9381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:3">
+    <row r="342" spans="1:3">
       <c r="A342">
         <v>441</v>
       </c>
@@ -9535,7 +9538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:3">
+    <row r="350" spans="1:3">
       <c r="A350">
         <v>449</v>
       </c>
@@ -9546,7 +9549,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="351" hidden="1" spans="1:3">
+    <row r="351" spans="1:3">
       <c r="A351">
         <v>450</v>
       </c>
@@ -9557,7 +9560,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="1:3">
+    <row r="352" spans="1:3">
       <c r="A352">
         <v>451</v>
       </c>
@@ -9568,7 +9571,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="1:3">
+    <row r="353" spans="1:3">
       <c r="A353">
         <v>452</v>
       </c>
@@ -9579,7 +9582,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="1:3">
+    <row r="354" spans="1:3">
       <c r="A354">
         <v>453</v>
       </c>
@@ -9590,7 +9593,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="1:3">
+    <row r="355" spans="1:3">
       <c r="A355">
         <v>454</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" hidden="1" spans="1:3">
+    <row r="357" spans="1:3">
       <c r="A357">
         <v>456</v>
       </c>
@@ -9652,7 +9655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" hidden="1" spans="1:3">
+    <row r="359" spans="1:3">
       <c r="A359">
         <v>458</v>
       </c>
@@ -9726,7 +9729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="1:3">
+    <row r="363" spans="1:3">
       <c r="A363">
         <v>462</v>
       </c>
@@ -9817,7 +9820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="1:3">
+    <row r="368" spans="1:3">
       <c r="A368">
         <v>467</v>
       </c>
@@ -9828,7 +9831,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="1:3">
+    <row r="369" spans="1:3">
       <c r="A369">
         <v>468</v>
       </c>
@@ -9839,7 +9842,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="370" hidden="1" spans="1:3">
+    <row r="370" spans="1:3">
       <c r="A370">
         <v>469</v>
       </c>
@@ -9850,7 +9853,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="371" hidden="1" spans="1:3">
+    <row r="371" spans="1:3">
       <c r="A371">
         <v>470</v>
       </c>
@@ -9861,7 +9864,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="1:3">
+    <row r="372" spans="1:3">
       <c r="A372">
         <v>471</v>
       </c>
@@ -9872,7 +9875,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="373" hidden="1" spans="1:3">
+    <row r="373" spans="1:3">
       <c r="A373">
         <v>472</v>
       </c>
@@ -9883,7 +9886,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="1:3">
+    <row r="374" spans="1:3">
       <c r="A374">
         <v>473</v>
       </c>
@@ -9894,7 +9897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="1:3">
+    <row r="375" spans="1:3">
       <c r="A375">
         <v>474</v>
       </c>
@@ -9905,7 +9908,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="376" hidden="1" spans="1:3">
+    <row r="376" spans="1:3">
       <c r="A376">
         <v>475</v>
       </c>
@@ -9916,7 +9919,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="1:3">
+    <row r="377" spans="1:3">
       <c r="A377">
         <v>476</v>
       </c>
@@ -9927,7 +9930,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="378" hidden="1" spans="1:3">
+    <row r="378" spans="1:3">
       <c r="A378">
         <v>477</v>
       </c>
@@ -9938,7 +9941,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:3">
+    <row r="379" spans="1:3">
       <c r="A379">
         <v>478</v>
       </c>
@@ -9949,7 +9952,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="380" hidden="1" spans="1:3">
+    <row r="380" spans="1:3">
       <c r="A380">
         <v>479</v>
       </c>
@@ -9960,7 +9963,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="381" hidden="1" spans="1:3">
+    <row r="381" spans="1:3">
       <c r="A381">
         <v>480</v>
       </c>
@@ -9971,7 +9974,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="1:3">
+    <row r="382" spans="1:3">
       <c r="A382">
         <v>481</v>
       </c>
@@ -9982,7 +9985,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="1:3">
+    <row r="383" spans="1:3">
       <c r="A383">
         <v>482</v>
       </c>
@@ -9993,7 +9996,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:3">
+    <row r="384" spans="1:3">
       <c r="A384">
         <v>483</v>
       </c>
@@ -10004,7 +10007,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="385" hidden="1" spans="1:3">
+    <row r="385" spans="1:3">
       <c r="A385">
         <v>484</v>
       </c>
@@ -10015,7 +10018,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="386" hidden="1" spans="1:3">
+    <row r="386" spans="1:3">
       <c r="A386">
         <v>485</v>
       </c>
@@ -10026,7 +10029,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="387" hidden="1" spans="1:3">
+    <row r="387" spans="1:3">
       <c r="A387">
         <v>486</v>
       </c>
@@ -10037,7 +10040,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="1:3">
+    <row r="388" spans="1:3">
       <c r="A388">
         <v>487</v>
       </c>
@@ -10048,7 +10051,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="1:3">
+    <row r="389" spans="1:3">
       <c r="A389">
         <v>488</v>
       </c>
@@ -10059,7 +10062,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:3">
+    <row r="390" spans="1:3">
       <c r="A390">
         <v>489</v>
       </c>
@@ -10070,7 +10073,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="391" hidden="1" spans="1:3">
+    <row r="391" spans="1:3">
       <c r="A391">
         <v>490</v>
       </c>
@@ -10081,7 +10084,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="1:3">
+    <row r="392" spans="1:3">
       <c r="A392">
         <v>491</v>
       </c>
@@ -10092,7 +10095,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="1:3">
+    <row r="393" spans="1:3">
       <c r="A393">
         <v>492</v>
       </c>
@@ -10103,7 +10106,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="1:3">
+    <row r="394" spans="1:3">
       <c r="A394">
         <v>493</v>
       </c>
@@ -10114,7 +10117,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="1:3">
+    <row r="395" spans="1:3">
       <c r="A395">
         <v>494</v>
       </c>
@@ -10125,7 +10128,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="396" hidden="1" spans="1:3">
+    <row r="396" spans="1:3">
       <c r="A396">
         <v>495</v>
       </c>
@@ -10136,7 +10139,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="1:3">
+    <row r="397" spans="1:3">
       <c r="A397">
         <v>496</v>
       </c>
@@ -10147,7 +10150,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="398" hidden="1" spans="1:3">
+    <row r="398" spans="1:3">
       <c r="A398">
         <v>497</v>
       </c>
@@ -10158,7 +10161,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="1:3">
+    <row r="399" spans="1:3">
       <c r="A399">
         <v>498</v>
       </c>
@@ -10169,7 +10172,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:3">
+    <row r="400" spans="1:3">
       <c r="A400">
         <v>499</v>
       </c>
@@ -10180,7 +10183,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="401" hidden="1" spans="1:3">
+    <row r="401" spans="1:3">
       <c r="A401">
         <v>500</v>
       </c>
@@ -10191,7 +10194,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="1:3">
+    <row r="402" spans="1:3">
       <c r="A402">
         <v>501</v>
       </c>
@@ -10202,7 +10205,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="1:3">
+    <row r="403" spans="1:3">
       <c r="A403">
         <v>502</v>
       </c>
@@ -10213,7 +10216,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:3">
+    <row r="404" spans="1:3">
       <c r="A404">
         <v>503</v>
       </c>
@@ -10224,7 +10227,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="1:3">
+    <row r="405" spans="1:3">
       <c r="A405">
         <v>504</v>
       </c>
@@ -10235,7 +10238,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="1:3">
+    <row r="406" spans="1:3">
       <c r="A406">
         <v>505</v>
       </c>
@@ -10246,7 +10249,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="407" hidden="1" spans="1:3">
+    <row r="407" spans="1:3">
       <c r="A407">
         <v>506</v>
       </c>
@@ -10257,7 +10260,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="408" hidden="1" spans="1:3">
+    <row r="408" spans="1:3">
       <c r="A408">
         <v>507</v>
       </c>
@@ -10268,7 +10271,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="409" hidden="1" spans="1:3">
+    <row r="409" spans="1:3">
       <c r="A409">
         <v>508</v>
       </c>
@@ -10299,7 +10302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" ht="15.15" spans="1:7">
+    <row r="411" spans="1:7">
       <c r="A411">
         <v>510</v>
       </c>
@@ -10319,7 +10322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" hidden="1" spans="1:3">
+    <row r="412" spans="1:3">
       <c r="A412">
         <v>511</v>
       </c>
@@ -10330,7 +10333,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="413" hidden="1" spans="1:3">
+    <row r="413" spans="1:3">
       <c r="A413">
         <v>512</v>
       </c>
@@ -10341,7 +10344,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="414" hidden="1" spans="1:3">
+    <row r="414" spans="1:3">
       <c r="A414">
         <v>513</v>
       </c>
@@ -10352,7 +10355,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="415" hidden="1" spans="1:3">
+    <row r="415" spans="1:3">
       <c r="A415">
         <v>514</v>
       </c>
@@ -10363,7 +10366,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="1:3">
+    <row r="416" spans="1:3">
       <c r="A416">
         <v>515</v>
       </c>
@@ -10374,7 +10377,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="417" ht="15.15" hidden="1" customHeight="1" spans="1:3">
+    <row r="417" ht="15.15" customHeight="1" spans="1:3">
       <c r="A417">
         <v>516</v>
       </c>
@@ -10405,7 +10408,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="419" hidden="1" spans="1:3">
+    <row r="419" spans="1:3">
       <c r="A419">
         <v>518</v>
       </c>
@@ -10416,7 +10419,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="420" hidden="1" spans="1:3">
+    <row r="420" spans="1:3">
       <c r="A420">
         <v>519</v>
       </c>
@@ -10447,7 +10450,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="1:3">
+    <row r="422" spans="1:3">
       <c r="A422">
         <v>521</v>
       </c>
@@ -10498,7 +10501,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="1:3">
+    <row r="425" spans="1:3">
       <c r="A425">
         <v>524</v>
       </c>
@@ -10549,7 +10552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="1:3">
+    <row r="428" spans="1:3">
       <c r="A428">
         <v>527</v>
       </c>
@@ -10560,7 +10563,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="1:3">
+    <row r="429" spans="1:3">
       <c r="A429">
         <v>528</v>
       </c>
@@ -10571,7 +10574,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="1:3">
+    <row r="430" spans="1:3">
       <c r="A430">
         <v>529</v>
       </c>
@@ -10582,7 +10585,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="1:3">
+    <row r="431" spans="1:3">
       <c r="A431">
         <v>530</v>
       </c>
@@ -10593,7 +10596,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="1:3">
+    <row r="432" spans="1:3">
       <c r="A432">
         <v>531</v>
       </c>
@@ -10604,7 +10607,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:3">
+    <row r="433" spans="1:3">
       <c r="A433">
         <v>532</v>
       </c>
@@ -10615,7 +10618,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="434" hidden="1" spans="1:3">
+    <row r="434" spans="1:3">
       <c r="A434">
         <v>533</v>
       </c>
@@ -10626,7 +10629,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="1:3">
+    <row r="435" spans="1:3">
       <c r="A435">
         <v>534</v>
       </c>
@@ -10637,7 +10640,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="436" hidden="1" spans="1:3">
+    <row r="436" spans="1:3">
       <c r="A436">
         <v>535</v>
       </c>
@@ -10648,7 +10651,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="1:3">
+    <row r="437" spans="1:3">
       <c r="A437">
         <v>536</v>
       </c>
@@ -10659,7 +10662,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="438" hidden="1" spans="1:3">
+    <row r="438" spans="1:3">
       <c r="A438">
         <v>537</v>
       </c>
@@ -10670,7 +10673,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:3">
+    <row r="439" spans="1:3">
       <c r="A439">
         <v>538</v>
       </c>
@@ -10681,7 +10684,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="440" hidden="1" spans="1:3">
+    <row r="440" spans="1:3">
       <c r="A440">
         <v>539</v>
       </c>
@@ -10692,7 +10695,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="1:3">
+    <row r="441" spans="1:3">
       <c r="A441">
         <v>540</v>
       </c>
@@ -10703,7 +10706,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:3">
+    <row r="442" spans="1:3">
       <c r="A442">
         <v>541</v>
       </c>
@@ -10714,7 +10717,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="1:3">
+    <row r="443" spans="1:3">
       <c r="A443">
         <v>542</v>
       </c>
@@ -10725,7 +10728,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="1:3">
+    <row r="444" spans="1:3">
       <c r="A444">
         <v>543</v>
       </c>
@@ -10736,7 +10739,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="445" hidden="1" spans="1:3">
+    <row r="445" spans="1:3">
       <c r="A445">
         <v>544</v>
       </c>
@@ -10807,7 +10810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" hidden="1" spans="1:3">
+    <row r="449" spans="1:3">
       <c r="A449">
         <v>548</v>
       </c>
@@ -10838,7 +10841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451" hidden="1" spans="1:3">
+    <row r="451" spans="1:3">
       <c r="A451">
         <v>550</v>
       </c>
@@ -10849,7 +10852,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="452" hidden="1" spans="1:3">
+    <row r="452" spans="1:3">
       <c r="A452">
         <v>551</v>
       </c>
@@ -10883,7 +10886,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="454" hidden="1" spans="1:3">
+    <row r="454" spans="1:3">
       <c r="A454">
         <v>553</v>
       </c>
@@ -10894,7 +10897,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="455" hidden="1" spans="1:3">
+    <row r="455" spans="1:3">
       <c r="A455">
         <v>554</v>
       </c>
@@ -10945,7 +10948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" hidden="1" spans="1:3">
+    <row r="458" spans="1:3">
       <c r="A458">
         <v>557</v>
       </c>
@@ -11019,7 +11022,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:3">
+    <row r="462" spans="1:3">
       <c r="A462">
         <v>561</v>
       </c>
@@ -11030,7 +11033,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="1:3">
+    <row r="463" spans="1:3">
       <c r="A463">
         <v>562</v>
       </c>
@@ -11041,7 +11044,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:3">
+    <row r="464" spans="1:3">
       <c r="A464">
         <v>563</v>
       </c>
@@ -11052,7 +11055,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="465" hidden="1" spans="1:3">
+    <row r="465" spans="1:3">
       <c r="A465">
         <v>564</v>
       </c>
@@ -11126,7 +11129,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="469" hidden="1" spans="1:3">
+    <row r="469" spans="1:3">
       <c r="A469">
         <v>568</v>
       </c>
@@ -11137,7 +11140,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:3">
+    <row r="470" spans="1:3">
       <c r="A470">
         <v>569</v>
       </c>
@@ -11148,7 +11151,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="1:3">
+    <row r="471" spans="1:3">
       <c r="A471">
         <v>570</v>
       </c>
@@ -11179,7 +11182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" hidden="1" spans="1:3">
+    <row r="473" spans="1:3">
       <c r="A473">
         <v>572</v>
       </c>
@@ -11190,7 +11193,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="1:3">
+    <row r="474" spans="1:3">
       <c r="A474">
         <v>573</v>
       </c>
@@ -11221,7 +11224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="1:3">
+    <row r="476" spans="1:3">
       <c r="A476">
         <v>575</v>
       </c>
@@ -11255,7 +11258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" hidden="1" spans="1:3">
+    <row r="478" spans="1:3">
       <c r="A478">
         <v>577</v>
       </c>
@@ -11266,7 +11269,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="1:3">
+    <row r="479" spans="1:3">
       <c r="A479">
         <v>578</v>
       </c>
@@ -11297,7 +11300,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="1:3">
+    <row r="481" spans="1:3">
       <c r="A481">
         <v>580</v>
       </c>
@@ -11328,7 +11331,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="1:3">
+    <row r="483" spans="1:3">
       <c r="A483">
         <v>582</v>
       </c>
@@ -11339,7 +11342,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="484" hidden="1" spans="1:3">
+    <row r="484" spans="1:3">
       <c r="A484">
         <v>583</v>
       </c>
@@ -11350,7 +11353,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="1:3">
+    <row r="485" spans="1:3">
       <c r="A485">
         <v>584</v>
       </c>
@@ -11401,7 +11404,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="488" hidden="1" spans="1:3">
+    <row r="488" spans="1:3">
       <c r="A488">
         <v>587</v>
       </c>
@@ -11412,7 +11415,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="489" hidden="1" spans="1:3">
+    <row r="489" spans="1:3">
       <c r="A489">
         <v>588</v>
       </c>
@@ -11606,7 +11609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="1:3">
+    <row r="499" spans="1:3">
       <c r="A499">
         <v>598</v>
       </c>
@@ -11617,7 +11620,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="500" hidden="1" spans="1:3">
+    <row r="500" spans="1:3">
       <c r="A500">
         <v>599</v>
       </c>
@@ -11628,7 +11631,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="501" hidden="1" spans="1:3">
+    <row r="501" spans="1:3">
       <c r="A501">
         <v>600</v>
       </c>
@@ -11639,7 +11642,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="502" hidden="1" spans="1:3">
+    <row r="502" spans="1:3">
       <c r="A502">
         <v>601</v>
       </c>
@@ -11650,7 +11653,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="503" hidden="1" spans="1:3">
+    <row r="503" spans="1:3">
       <c r="A503">
         <v>602</v>
       </c>
@@ -11661,7 +11664,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="504" hidden="1" spans="1:3">
+    <row r="504" spans="1:3">
       <c r="A504">
         <v>603</v>
       </c>
@@ -11672,7 +11675,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="505" hidden="1" spans="1:3">
+    <row r="505" spans="1:3">
       <c r="A505">
         <v>604</v>
       </c>
@@ -11683,7 +11686,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="506" hidden="1" spans="1:3">
+    <row r="506" spans="1:3">
       <c r="A506">
         <v>605</v>
       </c>
@@ -11694,7 +11697,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="507" hidden="1" spans="1:3">
+    <row r="507" spans="1:3">
       <c r="A507">
         <v>606</v>
       </c>
@@ -11705,7 +11708,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="508" hidden="1" spans="1:3">
+    <row r="508" spans="1:3">
       <c r="A508">
         <v>607</v>
       </c>
@@ -11716,7 +11719,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="509" hidden="1" spans="1:3">
+    <row r="509" spans="1:3">
       <c r="A509">
         <v>608</v>
       </c>
@@ -11727,7 +11730,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="510" hidden="1" spans="1:3">
+    <row r="510" spans="1:3">
       <c r="A510">
         <v>609</v>
       </c>
@@ -11738,7 +11741,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="511" hidden="1" spans="1:3">
+    <row r="511" spans="1:3">
       <c r="A511">
         <v>610</v>
       </c>
@@ -11749,7 +11752,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="512" hidden="1" spans="1:3">
+    <row r="512" spans="1:3">
       <c r="A512">
         <v>611</v>
       </c>
@@ -11760,7 +11763,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="513" hidden="1" spans="1:3">
+    <row r="513" spans="1:3">
       <c r="A513">
         <v>612</v>
       </c>
@@ -11771,7 +11774,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="514" hidden="1" spans="1:3">
+    <row r="514" spans="1:3">
       <c r="A514">
         <v>613</v>
       </c>
@@ -11822,7 +11825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" hidden="1" spans="1:3">
+    <row r="517" spans="1:3">
       <c r="A517">
         <v>616</v>
       </c>
@@ -11833,7 +11836,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="518" hidden="1" spans="1:3">
+    <row r="518" spans="1:3">
       <c r="A518">
         <v>617</v>
       </c>
@@ -11844,7 +11847,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="1:3">
+    <row r="519" spans="1:3">
       <c r="A519">
         <v>618</v>
       </c>
@@ -11855,7 +11858,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="520" hidden="1" spans="1:3">
+    <row r="520" spans="1:3">
       <c r="A520">
         <v>619</v>
       </c>
@@ -11866,7 +11869,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="521" hidden="1" spans="1:3">
+    <row r="521" spans="1:3">
       <c r="A521">
         <v>620</v>
       </c>
@@ -11877,7 +11880,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="522" hidden="1" spans="1:3">
+    <row r="522" spans="1:3">
       <c r="A522">
         <v>621</v>
       </c>
@@ -11888,7 +11891,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="523" hidden="1" spans="1:3">
+    <row r="523" spans="1:3">
       <c r="A523">
         <v>622</v>
       </c>
@@ -11899,7 +11902,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="524" hidden="1" spans="1:3">
+    <row r="524" spans="1:3">
       <c r="A524">
         <v>623</v>
       </c>
@@ -11910,7 +11913,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="525" hidden="1" spans="1:3">
+    <row r="525" spans="1:3">
       <c r="A525">
         <v>624</v>
       </c>
@@ -11921,7 +11924,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="1:3">
+    <row r="526" spans="1:3">
       <c r="A526">
         <v>625</v>
       </c>
@@ -11932,7 +11935,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="527" hidden="1" spans="1:3">
+    <row r="527" spans="1:3">
       <c r="A527">
         <v>626</v>
       </c>
@@ -11943,7 +11946,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="1:3">
+    <row r="528" spans="1:3">
       <c r="A528">
         <v>627</v>
       </c>
@@ -11954,7 +11957,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="529" hidden="1" spans="1:3">
+    <row r="529" spans="1:3">
       <c r="A529">
         <v>628</v>
       </c>
@@ -11965,7 +11968,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="530" hidden="1" spans="1:3">
+    <row r="530" spans="1:3">
       <c r="A530">
         <v>629</v>
       </c>
@@ -11976,7 +11979,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="531" hidden="1" spans="1:3">
+    <row r="531" spans="1:3">
       <c r="A531">
         <v>630</v>
       </c>
@@ -11987,7 +11990,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="532" hidden="1" spans="1:3">
+    <row r="532" spans="1:3">
       <c r="A532">
         <v>631</v>
       </c>
@@ -11998,7 +12001,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="533" hidden="1" spans="1:3">
+    <row r="533" spans="1:3">
       <c r="A533">
         <v>632</v>
       </c>
@@ -12049,7 +12052,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="536" hidden="1" spans="1:3">
+    <row r="536" spans="1:3">
       <c r="A536">
         <v>635</v>
       </c>
@@ -12080,7 +12083,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="1:3">
+    <row r="538" spans="1:3">
       <c r="A538">
         <v>637</v>
       </c>
@@ -12091,7 +12094,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="539" hidden="1" spans="1:3">
+    <row r="539" spans="1:3">
       <c r="A539">
         <v>638</v>
       </c>
@@ -12102,7 +12105,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="540" hidden="1" spans="1:3">
+    <row r="540" spans="1:3">
       <c r="A540">
         <v>639</v>
       </c>
@@ -12113,7 +12116,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="541" hidden="1" spans="1:3">
+    <row r="541" spans="1:3">
       <c r="A541">
         <v>640</v>
       </c>
@@ -12124,7 +12127,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="542" hidden="1" spans="1:3">
+    <row r="542" spans="1:3">
       <c r="A542">
         <v>641</v>
       </c>
@@ -12135,7 +12138,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="543" hidden="1" spans="1:3">
+    <row r="543" spans="1:3">
       <c r="A543">
         <v>642</v>
       </c>
@@ -12146,7 +12149,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="544" hidden="1" spans="1:3">
+    <row r="544" spans="1:3">
       <c r="A544">
         <v>643</v>
       </c>
@@ -12157,7 +12160,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="545" hidden="1" spans="1:3">
+    <row r="545" spans="1:3">
       <c r="A545">
         <v>644</v>
       </c>
@@ -12188,7 +12191,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="547" hidden="1" spans="1:3">
+    <row r="547" spans="1:3">
       <c r="A547">
         <v>646</v>
       </c>
@@ -12199,7 +12202,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="548" hidden="1" spans="1:3">
+    <row r="548" spans="1:3">
       <c r="A548">
         <v>647</v>
       </c>
@@ -12210,7 +12213,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="549" hidden="1" spans="1:3">
+    <row r="549" spans="1:3">
       <c r="A549">
         <v>648</v>
       </c>
@@ -12244,7 +12247,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="551" hidden="1" spans="1:3">
+    <row r="551" spans="1:3">
       <c r="A551">
         <v>650</v>
       </c>
@@ -12255,7 +12258,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="552" hidden="1" spans="1:3">
+    <row r="552" spans="1:3">
       <c r="A552">
         <v>651</v>
       </c>
@@ -12306,7 +12309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555" hidden="1" spans="1:3">
+    <row r="555" spans="1:3">
       <c r="A555">
         <v>654</v>
       </c>
@@ -12337,7 +12340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="1:3">
+    <row r="557" spans="1:3">
       <c r="A557">
         <v>656</v>
       </c>
@@ -12348,7 +12351,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="558" hidden="1" spans="1:3">
+    <row r="558" spans="1:3">
       <c r="A558">
         <v>657</v>
       </c>
@@ -12399,7 +12402,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="561" hidden="1" spans="1:3">
+    <row r="561" spans="1:3">
       <c r="A561">
         <v>660</v>
       </c>
@@ -12410,7 +12413,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="562" hidden="1" spans="1:3">
+    <row r="562" spans="1:3">
       <c r="A562">
         <v>661</v>
       </c>
@@ -12421,7 +12424,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="563" hidden="1" spans="1:3">
+    <row r="563" spans="1:3">
       <c r="A563">
         <v>662</v>
       </c>
@@ -12432,7 +12435,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="564" hidden="1" spans="1:3">
+    <row r="564" spans="1:3">
       <c r="A564">
         <v>663</v>
       </c>
@@ -12443,7 +12446,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="565" hidden="1" spans="1:3">
+    <row r="565" spans="1:3">
       <c r="A565">
         <v>664</v>
       </c>
@@ -12454,7 +12457,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="566" hidden="1" spans="1:3">
+    <row r="566" spans="1:3">
       <c r="A566">
         <v>665</v>
       </c>
@@ -12465,7 +12468,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="567" hidden="1" spans="1:3">
+    <row r="567" spans="1:3">
       <c r="A567">
         <v>666</v>
       </c>
@@ -12476,7 +12479,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="568" hidden="1" spans="1:3">
+    <row r="568" spans="1:3">
       <c r="A568">
         <v>667</v>
       </c>
@@ -12487,7 +12490,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="569" hidden="1" spans="1:3">
+    <row r="569" spans="1:3">
       <c r="A569">
         <v>668</v>
       </c>
@@ -12498,7 +12501,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="570" hidden="1" spans="1:3">
+    <row r="570" spans="1:3">
       <c r="A570">
         <v>669</v>
       </c>
@@ -12509,7 +12512,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="571" hidden="1" spans="1:3">
+    <row r="571" spans="1:3">
       <c r="A571">
         <v>670</v>
       </c>
@@ -12520,7 +12523,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="572" hidden="1" spans="1:3">
+    <row r="572" spans="1:3">
       <c r="A572">
         <v>671</v>
       </c>
@@ -12551,7 +12554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="1:3">
+    <row r="574" spans="1:3">
       <c r="A574">
         <v>673</v>
       </c>
@@ -12582,7 +12585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" hidden="1" spans="1:3">
+    <row r="576" spans="1:3">
       <c r="A576">
         <v>675</v>
       </c>
@@ -12593,7 +12596,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="577" hidden="1" spans="1:3">
+    <row r="577" spans="1:3">
       <c r="A577">
         <v>676</v>
       </c>
@@ -12664,7 +12667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="581" hidden="1" spans="1:3">
+    <row r="581" spans="1:3">
       <c r="A581">
         <v>680</v>
       </c>
@@ -12715,7 +12718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="584" hidden="1" spans="1:3">
+    <row r="584" spans="1:3">
       <c r="A584">
         <v>683</v>
       </c>
@@ -12746,7 +12749,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="586" hidden="1" spans="1:3">
+    <row r="586" spans="1:3">
       <c r="A586">
         <v>685</v>
       </c>
@@ -12757,7 +12760,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="587" hidden="1" spans="1:3">
+    <row r="587" spans="1:3">
       <c r="A587">
         <v>686</v>
       </c>
@@ -12768,7 +12771,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="588" hidden="1" spans="1:3">
+    <row r="588" spans="1:3">
       <c r="A588">
         <v>687</v>
       </c>
@@ -12779,7 +12782,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="589" hidden="1" spans="1:3">
+    <row r="589" spans="1:3">
       <c r="A589">
         <v>688</v>
       </c>
@@ -12790,7 +12793,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="590" hidden="1" spans="1:3">
+    <row r="590" spans="1:3">
       <c r="A590">
         <v>689</v>
       </c>
@@ -12801,7 +12804,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="591" hidden="1" spans="1:3">
+    <row r="591" spans="1:3">
       <c r="A591">
         <v>690</v>
       </c>
@@ -12812,7 +12815,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="592" hidden="1" spans="1:3">
+    <row r="592" spans="1:3">
       <c r="A592">
         <v>691</v>
       </c>
@@ -12823,7 +12826,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="593" hidden="1" spans="1:3">
+    <row r="593" spans="1:3">
       <c r="A593">
         <v>692</v>
       </c>
@@ -12834,7 +12837,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="594" hidden="1" spans="1:3">
+    <row r="594" spans="1:3">
       <c r="A594">
         <v>693</v>
       </c>
@@ -12845,7 +12848,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="595" hidden="1" spans="1:3">
+    <row r="595" spans="1:3">
       <c r="A595">
         <v>694</v>
       </c>
@@ -12856,7 +12859,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="596" hidden="1" spans="1:3">
+    <row r="596" spans="1:3">
       <c r="A596">
         <v>695</v>
       </c>
@@ -12867,7 +12870,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="597" hidden="1" spans="1:3">
+    <row r="597" spans="1:3">
       <c r="A597">
         <v>696</v>
       </c>
@@ -12878,7 +12881,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="598" hidden="1" spans="1:3">
+    <row r="598" spans="1:3">
       <c r="A598">
         <v>697</v>
       </c>
@@ -12889,7 +12892,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="599" hidden="1" spans="1:3">
+    <row r="599" spans="1:3">
       <c r="A599">
         <v>698</v>
       </c>
@@ -12900,7 +12903,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="1:3">
+    <row r="600" spans="1:3">
       <c r="A600">
         <v>699</v>
       </c>
@@ -12911,7 +12914,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="601" hidden="1" spans="1:3">
+    <row r="601" spans="1:3">
       <c r="A601">
         <v>700</v>
       </c>
@@ -12922,7 +12925,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="602" hidden="1" spans="1:3">
+    <row r="602" spans="1:3">
       <c r="A602">
         <v>701</v>
       </c>
@@ -12933,7 +12936,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="603" hidden="1" spans="1:3">
+    <row r="603" spans="1:3">
       <c r="A603">
         <v>702</v>
       </c>
@@ -12964,7 +12967,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="605" hidden="1" spans="1:3">
+    <row r="605" spans="1:3">
       <c r="A605">
         <v>704</v>
       </c>
@@ -12975,7 +12978,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="606" hidden="1" spans="1:3">
+    <row r="606" spans="1:3">
       <c r="A606">
         <v>705</v>
       </c>
@@ -13006,7 +13009,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="608" hidden="1" spans="1:3">
+    <row r="608" spans="1:3">
       <c r="A608">
         <v>707</v>
       </c>
@@ -13017,7 +13020,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="609" hidden="1" spans="1:3">
+    <row r="609" spans="1:3">
       <c r="A609">
         <v>708</v>
       </c>
@@ -13028,7 +13031,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="610" hidden="1" spans="1:3">
+    <row r="610" spans="1:3">
       <c r="A610">
         <v>709</v>
       </c>
@@ -13039,7 +13042,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="611" hidden="1" spans="1:3">
+    <row r="611" spans="1:3">
       <c r="A611">
         <v>710</v>
       </c>
@@ -13050,7 +13053,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="612" hidden="1" spans="1:3">
+    <row r="612" spans="1:3">
       <c r="A612">
         <v>711</v>
       </c>
@@ -13061,7 +13064,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="613" hidden="1" spans="1:3">
+    <row r="613" spans="1:3">
       <c r="A613">
         <v>712</v>
       </c>
@@ -13092,7 +13095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="615" hidden="1" spans="1:3">
+    <row r="615" spans="1:3">
       <c r="A615">
         <v>714</v>
       </c>
@@ -13103,7 +13106,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="616" hidden="1" spans="1:3">
+    <row r="616" spans="1:3">
       <c r="A616">
         <v>715</v>
       </c>
@@ -13114,7 +13117,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="617" hidden="1" spans="1:3">
+    <row r="617" spans="1:3">
       <c r="A617">
         <v>716</v>
       </c>
@@ -13125,7 +13128,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="618" hidden="1" spans="1:3">
+    <row r="618" spans="1:3">
       <c r="A618">
         <v>717</v>
       </c>
@@ -13136,7 +13139,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="619" hidden="1" spans="1:3">
+    <row r="619" spans="1:3">
       <c r="A619">
         <v>718</v>
       </c>
@@ -13147,7 +13150,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="620" hidden="1" spans="1:3">
+    <row r="620" spans="1:3">
       <c r="A620">
         <v>719</v>
       </c>
@@ -13158,7 +13161,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="621" hidden="1" spans="1:3">
+    <row r="621" spans="1:3">
       <c r="A621">
         <v>720</v>
       </c>
@@ -13169,7 +13172,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="622" hidden="1" spans="1:3">
+    <row r="622" spans="1:3">
       <c r="A622">
         <v>721</v>
       </c>
@@ -13180,7 +13183,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="623" hidden="1" spans="1:3">
+    <row r="623" spans="1:3">
       <c r="A623">
         <v>722</v>
       </c>
@@ -13211,7 +13214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="625" hidden="1" spans="1:3">
+    <row r="625" spans="1:3">
       <c r="A625">
         <v>724</v>
       </c>
@@ -13222,7 +13225,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="626" hidden="1" spans="1:3">
+    <row r="626" spans="1:3">
       <c r="A626">
         <v>725</v>
       </c>
@@ -13233,7 +13236,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="627" hidden="1" spans="1:3">
+    <row r="627" spans="1:3">
       <c r="A627">
         <v>726</v>
       </c>
@@ -13244,7 +13247,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="628" hidden="1" spans="1:3">
+    <row r="628" spans="1:3">
       <c r="A628">
         <v>727</v>
       </c>
@@ -13255,7 +13258,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="629" hidden="1" spans="1:3">
+    <row r="629" spans="1:3">
       <c r="A629">
         <v>728</v>
       </c>
@@ -13266,7 +13269,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="630" hidden="1" spans="1:3">
+    <row r="630" spans="1:3">
       <c r="A630">
         <v>729</v>
       </c>
@@ -13277,7 +13280,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="631" hidden="1" spans="1:3">
+    <row r="631" spans="1:3">
       <c r="A631">
         <v>730</v>
       </c>
@@ -13288,7 +13291,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="632" hidden="1" spans="1:3">
+    <row r="632" spans="1:3">
       <c r="A632">
         <v>731</v>
       </c>
@@ -13319,7 +13322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="634" hidden="1" spans="1:3">
+    <row r="634" spans="1:3">
       <c r="A634">
         <v>733</v>
       </c>
@@ -13330,7 +13333,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="635" hidden="1" spans="1:3">
+    <row r="635" spans="1:3">
       <c r="A635">
         <v>734</v>
       </c>
@@ -13341,7 +13344,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="636" hidden="1" spans="1:3">
+    <row r="636" spans="1:3">
       <c r="A636">
         <v>735</v>
       </c>
@@ -13352,7 +13355,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="637" hidden="1" spans="1:3">
+    <row r="637" spans="1:3">
       <c r="A637">
         <v>736</v>
       </c>
@@ -13363,7 +13366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" hidden="1" spans="1:3">
+    <row r="638" spans="1:3">
       <c r="A638">
         <v>737</v>
       </c>
@@ -13374,7 +13377,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="639" hidden="1" spans="1:3">
+    <row r="639" spans="1:3">
       <c r="A639">
         <v>738</v>
       </c>
@@ -13385,7 +13388,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="640" hidden="1" spans="1:3">
+    <row r="640" spans="1:3">
       <c r="A640">
         <v>739</v>
       </c>
@@ -13396,7 +13399,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="641" hidden="1" spans="1:3">
+    <row r="641" spans="1:3">
       <c r="A641">
         <v>740</v>
       </c>
@@ -13407,7 +13410,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="642" hidden="1" spans="1:3">
+    <row r="642" spans="1:3">
       <c r="A642">
         <v>741</v>
       </c>
@@ -13438,7 +13441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="644" hidden="1" spans="1:3">
+    <row r="644" spans="1:3">
       <c r="A644">
         <v>743</v>
       </c>
@@ -13449,7 +13452,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="645" hidden="1" spans="1:3">
+    <row r="645" spans="1:3">
       <c r="A645">
         <v>744</v>
       </c>
@@ -13460,7 +13463,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="646" hidden="1" spans="1:3">
+    <row r="646" spans="1:3">
       <c r="A646">
         <v>745</v>
       </c>
@@ -13471,7 +13474,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="647" hidden="1" spans="1:3">
+    <row r="647" spans="1:3">
       <c r="A647">
         <v>746</v>
       </c>
@@ -13482,7 +13485,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="648" hidden="1" spans="1:3">
+    <row r="648" spans="1:3">
       <c r="A648">
         <v>747</v>
       </c>
@@ -13493,7 +13496,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="649" hidden="1" spans="1:3">
+    <row r="649" spans="1:3">
       <c r="A649">
         <v>748</v>
       </c>
@@ -13504,7 +13507,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="650" hidden="1" spans="1:3">
+    <row r="650" spans="1:3">
       <c r="A650">
         <v>749</v>
       </c>
@@ -13515,7 +13518,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="651" hidden="1" spans="1:3">
+    <row r="651" spans="1:3">
       <c r="A651">
         <v>750</v>
       </c>
@@ -13526,7 +13529,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="652" hidden="1" spans="1:3">
+    <row r="652" spans="1:3">
       <c r="A652">
         <v>751</v>
       </c>
@@ -13537,7 +13540,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="653" hidden="1" spans="1:3">
+    <row r="653" spans="1:3">
       <c r="A653">
         <v>752</v>
       </c>
@@ -13548,7 +13551,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="654" hidden="1" spans="1:3">
+    <row r="654" spans="1:3">
       <c r="A654">
         <v>753</v>
       </c>
@@ -13559,7 +13562,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="655" hidden="1" spans="1:3">
+    <row r="655" spans="1:3">
       <c r="A655">
         <v>754</v>
       </c>
@@ -13570,7 +13573,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="656" hidden="1" spans="1:3">
+    <row r="656" spans="1:3">
       <c r="A656">
         <v>755</v>
       </c>
@@ -13581,7 +13584,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="657" hidden="1" spans="1:3">
+    <row r="657" spans="1:3">
       <c r="A657">
         <v>756</v>
       </c>
@@ -13592,7 +13595,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="658" hidden="1" spans="1:3">
+    <row r="658" spans="1:3">
       <c r="A658">
         <v>757</v>
       </c>
@@ -13603,7 +13606,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="659" hidden="1" spans="1:3">
+    <row r="659" spans="1:3">
       <c r="A659">
         <v>758</v>
       </c>
@@ -13614,7 +13617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="660" hidden="1" spans="1:3">
+    <row r="660" spans="1:3">
       <c r="A660">
         <v>759</v>
       </c>
@@ -13625,7 +13628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" hidden="1" spans="1:3">
+    <row r="661" spans="1:3">
       <c r="A661">
         <v>760</v>
       </c>
@@ -13636,7 +13639,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="662" hidden="1" spans="1:3">
+    <row r="662" spans="1:3">
       <c r="A662">
         <v>761</v>
       </c>
@@ -13647,7 +13650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="663" hidden="1" spans="1:3">
+    <row r="663" spans="1:3">
       <c r="A663">
         <v>762</v>
       </c>
@@ -13658,7 +13661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="664" hidden="1" spans="1:3">
+    <row r="664" spans="1:3">
       <c r="A664">
         <v>763</v>
       </c>
@@ -13669,7 +13672,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="665" hidden="1" spans="1:3">
+    <row r="665" spans="1:3">
       <c r="A665">
         <v>764</v>
       </c>
@@ -13680,7 +13683,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="666" hidden="1" spans="1:3">
+    <row r="666" spans="1:3">
       <c r="A666">
         <v>765</v>
       </c>
@@ -13691,7 +13694,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="667" hidden="1" spans="1:3">
+    <row r="667" spans="1:3">
       <c r="A667">
         <v>766</v>
       </c>
@@ -13702,7 +13705,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="668" hidden="1" spans="1:3">
+    <row r="668" spans="1:3">
       <c r="A668">
         <v>767</v>
       </c>
@@ -13713,7 +13716,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="669" hidden="1" spans="1:3">
+    <row r="669" spans="1:3">
       <c r="A669">
         <v>768</v>
       </c>
@@ -13724,7 +13727,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="670" hidden="1" spans="1:3">
+    <row r="670" spans="1:3">
       <c r="A670">
         <v>769</v>
       </c>
@@ -13735,7 +13738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671" hidden="1" spans="1:3">
+    <row r="671" spans="1:3">
       <c r="A671">
         <v>770</v>
       </c>
@@ -13746,7 +13749,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="672" hidden="1" spans="1:3">
+    <row r="672" spans="1:3">
       <c r="A672">
         <v>771</v>
       </c>
@@ -13757,7 +13760,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="673" hidden="1" spans="1:3">
+    <row r="673" spans="1:3">
       <c r="A673">
         <v>772</v>
       </c>
@@ -13768,7 +13771,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="674" hidden="1" spans="1:3">
+    <row r="674" spans="1:3">
       <c r="A674">
         <v>773</v>
       </c>
@@ -13779,7 +13782,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="675" hidden="1" spans="1:3">
+    <row r="675" spans="1:3">
       <c r="A675">
         <v>774</v>
       </c>
@@ -13790,7 +13793,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="676" hidden="1" spans="1:3">
+    <row r="676" spans="1:3">
       <c r="A676">
         <v>775</v>
       </c>
@@ -13801,7 +13804,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="677" hidden="1" spans="1:3">
+    <row r="677" spans="1:3">
       <c r="A677">
         <v>776</v>
       </c>
@@ -13812,7 +13815,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="678" hidden="1" spans="1:3">
+    <row r="678" spans="1:3">
       <c r="A678">
         <v>777</v>
       </c>
@@ -13823,7 +13826,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="679" hidden="1" spans="1:3">
+    <row r="679" spans="1:3">
       <c r="A679">
         <v>778</v>
       </c>
@@ -13834,7 +13837,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="680" hidden="1" spans="1:3">
+    <row r="680" spans="1:3">
       <c r="A680">
         <v>779</v>
       </c>
@@ -13845,7 +13848,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="681" hidden="1" spans="1:3">
+    <row r="681" spans="1:3">
       <c r="A681">
         <v>780</v>
       </c>
@@ -13856,7 +13859,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="682" hidden="1" spans="1:3">
+    <row r="682" spans="1:3">
       <c r="A682">
         <v>781</v>
       </c>
@@ -13867,7 +13870,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="683" hidden="1" spans="1:3">
+    <row r="683" spans="1:3">
       <c r="A683">
         <v>782</v>
       </c>
@@ -13878,7 +13881,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="684" hidden="1" spans="1:3">
+    <row r="684" spans="1:3">
       <c r="A684">
         <v>783</v>
       </c>
@@ -13889,7 +13892,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="685" hidden="1" spans="1:3">
+    <row r="685" spans="1:3">
       <c r="A685">
         <v>784</v>
       </c>
@@ -13900,7 +13903,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="686" hidden="1" spans="1:3">
+    <row r="686" spans="1:3">
       <c r="A686">
         <v>785</v>
       </c>
@@ -13911,7 +13914,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="687" hidden="1" spans="1:3">
+    <row r="687" spans="1:3">
       <c r="A687">
         <v>786</v>
       </c>
@@ -13922,7 +13925,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="688" hidden="1" spans="1:3">
+    <row r="688" spans="1:3">
       <c r="A688">
         <v>787</v>
       </c>
@@ -13933,7 +13936,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="689" hidden="1" spans="1:3">
+    <row r="689" spans="1:3">
       <c r="A689">
         <v>788</v>
       </c>
@@ -13944,7 +13947,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="690" hidden="1" spans="1:3">
+    <row r="690" spans="1:3">
       <c r="A690">
         <v>789</v>
       </c>
@@ -13955,7 +13958,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="691" hidden="1" spans="1:3">
+    <row r="691" spans="1:3">
       <c r="A691">
         <v>790</v>
       </c>
@@ -13966,7 +13969,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="692" hidden="1" spans="1:3">
+    <row r="692" spans="1:3">
       <c r="A692">
         <v>791</v>
       </c>
@@ -13977,7 +13980,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="693" hidden="1" spans="1:3">
+    <row r="693" spans="1:3">
       <c r="A693">
         <v>792</v>
       </c>
@@ -14008,7 +14011,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="695" hidden="1" spans="1:3">
+    <row r="695" spans="1:3">
       <c r="A695">
         <v>794</v>
       </c>
@@ -14019,7 +14022,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="696" hidden="1" spans="1:3">
+    <row r="696" spans="1:3">
       <c r="A696">
         <v>795</v>
       </c>
@@ -14030,7 +14033,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="697" hidden="1" spans="1:3">
+    <row r="697" spans="1:3">
       <c r="A697">
         <v>796</v>
       </c>
@@ -14041,7 +14044,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="698" hidden="1" spans="1:3">
+    <row r="698" spans="1:3">
       <c r="A698">
         <v>797</v>
       </c>
@@ -14052,7 +14055,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="699" hidden="1" spans="1:3">
+    <row r="699" spans="1:3">
       <c r="A699">
         <v>798</v>
       </c>
@@ -14063,7 +14066,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="700" hidden="1" spans="1:3">
+    <row r="700" spans="1:3">
       <c r="A700">
         <v>799</v>
       </c>
@@ -14074,7 +14077,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="701" hidden="1" spans="1:3">
+    <row r="701" spans="1:3">
       <c r="A701">
         <v>800</v>
       </c>
@@ -14085,7 +14088,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="702" hidden="1" spans="1:3">
+    <row r="702" spans="1:3">
       <c r="A702">
         <v>801</v>
       </c>
@@ -14096,7 +14099,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="703" hidden="1" spans="1:3">
+    <row r="703" spans="1:3">
       <c r="A703">
         <v>802</v>
       </c>
@@ -14107,7 +14110,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="704" hidden="1" spans="1:3">
+    <row r="704" spans="1:3">
       <c r="A704">
         <v>803</v>
       </c>
@@ -14118,7 +14121,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="705" hidden="1" spans="1:3">
+    <row r="705" spans="1:3">
       <c r="A705">
         <v>804</v>
       </c>
@@ -14129,7 +14132,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="706" hidden="1" spans="1:3">
+    <row r="706" spans="1:3">
       <c r="A706">
         <v>805</v>
       </c>
@@ -14140,7 +14143,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="707" hidden="1" spans="1:3">
+    <row r="707" spans="1:3">
       <c r="A707">
         <v>806</v>
       </c>
@@ -14151,7 +14154,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="708" hidden="1" spans="1:3">
+    <row r="708" spans="1:3">
       <c r="A708">
         <v>807</v>
       </c>
@@ -14162,7 +14165,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="709" hidden="1" spans="1:3">
+    <row r="709" spans="1:3">
       <c r="A709">
         <v>808</v>
       </c>
@@ -14173,7 +14176,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="710" hidden="1" spans="1:3">
+    <row r="710" spans="1:3">
       <c r="A710">
         <v>809</v>
       </c>
@@ -14184,7 +14187,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="711" hidden="1" spans="1:3">
+    <row r="711" spans="1:3">
       <c r="A711">
         <v>810</v>
       </c>
@@ -14195,7 +14198,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="712" hidden="1" spans="1:3">
+    <row r="712" spans="1:3">
       <c r="A712">
         <v>811</v>
       </c>
@@ -14206,7 +14209,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="713" hidden="1" spans="1:3">
+    <row r="713" spans="1:3">
       <c r="A713">
         <v>812</v>
       </c>
@@ -14217,7 +14220,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="714" hidden="1" spans="1:3">
+    <row r="714" spans="1:3">
       <c r="A714">
         <v>813</v>
       </c>
@@ -14228,7 +14231,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="715" hidden="1" spans="1:3">
+    <row r="715" spans="1:3">
       <c r="A715">
         <v>814</v>
       </c>
@@ -14239,7 +14242,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="716" hidden="1" spans="1:3">
+    <row r="716" spans="1:3">
       <c r="A716">
         <v>815</v>
       </c>
@@ -14250,7 +14253,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="717" hidden="1" spans="1:3">
+    <row r="717" spans="1:3">
       <c r="A717">
         <v>816</v>
       </c>
@@ -14261,7 +14264,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="718" hidden="1" spans="1:3">
+    <row r="718" spans="1:3">
       <c r="A718">
         <v>817</v>
       </c>
@@ -14272,7 +14275,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="719" hidden="1" spans="1:3">
+    <row r="719" spans="1:3">
       <c r="A719">
         <v>818</v>
       </c>
@@ -14283,7 +14286,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="720" hidden="1" spans="1:3">
+    <row r="720" spans="1:3">
       <c r="A720">
         <v>819</v>
       </c>
@@ -14294,7 +14297,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="721" hidden="1" spans="1:3">
+    <row r="721" spans="1:3">
       <c r="A721">
         <v>820</v>
       </c>
@@ -14305,7 +14308,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="722" hidden="1" spans="1:3">
+    <row r="722" spans="1:3">
       <c r="A722">
         <v>821</v>
       </c>
@@ -14316,7 +14319,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="723" hidden="1" spans="1:3">
+    <row r="723" spans="1:3">
       <c r="A723">
         <v>822</v>
       </c>
@@ -14327,7 +14330,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="724" hidden="1" spans="1:3">
+    <row r="724" spans="1:3">
       <c r="A724">
         <v>823</v>
       </c>
@@ -14338,7 +14341,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="725" hidden="1" spans="1:3">
+    <row r="725" spans="1:3">
       <c r="A725">
         <v>824</v>
       </c>
@@ -14349,7 +14352,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="726" hidden="1" spans="1:3">
+    <row r="726" spans="1:3">
       <c r="A726">
         <v>825</v>
       </c>
@@ -14360,7 +14363,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="727" hidden="1" spans="1:3">
+    <row r="727" spans="1:3">
       <c r="A727">
         <v>826</v>
       </c>
@@ -14371,7 +14374,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="728" hidden="1" spans="1:3">
+    <row r="728" spans="1:3">
       <c r="A728">
         <v>827</v>
       </c>
@@ -14382,7 +14385,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="729" hidden="1" spans="1:3">
+    <row r="729" spans="1:3">
       <c r="A729">
         <v>828</v>
       </c>
@@ -14393,7 +14396,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="730" hidden="1" spans="1:3">
+    <row r="730" spans="1:3">
       <c r="A730">
         <v>829</v>
       </c>
@@ -14404,7 +14407,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="731" hidden="1" spans="1:3">
+    <row r="731" spans="1:3">
       <c r="A731">
         <v>830</v>
       </c>
@@ -14415,7 +14418,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="732" hidden="1" spans="1:3">
+    <row r="732" spans="1:3">
       <c r="A732">
         <v>831</v>
       </c>
@@ -14426,7 +14429,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="733" hidden="1" spans="1:3">
+    <row r="733" spans="1:3">
       <c r="A733">
         <v>832</v>
       </c>
@@ -14437,7 +14440,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="734" hidden="1" spans="1:3">
+    <row r="734" spans="1:3">
       <c r="A734">
         <v>833</v>
       </c>
@@ -14448,7 +14451,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="735" hidden="1" spans="1:3">
+    <row r="735" spans="1:3">
       <c r="A735">
         <v>834</v>
       </c>
@@ -14459,7 +14462,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="736" hidden="1" spans="1:3">
+    <row r="736" spans="1:3">
       <c r="A736">
         <v>835</v>
       </c>
@@ -14470,7 +14473,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="737" hidden="1" spans="1:3">
+    <row r="737" spans="1:3">
       <c r="A737">
         <v>836</v>
       </c>
@@ -14481,7 +14484,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="738" hidden="1" spans="1:3">
+    <row r="738" spans="1:3">
       <c r="A738">
         <v>837</v>
       </c>
@@ -14492,7 +14495,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="739" hidden="1" spans="1:3">
+    <row r="739" spans="1:3">
       <c r="A739">
         <v>838</v>
       </c>
@@ -14503,7 +14506,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="740" hidden="1" spans="1:3">
+    <row r="740" spans="1:3">
       <c r="A740">
         <v>839</v>
       </c>
@@ -14514,7 +14517,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="741" hidden="1" spans="1:3">
+    <row r="741" spans="1:3">
       <c r="A741">
         <v>840</v>
       </c>
@@ -14525,7 +14528,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="742" hidden="1" spans="1:3">
+    <row r="742" spans="1:3">
       <c r="A742">
         <v>841</v>
       </c>
@@ -14536,7 +14539,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="743" hidden="1" spans="1:3">
+    <row r="743" spans="1:3">
       <c r="A743">
         <v>842</v>
       </c>
@@ -14547,7 +14550,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="744" hidden="1" spans="1:3">
+    <row r="744" spans="1:3">
       <c r="A744">
         <v>843</v>
       </c>
@@ -14558,7 +14561,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="745" hidden="1" spans="1:3">
+    <row r="745" spans="1:3">
       <c r="A745">
         <v>844</v>
       </c>
@@ -14569,7 +14572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="746" hidden="1" spans="1:3">
+    <row r="746" spans="1:3">
       <c r="A746">
         <v>845</v>
       </c>
@@ -14580,7 +14583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" hidden="1" spans="1:3">
+    <row r="747" spans="1:3">
       <c r="A747">
         <v>846</v>
       </c>
@@ -14591,7 +14594,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="748" hidden="1" spans="1:3">
+    <row r="748" spans="1:3">
       <c r="A748">
         <v>847</v>
       </c>
@@ -14602,7 +14605,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="749" hidden="1" spans="1:3">
+    <row r="749" spans="1:3">
       <c r="A749">
         <v>848</v>
       </c>
@@ -14613,7 +14616,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="750" hidden="1" spans="1:3">
+    <row r="750" spans="1:3">
       <c r="A750">
         <v>849</v>
       </c>
@@ -14624,7 +14627,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="751" hidden="1" spans="1:3">
+    <row r="751" spans="1:3">
       <c r="A751">
         <v>850</v>
       </c>
@@ -14635,7 +14638,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="752" hidden="1" spans="1:3">
+    <row r="752" spans="1:3">
       <c r="A752">
         <v>851</v>
       </c>
@@ -14666,7 +14669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="754" hidden="1" spans="1:3">
+    <row r="754" spans="1:3">
       <c r="A754">
         <v>853</v>
       </c>
@@ -14677,7 +14680,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="755" hidden="1" spans="1:3">
+    <row r="755" spans="1:3">
       <c r="A755">
         <v>854</v>
       </c>
@@ -14688,7 +14691,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="756" hidden="1" spans="1:3">
+    <row r="756" spans="1:3">
       <c r="A756">
         <v>855</v>
       </c>
@@ -14699,7 +14702,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="757" hidden="1" spans="1:3">
+    <row r="757" spans="1:3">
       <c r="A757">
         <v>856</v>
       </c>
@@ -14710,7 +14713,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="758" hidden="1" spans="1:3">
+    <row r="758" spans="1:3">
       <c r="A758">
         <v>857</v>
       </c>
@@ -14721,7 +14724,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="759" hidden="1" spans="1:3">
+    <row r="759" spans="1:3">
       <c r="A759">
         <v>858</v>
       </c>
@@ -14732,7 +14735,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="760" hidden="1" spans="1:3">
+    <row r="760" spans="1:3">
       <c r="A760">
         <v>859</v>
       </c>
@@ -14743,7 +14746,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="761" hidden="1" spans="1:3">
+    <row r="761" spans="1:3">
       <c r="A761">
         <v>860</v>
       </c>
@@ -14754,7 +14757,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="762" hidden="1" spans="1:3">
+    <row r="762" spans="1:3">
       <c r="A762">
         <v>861</v>
       </c>
@@ -14765,7 +14768,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="763" hidden="1" spans="1:3">
+    <row r="763" spans="1:3">
       <c r="A763">
         <v>862</v>
       </c>
@@ -14776,7 +14779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="764" hidden="1" spans="1:3">
+    <row r="764" spans="1:3">
       <c r="A764">
         <v>863</v>
       </c>
@@ -14787,7 +14790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" hidden="1" spans="1:3">
+    <row r="765" spans="1:3">
       <c r="A765">
         <v>864</v>
       </c>
@@ -14798,7 +14801,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="766" hidden="1" spans="1:3">
+    <row r="766" spans="1:3">
       <c r="A766">
         <v>865</v>
       </c>
@@ -14809,7 +14812,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="767" hidden="1" spans="1:3">
+    <row r="767" spans="1:3">
       <c r="A767">
         <v>866</v>
       </c>
@@ -14820,7 +14823,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="768" hidden="1" spans="1:3">
+    <row r="768" spans="1:3">
       <c r="A768">
         <v>867</v>
       </c>
@@ -14831,7 +14834,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="769" hidden="1" spans="1:3">
+    <row r="769" spans="1:3">
       <c r="A769">
         <v>868</v>
       </c>
@@ -14842,7 +14845,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="770" hidden="1" spans="1:3">
+    <row r="770" spans="1:3">
       <c r="A770">
         <v>869</v>
       </c>
@@ -14853,7 +14856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="771" hidden="1" spans="1:3">
+    <row r="771" spans="1:3">
       <c r="A771">
         <v>870</v>
       </c>
@@ -14864,7 +14867,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="772" hidden="1" spans="1:3">
+    <row r="772" spans="1:3">
       <c r="A772">
         <v>871</v>
       </c>
@@ -14875,7 +14878,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="773" hidden="1" spans="1:3">
+    <row r="773" spans="1:3">
       <c r="A773">
         <v>872</v>
       </c>
@@ -14886,7 +14889,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="774" hidden="1" spans="1:3">
+    <row r="774" spans="1:3">
       <c r="A774">
         <v>873</v>
       </c>
@@ -14897,7 +14900,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="775" hidden="1" spans="1:3">
+    <row r="775" spans="1:3">
       <c r="A775">
         <v>874</v>
       </c>
@@ -14908,7 +14911,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="776" hidden="1" spans="1:3">
+    <row r="776" spans="1:3">
       <c r="A776">
         <v>875</v>
       </c>
@@ -14919,7 +14922,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="777" hidden="1" spans="1:3">
+    <row r="777" spans="1:3">
       <c r="A777">
         <v>876</v>
       </c>
@@ -14930,7 +14933,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="778" hidden="1" spans="1:3">
+    <row r="778" spans="1:3">
       <c r="A778">
         <v>877</v>
       </c>
@@ -14941,7 +14944,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="779" hidden="1" spans="1:3">
+    <row r="779" spans="1:3">
       <c r="A779">
         <v>878</v>
       </c>
@@ -14952,7 +14955,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="780" hidden="1" spans="1:3">
+    <row r="780" spans="1:3">
       <c r="A780">
         <v>879</v>
       </c>
@@ -14963,7 +14966,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="781" hidden="1" spans="1:3">
+    <row r="781" spans="1:3">
       <c r="A781">
         <v>880</v>
       </c>
@@ -14974,7 +14977,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="782" hidden="1" spans="1:3">
+    <row r="782" spans="1:3">
       <c r="A782">
         <v>881</v>
       </c>
@@ -14985,7 +14988,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="783" hidden="1" spans="1:3">
+    <row r="783" spans="1:3">
       <c r="A783">
         <v>882</v>
       </c>
@@ -14996,7 +14999,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="784" hidden="1" spans="1:3">
+    <row r="784" spans="1:3">
       <c r="A784">
         <v>883</v>
       </c>
@@ -15007,7 +15010,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="785" hidden="1" spans="1:3">
+    <row r="785" spans="1:3">
       <c r="A785">
         <v>884</v>
       </c>
@@ -15018,7 +15021,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="786" hidden="1" spans="1:3">
+    <row r="786" spans="1:3">
       <c r="A786">
         <v>885</v>
       </c>
@@ -15029,7 +15032,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="787" hidden="1" spans="1:3">
+    <row r="787" spans="1:3">
       <c r="A787">
         <v>886</v>
       </c>
@@ -15040,7 +15043,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="788" hidden="1" spans="1:3">
+    <row r="788" spans="1:3">
       <c r="A788">
         <v>887</v>
       </c>
@@ -15051,7 +15054,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="789" hidden="1" spans="1:3">
+    <row r="789" spans="1:3">
       <c r="A789">
         <v>888</v>
       </c>
@@ -15062,7 +15065,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="790" hidden="1" spans="1:3">
+    <row r="790" spans="1:3">
       <c r="A790">
         <v>889</v>
       </c>
@@ -15073,7 +15076,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="791" hidden="1" spans="1:3">
+    <row r="791" spans="1:3">
       <c r="A791">
         <v>890</v>
       </c>
@@ -15084,7 +15087,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="792" hidden="1" spans="1:3">
+    <row r="792" spans="1:3">
       <c r="A792">
         <v>891</v>
       </c>
@@ -15095,7 +15098,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="793" hidden="1" spans="1:3">
+    <row r="793" spans="1:3">
       <c r="A793">
         <v>892</v>
       </c>
@@ -15106,7 +15109,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="794" hidden="1" spans="1:3">
+    <row r="794" spans="1:3">
       <c r="A794">
         <v>893</v>
       </c>
@@ -15117,7 +15120,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="795" hidden="1" spans="1:3">
+    <row r="795" spans="1:3">
       <c r="A795">
         <v>894</v>
       </c>
@@ -15128,7 +15131,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="796" hidden="1" spans="1:3">
+    <row r="796" spans="1:3">
       <c r="A796">
         <v>895</v>
       </c>
@@ -15139,7 +15142,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="797" hidden="1" spans="1:3">
+    <row r="797" spans="1:3">
       <c r="A797">
         <v>896</v>
       </c>
@@ -15150,7 +15153,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="798" hidden="1" spans="1:3">
+    <row r="798" spans="1:3">
       <c r="A798">
         <v>897</v>
       </c>
@@ -15161,7 +15164,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="799" hidden="1" spans="1:3">
+    <row r="799" spans="1:3">
       <c r="A799">
         <v>898</v>
       </c>
@@ -15172,7 +15175,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="800" hidden="1" spans="1:3">
+    <row r="800" spans="1:3">
       <c r="A800">
         <v>899</v>
       </c>
@@ -15183,7 +15186,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="801" hidden="1" spans="1:3">
+    <row r="801" spans="1:3">
       <c r="A801">
         <v>900</v>
       </c>
@@ -15194,7 +15197,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="802" hidden="1" spans="1:3">
+    <row r="802" spans="1:3">
       <c r="A802">
         <v>901</v>
       </c>
@@ -15205,7 +15208,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="803" hidden="1" spans="1:3">
+    <row r="803" spans="1:3">
       <c r="A803">
         <v>902</v>
       </c>
@@ -15216,7 +15219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="804" hidden="1" spans="1:3">
+    <row r="804" spans="1:3">
       <c r="A804">
         <v>903</v>
       </c>
@@ -15227,7 +15230,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="805" hidden="1" spans="1:3">
+    <row r="805" spans="1:3">
       <c r="A805">
         <v>904</v>
       </c>
@@ -15238,7 +15241,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="806" hidden="1" spans="1:3">
+    <row r="806" spans="1:3">
       <c r="A806">
         <v>905</v>
       </c>
@@ -15249,7 +15252,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="807" hidden="1" spans="1:3">
+    <row r="807" spans="1:3">
       <c r="A807">
         <v>906</v>
       </c>
@@ -15260,7 +15263,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="808" hidden="1" spans="1:3">
+    <row r="808" spans="1:3">
       <c r="A808">
         <v>907</v>
       </c>
@@ -15271,7 +15274,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="809" hidden="1" spans="1:3">
+    <row r="809" spans="1:3">
       <c r="A809">
         <v>908</v>
       </c>
@@ -15282,7 +15285,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="810" hidden="1" spans="1:3">
+    <row r="810" spans="1:3">
       <c r="A810">
         <v>909</v>
       </c>
@@ -15293,7 +15296,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="811" hidden="1" spans="1:3">
+    <row r="811" spans="1:3">
       <c r="A811">
         <v>910</v>
       </c>
@@ -15304,7 +15307,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="812" hidden="1" spans="1:3">
+    <row r="812" spans="1:3">
       <c r="A812">
         <v>911</v>
       </c>
@@ -15315,7 +15318,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="813" hidden="1" spans="1:3">
+    <row r="813" spans="1:3">
       <c r="A813">
         <v>912</v>
       </c>
@@ -15326,7 +15329,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="814" hidden="1" spans="1:3">
+    <row r="814" spans="1:3">
       <c r="A814">
         <v>913</v>
       </c>
@@ -15337,7 +15340,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="815" hidden="1" spans="1:3">
+    <row r="815" spans="1:3">
       <c r="A815">
         <v>914</v>
       </c>
@@ -15348,7 +15351,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="816" hidden="1" spans="1:3">
+    <row r="816" spans="1:3">
       <c r="A816">
         <v>915</v>
       </c>
@@ -15359,7 +15362,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="817" hidden="1" spans="1:3">
+    <row r="817" spans="1:3">
       <c r="A817">
         <v>916</v>
       </c>
@@ -15370,7 +15373,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="818" hidden="1" spans="1:3">
+    <row r="818" spans="1:3">
       <c r="A818">
         <v>917</v>
       </c>
@@ -15381,7 +15384,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="819" hidden="1" spans="1:3">
+    <row r="819" spans="1:3">
       <c r="A819">
         <v>918</v>
       </c>
@@ -15392,7 +15395,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="820" hidden="1" spans="1:3">
+    <row r="820" spans="1:3">
       <c r="A820">
         <v>919</v>
       </c>
@@ -15403,7 +15406,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="821" hidden="1" spans="1:3">
+    <row r="821" spans="1:3">
       <c r="A821">
         <v>920</v>
       </c>
@@ -15414,7 +15417,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="822" hidden="1" spans="1:3">
+    <row r="822" spans="1:3">
       <c r="A822">
         <v>921</v>
       </c>
@@ -15425,7 +15428,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="823" hidden="1" spans="1:3">
+    <row r="823" spans="1:3">
       <c r="A823">
         <v>922</v>
       </c>
@@ -15436,7 +15439,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="824" hidden="1" spans="1:3">
+    <row r="824" spans="1:3">
       <c r="A824">
         <v>923</v>
       </c>
@@ -15447,7 +15450,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="825" hidden="1" spans="1:3">
+    <row r="825" spans="1:3">
       <c r="A825">
         <v>924</v>
       </c>
@@ -15458,7 +15461,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="826" hidden="1" spans="1:3">
+    <row r="826" spans="1:3">
       <c r="A826">
         <v>925</v>
       </c>
@@ -15469,7 +15472,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="827" hidden="1" spans="1:3">
+    <row r="827" spans="1:3">
       <c r="A827">
         <v>926</v>
       </c>
@@ -15480,7 +15483,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="828" hidden="1" spans="1:3">
+    <row r="828" spans="1:3">
       <c r="A828">
         <v>927</v>
       </c>
@@ -15491,7 +15494,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="829" hidden="1" spans="1:3">
+    <row r="829" spans="1:3">
       <c r="A829">
         <v>928</v>
       </c>
@@ -15502,7 +15505,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="830" hidden="1" spans="1:3">
+    <row r="830" spans="1:3">
       <c r="A830">
         <v>929</v>
       </c>
@@ -15513,7 +15516,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="831" hidden="1" spans="1:3">
+    <row r="831" spans="1:3">
       <c r="A831">
         <v>930</v>
       </c>
@@ -15524,7 +15527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="832" hidden="1" spans="1:3">
+    <row r="832" spans="1:3">
       <c r="A832">
         <v>931</v>
       </c>
@@ -15535,7 +15538,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="833" hidden="1" spans="1:3">
+    <row r="833" spans="1:3">
       <c r="A833">
         <v>932</v>
       </c>
@@ -15546,7 +15549,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="834" hidden="1" spans="1:3">
+    <row r="834" spans="1:3">
       <c r="A834">
         <v>933</v>
       </c>
@@ -15557,7 +15560,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="835" hidden="1" spans="1:3">
+    <row r="835" spans="1:3">
       <c r="A835">
         <v>934</v>
       </c>
@@ -15568,7 +15571,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="836" hidden="1" spans="1:3">
+    <row r="836" spans="1:3">
       <c r="A836">
         <v>935</v>
       </c>
@@ -15579,7 +15582,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="837" hidden="1" spans="1:3">
+    <row r="837" spans="1:3">
       <c r="A837">
         <v>936</v>
       </c>
@@ -15590,7 +15593,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="838" hidden="1" spans="1:3">
+    <row r="838" spans="1:3">
       <c r="A838">
         <v>937</v>
       </c>
@@ -15601,7 +15604,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="839" hidden="1" spans="1:3">
+    <row r="839" spans="1:3">
       <c r="A839">
         <v>938</v>
       </c>
@@ -15612,7 +15615,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="840" hidden="1" spans="1:3">
+    <row r="840" spans="1:3">
       <c r="A840">
         <v>939</v>
       </c>
@@ -15623,7 +15626,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="841" hidden="1" spans="1:3">
+    <row r="841" spans="1:3">
       <c r="A841">
         <v>940</v>
       </c>
@@ -15634,7 +15637,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="842" hidden="1" spans="1:3">
+    <row r="842" spans="1:3">
       <c r="A842">
         <v>941</v>
       </c>
@@ -15645,7 +15648,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="843" hidden="1" spans="1:3">
+    <row r="843" spans="1:3">
       <c r="A843">
         <v>942</v>
       </c>
@@ -15656,7 +15659,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="844" hidden="1" spans="1:3">
+    <row r="844" spans="1:3">
       <c r="A844">
         <v>943</v>
       </c>
@@ -15667,7 +15670,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="845" hidden="1" spans="1:3">
+    <row r="845" spans="1:3">
       <c r="A845">
         <v>944</v>
       </c>
@@ -15678,7 +15681,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="846" hidden="1" spans="1:3">
+    <row r="846" spans="1:3">
       <c r="A846">
         <v>945</v>
       </c>
@@ -15689,7 +15692,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="847" hidden="1" spans="1:3">
+    <row r="847" spans="1:3">
       <c r="A847">
         <v>946</v>
       </c>
@@ -15700,7 +15703,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="848" hidden="1" spans="1:3">
+    <row r="848" spans="1:3">
       <c r="A848">
         <v>947</v>
       </c>
@@ -15711,7 +15714,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="849" hidden="1" spans="1:3">
+    <row r="849" spans="1:3">
       <c r="A849">
         <v>948</v>
       </c>
@@ -15722,7 +15725,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="850" hidden="1" spans="1:3">
+    <row r="850" spans="1:3">
       <c r="A850">
         <v>949</v>
       </c>
@@ -15733,7 +15736,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="851" hidden="1" spans="1:3">
+    <row r="851" spans="1:3">
       <c r="A851">
         <v>950</v>
       </c>
@@ -15744,7 +15747,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="852" hidden="1" spans="1:3">
+    <row r="852" spans="1:3">
       <c r="A852">
         <v>951</v>
       </c>
@@ -15755,7 +15758,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="853" hidden="1" spans="1:3">
+    <row r="853" spans="1:3">
       <c r="A853">
         <v>952</v>
       </c>
@@ -15766,7 +15769,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="854" hidden="1" spans="1:3">
+    <row r="854" spans="1:3">
       <c r="A854">
         <v>953</v>
       </c>
@@ -15777,7 +15780,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="855" hidden="1" spans="1:3">
+    <row r="855" spans="1:3">
       <c r="A855">
         <v>954</v>
       </c>
@@ -15788,7 +15791,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="856" hidden="1" spans="1:3">
+    <row r="856" spans="1:3">
       <c r="A856">
         <v>955</v>
       </c>
@@ -15799,7 +15802,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="857" hidden="1" spans="1:3">
+    <row r="857" spans="1:3">
       <c r="A857">
         <v>956</v>
       </c>
@@ -15810,7 +15813,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="858" hidden="1" spans="1:3">
+    <row r="858" spans="1:3">
       <c r="A858">
         <v>957</v>
       </c>
@@ -15821,7 +15824,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="859" hidden="1" spans="1:3">
+    <row r="859" spans="1:3">
       <c r="A859">
         <v>958</v>
       </c>
@@ -15832,7 +15835,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="860" hidden="1" spans="1:3">
+    <row r="860" spans="1:3">
       <c r="A860">
         <v>959</v>
       </c>
@@ -15843,7 +15846,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="861" hidden="1" spans="1:3">
+    <row r="861" spans="1:3">
       <c r="A861">
         <v>960</v>
       </c>
@@ -15854,7 +15857,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="862" hidden="1" spans="1:3">
+    <row r="862" spans="1:3">
       <c r="A862">
         <v>961</v>
       </c>
@@ -15865,7 +15868,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="863" hidden="1" spans="1:3">
+    <row r="863" spans="1:3">
       <c r="A863">
         <v>962</v>
       </c>
@@ -15876,7 +15879,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="864" hidden="1" spans="1:3">
+    <row r="864" spans="1:3">
       <c r="A864">
         <v>963</v>
       </c>
@@ -15887,7 +15890,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="865" hidden="1" spans="1:3">
+    <row r="865" spans="1:3">
       <c r="A865">
         <v>964</v>
       </c>
@@ -15898,7 +15901,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="866" hidden="1" spans="1:3">
+    <row r="866" spans="1:3">
       <c r="A866">
         <v>965</v>
       </c>
@@ -15909,7 +15912,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="867" hidden="1" spans="1:3">
+    <row r="867" spans="1:3">
       <c r="A867">
         <v>966</v>
       </c>
@@ -15920,7 +15923,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="868" hidden="1" spans="1:3">
+    <row r="868" spans="1:3">
       <c r="A868">
         <v>967</v>
       </c>
@@ -15931,7 +15934,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="869" hidden="1" spans="1:3">
+    <row r="869" spans="1:3">
       <c r="A869">
         <v>968</v>
       </c>
@@ -15942,7 +15945,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="870" hidden="1" spans="1:3">
+    <row r="870" spans="1:3">
       <c r="A870">
         <v>969</v>
       </c>
@@ -15953,7 +15956,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="871" hidden="1" spans="1:3">
+    <row r="871" spans="1:3">
       <c r="A871">
         <v>970</v>
       </c>
@@ -15964,7 +15967,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="872" hidden="1" spans="1:3">
+    <row r="872" spans="1:3">
       <c r="A872">
         <v>971</v>
       </c>
@@ -15975,7 +15978,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="873" hidden="1" spans="1:3">
+    <row r="873" spans="1:3">
       <c r="A873">
         <v>972</v>
       </c>
@@ -15986,7 +15989,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="874" hidden="1" spans="1:3">
+    <row r="874" spans="1:3">
       <c r="A874">
         <v>973</v>
       </c>
@@ -16017,7 +16020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="876" hidden="1" spans="1:3">
+    <row r="876" spans="1:3">
       <c r="A876">
         <v>975</v>
       </c>
@@ -16028,7 +16031,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="877" hidden="1" spans="1:3">
+    <row r="877" spans="1:3">
       <c r="A877">
         <v>976</v>
       </c>
@@ -16039,7 +16042,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="878" hidden="1" spans="1:3">
+    <row r="878" spans="1:3">
       <c r="A878">
         <v>977</v>
       </c>
@@ -16050,7 +16053,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="879" hidden="1" spans="1:3">
+    <row r="879" spans="1:3">
       <c r="A879">
         <v>978</v>
       </c>
@@ -16061,7 +16064,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="880" hidden="1" spans="1:3">
+    <row r="880" spans="1:3">
       <c r="A880">
         <v>979</v>
       </c>
@@ -16072,7 +16075,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="881" hidden="1" spans="1:3">
+    <row r="881" spans="1:3">
       <c r="A881">
         <v>980</v>
       </c>
@@ -16083,7 +16086,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="882" hidden="1" spans="1:3">
+    <row r="882" spans="1:3">
       <c r="A882">
         <v>981</v>
       </c>
@@ -16094,7 +16097,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="883" hidden="1" spans="1:3">
+    <row r="883" spans="1:3">
       <c r="A883">
         <v>982</v>
       </c>
@@ -16105,7 +16108,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="884" hidden="1" spans="1:3">
+    <row r="884" spans="1:3">
       <c r="A884">
         <v>983</v>
       </c>
@@ -16116,7 +16119,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="885" hidden="1" spans="1:3">
+    <row r="885" spans="1:3">
       <c r="A885">
         <v>984</v>
       </c>
@@ -16127,7 +16130,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="886" hidden="1" spans="1:3">
+    <row r="886" spans="1:3">
       <c r="A886">
         <v>985</v>
       </c>
@@ -16138,7 +16141,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="887" hidden="1" spans="1:3">
+    <row r="887" spans="1:3">
       <c r="A887">
         <v>986</v>
       </c>
@@ -16149,7 +16152,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="888" hidden="1" spans="1:3">
+    <row r="888" spans="1:3">
       <c r="A888">
         <v>987</v>
       </c>
@@ -16160,7 +16163,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="889" hidden="1" spans="1:3">
+    <row r="889" spans="1:3">
       <c r="A889">
         <v>988</v>
       </c>
@@ -16171,7 +16174,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="890" hidden="1" spans="1:3">
+    <row r="890" spans="1:3">
       <c r="A890">
         <v>989</v>
       </c>
@@ -16182,7 +16185,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="891" hidden="1" spans="1:3">
+    <row r="891" spans="1:3">
       <c r="A891">
         <v>990</v>
       </c>
@@ -16193,7 +16196,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="892" hidden="1" spans="1:3">
+    <row r="892" spans="1:3">
       <c r="A892">
         <v>991</v>
       </c>
@@ -16204,7 +16207,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="893" hidden="1" spans="1:3">
+    <row r="893" spans="1:3">
       <c r="A893">
         <v>992</v>
       </c>
@@ -16215,7 +16218,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="894" hidden="1" spans="1:3">
+    <row r="894" spans="1:3">
       <c r="A894">
         <v>993</v>
       </c>
@@ -16226,7 +16229,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="895" hidden="1" spans="1:3">
+    <row r="895" spans="1:3">
       <c r="A895">
         <v>994</v>
       </c>
@@ -16237,7 +16240,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="896" hidden="1" spans="1:3">
+    <row r="896" spans="1:3">
       <c r="A896">
         <v>995</v>
       </c>
@@ -16248,7 +16251,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="897" hidden="1" spans="1:3">
+    <row r="897" spans="1:3">
       <c r="A897">
         <v>996</v>
       </c>
@@ -16259,7 +16262,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="898" hidden="1" spans="1:3">
+    <row r="898" spans="1:3">
       <c r="A898">
         <v>997</v>
       </c>
@@ -16270,7 +16273,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="899" hidden="1" spans="1:3">
+    <row r="899" spans="1:3">
       <c r="A899">
         <v>998</v>
       </c>
@@ -16281,7 +16284,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="900" hidden="1" spans="1:3">
+    <row r="900" spans="1:3">
       <c r="A900">
         <v>999</v>
       </c>
@@ -16292,7 +16295,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="901" hidden="1" spans="1:3">
+    <row r="901" spans="1:3">
       <c r="A901">
         <v>1000</v>
       </c>
@@ -16303,7 +16306,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="902" hidden="1" spans="1:3">
+    <row r="902" spans="1:3">
       <c r="A902">
         <v>1001</v>
       </c>
@@ -16314,7 +16317,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="903" hidden="1" spans="1:3">
+    <row r="903" spans="1:3">
       <c r="A903">
         <v>1002</v>
       </c>
@@ -16325,7 +16328,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="904" hidden="1" spans="1:3">
+    <row r="904" spans="1:3">
       <c r="A904">
         <v>1003</v>
       </c>
@@ -16336,7 +16339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="905" hidden="1" spans="1:3">
+    <row r="905" spans="1:3">
       <c r="A905">
         <v>1004</v>
       </c>
@@ -16347,7 +16350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="906" hidden="1" spans="1:3">
+    <row r="906" spans="1:3">
       <c r="A906">
         <v>1005</v>
       </c>
@@ -16358,7 +16361,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="907" hidden="1" spans="1:3">
+    <row r="907" spans="1:3">
       <c r="A907">
         <v>1006</v>
       </c>
@@ -16369,7 +16372,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="908" hidden="1" spans="1:3">
+    <row r="908" spans="1:3">
       <c r="A908">
         <v>1007</v>
       </c>
@@ -16380,7 +16383,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="909" hidden="1" spans="1:3">
+    <row r="909" spans="1:3">
       <c r="A909">
         <v>1008</v>
       </c>
@@ -16391,7 +16394,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="910" hidden="1" spans="1:3">
+    <row r="910" spans="1:3">
       <c r="A910">
         <v>1009</v>
       </c>
@@ -16402,7 +16405,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="911" hidden="1" spans="1:3">
+    <row r="911" spans="1:3">
       <c r="A911">
         <v>1010</v>
       </c>
@@ -16413,7 +16416,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="912" hidden="1" spans="1:3">
+    <row r="912" spans="1:3">
       <c r="A912">
         <v>1011</v>
       </c>
@@ -16424,7 +16427,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="913" hidden="1" spans="1:3">
+    <row r="913" spans="1:3">
       <c r="A913">
         <v>1012</v>
       </c>
@@ -16435,7 +16438,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="914" hidden="1" spans="1:3">
+    <row r="914" spans="1:3">
       <c r="A914">
         <v>1013</v>
       </c>
@@ -16446,238 +16449,30 @@
         <v>969</v>
       </c>
     </row>
+    <row r="915" spans="1:3">
+      <c r="A915">
+        <v>1014</v>
+      </c>
+      <c r="B915" t="s">
+        <v>434</v>
+      </c>
+      <c r="C915" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3">
+      <c r="A916">
+        <v>1015</v>
+      </c>
+      <c r="B916" t="s">
+        <v>344</v>
+      </c>
+      <c r="C916" t="s">
+        <v>970</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G914" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="100"/>
-        <filter val="200"/>
-        <filter val="1"/>
-        <filter val="101"/>
-        <filter val="201"/>
-        <filter val="2"/>
-        <filter val="102"/>
-        <filter val="202"/>
-        <filter val="3"/>
-        <filter val="103"/>
-        <filter val="203"/>
-        <filter val="4"/>
-        <filter val="104"/>
-        <filter val="204"/>
-        <filter val="5"/>
-        <filter val="105"/>
-        <filter val="205"/>
-        <filter val="6"/>
-        <filter val="106"/>
-        <filter val="206"/>
-        <filter val="7"/>
-        <filter val="107"/>
-        <filter val="207"/>
-        <filter val="8"/>
-        <filter val="108"/>
-        <filter val="208"/>
-        <filter val="9"/>
-        <filter val="109"/>
-        <filter val="209"/>
-        <filter val="10"/>
-        <filter val="110"/>
-        <filter val="210"/>
-        <filter val="11"/>
-        <filter val="111"/>
-        <filter val="211"/>
-        <filter val="12"/>
-        <filter val="112"/>
-        <filter val="212"/>
-        <filter val="13"/>
-        <filter val="113"/>
-        <filter val="213"/>
-        <filter val="14"/>
-        <filter val="114"/>
-        <filter val="214"/>
-        <filter val="15"/>
-        <filter val="115"/>
-        <filter val="215"/>
-        <filter val="16"/>
-        <filter val="116"/>
-        <filter val="216"/>
-        <filter val="17"/>
-        <filter val="117"/>
-        <filter val="217"/>
-        <filter val="18"/>
-        <filter val="118"/>
-        <filter val="218"/>
-        <filter val="19"/>
-        <filter val="119"/>
-        <filter val="219"/>
-        <filter val="20"/>
-        <filter val="120"/>
-        <filter val="220"/>
-        <filter val="21"/>
-        <filter val="121"/>
-        <filter val="221"/>
-        <filter val="22"/>
-        <filter val="122"/>
-        <filter val="222"/>
-        <filter val="23"/>
-        <filter val="123"/>
-        <filter val="223"/>
-        <filter val="24"/>
-        <filter val="124"/>
-        <filter val="224"/>
-        <filter val="25"/>
-        <filter val="125"/>
-        <filter val="225"/>
-        <filter val="26"/>
-        <filter val="126"/>
-        <filter val="226"/>
-        <filter val="27"/>
-        <filter val="127"/>
-        <filter val="227"/>
-        <filter val="28"/>
-        <filter val="128"/>
-        <filter val="228"/>
-        <filter val="29"/>
-        <filter val="129"/>
-        <filter val="229"/>
-        <filter val="30"/>
-        <filter val="130"/>
-        <filter val="230"/>
-        <filter val="31"/>
-        <filter val="131"/>
-        <filter val="32"/>
-        <filter val="132"/>
-        <filter val="33"/>
-        <filter val="133"/>
-        <filter val="34"/>
-        <filter val="134"/>
-        <filter val="35"/>
-        <filter val="135"/>
-        <filter val="36"/>
-        <filter val="136"/>
-        <filter val="37"/>
-        <filter val="137"/>
-        <filter val="38"/>
-        <filter val="138"/>
-        <filter val="39"/>
-        <filter val="139"/>
-        <filter val="40"/>
-        <filter val="140"/>
-        <filter val="41"/>
-        <filter val="141"/>
-        <filter val="42"/>
-        <filter val="142"/>
-        <filter val="43"/>
-        <filter val="143"/>
-        <filter val="44"/>
-        <filter val="144"/>
-        <filter val="45"/>
-        <filter val="145"/>
-        <filter val="46"/>
-        <filter val="146"/>
-        <filter val="47"/>
-        <filter val="147"/>
-        <filter val="48"/>
-        <filter val="148"/>
-        <filter val="49"/>
-        <filter val="149"/>
-        <filter val="50"/>
-        <filter val="150"/>
-        <filter val="51"/>
-        <filter val="151"/>
-        <filter val="52"/>
-        <filter val="152"/>
-        <filter val="53"/>
-        <filter val="153"/>
-        <filter val="54"/>
-        <filter val="154"/>
-        <filter val="55"/>
-        <filter val="155"/>
-        <filter val="56"/>
-        <filter val="156"/>
-        <filter val="57"/>
-        <filter val="157"/>
-        <filter val="58"/>
-        <filter val="158"/>
-        <filter val="59"/>
-        <filter val="159"/>
-        <filter val="60"/>
-        <filter val="160"/>
-        <filter val="61"/>
-        <filter val="161"/>
-        <filter val="62"/>
-        <filter val="63"/>
-        <filter val="64"/>
-        <filter val="65"/>
-        <filter val="66"/>
-        <filter val="166"/>
-        <filter val="67"/>
-        <filter val="167"/>
-        <filter val="68"/>
-        <filter val="168"/>
-        <filter val="69"/>
-        <filter val="169"/>
-        <filter val="70"/>
-        <filter val="170"/>
-        <filter val="71"/>
-        <filter val="171"/>
-        <filter val="72"/>
-        <filter val="172"/>
-        <filter val="73"/>
-        <filter val="173"/>
-        <filter val="74"/>
-        <filter val="174"/>
-        <filter val="75"/>
-        <filter val="175"/>
-        <filter val="76"/>
-        <filter val="176"/>
-        <filter val="77"/>
-        <filter val="177"/>
-        <filter val="78"/>
-        <filter val="178"/>
-        <filter val="79"/>
-        <filter val="179"/>
-        <filter val="80"/>
-        <filter val="180"/>
-        <filter val="81"/>
-        <filter val="181"/>
-        <filter val="82"/>
-        <filter val="182"/>
-        <filter val="83"/>
-        <filter val="183"/>
-        <filter val="84"/>
-        <filter val="184"/>
-        <filter val="85"/>
-        <filter val="185"/>
-        <filter val="86"/>
-        <filter val="186"/>
-        <filter val="87"/>
-        <filter val="187"/>
-        <filter val="88"/>
-        <filter val="188"/>
-        <filter val="89"/>
-        <filter val="189"/>
-        <filter val="90"/>
-        <filter val="190"/>
-        <filter val="91"/>
-        <filter val="191"/>
-        <filter val="92"/>
-        <filter val="192"/>
-        <filter val="93"/>
-        <filter val="193"/>
-        <filter val="94"/>
-        <filter val="194"/>
-        <filter val="95"/>
-        <filter val="195"/>
-        <filter val="96"/>
-        <filter val="196"/>
-        <filter val="97"/>
-        <filter val="197"/>
-        <filter val="98"/>
-        <filter val="198"/>
-        <filter val="99"/>
-        <filter val="199"/>
-      </filters>
-    </filterColumn>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G916" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16698,19 +16493,19 @@
   <sheetData>
     <row r="1" ht="27.15" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="2" ht="40.35" hidden="1" customHeight="1" spans="1:5">
@@ -16718,13 +16513,13 @@
         <v>344</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>380</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E2" s="2">
         <v>1239900</v>
@@ -16741,7 +16536,7 @@
         <v>380</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E3" s="2">
         <v>1759000</v>
@@ -16758,7 +16553,7 @@
         <v>380</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E4" s="2">
         <v>1655000</v>
@@ -16775,7 +16570,7 @@
         <v>380</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E5" s="2">
         <v>1879000</v>
@@ -16786,13 +16581,13 @@
         <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E6" s="2">
         <v>1077000</v>
@@ -16809,7 +16604,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E7" s="2">
         <v>1408000</v>
@@ -16820,13 +16615,13 @@
         <v>344</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E8" s="2">
         <v>749900</v>
@@ -16843,7 +16638,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E9" s="2">
         <v>1175000</v>
@@ -16860,7 +16655,7 @@
         <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E10" s="2">
         <v>2149000</v>
@@ -16877,7 +16672,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E11" s="2">
         <v>1660000</v>
@@ -16894,7 +16689,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E12" s="2">
         <v>2020000</v>
@@ -16911,7 +16706,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E13" s="2">
         <v>1859000</v>
@@ -16928,7 +16723,7 @@
         <v>303</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E14" s="2">
         <v>1334900</v>
@@ -16939,13 +16734,13 @@
         <v>176</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E15" s="2">
         <v>3512990</v>
@@ -16962,7 +16757,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E16" s="2">
         <v>2836990</v>
@@ -16979,7 +16774,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E17" s="2">
         <v>1850000</v>
@@ -16996,7 +16791,7 @@
         <v>270</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E18" s="2">
         <v>2749000</v>
@@ -17013,7 +16808,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E19" s="2">
         <v>2179990</v>
@@ -17024,13 +16819,13 @@
         <v>176</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E20" s="2">
         <v>2794990</v>
@@ -17047,7 +16842,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E21" s="2">
         <v>3959990</v>
@@ -17055,7 +16850,7 @@
     </row>
     <row r="22" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -17064,7 +16859,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E22" s="2">
         <v>4499000</v>
@@ -17072,7 +16867,7 @@
     </row>
     <row r="23" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
@@ -17081,7 +16876,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E23" s="2">
         <v>6799000</v>
@@ -17092,13 +16887,13 @@
         <v>344</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E24" s="2">
         <v>778500</v>
@@ -17109,13 +16904,13 @@
         <v>344</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E25" s="2">
         <v>719300</v>
@@ -17126,13 +16921,13 @@
         <v>344</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E26" s="2">
         <v>950900</v>
@@ -17149,7 +16944,7 @@
         <v>380</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E27" s="2">
         <v>1316900</v>
@@ -17160,13 +16955,13 @@
         <v>242</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E28" s="2">
         <v>2769000</v>
@@ -17183,7 +16978,7 @@
         <v>303</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E29" s="2">
         <v>2244900</v>
@@ -17200,7 +16995,7 @@
         <v>259</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E30" s="2">
         <v>1574900</v>
@@ -17217,7 +17012,7 @@
         <v>259</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E31" s="2">
         <v>1434900</v>
@@ -17228,13 +17023,13 @@
         <v>344</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E32" s="2">
         <v>1059000</v>
@@ -17251,7 +17046,7 @@
         <v>259</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E33" s="2">
         <v>3969000</v>
@@ -17268,7 +17063,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E34" s="2">
         <v>1314000</v>
@@ -17279,13 +17074,13 @@
         <v>215</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E35" s="2">
         <v>2149000</v>
@@ -17302,7 +17097,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E36" s="2">
         <v>2599000</v>
@@ -17313,13 +17108,13 @@
         <v>215</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E37" s="2">
         <v>2599000</v>
@@ -17336,7 +17131,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E38" s="2">
         <v>5269000</v>
@@ -17353,7 +17148,7 @@
         <v>303</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E39" s="2">
         <v>2314900</v>
@@ -17364,13 +17159,13 @@
         <v>344</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E40" s="2">
         <v>918900</v>
@@ -17387,7 +17182,7 @@
         <v>259</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E41" s="2">
         <v>2159900</v>
@@ -17404,7 +17199,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E42" s="2">
         <v>1106900</v>
@@ -17421,7 +17216,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E43" s="2">
         <v>1249900</v>
@@ -17438,7 +17233,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E44" s="2">
         <v>2900000</v>
@@ -17449,13 +17244,13 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E45" s="2">
         <v>2439900</v>
@@ -17472,7 +17267,7 @@
         <v>312</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E46" s="2">
         <v>2734900</v>
@@ -17489,7 +17284,7 @@
         <v>312</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E47" s="2">
         <v>1934900</v>
@@ -17506,7 +17301,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E48" s="2">
         <v>2064900</v>
@@ -17523,7 +17318,7 @@
         <v>334</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E49" s="2">
         <v>2849900</v>
@@ -17531,7 +17326,7 @@
     </row>
     <row r="50" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>279</v>
@@ -17540,7 +17335,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E50" s="2">
         <v>1779000</v>
@@ -17548,7 +17343,7 @@
     </row>
     <row r="51" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>273</v>
@@ -17557,7 +17352,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E51" s="2">
         <v>2150000</v>
@@ -17565,7 +17360,7 @@
     </row>
     <row r="52" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>278</v>
@@ -17574,7 +17369,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E52" s="2">
         <v>2129900</v>
@@ -17582,7 +17377,7 @@
     </row>
     <row r="53" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>472</v>
@@ -17591,7 +17386,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E53" s="2">
         <v>2369900</v>
@@ -17608,7 +17403,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E54" s="2">
         <v>1690000</v>
@@ -17625,7 +17420,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E55" s="2">
         <v>2869900</v>
@@ -17636,13 +17431,13 @@
         <v>22</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E56" s="2">
         <v>2569900</v>
@@ -17653,13 +17448,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E57" s="2">
         <v>2839900</v>
@@ -17676,7 +17471,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E58" s="2">
         <v>3969900</v>
@@ -17693,7 +17488,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E59" s="2">
         <v>3069900</v>
@@ -17710,7 +17505,7 @@
         <v>26</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E60" s="2">
         <v>3069900</v>
@@ -17721,13 +17516,13 @@
         <v>22</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E61" s="2">
         <v>2899900</v>
@@ -17735,7 +17530,7 @@
     </row>
     <row r="62" ht="40.35" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>135</v>
@@ -17744,7 +17539,7 @@
         <v>26</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E62" s="2">
         <v>2374000</v>
@@ -17752,7 +17547,7 @@
     </row>
     <row r="63" ht="40.35" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>136</v>
@@ -17761,7 +17556,7 @@
         <v>26</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E63" s="2">
         <v>2411000</v>
@@ -17769,7 +17564,7 @@
     </row>
     <row r="64" ht="40.35" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>137</v>
@@ -17778,7 +17573,7 @@
         <v>26</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E64" s="2">
         <v>2024000</v>
@@ -17795,7 +17590,7 @@
         <v>82</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E65" s="2">
         <v>1124000</v>
@@ -17812,7 +17607,7 @@
         <v>103</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E66" s="2">
         <v>1051000</v>
@@ -17829,7 +17624,7 @@
         <v>534</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E67" s="2">
         <v>1657000</v>
@@ -17846,7 +17641,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E68" s="2">
         <v>1705000</v>
@@ -17863,7 +17658,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E69" s="2">
         <v>1699900</v>
@@ -17880,7 +17675,7 @@
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E70" s="2">
         <v>2489900</v>
@@ -17888,7 +17683,7 @@
     </row>
     <row r="71" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>273</v>
@@ -17897,7 +17692,7 @@
         <v>26</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E71" s="2">
         <v>2959900</v>
@@ -17905,7 +17700,7 @@
     </row>
     <row r="72" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
@@ -17914,7 +17709,7 @@
         <v>26</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E72" s="2">
         <v>1765000</v>
@@ -17931,7 +17726,7 @@
         <v>226</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E73" s="2">
         <v>4409000</v>
@@ -17948,7 +17743,7 @@
         <v>226</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E74" s="2">
         <v>1690000</v>
@@ -17965,7 +17760,7 @@
         <v>85</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E75" s="2">
         <v>950900</v>
@@ -17982,7 +17777,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E76" s="2">
         <v>880900</v>
@@ -17999,7 +17794,7 @@
         <v>82</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E77" s="2">
         <v>953900</v>
@@ -18016,7 +17811,7 @@
         <v>103</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E78" s="2">
         <v>2179000</v>
@@ -18033,7 +17828,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E79" s="2">
         <v>1579000</v>
@@ -18050,7 +17845,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E80" s="2">
         <v>4299000</v>
@@ -18067,7 +17862,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E81" s="2">
         <v>2049000</v>
@@ -18084,7 +17879,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E82" s="2">
         <v>3149000</v>
@@ -18101,7 +17896,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E83" s="2">
         <v>2337000</v>
@@ -18112,13 +17907,13 @@
         <v>457</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E84" s="2">
         <v>2762000</v>
@@ -18135,7 +17930,7 @@
         <v>103</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E85" s="2">
         <v>1618000</v>
@@ -18152,7 +17947,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E86" s="2">
         <v>1301000</v>
@@ -18169,7 +17964,7 @@
         <v>82</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E87" s="2">
         <v>1258000</v>
@@ -18186,7 +17981,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E88" s="2">
         <v>1373000</v>
@@ -18203,7 +17998,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E89" s="2">
         <v>1724000</v>
@@ -18220,7 +18015,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E90" s="2">
         <v>1874000</v>
@@ -18237,7 +18032,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E91" s="2">
         <v>2057000</v>
@@ -18254,7 +18049,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E92" s="2">
         <v>2118900</v>
@@ -18271,7 +18066,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E93" s="2">
         <v>3248000</v>
@@ -18288,7 +18083,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E94" s="2">
         <v>5378000</v>
@@ -18305,7 +18100,7 @@
         <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E95" s="2">
         <v>5806000</v>
@@ -18322,7 +18117,7 @@
         <v>303</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E96" s="2">
         <v>2388000</v>
@@ -18339,7 +18134,7 @@
         <v>303</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E97" s="2">
         <v>2681000</v>
@@ -18356,7 +18151,7 @@
         <v>617</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E98" s="2">
         <v>1385900</v>
@@ -18373,7 +18168,7 @@
         <v>608</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E99" s="2">
         <v>1518000</v>
@@ -18390,7 +18185,7 @@
         <v>82</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E100" s="2">
         <v>3375900</v>
@@ -18407,7 +18202,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E101" s="2">
         <v>2828900</v>
@@ -18424,7 +18219,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E102" s="2">
         <v>4449900</v>
@@ -18441,7 +18236,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E103" s="2">
         <v>1229000</v>
@@ -18458,7 +18253,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E104" s="2">
         <v>2499000</v>
@@ -18466,7 +18261,7 @@
     </row>
     <row r="105" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>595</v>
@@ -18475,7 +18270,7 @@
         <v>596</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E105" s="2">
         <v>1680000</v>
@@ -18483,16 +18278,16 @@
     </row>
     <row r="106" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>596</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E106" s="2">
         <v>1705000</v>
@@ -18500,7 +18295,7 @@
     </row>
     <row r="107" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>39</v>
@@ -18509,7 +18304,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E107" s="2">
         <v>1510000</v>
@@ -18526,7 +18321,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E108" s="2">
         <v>2570000</v>
@@ -18543,7 +18338,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E109" s="2">
         <v>3430000</v>
@@ -18554,13 +18349,13 @@
         <v>54</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E110" s="2">
         <v>2770000</v>
@@ -18577,7 +18372,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E111" s="2">
         <v>1970000</v>
@@ -18588,13 +18383,13 @@
         <v>54</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E112" s="2">
         <v>3250000</v>
@@ -18605,13 +18400,13 @@
         <v>54</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E113" s="2">
         <v>3370000</v>
@@ -18628,7 +18423,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E114" s="2">
         <v>3759900</v>
@@ -18645,7 +18440,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E115" s="2">
         <v>3380000</v>
@@ -18662,7 +18457,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E116" s="2">
         <v>3810000</v>
@@ -18679,7 +18474,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E117" s="2">
         <v>4910000</v>
@@ -18696,7 +18491,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E118" s="2">
         <v>4550000</v>
@@ -18713,7 +18508,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E119" s="2">
         <v>2080000</v>
@@ -18730,7 +18525,7 @@
         <v>8</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E120" s="2">
         <v>2225000</v>
@@ -18747,7 +18542,7 @@
         <v>8</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E121" s="2">
         <v>2970000</v>
@@ -18764,7 +18559,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E122" s="2">
         <v>4350000</v>
@@ -18781,7 +18576,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E123" s="2">
         <v>2999900</v>
@@ -18798,7 +18593,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E124" s="2">
         <v>3479900</v>
@@ -18815,7 +18610,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E125" s="2">
         <v>1990000</v>
@@ -18832,7 +18627,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E126" s="2">
         <v>2149000</v>
@@ -18849,7 +18644,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E127" s="2">
         <v>2115000</v>
@@ -18866,7 +18661,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E128" s="2">
         <v>2238000</v>
@@ -18883,7 +18678,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E129" s="2">
         <v>2514900</v>
@@ -18900,7 +18695,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E130" s="2">
         <v>2997900</v>
@@ -18908,16 +18703,16 @@
     </row>
     <row r="131" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E131" s="2">
         <v>2549900</v>
@@ -18925,16 +18720,16 @@
     </row>
     <row r="132" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E132" s="2">
         <v>2629900</v>
@@ -18942,16 +18737,16 @@
     </row>
     <row r="133" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E133" s="2">
         <v>4100000</v>
@@ -18968,7 +18763,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E134" s="2">
         <v>2219900</v>
@@ -18979,13 +18774,13 @@
         <v>22</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E135" s="2">
         <v>2499900</v>
@@ -18993,7 +18788,7 @@
     </row>
     <row r="136" ht="27.15" customHeight="1" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>145</v>
@@ -19002,7 +18797,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E136" s="2">
         <v>1602000</v>
@@ -19010,7 +18805,7 @@
     </row>
     <row r="137" ht="40.35" customHeight="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>146</v>
@@ -19019,7 +18814,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E137" s="2">
         <v>1508000</v>
@@ -19036,7 +18831,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E138" s="2">
         <v>4549990</v>
@@ -19053,7 +18848,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E139" s="2">
         <v>2479990</v>
@@ -19070,7 +18865,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E140" s="2">
         <v>2075990</v>
@@ -19087,7 +18882,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E141" s="2">
         <v>2080990</v>
@@ -19104,7 +18899,7 @@
         <v>380</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E142" s="2">
         <v>2273000</v>
@@ -19121,7 +18916,7 @@
         <v>380</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E143" s="2">
         <v>2443000</v>
@@ -19138,7 +18933,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E144" s="2">
         <v>1341000</v>
@@ -19149,13 +18944,13 @@
         <v>344</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E145" s="2">
         <v>1381000</v>
@@ -19166,13 +18961,13 @@
         <v>344</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E146" s="2">
         <v>1493000</v>
@@ -19183,13 +18978,13 @@
         <v>344</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E147" s="2">
         <v>1533000</v>
@@ -19206,7 +19001,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E148" s="2">
         <v>1670000</v>
@@ -19223,7 +19018,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E149" s="2">
         <v>1487000</v>
@@ -19234,13 +19029,13 @@
         <v>54</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E150" s="2">
         <v>4850000</v>
@@ -19251,13 +19046,13 @@
         <v>54</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E151" s="2">
         <v>4000000</v>
@@ -19268,13 +19063,13 @@
         <v>54</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E152" s="2">
         <v>4930000</v>
@@ -19291,7 +19086,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E153" s="2">
         <v>3692990</v>
@@ -19308,7 +19103,7 @@
         <v>270</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E154" s="2">
         <v>3979000</v>
@@ -19325,7 +19120,7 @@
         <v>8</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E155" s="2">
         <v>4099000</v>
@@ -19342,7 +19137,7 @@
         <v>8</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E156" s="2">
         <v>3449000</v>
@@ -19359,7 +19154,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E157" s="2">
         <v>2799000</v>
@@ -19370,13 +19165,13 @@
         <v>200</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E158" s="2">
         <v>3549000</v>
@@ -19387,13 +19182,13 @@
         <v>200</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E159" s="2">
         <v>3299000</v>
@@ -19410,7 +19205,7 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E160" s="2">
         <v>7374900</v>
@@ -19427,7 +19222,7 @@
         <v>270</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E161" s="2">
         <v>3789900</v>
@@ -19444,7 +19239,7 @@
         <v>51</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E162" s="2">
         <v>5829900</v>
@@ -19461,7 +19256,7 @@
         <v>270</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E163" s="2">
         <v>4144900</v>
@@ -19469,16 +19264,16 @@
     </row>
     <row r="164" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E164" s="2">
         <v>1672000</v>
@@ -19495,7 +19290,7 @@
         <v>8</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E165" s="2">
         <v>2040546</v>
@@ -19512,7 +19307,7 @@
         <v>8</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E166" s="2">
         <v>3100000</v>
@@ -19529,7 +19324,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E167" s="2">
         <v>2990000</v>
@@ -19546,7 +19341,7 @@
         <v>312</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E168" s="2">
         <v>8669500</v>
@@ -19563,7 +19358,7 @@
         <v>677</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E169" s="2">
         <v>4291000</v>
@@ -19580,7 +19375,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E170" s="2">
         <v>6146500</v>
@@ -19588,7 +19383,7 @@
     </row>
     <row r="171" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>274</v>
@@ -19597,7 +19392,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E171" s="2">
         <v>1889000</v>
@@ -19605,7 +19400,7 @@
     </row>
     <row r="172" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>276</v>
@@ -19614,7 +19409,7 @@
         <v>8</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E172" s="2">
         <v>2399000</v>
@@ -19622,7 +19417,7 @@
     </row>
     <row r="173" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>653</v>
@@ -19631,7 +19426,7 @@
         <v>8</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E173" s="2">
         <v>3059000</v>
@@ -19639,16 +19434,16 @@
     </row>
     <row r="174" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E174" s="2">
         <v>3279000</v>
@@ -19656,7 +19451,7 @@
     </row>
     <row r="175" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>654</v>
@@ -19665,7 +19460,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E175" s="2">
         <v>3599000</v>
@@ -19673,7 +19468,7 @@
     </row>
     <row r="176" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>175</v>
@@ -19682,7 +19477,7 @@
         <v>8</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E176" s="2">
         <v>5499999</v>
@@ -19690,7 +19485,7 @@
     </row>
     <row r="177" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>172</v>
@@ -19699,7 +19494,7 @@
         <v>103</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E177" s="2">
         <v>4099000</v>
@@ -19707,7 +19502,7 @@
     </row>
     <row r="178" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>169</v>
@@ -19716,7 +19511,7 @@
         <v>8</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E178" s="2">
         <v>2449000</v>
@@ -19727,13 +19522,13 @@
         <v>22</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E179" s="2">
         <v>4529900</v>
@@ -19750,7 +19545,7 @@
         <v>8</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E180" s="2">
         <v>3739900</v>
@@ -19761,13 +19556,13 @@
         <v>22</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E181" s="2">
         <v>5219900</v>
@@ -19778,13 +19573,13 @@
         <v>54</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E182" s="2">
         <v>2780000</v>
@@ -19801,7 +19596,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E183" s="2">
         <v>2020000</v>
@@ -19818,7 +19613,7 @@
         <v>8</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E184" s="2">
         <v>2650000</v>
@@ -19835,7 +19630,7 @@
         <v>8</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E185" s="2">
         <v>2080000</v>
@@ -19852,7 +19647,7 @@
         <v>8</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E186" s="2">
         <v>2181000</v>
@@ -19869,7 +19664,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E187" s="2">
         <v>2279000</v>
@@ -19886,7 +19681,7 @@
         <v>103</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E188" s="2">
         <v>2899000</v>
@@ -19903,7 +19698,7 @@
         <v>82</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E189" s="2">
         <v>2379000</v>
@@ -19911,16 +19706,16 @@
     </row>
     <row r="190" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E190" s="2">
         <v>2499000</v>
@@ -19928,7 +19723,7 @@
     </row>
     <row r="191" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>473</v>
@@ -19937,7 +19732,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E191" s="2">
         <v>2479900</v>
@@ -19954,7 +19749,7 @@
         <v>8</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E192" s="2">
         <v>3959000</v>
@@ -19965,13 +19760,13 @@
         <v>121</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E193" s="2">
         <v>2890000</v>
@@ -19982,13 +19777,13 @@
         <v>121</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E194" s="2">
         <v>4080000</v>
@@ -19999,13 +19794,13 @@
         <v>121</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E195" s="2">
         <v>6290000</v>
@@ -20013,7 +19808,7 @@
     </row>
     <row r="196" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B196" s="2">
         <v>6</v>
@@ -20022,7 +19817,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E196" s="2">
         <v>2200000</v>
@@ -20030,7 +19825,7 @@
     </row>
     <row r="197" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>284</v>
@@ -20039,7 +19834,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E197" s="2">
         <v>4599000</v>
@@ -20056,7 +19851,7 @@
         <v>8</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E198" s="2">
         <v>2199000</v>
@@ -20067,13 +19862,13 @@
         <v>215</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E199" s="2">
         <v>4599000</v>
@@ -20084,13 +19879,13 @@
         <v>105</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E200" s="2">
         <v>1990000</v>
@@ -20101,13 +19896,13 @@
         <v>105</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E201" s="2">
         <v>3590000</v>
@@ -20124,7 +19919,7 @@
         <v>8</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E202" s="2">
         <v>2650000</v>
@@ -20135,13 +19930,13 @@
         <v>215</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E203" s="2">
         <v>2849000</v>
@@ -20149,7 +19944,7 @@
     </row>
     <row r="204" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>171</v>
@@ -20158,7 +19953,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E204" s="2">
         <v>2099000</v>
@@ -20175,7 +19970,7 @@
         <v>8</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E205" s="2">
         <v>1263000</v>
@@ -20192,7 +19987,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E206" s="2">
         <v>1546500</v>
@@ -20209,7 +20004,7 @@
         <v>8</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E207" s="2">
         <v>883000</v>
@@ -20226,7 +20021,7 @@
         <v>8</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E208" s="2">
         <v>825000</v>
@@ -20243,7 +20038,7 @@
         <v>8</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E209" s="2">
         <v>851000</v>
@@ -20254,13 +20049,13 @@
         <v>176</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E210" s="2">
         <v>3357990</v>
@@ -20271,13 +20066,13 @@
         <v>215</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E211" s="2">
         <v>3899000</v>
@@ -20294,7 +20089,7 @@
         <v>8</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E212" s="2">
         <v>1990000</v>
@@ -20311,7 +20106,7 @@
         <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E213" s="2">
         <v>2199000</v>
@@ -20328,7 +20123,7 @@
         <v>8</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E214" s="2">
         <v>789900</v>
@@ -20345,7 +20140,7 @@
         <v>51</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E215" s="2">
         <v>869900</v>
@@ -20362,7 +20157,7 @@
         <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E216" s="2">
         <v>1089000</v>
@@ -20379,7 +20174,7 @@
         <v>8</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E217" s="2">
         <v>999900</v>
@@ -20396,7 +20191,7 @@
         <v>8</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E218" s="2">
         <v>1455000</v>
@@ -20413,7 +20208,7 @@
         <v>103</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E219" s="2">
         <v>809900</v>
@@ -20430,7 +20225,7 @@
         <v>8</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E220" s="2">
         <v>2000000</v>
@@ -20447,7 +20242,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E221" s="2">
         <v>1229900</v>
@@ -20464,7 +20259,7 @@
         <v>8</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E222" s="2">
         <v>2656800</v>
@@ -20475,13 +20270,13 @@
         <v>344</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E223" s="2">
         <v>824000</v>
@@ -20492,13 +20287,13 @@
         <v>300</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E224" s="2">
         <v>1204900</v>
@@ -20515,7 +20310,7 @@
         <v>8</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E225" s="2">
         <v>2234900</v>
@@ -20523,7 +20318,7 @@
     </row>
     <row r="226" ht="40.35" customHeight="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>138</v>
@@ -20532,7 +20327,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E226" s="2">
         <v>2673000</v>
@@ -20549,7 +20344,7 @@
         <v>8</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E227" s="2">
         <v>1419990</v>
@@ -20557,7 +20352,7 @@
     </row>
     <row r="228" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>277</v>
@@ -20566,7 +20361,7 @@
         <v>8</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E228" s="2">
         <v>1494000</v>
@@ -20583,7 +20378,7 @@
         <v>8</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E229" s="2">
         <v>2849990</v>
@@ -20597,10 +20392,10 @@
         <v>591</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E230" s="2">
         <v>3173000</v>
@@ -20611,13 +20406,13 @@
         <v>54</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E231" s="2">
         <v>2380000</v>
@@ -20634,7 +20429,7 @@
         <v>8</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E232" s="2">
         <v>2599000</v>
@@ -20642,16 +20437,16 @@
     </row>
     <row r="233" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E233" s="2">
         <v>2999000</v>
@@ -20662,13 +20457,13 @@
         <v>22</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E234" s="2">
         <v>3590000</v>
@@ -20676,16 +20471,16 @@
     </row>
     <row r="235" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E235" s="2">
         <v>2569900</v>
@@ -20702,7 +20497,7 @@
         <v>8</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E236" s="2">
         <v>4750000</v>
@@ -20710,16 +20505,16 @@
     </row>
     <row r="237" ht="40.35" customHeight="1" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E237" s="2">
         <v>2499990</v>
@@ -20727,7 +20522,7 @@
     </row>
     <row r="238" ht="27.15" customHeight="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>793</v>
@@ -20736,7 +20531,7 @@
         <v>8</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E238" s="2">
         <v>2779990</v>
@@ -20753,7 +20548,7 @@
         <v>51</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E239" s="2">
         <v>2649000</v>
@@ -20770,7 +20565,7 @@
         <v>5</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E240" s="2">
         <v>1899000</v>
@@ -20787,7 +20582,7 @@
         <v>8</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E241" s="2">
         <v>2825990</v>
@@ -20795,7 +20590,7 @@
     </row>
     <row r="242" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B242" s="2">
         <v>400</v>
@@ -20804,7 +20599,7 @@
         <v>8</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E242" s="2">
         <v>5799000</v>
@@ -20812,7 +20607,7 @@
     </row>
     <row r="243" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>280</v>
@@ -20821,7 +20616,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E243" s="2">
         <v>2899000</v>
@@ -20838,7 +20633,7 @@
         <v>8</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E244" s="2">
         <v>1887500</v>
@@ -20855,7 +20650,7 @@
         <v>8</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E245" s="2">
         <v>1805000</v>
@@ -20872,7 +20667,7 @@
         <v>8</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E246" s="2">
         <v>1684500</v>
@@ -20880,7 +20675,7 @@
     </row>
     <row r="247" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>785</v>
@@ -20889,7 +20684,7 @@
         <v>8</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E247" s="2">
         <v>3899000</v>
@@ -20897,7 +20692,7 @@
     </row>
     <row r="248" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>784</v>
@@ -20906,7 +20701,7 @@
         <v>8</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E248" s="2">
         <v>3099000</v>
@@ -20914,7 +20709,7 @@
     </row>
     <row r="249" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -20923,7 +20718,7 @@
         <v>8</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E249" s="2">
         <v>4162990</v>

--- a/id.xlsx
+++ b/id.xlsx
@@ -4271,7 +4271,7 @@
   <dimension ref="A1:G916"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H910" sqref="H910"/>
+      <selection activeCell="E84" sqref="A84:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/id.xlsx
+++ b/id.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="1083">
   <si>
     <t>Aito</t>
   </si>
@@ -2945,6 +2945,9 @@
   </si>
   <si>
     <t>Niva Sport</t>
+  </si>
+  <si>
+    <t>Tiggo 7L</t>
   </si>
   <si>
     <t>Марка</t>
@@ -4268,10 +4271,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G916"/>
+  <dimension ref="A1:G917"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E84" sqref="A84:E84"/>
+    <sheetView tabSelected="1" topLeftCell="A898" workbookViewId="0">
+      <selection activeCell="C917" sqref="C917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -16469,6 +16472,17 @@
       </c>
       <c r="C916" t="s">
         <v>970</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3">
+      <c r="A917">
+        <v>1016</v>
+      </c>
+      <c r="B917" t="s">
+        <v>54</v>
+      </c>
+      <c r="C917" t="s">
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -16493,19 +16507,19 @@
   <sheetData>
     <row r="1" ht="27.15" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="2" ht="40.35" hidden="1" customHeight="1" spans="1:5">
@@ -16513,13 +16527,13 @@
         <v>344</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>380</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E2" s="2">
         <v>1239900</v>
@@ -16536,7 +16550,7 @@
         <v>380</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E3" s="2">
         <v>1759000</v>
@@ -16553,7 +16567,7 @@
         <v>380</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E4" s="2">
         <v>1655000</v>
@@ -16570,7 +16584,7 @@
         <v>380</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E5" s="2">
         <v>1879000</v>
@@ -16581,13 +16595,13 @@
         <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E6" s="2">
         <v>1077000</v>
@@ -16604,7 +16618,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E7" s="2">
         <v>1408000</v>
@@ -16615,13 +16629,13 @@
         <v>344</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E8" s="2">
         <v>749900</v>
@@ -16638,7 +16652,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E9" s="2">
         <v>1175000</v>
@@ -16655,7 +16669,7 @@
         <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E10" s="2">
         <v>2149000</v>
@@ -16672,7 +16686,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E11" s="2">
         <v>1660000</v>
@@ -16689,7 +16703,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E12" s="2">
         <v>2020000</v>
@@ -16706,7 +16720,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E13" s="2">
         <v>1859000</v>
@@ -16723,7 +16737,7 @@
         <v>303</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E14" s="2">
         <v>1334900</v>
@@ -16734,13 +16748,13 @@
         <v>176</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E15" s="2">
         <v>3512990</v>
@@ -16757,7 +16771,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E16" s="2">
         <v>2836990</v>
@@ -16774,7 +16788,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E17" s="2">
         <v>1850000</v>
@@ -16791,7 +16805,7 @@
         <v>270</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E18" s="2">
         <v>2749000</v>
@@ -16808,7 +16822,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E19" s="2">
         <v>2179990</v>
@@ -16819,13 +16833,13 @@
         <v>176</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E20" s="2">
         <v>2794990</v>
@@ -16842,7 +16856,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E21" s="2">
         <v>3959990</v>
@@ -16850,7 +16864,7 @@
     </row>
     <row r="22" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -16859,7 +16873,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E22" s="2">
         <v>4499000</v>
@@ -16867,7 +16881,7 @@
     </row>
     <row r="23" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
@@ -16876,7 +16890,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E23" s="2">
         <v>6799000</v>
@@ -16887,13 +16901,13 @@
         <v>344</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E24" s="2">
         <v>778500</v>
@@ -16904,13 +16918,13 @@
         <v>344</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E25" s="2">
         <v>719300</v>
@@ -16921,13 +16935,13 @@
         <v>344</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E26" s="2">
         <v>950900</v>
@@ -16944,7 +16958,7 @@
         <v>380</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E27" s="2">
         <v>1316900</v>
@@ -16955,13 +16969,13 @@
         <v>242</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E28" s="2">
         <v>2769000</v>
@@ -16978,7 +16992,7 @@
         <v>303</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E29" s="2">
         <v>2244900</v>
@@ -16995,7 +17009,7 @@
         <v>259</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E30" s="2">
         <v>1574900</v>
@@ -17012,7 +17026,7 @@
         <v>259</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E31" s="2">
         <v>1434900</v>
@@ -17023,13 +17037,13 @@
         <v>344</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E32" s="2">
         <v>1059000</v>
@@ -17046,7 +17060,7 @@
         <v>259</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E33" s="2">
         <v>3969000</v>
@@ -17063,7 +17077,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E34" s="2">
         <v>1314000</v>
@@ -17074,13 +17088,13 @@
         <v>215</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E35" s="2">
         <v>2149000</v>
@@ -17097,7 +17111,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E36" s="2">
         <v>2599000</v>
@@ -17108,13 +17122,13 @@
         <v>215</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E37" s="2">
         <v>2599000</v>
@@ -17131,7 +17145,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E38" s="2">
         <v>5269000</v>
@@ -17148,7 +17162,7 @@
         <v>303</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E39" s="2">
         <v>2314900</v>
@@ -17159,13 +17173,13 @@
         <v>344</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E40" s="2">
         <v>918900</v>
@@ -17182,7 +17196,7 @@
         <v>259</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E41" s="2">
         <v>2159900</v>
@@ -17199,7 +17213,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E42" s="2">
         <v>1106900</v>
@@ -17216,7 +17230,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E43" s="2">
         <v>1249900</v>
@@ -17233,7 +17247,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E44" s="2">
         <v>2900000</v>
@@ -17244,13 +17258,13 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E45" s="2">
         <v>2439900</v>
@@ -17267,7 +17281,7 @@
         <v>312</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E46" s="2">
         <v>2734900</v>
@@ -17284,7 +17298,7 @@
         <v>312</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E47" s="2">
         <v>1934900</v>
@@ -17301,7 +17315,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E48" s="2">
         <v>2064900</v>
@@ -17318,7 +17332,7 @@
         <v>334</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E49" s="2">
         <v>2849900</v>
@@ -17326,7 +17340,7 @@
     </row>
     <row r="50" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>279</v>
@@ -17335,7 +17349,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E50" s="2">
         <v>1779000</v>
@@ -17343,7 +17357,7 @@
     </row>
     <row r="51" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>273</v>
@@ -17352,7 +17366,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E51" s="2">
         <v>2150000</v>
@@ -17360,7 +17374,7 @@
     </row>
     <row r="52" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>278</v>
@@ -17369,7 +17383,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E52" s="2">
         <v>2129900</v>
@@ -17377,7 +17391,7 @@
     </row>
     <row r="53" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>472</v>
@@ -17386,7 +17400,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E53" s="2">
         <v>2369900</v>
@@ -17403,7 +17417,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E54" s="2">
         <v>1690000</v>
@@ -17420,7 +17434,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E55" s="2">
         <v>2869900</v>
@@ -17431,13 +17445,13 @@
         <v>22</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E56" s="2">
         <v>2569900</v>
@@ -17448,13 +17462,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E57" s="2">
         <v>2839900</v>
@@ -17471,7 +17485,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E58" s="2">
         <v>3969900</v>
@@ -17488,7 +17502,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E59" s="2">
         <v>3069900</v>
@@ -17505,7 +17519,7 @@
         <v>26</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E60" s="2">
         <v>3069900</v>
@@ -17516,13 +17530,13 @@
         <v>22</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E61" s="2">
         <v>2899900</v>
@@ -17530,7 +17544,7 @@
     </row>
     <row r="62" ht="40.35" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>135</v>
@@ -17539,7 +17553,7 @@
         <v>26</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E62" s="2">
         <v>2374000</v>
@@ -17547,7 +17561,7 @@
     </row>
     <row r="63" ht="40.35" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>136</v>
@@ -17556,7 +17570,7 @@
         <v>26</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E63" s="2">
         <v>2411000</v>
@@ -17564,7 +17578,7 @@
     </row>
     <row r="64" ht="40.35" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>137</v>
@@ -17573,7 +17587,7 @@
         <v>26</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E64" s="2">
         <v>2024000</v>
@@ -17590,7 +17604,7 @@
         <v>82</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E65" s="2">
         <v>1124000</v>
@@ -17607,7 +17621,7 @@
         <v>103</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E66" s="2">
         <v>1051000</v>
@@ -17624,7 +17638,7 @@
         <v>534</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E67" s="2">
         <v>1657000</v>
@@ -17641,7 +17655,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E68" s="2">
         <v>1705000</v>
@@ -17658,7 +17672,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E69" s="2">
         <v>1699900</v>
@@ -17675,7 +17689,7 @@
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E70" s="2">
         <v>2489900</v>
@@ -17683,7 +17697,7 @@
     </row>
     <row r="71" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>273</v>
@@ -17692,7 +17706,7 @@
         <v>26</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E71" s="2">
         <v>2959900</v>
@@ -17700,7 +17714,7 @@
     </row>
     <row r="72" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
@@ -17709,7 +17723,7 @@
         <v>26</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E72" s="2">
         <v>1765000</v>
@@ -17726,7 +17740,7 @@
         <v>226</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E73" s="2">
         <v>4409000</v>
@@ -17743,7 +17757,7 @@
         <v>226</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E74" s="2">
         <v>1690000</v>
@@ -17760,7 +17774,7 @@
         <v>85</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E75" s="2">
         <v>950900</v>
@@ -17777,7 +17791,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E76" s="2">
         <v>880900</v>
@@ -17794,7 +17808,7 @@
         <v>82</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E77" s="2">
         <v>953900</v>
@@ -17811,7 +17825,7 @@
         <v>103</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E78" s="2">
         <v>2179000</v>
@@ -17828,7 +17842,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E79" s="2">
         <v>1579000</v>
@@ -17845,7 +17859,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E80" s="2">
         <v>4299000</v>
@@ -17862,7 +17876,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E81" s="2">
         <v>2049000</v>
@@ -17879,7 +17893,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E82" s="2">
         <v>3149000</v>
@@ -17896,7 +17910,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E83" s="2">
         <v>2337000</v>
@@ -17907,13 +17921,13 @@
         <v>457</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E84" s="2">
         <v>2762000</v>
@@ -17930,7 +17944,7 @@
         <v>103</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E85" s="2">
         <v>1618000</v>
@@ -17947,7 +17961,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E86" s="2">
         <v>1301000</v>
@@ -17964,7 +17978,7 @@
         <v>82</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E87" s="2">
         <v>1258000</v>
@@ -17981,7 +17995,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E88" s="2">
         <v>1373000</v>
@@ -17998,7 +18012,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E89" s="2">
         <v>1724000</v>
@@ -18015,7 +18029,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E90" s="2">
         <v>1874000</v>
@@ -18032,7 +18046,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E91" s="2">
         <v>2057000</v>
@@ -18049,7 +18063,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E92" s="2">
         <v>2118900</v>
@@ -18066,7 +18080,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E93" s="2">
         <v>3248000</v>
@@ -18083,7 +18097,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E94" s="2">
         <v>5378000</v>
@@ -18100,7 +18114,7 @@
         <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E95" s="2">
         <v>5806000</v>
@@ -18117,7 +18131,7 @@
         <v>303</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E96" s="2">
         <v>2388000</v>
@@ -18134,7 +18148,7 @@
         <v>303</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E97" s="2">
         <v>2681000</v>
@@ -18151,7 +18165,7 @@
         <v>617</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E98" s="2">
         <v>1385900</v>
@@ -18168,7 +18182,7 @@
         <v>608</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E99" s="2">
         <v>1518000</v>
@@ -18185,7 +18199,7 @@
         <v>82</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E100" s="2">
         <v>3375900</v>
@@ -18202,7 +18216,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E101" s="2">
         <v>2828900</v>
@@ -18219,7 +18233,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E102" s="2">
         <v>4449900</v>
@@ -18236,7 +18250,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E103" s="2">
         <v>1229000</v>
@@ -18253,7 +18267,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E104" s="2">
         <v>2499000</v>
@@ -18261,7 +18275,7 @@
     </row>
     <row r="105" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>595</v>
@@ -18270,7 +18284,7 @@
         <v>596</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E105" s="2">
         <v>1680000</v>
@@ -18278,16 +18292,16 @@
     </row>
     <row r="106" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>596</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E106" s="2">
         <v>1705000</v>
@@ -18295,7 +18309,7 @@
     </row>
     <row r="107" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>39</v>
@@ -18304,7 +18318,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E107" s="2">
         <v>1510000</v>
@@ -18321,7 +18335,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E108" s="2">
         <v>2570000</v>
@@ -18338,7 +18352,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E109" s="2">
         <v>3430000</v>
@@ -18349,13 +18363,13 @@
         <v>54</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E110" s="2">
         <v>2770000</v>
@@ -18372,7 +18386,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E111" s="2">
         <v>1970000</v>
@@ -18383,13 +18397,13 @@
         <v>54</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E112" s="2">
         <v>3250000</v>
@@ -18400,13 +18414,13 @@
         <v>54</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E113" s="2">
         <v>3370000</v>
@@ -18423,7 +18437,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E114" s="2">
         <v>3759900</v>
@@ -18440,7 +18454,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E115" s="2">
         <v>3380000</v>
@@ -18457,7 +18471,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E116" s="2">
         <v>3810000</v>
@@ -18474,7 +18488,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E117" s="2">
         <v>4910000</v>
@@ -18491,7 +18505,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E118" s="2">
         <v>4550000</v>
@@ -18508,7 +18522,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E119" s="2">
         <v>2080000</v>
@@ -18525,7 +18539,7 @@
         <v>8</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E120" s="2">
         <v>2225000</v>
@@ -18542,7 +18556,7 @@
         <v>8</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E121" s="2">
         <v>2970000</v>
@@ -18559,7 +18573,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E122" s="2">
         <v>4350000</v>
@@ -18576,7 +18590,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E123" s="2">
         <v>2999900</v>
@@ -18593,7 +18607,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E124" s="2">
         <v>3479900</v>
@@ -18610,7 +18624,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E125" s="2">
         <v>1990000</v>
@@ -18627,7 +18641,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E126" s="2">
         <v>2149000</v>
@@ -18644,7 +18658,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E127" s="2">
         <v>2115000</v>
@@ -18661,7 +18675,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E128" s="2">
         <v>2238000</v>
@@ -18678,7 +18692,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E129" s="2">
         <v>2514900</v>
@@ -18695,7 +18709,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E130" s="2">
         <v>2997900</v>
@@ -18703,16 +18717,16 @@
     </row>
     <row r="131" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E131" s="2">
         <v>2549900</v>
@@ -18720,16 +18734,16 @@
     </row>
     <row r="132" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E132" s="2">
         <v>2629900</v>
@@ -18737,16 +18751,16 @@
     </row>
     <row r="133" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E133" s="2">
         <v>4100000</v>
@@ -18763,7 +18777,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E134" s="2">
         <v>2219900</v>
@@ -18774,13 +18788,13 @@
         <v>22</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E135" s="2">
         <v>2499900</v>
@@ -18788,7 +18802,7 @@
     </row>
     <row r="136" ht="27.15" customHeight="1" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>145</v>
@@ -18797,7 +18811,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E136" s="2">
         <v>1602000</v>
@@ -18805,7 +18819,7 @@
     </row>
     <row r="137" ht="40.35" customHeight="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>146</v>
@@ -18814,7 +18828,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E137" s="2">
         <v>1508000</v>
@@ -18831,7 +18845,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E138" s="2">
         <v>4549990</v>
@@ -18848,7 +18862,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E139" s="2">
         <v>2479990</v>
@@ -18865,7 +18879,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E140" s="2">
         <v>2075990</v>
@@ -18882,7 +18896,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E141" s="2">
         <v>2080990</v>
@@ -18899,7 +18913,7 @@
         <v>380</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E142" s="2">
         <v>2273000</v>
@@ -18916,7 +18930,7 @@
         <v>380</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E143" s="2">
         <v>2443000</v>
@@ -18933,7 +18947,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E144" s="2">
         <v>1341000</v>
@@ -18944,13 +18958,13 @@
         <v>344</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E145" s="2">
         <v>1381000</v>
@@ -18961,13 +18975,13 @@
         <v>344</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E146" s="2">
         <v>1493000</v>
@@ -18978,13 +18992,13 @@
         <v>344</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E147" s="2">
         <v>1533000</v>
@@ -19001,7 +19015,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E148" s="2">
         <v>1670000</v>
@@ -19018,7 +19032,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E149" s="2">
         <v>1487000</v>
@@ -19029,13 +19043,13 @@
         <v>54</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E150" s="2">
         <v>4850000</v>
@@ -19046,13 +19060,13 @@
         <v>54</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E151" s="2">
         <v>4000000</v>
@@ -19063,13 +19077,13 @@
         <v>54</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E152" s="2">
         <v>4930000</v>
@@ -19086,7 +19100,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E153" s="2">
         <v>3692990</v>
@@ -19103,7 +19117,7 @@
         <v>270</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E154" s="2">
         <v>3979000</v>
@@ -19120,7 +19134,7 @@
         <v>8</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E155" s="2">
         <v>4099000</v>
@@ -19137,7 +19151,7 @@
         <v>8</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E156" s="2">
         <v>3449000</v>
@@ -19154,7 +19168,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E157" s="2">
         <v>2799000</v>
@@ -19165,13 +19179,13 @@
         <v>200</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E158" s="2">
         <v>3549000</v>
@@ -19182,13 +19196,13 @@
         <v>200</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E159" s="2">
         <v>3299000</v>
@@ -19205,7 +19219,7 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E160" s="2">
         <v>7374900</v>
@@ -19222,7 +19236,7 @@
         <v>270</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E161" s="2">
         <v>3789900</v>
@@ -19239,7 +19253,7 @@
         <v>51</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E162" s="2">
         <v>5829900</v>
@@ -19256,7 +19270,7 @@
         <v>270</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E163" s="2">
         <v>4144900</v>
@@ -19264,16 +19278,16 @@
     </row>
     <row r="164" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E164" s="2">
         <v>1672000</v>
@@ -19290,7 +19304,7 @@
         <v>8</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E165" s="2">
         <v>2040546</v>
@@ -19307,7 +19321,7 @@
         <v>8</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E166" s="2">
         <v>3100000</v>
@@ -19324,7 +19338,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E167" s="2">
         <v>2990000</v>
@@ -19341,7 +19355,7 @@
         <v>312</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E168" s="2">
         <v>8669500</v>
@@ -19358,7 +19372,7 @@
         <v>677</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E169" s="2">
         <v>4291000</v>
@@ -19375,7 +19389,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E170" s="2">
         <v>6146500</v>
@@ -19383,7 +19397,7 @@
     </row>
     <row r="171" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>274</v>
@@ -19392,7 +19406,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E171" s="2">
         <v>1889000</v>
@@ -19400,7 +19414,7 @@
     </row>
     <row r="172" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>276</v>
@@ -19409,7 +19423,7 @@
         <v>8</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E172" s="2">
         <v>2399000</v>
@@ -19417,7 +19431,7 @@
     </row>
     <row r="173" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>653</v>
@@ -19426,7 +19440,7 @@
         <v>8</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E173" s="2">
         <v>3059000</v>
@@ -19434,16 +19448,16 @@
     </row>
     <row r="174" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E174" s="2">
         <v>3279000</v>
@@ -19451,7 +19465,7 @@
     </row>
     <row r="175" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>654</v>
@@ -19460,7 +19474,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E175" s="2">
         <v>3599000</v>
@@ -19468,7 +19482,7 @@
     </row>
     <row r="176" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>175</v>
@@ -19477,7 +19491,7 @@
         <v>8</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E176" s="2">
         <v>5499999</v>
@@ -19485,7 +19499,7 @@
     </row>
     <row r="177" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>172</v>
@@ -19494,7 +19508,7 @@
         <v>103</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E177" s="2">
         <v>4099000</v>
@@ -19502,7 +19516,7 @@
     </row>
     <row r="178" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>169</v>
@@ -19511,7 +19525,7 @@
         <v>8</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E178" s="2">
         <v>2449000</v>
@@ -19522,13 +19536,13 @@
         <v>22</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E179" s="2">
         <v>4529900</v>
@@ -19545,7 +19559,7 @@
         <v>8</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E180" s="2">
         <v>3739900</v>
@@ -19556,13 +19570,13 @@
         <v>22</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E181" s="2">
         <v>5219900</v>
@@ -19573,13 +19587,13 @@
         <v>54</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E182" s="2">
         <v>2780000</v>
@@ -19596,7 +19610,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E183" s="2">
         <v>2020000</v>
@@ -19613,7 +19627,7 @@
         <v>8</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E184" s="2">
         <v>2650000</v>
@@ -19630,7 +19644,7 @@
         <v>8</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E185" s="2">
         <v>2080000</v>
@@ -19647,7 +19661,7 @@
         <v>8</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E186" s="2">
         <v>2181000</v>
@@ -19664,7 +19678,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E187" s="2">
         <v>2279000</v>
@@ -19681,7 +19695,7 @@
         <v>103</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E188" s="2">
         <v>2899000</v>
@@ -19698,7 +19712,7 @@
         <v>82</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E189" s="2">
         <v>2379000</v>
@@ -19706,16 +19720,16 @@
     </row>
     <row r="190" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E190" s="2">
         <v>2499000</v>
@@ -19723,7 +19737,7 @@
     </row>
     <row r="191" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>473</v>
@@ -19732,7 +19746,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E191" s="2">
         <v>2479900</v>
@@ -19749,7 +19763,7 @@
         <v>8</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E192" s="2">
         <v>3959000</v>
@@ -19760,13 +19774,13 @@
         <v>121</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E193" s="2">
         <v>2890000</v>
@@ -19777,13 +19791,13 @@
         <v>121</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E194" s="2">
         <v>4080000</v>
@@ -19794,13 +19808,13 @@
         <v>121</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E195" s="2">
         <v>6290000</v>
@@ -19808,7 +19822,7 @@
     </row>
     <row r="196" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B196" s="2">
         <v>6</v>
@@ -19817,7 +19831,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E196" s="2">
         <v>2200000</v>
@@ -19825,7 +19839,7 @@
     </row>
     <row r="197" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>284</v>
@@ -19834,7 +19848,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E197" s="2">
         <v>4599000</v>
@@ -19851,7 +19865,7 @@
         <v>8</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E198" s="2">
         <v>2199000</v>
@@ -19862,13 +19876,13 @@
         <v>215</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E199" s="2">
         <v>4599000</v>
@@ -19879,13 +19893,13 @@
         <v>105</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E200" s="2">
         <v>1990000</v>
@@ -19896,13 +19910,13 @@
         <v>105</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E201" s="2">
         <v>3590000</v>
@@ -19919,7 +19933,7 @@
         <v>8</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E202" s="2">
         <v>2650000</v>
@@ -19930,13 +19944,13 @@
         <v>215</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E203" s="2">
         <v>2849000</v>
@@ -19944,7 +19958,7 @@
     </row>
     <row r="204" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>171</v>
@@ -19953,7 +19967,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E204" s="2">
         <v>2099000</v>
@@ -19970,7 +19984,7 @@
         <v>8</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E205" s="2">
         <v>1263000</v>
@@ -19987,7 +20001,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E206" s="2">
         <v>1546500</v>
@@ -20004,7 +20018,7 @@
         <v>8</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E207" s="2">
         <v>883000</v>
@@ -20021,7 +20035,7 @@
         <v>8</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E208" s="2">
         <v>825000</v>
@@ -20038,7 +20052,7 @@
         <v>8</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E209" s="2">
         <v>851000</v>
@@ -20049,13 +20063,13 @@
         <v>176</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E210" s="2">
         <v>3357990</v>
@@ -20066,13 +20080,13 @@
         <v>215</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E211" s="2">
         <v>3899000</v>
@@ -20089,7 +20103,7 @@
         <v>8</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E212" s="2">
         <v>1990000</v>
@@ -20106,7 +20120,7 @@
         <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E213" s="2">
         <v>2199000</v>
@@ -20123,7 +20137,7 @@
         <v>8</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E214" s="2">
         <v>789900</v>
@@ -20140,7 +20154,7 @@
         <v>51</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E215" s="2">
         <v>869900</v>
@@ -20157,7 +20171,7 @@
         <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E216" s="2">
         <v>1089000</v>
@@ -20174,7 +20188,7 @@
         <v>8</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E217" s="2">
         <v>999900</v>
@@ -20191,7 +20205,7 @@
         <v>8</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E218" s="2">
         <v>1455000</v>
@@ -20208,7 +20222,7 @@
         <v>103</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E219" s="2">
         <v>809900</v>
@@ -20225,7 +20239,7 @@
         <v>8</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E220" s="2">
         <v>2000000</v>
@@ -20242,7 +20256,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E221" s="2">
         <v>1229900</v>
@@ -20259,7 +20273,7 @@
         <v>8</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E222" s="2">
         <v>2656800</v>
@@ -20270,13 +20284,13 @@
         <v>344</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E223" s="2">
         <v>824000</v>
@@ -20287,13 +20301,13 @@
         <v>300</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E224" s="2">
         <v>1204900</v>
@@ -20310,7 +20324,7 @@
         <v>8</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E225" s="2">
         <v>2234900</v>
@@ -20318,7 +20332,7 @@
     </row>
     <row r="226" ht="40.35" customHeight="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>138</v>
@@ -20327,7 +20341,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E226" s="2">
         <v>2673000</v>
@@ -20344,7 +20358,7 @@
         <v>8</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E227" s="2">
         <v>1419990</v>
@@ -20352,7 +20366,7 @@
     </row>
     <row r="228" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>277</v>
@@ -20361,7 +20375,7 @@
         <v>8</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E228" s="2">
         <v>1494000</v>
@@ -20378,7 +20392,7 @@
         <v>8</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E229" s="2">
         <v>2849990</v>
@@ -20392,10 +20406,10 @@
         <v>591</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E230" s="2">
         <v>3173000</v>
@@ -20406,13 +20420,13 @@
         <v>54</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E231" s="2">
         <v>2380000</v>
@@ -20429,7 +20443,7 @@
         <v>8</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E232" s="2">
         <v>2599000</v>
@@ -20437,16 +20451,16 @@
     </row>
     <row r="233" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E233" s="2">
         <v>2999000</v>
@@ -20457,13 +20471,13 @@
         <v>22</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E234" s="2">
         <v>3590000</v>
@@ -20471,16 +20485,16 @@
     </row>
     <row r="235" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E235" s="2">
         <v>2569900</v>
@@ -20497,7 +20511,7 @@
         <v>8</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E236" s="2">
         <v>4750000</v>
@@ -20505,16 +20519,16 @@
     </row>
     <row r="237" ht="40.35" customHeight="1" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E237" s="2">
         <v>2499990</v>
@@ -20522,7 +20536,7 @@
     </row>
     <row r="238" ht="27.15" customHeight="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>793</v>
@@ -20531,7 +20545,7 @@
         <v>8</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E238" s="2">
         <v>2779990</v>
@@ -20548,7 +20562,7 @@
         <v>51</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E239" s="2">
         <v>2649000</v>
@@ -20565,7 +20579,7 @@
         <v>5</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E240" s="2">
         <v>1899000</v>
@@ -20582,7 +20596,7 @@
         <v>8</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E241" s="2">
         <v>2825990</v>
@@ -20590,7 +20604,7 @@
     </row>
     <row r="242" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B242" s="2">
         <v>400</v>
@@ -20599,7 +20613,7 @@
         <v>8</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E242" s="2">
         <v>5799000</v>
@@ -20607,7 +20621,7 @@
     </row>
     <row r="243" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>280</v>
@@ -20616,7 +20630,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E243" s="2">
         <v>2899000</v>
@@ -20633,7 +20647,7 @@
         <v>8</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E244" s="2">
         <v>1887500</v>
@@ -20650,7 +20664,7 @@
         <v>8</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E245" s="2">
         <v>1805000</v>
@@ -20667,7 +20681,7 @@
         <v>8</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E246" s="2">
         <v>1684500</v>
@@ -20675,7 +20689,7 @@
     </row>
     <row r="247" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>785</v>
@@ -20684,7 +20698,7 @@
         <v>8</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E247" s="2">
         <v>3899000</v>
@@ -20692,7 +20706,7 @@
     </row>
     <row r="248" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>784</v>
@@ -20701,7 +20715,7 @@
         <v>8</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E248" s="2">
         <v>3099000</v>
@@ -20709,7 +20723,7 @@
     </row>
     <row r="249" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -20718,7 +20732,7 @@
         <v>8</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E249" s="2">
         <v>4162990</v>

--- a/id.xlsx
+++ b/id.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$916</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$917</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="1089">
   <si>
     <t>Aito</t>
   </si>
@@ -2948,6 +2948,24 @@
   </si>
   <si>
     <t>Tiggo 7L</t>
+  </si>
+  <si>
+    <t>Palasso</t>
+  </si>
+  <si>
+    <t>POER New</t>
+  </si>
+  <si>
+    <t>C5 4WD</t>
+  </si>
+  <si>
+    <t>Tiggo 7L 4WD</t>
+  </si>
+  <si>
+    <t>SF1</t>
+  </si>
+  <si>
+    <t>Monza</t>
   </si>
   <si>
     <t>Марка</t>
@@ -4271,10 +4289,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G917"/>
+  <dimension ref="A1:G923"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A898" workbookViewId="0">
-      <selection activeCell="C917" sqref="C917"/>
+      <selection activeCell="G919" sqref="G919"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -16485,8 +16503,74 @@
         <v>971</v>
       </c>
     </row>
+    <row r="918" spans="1:3">
+      <c r="A918">
+        <v>1017</v>
+      </c>
+      <c r="B918" t="s">
+        <v>484</v>
+      </c>
+      <c r="C918" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3">
+      <c r="A919">
+        <v>1018</v>
+      </c>
+      <c r="B919" t="s">
+        <v>200</v>
+      </c>
+      <c r="C919" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3">
+      <c r="A920">
+        <v>1019</v>
+      </c>
+      <c r="B920" t="s">
+        <v>471</v>
+      </c>
+      <c r="C920" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3">
+      <c r="A921">
+        <v>1020</v>
+      </c>
+      <c r="B921" t="s">
+        <v>54</v>
+      </c>
+      <c r="C921" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3">
+      <c r="A922">
+        <v>1021</v>
+      </c>
+      <c r="B922" t="s">
+        <v>697</v>
+      </c>
+      <c r="C922" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3">
+      <c r="A923">
+        <v>1022</v>
+      </c>
+      <c r="B923" t="s">
+        <v>78</v>
+      </c>
+      <c r="C923" t="s">
+        <v>977</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G916" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G917" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16507,19 +16591,19 @@
   <sheetData>
     <row r="1" ht="27.15" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
     </row>
     <row r="2" ht="40.35" hidden="1" customHeight="1" spans="1:5">
@@ -16527,13 +16611,13 @@
         <v>344</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>380</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E2" s="2">
         <v>1239900</v>
@@ -16550,7 +16634,7 @@
         <v>380</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E3" s="2">
         <v>1759000</v>
@@ -16567,7 +16651,7 @@
         <v>380</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E4" s="2">
         <v>1655000</v>
@@ -16584,7 +16668,7 @@
         <v>380</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E5" s="2">
         <v>1879000</v>
@@ -16595,13 +16679,13 @@
         <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E6" s="2">
         <v>1077000</v>
@@ -16618,7 +16702,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="E7" s="2">
         <v>1408000</v>
@@ -16629,13 +16713,13 @@
         <v>344</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E8" s="2">
         <v>749900</v>
@@ -16652,7 +16736,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E9" s="2">
         <v>1175000</v>
@@ -16669,7 +16753,7 @@
         <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="E10" s="2">
         <v>2149000</v>
@@ -16686,7 +16770,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E11" s="2">
         <v>1660000</v>
@@ -16703,7 +16787,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E12" s="2">
         <v>2020000</v>
@@ -16720,7 +16804,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="E13" s="2">
         <v>1859000</v>
@@ -16737,7 +16821,7 @@
         <v>303</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E14" s="2">
         <v>1334900</v>
@@ -16748,13 +16832,13 @@
         <v>176</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E15" s="2">
         <v>3512990</v>
@@ -16771,7 +16855,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E16" s="2">
         <v>2836990</v>
@@ -16788,7 +16872,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="E17" s="2">
         <v>1850000</v>
@@ -16805,7 +16889,7 @@
         <v>270</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E18" s="2">
         <v>2749000</v>
@@ -16822,7 +16906,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E19" s="2">
         <v>2179990</v>
@@ -16833,13 +16917,13 @@
         <v>176</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E20" s="2">
         <v>2794990</v>
@@ -16856,7 +16940,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E21" s="2">
         <v>3959990</v>
@@ -16864,7 +16948,7 @@
     </row>
     <row r="22" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -16873,7 +16957,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E22" s="2">
         <v>4499000</v>
@@ -16881,7 +16965,7 @@
     </row>
     <row r="23" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
@@ -16890,7 +16974,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E23" s="2">
         <v>6799000</v>
@@ -16901,13 +16985,13 @@
         <v>344</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E24" s="2">
         <v>778500</v>
@@ -16918,13 +17002,13 @@
         <v>344</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E25" s="2">
         <v>719300</v>
@@ -16935,13 +17019,13 @@
         <v>344</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E26" s="2">
         <v>950900</v>
@@ -16958,7 +17042,7 @@
         <v>380</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E27" s="2">
         <v>1316900</v>
@@ -16969,13 +17053,13 @@
         <v>242</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E28" s="2">
         <v>2769000</v>
@@ -16992,7 +17076,7 @@
         <v>303</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E29" s="2">
         <v>2244900</v>
@@ -17009,7 +17093,7 @@
         <v>259</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="E30" s="2">
         <v>1574900</v>
@@ -17026,7 +17110,7 @@
         <v>259</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="E31" s="2">
         <v>1434900</v>
@@ -17037,13 +17121,13 @@
         <v>344</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E32" s="2">
         <v>1059000</v>
@@ -17060,7 +17144,7 @@
         <v>259</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="E33" s="2">
         <v>3969000</v>
@@ -17077,7 +17161,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E34" s="2">
         <v>1314000</v>
@@ -17088,13 +17172,13 @@
         <v>215</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E35" s="2">
         <v>2149000</v>
@@ -17111,7 +17195,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="E36" s="2">
         <v>2599000</v>
@@ -17122,13 +17206,13 @@
         <v>215</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="E37" s="2">
         <v>2599000</v>
@@ -17145,7 +17229,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="E38" s="2">
         <v>5269000</v>
@@ -17162,7 +17246,7 @@
         <v>303</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E39" s="2">
         <v>2314900</v>
@@ -17173,13 +17257,13 @@
         <v>344</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E40" s="2">
         <v>918900</v>
@@ -17196,7 +17280,7 @@
         <v>259</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E41" s="2">
         <v>2159900</v>
@@ -17213,7 +17297,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="E42" s="2">
         <v>1106900</v>
@@ -17230,7 +17314,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="E43" s="2">
         <v>1249900</v>
@@ -17247,7 +17331,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E44" s="2">
         <v>2900000</v>
@@ -17258,13 +17342,13 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E45" s="2">
         <v>2439900</v>
@@ -17281,7 +17365,7 @@
         <v>312</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E46" s="2">
         <v>2734900</v>
@@ -17298,7 +17382,7 @@
         <v>312</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E47" s="2">
         <v>1934900</v>
@@ -17315,7 +17399,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E48" s="2">
         <v>2064900</v>
@@ -17332,7 +17416,7 @@
         <v>334</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E49" s="2">
         <v>2849900</v>
@@ -17340,7 +17424,7 @@
     </row>
     <row r="50" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>279</v>
@@ -17349,7 +17433,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E50" s="2">
         <v>1779000</v>
@@ -17357,7 +17441,7 @@
     </row>
     <row r="51" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>273</v>
@@ -17366,7 +17450,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E51" s="2">
         <v>2150000</v>
@@ -17374,7 +17458,7 @@
     </row>
     <row r="52" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>278</v>
@@ -17383,7 +17467,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E52" s="2">
         <v>2129900</v>
@@ -17391,7 +17475,7 @@
     </row>
     <row r="53" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>472</v>
@@ -17400,7 +17484,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E53" s="2">
         <v>2369900</v>
@@ -17417,7 +17501,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E54" s="2">
         <v>1690000</v>
@@ -17434,7 +17518,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E55" s="2">
         <v>2869900</v>
@@ -17445,13 +17529,13 @@
         <v>22</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E56" s="2">
         <v>2569900</v>
@@ -17462,13 +17546,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E57" s="2">
         <v>2839900</v>
@@ -17485,7 +17569,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E58" s="2">
         <v>3969900</v>
@@ -17502,7 +17586,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E59" s="2">
         <v>3069900</v>
@@ -17519,7 +17603,7 @@
         <v>26</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E60" s="2">
         <v>3069900</v>
@@ -17530,13 +17614,13 @@
         <v>22</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="E61" s="2">
         <v>2899900</v>
@@ -17544,7 +17628,7 @@
     </row>
     <row r="62" ht="40.35" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>135</v>
@@ -17553,7 +17637,7 @@
         <v>26</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E62" s="2">
         <v>2374000</v>
@@ -17561,7 +17645,7 @@
     </row>
     <row r="63" ht="40.35" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>136</v>
@@ -17570,7 +17654,7 @@
         <v>26</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E63" s="2">
         <v>2411000</v>
@@ -17578,7 +17662,7 @@
     </row>
     <row r="64" ht="40.35" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>137</v>
@@ -17587,7 +17671,7 @@
         <v>26</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E64" s="2">
         <v>2024000</v>
@@ -17604,7 +17688,7 @@
         <v>82</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="E65" s="2">
         <v>1124000</v>
@@ -17621,7 +17705,7 @@
         <v>103</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E66" s="2">
         <v>1051000</v>
@@ -17638,7 +17722,7 @@
         <v>534</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E67" s="2">
         <v>1657000</v>
@@ -17655,7 +17739,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E68" s="2">
         <v>1705000</v>
@@ -17672,7 +17756,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="E69" s="2">
         <v>1699900</v>
@@ -17689,7 +17773,7 @@
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E70" s="2">
         <v>2489900</v>
@@ -17697,7 +17781,7 @@
     </row>
     <row r="71" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>273</v>
@@ -17706,7 +17790,7 @@
         <v>26</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E71" s="2">
         <v>2959900</v>
@@ -17714,7 +17798,7 @@
     </row>
     <row r="72" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
@@ -17723,7 +17807,7 @@
         <v>26</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E72" s="2">
         <v>1765000</v>
@@ -17740,7 +17824,7 @@
         <v>226</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="E73" s="2">
         <v>4409000</v>
@@ -17757,7 +17841,7 @@
         <v>226</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="E74" s="2">
         <v>1690000</v>
@@ -17774,7 +17858,7 @@
         <v>85</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E75" s="2">
         <v>950900</v>
@@ -17791,7 +17875,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E76" s="2">
         <v>880900</v>
@@ -17808,7 +17892,7 @@
         <v>82</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E77" s="2">
         <v>953900</v>
@@ -17825,7 +17909,7 @@
         <v>103</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E78" s="2">
         <v>2179000</v>
@@ -17842,7 +17926,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="E79" s="2">
         <v>1579000</v>
@@ -17859,7 +17943,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E80" s="2">
         <v>4299000</v>
@@ -17876,7 +17960,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="E81" s="2">
         <v>2049000</v>
@@ -17893,7 +17977,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E82" s="2">
         <v>3149000</v>
@@ -17910,7 +17994,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="E83" s="2">
         <v>2337000</v>
@@ -17921,13 +18005,13 @@
         <v>457</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="E84" s="2">
         <v>2762000</v>
@@ -17944,7 +18028,7 @@
         <v>103</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E85" s="2">
         <v>1618000</v>
@@ -17961,7 +18045,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="E86" s="2">
         <v>1301000</v>
@@ -17978,7 +18062,7 @@
         <v>82</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="E87" s="2">
         <v>1258000</v>
@@ -17995,7 +18079,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="E88" s="2">
         <v>1373000</v>
@@ -18012,7 +18096,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="E89" s="2">
         <v>1724000</v>
@@ -18029,7 +18113,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E90" s="2">
         <v>1874000</v>
@@ -18046,7 +18130,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E91" s="2">
         <v>2057000</v>
@@ -18063,7 +18147,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E92" s="2">
         <v>2118900</v>
@@ -18080,7 +18164,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E93" s="2">
         <v>3248000</v>
@@ -18097,7 +18181,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E94" s="2">
         <v>5378000</v>
@@ -18114,7 +18198,7 @@
         <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E95" s="2">
         <v>5806000</v>
@@ -18131,7 +18215,7 @@
         <v>303</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E96" s="2">
         <v>2388000</v>
@@ -18148,7 +18232,7 @@
         <v>303</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E97" s="2">
         <v>2681000</v>
@@ -18165,7 +18249,7 @@
         <v>617</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="E98" s="2">
         <v>1385900</v>
@@ -18182,7 +18266,7 @@
         <v>608</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="E99" s="2">
         <v>1518000</v>
@@ -18199,7 +18283,7 @@
         <v>82</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E100" s="2">
         <v>3375900</v>
@@ -18216,7 +18300,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E101" s="2">
         <v>2828900</v>
@@ -18233,7 +18317,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E102" s="2">
         <v>4449900</v>
@@ -18250,7 +18334,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="E103" s="2">
         <v>1229000</v>
@@ -18267,7 +18351,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E104" s="2">
         <v>2499000</v>
@@ -18275,7 +18359,7 @@
     </row>
     <row r="105" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>595</v>
@@ -18284,7 +18368,7 @@
         <v>596</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="E105" s="2">
         <v>1680000</v>
@@ -18292,16 +18376,16 @@
     </row>
     <row r="106" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>596</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="E106" s="2">
         <v>1705000</v>
@@ -18309,7 +18393,7 @@
     </row>
     <row r="107" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>39</v>
@@ -18318,7 +18402,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="E107" s="2">
         <v>1510000</v>
@@ -18335,7 +18419,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E108" s="2">
         <v>2570000</v>
@@ -18352,7 +18436,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E109" s="2">
         <v>3430000</v>
@@ -18363,13 +18447,13 @@
         <v>54</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E110" s="2">
         <v>2770000</v>
@@ -18386,7 +18470,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E111" s="2">
         <v>1970000</v>
@@ -18397,13 +18481,13 @@
         <v>54</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E112" s="2">
         <v>3250000</v>
@@ -18414,13 +18498,13 @@
         <v>54</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E113" s="2">
         <v>3370000</v>
@@ -18437,7 +18521,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E114" s="2">
         <v>3759900</v>
@@ -18454,7 +18538,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E115" s="2">
         <v>3380000</v>
@@ -18471,7 +18555,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E116" s="2">
         <v>3810000</v>
@@ -18488,7 +18572,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E117" s="2">
         <v>4910000</v>
@@ -18505,7 +18589,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E118" s="2">
         <v>4550000</v>
@@ -18522,7 +18606,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E119" s="2">
         <v>2080000</v>
@@ -18539,7 +18623,7 @@
         <v>8</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E120" s="2">
         <v>2225000</v>
@@ -18556,7 +18640,7 @@
         <v>8</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E121" s="2">
         <v>2970000</v>
@@ -18573,7 +18657,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E122" s="2">
         <v>4350000</v>
@@ -18590,7 +18674,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E123" s="2">
         <v>2999900</v>
@@ -18607,7 +18691,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E124" s="2">
         <v>3479900</v>
@@ -18624,7 +18708,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E125" s="2">
         <v>1990000</v>
@@ -18641,7 +18725,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E126" s="2">
         <v>2149000</v>
@@ -18658,7 +18742,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E127" s="2">
         <v>2115000</v>
@@ -18675,7 +18759,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E128" s="2">
         <v>2238000</v>
@@ -18692,7 +18776,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E129" s="2">
         <v>2514900</v>
@@ -18709,7 +18793,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E130" s="2">
         <v>2997900</v>
@@ -18717,16 +18801,16 @@
     </row>
     <row r="131" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E131" s="2">
         <v>2549900</v>
@@ -18734,16 +18818,16 @@
     </row>
     <row r="132" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E132" s="2">
         <v>2629900</v>
@@ -18751,16 +18835,16 @@
     </row>
     <row r="133" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E133" s="2">
         <v>4100000</v>
@@ -18777,7 +18861,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="E134" s="2">
         <v>2219900</v>
@@ -18788,13 +18872,13 @@
         <v>22</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E135" s="2">
         <v>2499900</v>
@@ -18802,7 +18886,7 @@
     </row>
     <row r="136" ht="27.15" customHeight="1" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>145</v>
@@ -18811,7 +18895,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="E136" s="2">
         <v>1602000</v>
@@ -18819,7 +18903,7 @@
     </row>
     <row r="137" ht="40.35" customHeight="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>146</v>
@@ -18828,7 +18912,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="E137" s="2">
         <v>1508000</v>
@@ -18845,7 +18929,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E138" s="2">
         <v>4549990</v>
@@ -18862,7 +18946,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E139" s="2">
         <v>2479990</v>
@@ -18879,7 +18963,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="E140" s="2">
         <v>2075990</v>
@@ -18896,7 +18980,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E141" s="2">
         <v>2080990</v>
@@ -18913,7 +18997,7 @@
         <v>380</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E142" s="2">
         <v>2273000</v>
@@ -18930,7 +19014,7 @@
         <v>380</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E143" s="2">
         <v>2443000</v>
@@ -18947,7 +19031,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E144" s="2">
         <v>1341000</v>
@@ -18958,13 +19042,13 @@
         <v>344</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E145" s="2">
         <v>1381000</v>
@@ -18975,13 +19059,13 @@
         <v>344</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E146" s="2">
         <v>1493000</v>
@@ -18992,13 +19076,13 @@
         <v>344</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E147" s="2">
         <v>1533000</v>
@@ -19015,7 +19099,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E148" s="2">
         <v>1670000</v>
@@ -19032,7 +19116,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E149" s="2">
         <v>1487000</v>
@@ -19043,13 +19127,13 @@
         <v>54</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E150" s="2">
         <v>4850000</v>
@@ -19060,13 +19144,13 @@
         <v>54</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E151" s="2">
         <v>4000000</v>
@@ -19077,13 +19161,13 @@
         <v>54</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E152" s="2">
         <v>4930000</v>
@@ -19100,7 +19184,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E153" s="2">
         <v>3692990</v>
@@ -19117,7 +19201,7 @@
         <v>270</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E154" s="2">
         <v>3979000</v>
@@ -19134,7 +19218,7 @@
         <v>8</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E155" s="2">
         <v>4099000</v>
@@ -19151,7 +19235,7 @@
         <v>8</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E156" s="2">
         <v>3449000</v>
@@ -19168,7 +19252,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E157" s="2">
         <v>2799000</v>
@@ -19179,13 +19263,13 @@
         <v>200</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E158" s="2">
         <v>3549000</v>
@@ -19196,13 +19280,13 @@
         <v>200</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E159" s="2">
         <v>3299000</v>
@@ -19219,7 +19303,7 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E160" s="2">
         <v>7374900</v>
@@ -19236,7 +19320,7 @@
         <v>270</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E161" s="2">
         <v>3789900</v>
@@ -19253,7 +19337,7 @@
         <v>51</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E162" s="2">
         <v>5829900</v>
@@ -19270,7 +19354,7 @@
         <v>270</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E163" s="2">
         <v>4144900</v>
@@ -19278,16 +19362,16 @@
     </row>
     <row r="164" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E164" s="2">
         <v>1672000</v>
@@ -19304,7 +19388,7 @@
         <v>8</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E165" s="2">
         <v>2040546</v>
@@ -19321,7 +19405,7 @@
         <v>8</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E166" s="2">
         <v>3100000</v>
@@ -19338,7 +19422,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E167" s="2">
         <v>2990000</v>
@@ -19355,7 +19439,7 @@
         <v>312</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="E168" s="2">
         <v>8669500</v>
@@ -19372,7 +19456,7 @@
         <v>677</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E169" s="2">
         <v>4291000</v>
@@ -19389,7 +19473,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E170" s="2">
         <v>6146500</v>
@@ -19397,7 +19481,7 @@
     </row>
     <row r="171" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>274</v>
@@ -19406,7 +19490,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E171" s="2">
         <v>1889000</v>
@@ -19414,7 +19498,7 @@
     </row>
     <row r="172" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>276</v>
@@ -19423,7 +19507,7 @@
         <v>8</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E172" s="2">
         <v>2399000</v>
@@ -19431,7 +19515,7 @@
     </row>
     <row r="173" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>653</v>
@@ -19440,7 +19524,7 @@
         <v>8</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E173" s="2">
         <v>3059000</v>
@@ -19448,16 +19532,16 @@
     </row>
     <row r="174" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E174" s="2">
         <v>3279000</v>
@@ -19465,7 +19549,7 @@
     </row>
     <row r="175" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>654</v>
@@ -19474,7 +19558,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E175" s="2">
         <v>3599000</v>
@@ -19482,7 +19566,7 @@
     </row>
     <row r="176" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>175</v>
@@ -19491,7 +19575,7 @@
         <v>8</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E176" s="2">
         <v>5499999</v>
@@ -19499,7 +19583,7 @@
     </row>
     <row r="177" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>172</v>
@@ -19508,7 +19592,7 @@
         <v>103</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E177" s="2">
         <v>4099000</v>
@@ -19516,7 +19600,7 @@
     </row>
     <row r="178" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>169</v>
@@ -19525,7 +19609,7 @@
         <v>8</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E178" s="2">
         <v>2449000</v>
@@ -19536,13 +19620,13 @@
         <v>22</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E179" s="2">
         <v>4529900</v>
@@ -19559,7 +19643,7 @@
         <v>8</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E180" s="2">
         <v>3739900</v>
@@ -19570,13 +19654,13 @@
         <v>22</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E181" s="2">
         <v>5219900</v>
@@ -19587,13 +19671,13 @@
         <v>54</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E182" s="2">
         <v>2780000</v>
@@ -19610,7 +19694,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E183" s="2">
         <v>2020000</v>
@@ -19627,7 +19711,7 @@
         <v>8</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E184" s="2">
         <v>2650000</v>
@@ -19644,7 +19728,7 @@
         <v>8</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E185" s="2">
         <v>2080000</v>
@@ -19661,7 +19745,7 @@
         <v>8</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E186" s="2">
         <v>2181000</v>
@@ -19678,7 +19762,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E187" s="2">
         <v>2279000</v>
@@ -19695,7 +19779,7 @@
         <v>103</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E188" s="2">
         <v>2899000</v>
@@ -19712,7 +19796,7 @@
         <v>82</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E189" s="2">
         <v>2379000</v>
@@ -19720,16 +19804,16 @@
     </row>
     <row r="190" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E190" s="2">
         <v>2499000</v>
@@ -19737,7 +19821,7 @@
     </row>
     <row r="191" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>473</v>
@@ -19746,7 +19830,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E191" s="2">
         <v>2479900</v>
@@ -19763,7 +19847,7 @@
         <v>8</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E192" s="2">
         <v>3959000</v>
@@ -19774,13 +19858,13 @@
         <v>121</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E193" s="2">
         <v>2890000</v>
@@ -19791,13 +19875,13 @@
         <v>121</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E194" s="2">
         <v>4080000</v>
@@ -19808,13 +19892,13 @@
         <v>121</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E195" s="2">
         <v>6290000</v>
@@ -19822,7 +19906,7 @@
     </row>
     <row r="196" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B196" s="2">
         <v>6</v>
@@ -19831,7 +19915,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E196" s="2">
         <v>2200000</v>
@@ -19839,7 +19923,7 @@
     </row>
     <row r="197" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>284</v>
@@ -19848,7 +19932,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E197" s="2">
         <v>4599000</v>
@@ -19865,7 +19949,7 @@
         <v>8</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E198" s="2">
         <v>2199000</v>
@@ -19876,13 +19960,13 @@
         <v>215</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E199" s="2">
         <v>4599000</v>
@@ -19893,13 +19977,13 @@
         <v>105</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E200" s="2">
         <v>1990000</v>
@@ -19910,13 +19994,13 @@
         <v>105</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E201" s="2">
         <v>3590000</v>
@@ -19933,7 +20017,7 @@
         <v>8</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E202" s="2">
         <v>2650000</v>
@@ -19944,13 +20028,13 @@
         <v>215</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E203" s="2">
         <v>2849000</v>
@@ -19958,7 +20042,7 @@
     </row>
     <row r="204" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>171</v>
@@ -19967,7 +20051,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E204" s="2">
         <v>2099000</v>
@@ -19984,7 +20068,7 @@
         <v>8</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="E205" s="2">
         <v>1263000</v>
@@ -20001,7 +20085,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E206" s="2">
         <v>1546500</v>
@@ -20018,7 +20102,7 @@
         <v>8</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="E207" s="2">
         <v>883000</v>
@@ -20035,7 +20119,7 @@
         <v>8</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="E208" s="2">
         <v>825000</v>
@@ -20052,7 +20136,7 @@
         <v>8</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="E209" s="2">
         <v>851000</v>
@@ -20063,13 +20147,13 @@
         <v>176</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E210" s="2">
         <v>3357990</v>
@@ -20080,13 +20164,13 @@
         <v>215</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E211" s="2">
         <v>3899000</v>
@@ -20103,7 +20187,7 @@
         <v>8</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E212" s="2">
         <v>1990000</v>
@@ -20120,7 +20204,7 @@
         <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E213" s="2">
         <v>2199000</v>
@@ -20137,7 +20221,7 @@
         <v>8</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="E214" s="2">
         <v>789900</v>
@@ -20154,7 +20238,7 @@
         <v>51</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="E215" s="2">
         <v>869900</v>
@@ -20171,7 +20255,7 @@
         <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="E216" s="2">
         <v>1089000</v>
@@ -20188,7 +20272,7 @@
         <v>8</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="E217" s="2">
         <v>999900</v>
@@ -20205,7 +20289,7 @@
         <v>8</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="E218" s="2">
         <v>1455000</v>
@@ -20222,7 +20306,7 @@
         <v>103</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="E219" s="2">
         <v>809900</v>
@@ -20239,7 +20323,7 @@
         <v>8</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E220" s="2">
         <v>2000000</v>
@@ -20256,7 +20340,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="E221" s="2">
         <v>1229900</v>
@@ -20273,7 +20357,7 @@
         <v>8</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="E222" s="2">
         <v>2656800</v>
@@ -20284,13 +20368,13 @@
         <v>344</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="E223" s="2">
         <v>824000</v>
@@ -20301,13 +20385,13 @@
         <v>300</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="E224" s="2">
         <v>1204900</v>
@@ -20324,7 +20408,7 @@
         <v>8</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E225" s="2">
         <v>2234900</v>
@@ -20332,7 +20416,7 @@
     </row>
     <row r="226" ht="40.35" customHeight="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>138</v>
@@ -20341,7 +20425,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="E226" s="2">
         <v>2673000</v>
@@ -20358,7 +20442,7 @@
         <v>8</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="E227" s="2">
         <v>1419990</v>
@@ -20366,7 +20450,7 @@
     </row>
     <row r="228" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>277</v>
@@ -20375,7 +20459,7 @@
         <v>8</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="E228" s="2">
         <v>1494000</v>
@@ -20392,7 +20476,7 @@
         <v>8</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E229" s="2">
         <v>2849990</v>
@@ -20406,10 +20490,10 @@
         <v>591</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E230" s="2">
         <v>3173000</v>
@@ -20420,13 +20504,13 @@
         <v>54</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E231" s="2">
         <v>2380000</v>
@@ -20443,7 +20527,7 @@
         <v>8</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E232" s="2">
         <v>2599000</v>
@@ -20451,16 +20535,16 @@
     </row>
     <row r="233" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E233" s="2">
         <v>2999000</v>
@@ -20471,13 +20555,13 @@
         <v>22</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E234" s="2">
         <v>3590000</v>
@@ -20485,16 +20569,16 @@
     </row>
     <row r="235" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E235" s="2">
         <v>2569900</v>
@@ -20511,7 +20595,7 @@
         <v>8</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E236" s="2">
         <v>4750000</v>
@@ -20519,16 +20603,16 @@
     </row>
     <row r="237" ht="40.35" customHeight="1" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E237" s="2">
         <v>2499990</v>
@@ -20536,7 +20620,7 @@
     </row>
     <row r="238" ht="27.15" customHeight="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>793</v>
@@ -20545,7 +20629,7 @@
         <v>8</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E238" s="2">
         <v>2779990</v>
@@ -20562,7 +20646,7 @@
         <v>51</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E239" s="2">
         <v>2649000</v>
@@ -20579,7 +20663,7 @@
         <v>5</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E240" s="2">
         <v>1899000</v>
@@ -20596,7 +20680,7 @@
         <v>8</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E241" s="2">
         <v>2825990</v>
@@ -20604,7 +20688,7 @@
     </row>
     <row r="242" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="B242" s="2">
         <v>400</v>
@@ -20613,7 +20697,7 @@
         <v>8</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E242" s="2">
         <v>5799000</v>
@@ -20621,7 +20705,7 @@
     </row>
     <row r="243" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>280</v>
@@ -20630,7 +20714,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="E243" s="2">
         <v>2899000</v>
@@ -20647,7 +20731,7 @@
         <v>8</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E244" s="2">
         <v>1887500</v>
@@ -20664,7 +20748,7 @@
         <v>8</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E245" s="2">
         <v>1805000</v>
@@ -20681,7 +20765,7 @@
         <v>8</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E246" s="2">
         <v>1684500</v>
@@ -20689,7 +20773,7 @@
     </row>
     <row r="247" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>785</v>
@@ -20698,7 +20782,7 @@
         <v>8</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E247" s="2">
         <v>3899000</v>
@@ -20706,7 +20790,7 @@
     </row>
     <row r="248" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>784</v>
@@ -20715,7 +20799,7 @@
         <v>8</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E248" s="2">
         <v>3099000</v>
@@ -20723,7 +20807,7 @@
     </row>
     <row r="249" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -20732,7 +20816,7 @@
         <v>8</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E249" s="2">
         <v>4162990</v>

--- a/id.xlsx
+++ b/id.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$917</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$923</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="1091">
   <si>
     <t>Aito</t>
   </si>
@@ -2966,6 +2966,12 @@
   </si>
   <si>
     <t>Monza</t>
+  </si>
+  <si>
+    <t>C7 4WD</t>
+  </si>
+  <si>
+    <t>C7</t>
   </si>
   <si>
     <t>Марка</t>
@@ -4289,10 +4295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G923"/>
+  <dimension ref="A1:G925"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A898" workbookViewId="0">
-      <selection activeCell="G919" sqref="G919"/>
+    <sheetView tabSelected="1" topLeftCell="A905" workbookViewId="0">
+      <selection activeCell="F920" sqref="F920"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -16569,8 +16575,30 @@
         <v>977</v>
       </c>
     </row>
+    <row r="924" spans="1:3">
+      <c r="A924">
+        <v>1023</v>
+      </c>
+      <c r="B924" t="s">
+        <v>471</v>
+      </c>
+      <c r="C924" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3">
+      <c r="A925">
+        <v>1024</v>
+      </c>
+      <c r="B925" t="s">
+        <v>471</v>
+      </c>
+      <c r="C925" t="s">
+        <v>979</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G917" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G923" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16591,19 +16619,19 @@
   <sheetData>
     <row r="1" ht="27.15" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="2" ht="40.35" hidden="1" customHeight="1" spans="1:5">
@@ -16611,13 +16639,13 @@
         <v>344</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>380</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E2" s="2">
         <v>1239900</v>
@@ -16634,7 +16662,7 @@
         <v>380</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E3" s="2">
         <v>1759000</v>
@@ -16651,7 +16679,7 @@
         <v>380</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E4" s="2">
         <v>1655000</v>
@@ -16668,7 +16696,7 @@
         <v>380</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E5" s="2">
         <v>1879000</v>
@@ -16679,13 +16707,13 @@
         <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E6" s="2">
         <v>1077000</v>
@@ -16702,7 +16730,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E7" s="2">
         <v>1408000</v>
@@ -16713,13 +16741,13 @@
         <v>344</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E8" s="2">
         <v>749900</v>
@@ -16736,7 +16764,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E9" s="2">
         <v>1175000</v>
@@ -16753,7 +16781,7 @@
         <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="E10" s="2">
         <v>2149000</v>
@@ -16770,7 +16798,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E11" s="2">
         <v>1660000</v>
@@ -16787,7 +16815,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E12" s="2">
         <v>2020000</v>
@@ -16804,7 +16832,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E13" s="2">
         <v>1859000</v>
@@ -16821,7 +16849,7 @@
         <v>303</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E14" s="2">
         <v>1334900</v>
@@ -16832,13 +16860,13 @@
         <v>176</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E15" s="2">
         <v>3512990</v>
@@ -16855,7 +16883,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E16" s="2">
         <v>2836990</v>
@@ -16872,7 +16900,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E17" s="2">
         <v>1850000</v>
@@ -16889,7 +16917,7 @@
         <v>270</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="E18" s="2">
         <v>2749000</v>
@@ -16906,7 +16934,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E19" s="2">
         <v>2179990</v>
@@ -16917,13 +16945,13 @@
         <v>176</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E20" s="2">
         <v>2794990</v>
@@ -16940,7 +16968,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E21" s="2">
         <v>3959990</v>
@@ -16948,7 +16976,7 @@
     </row>
     <row r="22" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -16957,7 +16985,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E22" s="2">
         <v>4499000</v>
@@ -16965,7 +16993,7 @@
     </row>
     <row r="23" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
@@ -16974,7 +17002,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E23" s="2">
         <v>6799000</v>
@@ -16985,13 +17013,13 @@
         <v>344</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E24" s="2">
         <v>778500</v>
@@ -17002,13 +17030,13 @@
         <v>344</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E25" s="2">
         <v>719300</v>
@@ -17019,13 +17047,13 @@
         <v>344</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E26" s="2">
         <v>950900</v>
@@ -17042,7 +17070,7 @@
         <v>380</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E27" s="2">
         <v>1316900</v>
@@ -17053,13 +17081,13 @@
         <v>242</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E28" s="2">
         <v>2769000</v>
@@ -17076,7 +17104,7 @@
         <v>303</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E29" s="2">
         <v>2244900</v>
@@ -17093,7 +17121,7 @@
         <v>259</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E30" s="2">
         <v>1574900</v>
@@ -17110,7 +17138,7 @@
         <v>259</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E31" s="2">
         <v>1434900</v>
@@ -17121,13 +17149,13 @@
         <v>344</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E32" s="2">
         <v>1059000</v>
@@ -17144,7 +17172,7 @@
         <v>259</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="E33" s="2">
         <v>3969000</v>
@@ -17161,7 +17189,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E34" s="2">
         <v>1314000</v>
@@ -17172,13 +17200,13 @@
         <v>215</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E35" s="2">
         <v>2149000</v>
@@ -17195,7 +17223,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E36" s="2">
         <v>2599000</v>
@@ -17206,13 +17234,13 @@
         <v>215</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E37" s="2">
         <v>2599000</v>
@@ -17229,7 +17257,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E38" s="2">
         <v>5269000</v>
@@ -17246,7 +17274,7 @@
         <v>303</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E39" s="2">
         <v>2314900</v>
@@ -17257,13 +17285,13 @@
         <v>344</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E40" s="2">
         <v>918900</v>
@@ -17280,7 +17308,7 @@
         <v>259</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E41" s="2">
         <v>2159900</v>
@@ -17297,7 +17325,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E42" s="2">
         <v>1106900</v>
@@ -17314,7 +17342,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E43" s="2">
         <v>1249900</v>
@@ -17331,7 +17359,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E44" s="2">
         <v>2900000</v>
@@ -17342,13 +17370,13 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E45" s="2">
         <v>2439900</v>
@@ -17365,7 +17393,7 @@
         <v>312</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E46" s="2">
         <v>2734900</v>
@@ -17382,7 +17410,7 @@
         <v>312</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E47" s="2">
         <v>1934900</v>
@@ -17399,7 +17427,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E48" s="2">
         <v>2064900</v>
@@ -17416,7 +17444,7 @@
         <v>334</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E49" s="2">
         <v>2849900</v>
@@ -17424,7 +17452,7 @@
     </row>
     <row r="50" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>279</v>
@@ -17433,7 +17461,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E50" s="2">
         <v>1779000</v>
@@ -17441,7 +17469,7 @@
     </row>
     <row r="51" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>273</v>
@@ -17450,7 +17478,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E51" s="2">
         <v>2150000</v>
@@ -17458,7 +17486,7 @@
     </row>
     <row r="52" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>278</v>
@@ -17467,7 +17495,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E52" s="2">
         <v>2129900</v>
@@ -17475,7 +17503,7 @@
     </row>
     <row r="53" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>472</v>
@@ -17484,7 +17512,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E53" s="2">
         <v>2369900</v>
@@ -17501,7 +17529,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E54" s="2">
         <v>1690000</v>
@@ -17518,7 +17546,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E55" s="2">
         <v>2869900</v>
@@ -17529,13 +17557,13 @@
         <v>22</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E56" s="2">
         <v>2569900</v>
@@ -17546,13 +17574,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E57" s="2">
         <v>2839900</v>
@@ -17569,7 +17597,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E58" s="2">
         <v>3969900</v>
@@ -17586,7 +17614,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E59" s="2">
         <v>3069900</v>
@@ -17603,7 +17631,7 @@
         <v>26</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E60" s="2">
         <v>3069900</v>
@@ -17614,13 +17642,13 @@
         <v>22</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E61" s="2">
         <v>2899900</v>
@@ -17628,7 +17656,7 @@
     </row>
     <row r="62" ht="40.35" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>135</v>
@@ -17637,7 +17665,7 @@
         <v>26</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E62" s="2">
         <v>2374000</v>
@@ -17645,7 +17673,7 @@
     </row>
     <row r="63" ht="40.35" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>136</v>
@@ -17654,7 +17682,7 @@
         <v>26</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E63" s="2">
         <v>2411000</v>
@@ -17662,7 +17690,7 @@
     </row>
     <row r="64" ht="40.35" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>137</v>
@@ -17671,7 +17699,7 @@
         <v>26</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E64" s="2">
         <v>2024000</v>
@@ -17688,7 +17716,7 @@
         <v>82</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E65" s="2">
         <v>1124000</v>
@@ -17705,7 +17733,7 @@
         <v>103</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E66" s="2">
         <v>1051000</v>
@@ -17722,7 +17750,7 @@
         <v>534</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E67" s="2">
         <v>1657000</v>
@@ -17739,7 +17767,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E68" s="2">
         <v>1705000</v>
@@ -17756,7 +17784,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E69" s="2">
         <v>1699900</v>
@@ -17773,7 +17801,7 @@
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E70" s="2">
         <v>2489900</v>
@@ -17781,7 +17809,7 @@
     </row>
     <row r="71" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>273</v>
@@ -17790,7 +17818,7 @@
         <v>26</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E71" s="2">
         <v>2959900</v>
@@ -17798,7 +17826,7 @@
     </row>
     <row r="72" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
@@ -17807,7 +17835,7 @@
         <v>26</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E72" s="2">
         <v>1765000</v>
@@ -17824,7 +17852,7 @@
         <v>226</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="E73" s="2">
         <v>4409000</v>
@@ -17841,7 +17869,7 @@
         <v>226</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="E74" s="2">
         <v>1690000</v>
@@ -17858,7 +17886,7 @@
         <v>85</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E75" s="2">
         <v>950900</v>
@@ -17875,7 +17903,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E76" s="2">
         <v>880900</v>
@@ -17892,7 +17920,7 @@
         <v>82</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E77" s="2">
         <v>953900</v>
@@ -17909,7 +17937,7 @@
         <v>103</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E78" s="2">
         <v>2179000</v>
@@ -17926,7 +17954,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E79" s="2">
         <v>1579000</v>
@@ -17943,7 +17971,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E80" s="2">
         <v>4299000</v>
@@ -17960,7 +17988,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="E81" s="2">
         <v>2049000</v>
@@ -17977,7 +18005,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E82" s="2">
         <v>3149000</v>
@@ -17994,7 +18022,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E83" s="2">
         <v>2337000</v>
@@ -18005,13 +18033,13 @@
         <v>457</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E84" s="2">
         <v>2762000</v>
@@ -18028,7 +18056,7 @@
         <v>103</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E85" s="2">
         <v>1618000</v>
@@ -18045,7 +18073,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E86" s="2">
         <v>1301000</v>
@@ -18062,7 +18090,7 @@
         <v>82</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E87" s="2">
         <v>1258000</v>
@@ -18079,7 +18107,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E88" s="2">
         <v>1373000</v>
@@ -18096,7 +18124,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E89" s="2">
         <v>1724000</v>
@@ -18113,7 +18141,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E90" s="2">
         <v>1874000</v>
@@ -18130,7 +18158,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E91" s="2">
         <v>2057000</v>
@@ -18147,7 +18175,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E92" s="2">
         <v>2118900</v>
@@ -18164,7 +18192,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E93" s="2">
         <v>3248000</v>
@@ -18181,7 +18209,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E94" s="2">
         <v>5378000</v>
@@ -18198,7 +18226,7 @@
         <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E95" s="2">
         <v>5806000</v>
@@ -18215,7 +18243,7 @@
         <v>303</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E96" s="2">
         <v>2388000</v>
@@ -18232,7 +18260,7 @@
         <v>303</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E97" s="2">
         <v>2681000</v>
@@ -18249,7 +18277,7 @@
         <v>617</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E98" s="2">
         <v>1385900</v>
@@ -18266,7 +18294,7 @@
         <v>608</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E99" s="2">
         <v>1518000</v>
@@ -18283,7 +18311,7 @@
         <v>82</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E100" s="2">
         <v>3375900</v>
@@ -18300,7 +18328,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E101" s="2">
         <v>2828900</v>
@@ -18317,7 +18345,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E102" s="2">
         <v>4449900</v>
@@ -18334,7 +18362,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E103" s="2">
         <v>1229000</v>
@@ -18351,7 +18379,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E104" s="2">
         <v>2499000</v>
@@ -18359,7 +18387,7 @@
     </row>
     <row r="105" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>595</v>
@@ -18368,7 +18396,7 @@
         <v>596</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E105" s="2">
         <v>1680000</v>
@@ -18376,16 +18404,16 @@
     </row>
     <row r="106" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>596</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E106" s="2">
         <v>1705000</v>
@@ -18393,7 +18421,7 @@
     </row>
     <row r="107" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>39</v>
@@ -18402,7 +18430,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E107" s="2">
         <v>1510000</v>
@@ -18419,7 +18447,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E108" s="2">
         <v>2570000</v>
@@ -18436,7 +18464,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E109" s="2">
         <v>3430000</v>
@@ -18447,13 +18475,13 @@
         <v>54</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E110" s="2">
         <v>2770000</v>
@@ -18470,7 +18498,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E111" s="2">
         <v>1970000</v>
@@ -18481,13 +18509,13 @@
         <v>54</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E112" s="2">
         <v>3250000</v>
@@ -18498,13 +18526,13 @@
         <v>54</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E113" s="2">
         <v>3370000</v>
@@ -18521,7 +18549,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E114" s="2">
         <v>3759900</v>
@@ -18538,7 +18566,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E115" s="2">
         <v>3380000</v>
@@ -18555,7 +18583,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E116" s="2">
         <v>3810000</v>
@@ -18572,7 +18600,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E117" s="2">
         <v>4910000</v>
@@ -18589,7 +18617,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E118" s="2">
         <v>4550000</v>
@@ -18606,7 +18634,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E119" s="2">
         <v>2080000</v>
@@ -18623,7 +18651,7 @@
         <v>8</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E120" s="2">
         <v>2225000</v>
@@ -18640,7 +18668,7 @@
         <v>8</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E121" s="2">
         <v>2970000</v>
@@ -18657,7 +18685,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E122" s="2">
         <v>4350000</v>
@@ -18674,7 +18702,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E123" s="2">
         <v>2999900</v>
@@ -18691,7 +18719,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E124" s="2">
         <v>3479900</v>
@@ -18708,7 +18736,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E125" s="2">
         <v>1990000</v>
@@ -18725,7 +18753,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E126" s="2">
         <v>2149000</v>
@@ -18742,7 +18770,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E127" s="2">
         <v>2115000</v>
@@ -18759,7 +18787,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E128" s="2">
         <v>2238000</v>
@@ -18776,7 +18804,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E129" s="2">
         <v>2514900</v>
@@ -18793,7 +18821,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E130" s="2">
         <v>2997900</v>
@@ -18801,16 +18829,16 @@
     </row>
     <row r="131" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E131" s="2">
         <v>2549900</v>
@@ -18818,16 +18846,16 @@
     </row>
     <row r="132" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E132" s="2">
         <v>2629900</v>
@@ -18835,16 +18863,16 @@
     </row>
     <row r="133" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E133" s="2">
         <v>4100000</v>
@@ -18861,7 +18889,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E134" s="2">
         <v>2219900</v>
@@ -18872,13 +18900,13 @@
         <v>22</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E135" s="2">
         <v>2499900</v>
@@ -18886,7 +18914,7 @@
     </row>
     <row r="136" ht="27.15" customHeight="1" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>145</v>
@@ -18895,7 +18923,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E136" s="2">
         <v>1602000</v>
@@ -18903,7 +18931,7 @@
     </row>
     <row r="137" ht="40.35" customHeight="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>146</v>
@@ -18912,7 +18940,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E137" s="2">
         <v>1508000</v>
@@ -18929,7 +18957,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E138" s="2">
         <v>4549990</v>
@@ -18946,7 +18974,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E139" s="2">
         <v>2479990</v>
@@ -18963,7 +18991,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E140" s="2">
         <v>2075990</v>
@@ -18980,7 +19008,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E141" s="2">
         <v>2080990</v>
@@ -18997,7 +19025,7 @@
         <v>380</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E142" s="2">
         <v>2273000</v>
@@ -19014,7 +19042,7 @@
         <v>380</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E143" s="2">
         <v>2443000</v>
@@ -19031,7 +19059,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E144" s="2">
         <v>1341000</v>
@@ -19042,13 +19070,13 @@
         <v>344</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E145" s="2">
         <v>1381000</v>
@@ -19059,13 +19087,13 @@
         <v>344</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E146" s="2">
         <v>1493000</v>
@@ -19076,13 +19104,13 @@
         <v>344</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E147" s="2">
         <v>1533000</v>
@@ -19099,7 +19127,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E148" s="2">
         <v>1670000</v>
@@ -19116,7 +19144,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E149" s="2">
         <v>1487000</v>
@@ -19127,13 +19155,13 @@
         <v>54</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E150" s="2">
         <v>4850000</v>
@@ -19144,13 +19172,13 @@
         <v>54</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E151" s="2">
         <v>4000000</v>
@@ -19161,13 +19189,13 @@
         <v>54</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E152" s="2">
         <v>4930000</v>
@@ -19184,7 +19212,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E153" s="2">
         <v>3692990</v>
@@ -19201,7 +19229,7 @@
         <v>270</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="E154" s="2">
         <v>3979000</v>
@@ -19218,7 +19246,7 @@
         <v>8</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E155" s="2">
         <v>4099000</v>
@@ -19235,7 +19263,7 @@
         <v>8</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E156" s="2">
         <v>3449000</v>
@@ -19252,7 +19280,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E157" s="2">
         <v>2799000</v>
@@ -19263,13 +19291,13 @@
         <v>200</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E158" s="2">
         <v>3549000</v>
@@ -19280,13 +19308,13 @@
         <v>200</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E159" s="2">
         <v>3299000</v>
@@ -19303,7 +19331,7 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E160" s="2">
         <v>7374900</v>
@@ -19320,7 +19348,7 @@
         <v>270</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E161" s="2">
         <v>3789900</v>
@@ -19337,7 +19365,7 @@
         <v>51</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E162" s="2">
         <v>5829900</v>
@@ -19354,7 +19382,7 @@
         <v>270</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E163" s="2">
         <v>4144900</v>
@@ -19362,16 +19390,16 @@
     </row>
     <row r="164" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E164" s="2">
         <v>1672000</v>
@@ -19388,7 +19416,7 @@
         <v>8</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E165" s="2">
         <v>2040546</v>
@@ -19405,7 +19433,7 @@
         <v>8</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E166" s="2">
         <v>3100000</v>
@@ -19422,7 +19450,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E167" s="2">
         <v>2990000</v>
@@ -19439,7 +19467,7 @@
         <v>312</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E168" s="2">
         <v>8669500</v>
@@ -19456,7 +19484,7 @@
         <v>677</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E169" s="2">
         <v>4291000</v>
@@ -19473,7 +19501,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E170" s="2">
         <v>6146500</v>
@@ -19481,7 +19509,7 @@
     </row>
     <row r="171" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>274</v>
@@ -19490,7 +19518,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E171" s="2">
         <v>1889000</v>
@@ -19498,7 +19526,7 @@
     </row>
     <row r="172" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>276</v>
@@ -19507,7 +19535,7 @@
         <v>8</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E172" s="2">
         <v>2399000</v>
@@ -19515,7 +19543,7 @@
     </row>
     <row r="173" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>653</v>
@@ -19524,7 +19552,7 @@
         <v>8</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E173" s="2">
         <v>3059000</v>
@@ -19532,16 +19560,16 @@
     </row>
     <row r="174" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E174" s="2">
         <v>3279000</v>
@@ -19549,7 +19577,7 @@
     </row>
     <row r="175" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>654</v>
@@ -19558,7 +19586,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E175" s="2">
         <v>3599000</v>
@@ -19566,7 +19594,7 @@
     </row>
     <row r="176" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>175</v>
@@ -19575,7 +19603,7 @@
         <v>8</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E176" s="2">
         <v>5499999</v>
@@ -19583,7 +19611,7 @@
     </row>
     <row r="177" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>172</v>
@@ -19592,7 +19620,7 @@
         <v>103</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E177" s="2">
         <v>4099000</v>
@@ -19600,7 +19628,7 @@
     </row>
     <row r="178" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>169</v>
@@ -19609,7 +19637,7 @@
         <v>8</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E178" s="2">
         <v>2449000</v>
@@ -19620,13 +19648,13 @@
         <v>22</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E179" s="2">
         <v>4529900</v>
@@ -19643,7 +19671,7 @@
         <v>8</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E180" s="2">
         <v>3739900</v>
@@ -19654,13 +19682,13 @@
         <v>22</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E181" s="2">
         <v>5219900</v>
@@ -19671,13 +19699,13 @@
         <v>54</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E182" s="2">
         <v>2780000</v>
@@ -19694,7 +19722,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E183" s="2">
         <v>2020000</v>
@@ -19711,7 +19739,7 @@
         <v>8</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E184" s="2">
         <v>2650000</v>
@@ -19728,7 +19756,7 @@
         <v>8</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E185" s="2">
         <v>2080000</v>
@@ -19745,7 +19773,7 @@
         <v>8</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E186" s="2">
         <v>2181000</v>
@@ -19762,7 +19790,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E187" s="2">
         <v>2279000</v>
@@ -19779,7 +19807,7 @@
         <v>103</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E188" s="2">
         <v>2899000</v>
@@ -19796,7 +19824,7 @@
         <v>82</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E189" s="2">
         <v>2379000</v>
@@ -19804,16 +19832,16 @@
     </row>
     <row r="190" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E190" s="2">
         <v>2499000</v>
@@ -19821,7 +19849,7 @@
     </row>
     <row r="191" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>473</v>
@@ -19830,7 +19858,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E191" s="2">
         <v>2479900</v>
@@ -19847,7 +19875,7 @@
         <v>8</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E192" s="2">
         <v>3959000</v>
@@ -19858,13 +19886,13 @@
         <v>121</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E193" s="2">
         <v>2890000</v>
@@ -19875,13 +19903,13 @@
         <v>121</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E194" s="2">
         <v>4080000</v>
@@ -19892,13 +19920,13 @@
         <v>121</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E195" s="2">
         <v>6290000</v>
@@ -19906,7 +19934,7 @@
     </row>
     <row r="196" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B196" s="2">
         <v>6</v>
@@ -19915,7 +19943,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E196" s="2">
         <v>2200000</v>
@@ -19923,7 +19951,7 @@
     </row>
     <row r="197" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>284</v>
@@ -19932,7 +19960,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E197" s="2">
         <v>4599000</v>
@@ -19949,7 +19977,7 @@
         <v>8</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E198" s="2">
         <v>2199000</v>
@@ -19960,13 +19988,13 @@
         <v>215</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E199" s="2">
         <v>4599000</v>
@@ -19977,13 +20005,13 @@
         <v>105</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E200" s="2">
         <v>1990000</v>
@@ -19994,13 +20022,13 @@
         <v>105</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E201" s="2">
         <v>3590000</v>
@@ -20017,7 +20045,7 @@
         <v>8</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E202" s="2">
         <v>2650000</v>
@@ -20028,13 +20056,13 @@
         <v>215</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E203" s="2">
         <v>2849000</v>
@@ -20042,7 +20070,7 @@
     </row>
     <row r="204" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>171</v>
@@ -20051,7 +20079,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E204" s="2">
         <v>2099000</v>
@@ -20068,7 +20096,7 @@
         <v>8</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E205" s="2">
         <v>1263000</v>
@@ -20085,7 +20113,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E206" s="2">
         <v>1546500</v>
@@ -20102,7 +20130,7 @@
         <v>8</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E207" s="2">
         <v>883000</v>
@@ -20119,7 +20147,7 @@
         <v>8</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E208" s="2">
         <v>825000</v>
@@ -20136,7 +20164,7 @@
         <v>8</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E209" s="2">
         <v>851000</v>
@@ -20147,13 +20175,13 @@
         <v>176</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E210" s="2">
         <v>3357990</v>
@@ -20164,13 +20192,13 @@
         <v>215</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E211" s="2">
         <v>3899000</v>
@@ -20187,7 +20215,7 @@
         <v>8</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E212" s="2">
         <v>1990000</v>
@@ -20204,7 +20232,7 @@
         <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E213" s="2">
         <v>2199000</v>
@@ -20221,7 +20249,7 @@
         <v>8</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E214" s="2">
         <v>789900</v>
@@ -20238,7 +20266,7 @@
         <v>51</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="E215" s="2">
         <v>869900</v>
@@ -20255,7 +20283,7 @@
         <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="E216" s="2">
         <v>1089000</v>
@@ -20272,7 +20300,7 @@
         <v>8</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E217" s="2">
         <v>999900</v>
@@ -20289,7 +20317,7 @@
         <v>8</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E218" s="2">
         <v>1455000</v>
@@ -20306,7 +20334,7 @@
         <v>103</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="E219" s="2">
         <v>809900</v>
@@ -20323,7 +20351,7 @@
         <v>8</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="E220" s="2">
         <v>2000000</v>
@@ -20340,7 +20368,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E221" s="2">
         <v>1229900</v>
@@ -20357,7 +20385,7 @@
         <v>8</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E222" s="2">
         <v>2656800</v>
@@ -20368,13 +20396,13 @@
         <v>344</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E223" s="2">
         <v>824000</v>
@@ -20385,13 +20413,13 @@
         <v>300</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E224" s="2">
         <v>1204900</v>
@@ -20408,7 +20436,7 @@
         <v>8</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E225" s="2">
         <v>2234900</v>
@@ -20416,7 +20444,7 @@
     </row>
     <row r="226" ht="40.35" customHeight="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>138</v>
@@ -20425,7 +20453,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E226" s="2">
         <v>2673000</v>
@@ -20442,7 +20470,7 @@
         <v>8</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E227" s="2">
         <v>1419990</v>
@@ -20450,7 +20478,7 @@
     </row>
     <row r="228" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>277</v>
@@ -20459,7 +20487,7 @@
         <v>8</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="E228" s="2">
         <v>1494000</v>
@@ -20476,7 +20504,7 @@
         <v>8</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E229" s="2">
         <v>2849990</v>
@@ -20490,10 +20518,10 @@
         <v>591</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E230" s="2">
         <v>3173000</v>
@@ -20504,13 +20532,13 @@
         <v>54</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E231" s="2">
         <v>2380000</v>
@@ -20527,7 +20555,7 @@
         <v>8</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E232" s="2">
         <v>2599000</v>
@@ -20535,16 +20563,16 @@
     </row>
     <row r="233" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E233" s="2">
         <v>2999000</v>
@@ -20555,13 +20583,13 @@
         <v>22</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E234" s="2">
         <v>3590000</v>
@@ -20569,16 +20597,16 @@
     </row>
     <row r="235" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E235" s="2">
         <v>2569900</v>
@@ -20595,7 +20623,7 @@
         <v>8</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E236" s="2">
         <v>4750000</v>
@@ -20603,16 +20631,16 @@
     </row>
     <row r="237" ht="40.35" customHeight="1" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E237" s="2">
         <v>2499990</v>
@@ -20620,7 +20648,7 @@
     </row>
     <row r="238" ht="27.15" customHeight="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>793</v>
@@ -20629,7 +20657,7 @@
         <v>8</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E238" s="2">
         <v>2779990</v>
@@ -20646,7 +20674,7 @@
         <v>51</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E239" s="2">
         <v>2649000</v>
@@ -20663,7 +20691,7 @@
         <v>5</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E240" s="2">
         <v>1899000</v>
@@ -20680,7 +20708,7 @@
         <v>8</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E241" s="2">
         <v>2825990</v>
@@ -20688,7 +20716,7 @@
     </row>
     <row r="242" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B242" s="2">
         <v>400</v>
@@ -20697,7 +20725,7 @@
         <v>8</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E242" s="2">
         <v>5799000</v>
@@ -20705,7 +20733,7 @@
     </row>
     <row r="243" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>280</v>
@@ -20714,7 +20742,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="E243" s="2">
         <v>2899000</v>
@@ -20731,7 +20759,7 @@
         <v>8</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E244" s="2">
         <v>1887500</v>
@@ -20748,7 +20776,7 @@
         <v>8</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E245" s="2">
         <v>1805000</v>
@@ -20765,7 +20793,7 @@
         <v>8</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E246" s="2">
         <v>1684500</v>
@@ -20773,7 +20801,7 @@
     </row>
     <row r="247" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>785</v>
@@ -20782,7 +20810,7 @@
         <v>8</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E247" s="2">
         <v>3899000</v>
@@ -20790,7 +20818,7 @@
     </row>
     <row r="248" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>784</v>
@@ -20799,7 +20827,7 @@
         <v>8</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E248" s="2">
         <v>3099000</v>
@@ -20807,7 +20835,7 @@
     </row>
     <row r="249" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -20816,7 +20844,7 @@
         <v>8</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E249" s="2">
         <v>4162990</v>

--- a/id.xlsx
+++ b/id.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$923</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$925</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="1092">
   <si>
     <t>Aito</t>
   </si>
@@ -2972,6 +2972,9 @@
   </si>
   <si>
     <t>C7</t>
+  </si>
+  <si>
+    <t>H7 New</t>
   </si>
   <si>
     <t>Марка</t>
@@ -4295,10 +4298,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G925"/>
+  <dimension ref="A1:G926"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A905" workbookViewId="0">
-      <selection activeCell="F920" sqref="F920"/>
+      <selection activeCell="D925" sqref="D925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -16597,8 +16600,19 @@
         <v>979</v>
       </c>
     </row>
+    <row r="926" spans="1:3">
+      <c r="A926">
+        <v>1025</v>
+      </c>
+      <c r="B926" t="s">
+        <v>215</v>
+      </c>
+      <c r="C926" t="s">
+        <v>980</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G923" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G925" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16619,19 +16633,19 @@
   <sheetData>
     <row r="1" ht="27.15" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="2" ht="40.35" hidden="1" customHeight="1" spans="1:5">
@@ -16639,13 +16653,13 @@
         <v>344</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>380</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E2" s="2">
         <v>1239900</v>
@@ -16662,7 +16676,7 @@
         <v>380</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E3" s="2">
         <v>1759000</v>
@@ -16679,7 +16693,7 @@
         <v>380</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E4" s="2">
         <v>1655000</v>
@@ -16696,7 +16710,7 @@
         <v>380</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E5" s="2">
         <v>1879000</v>
@@ -16707,13 +16721,13 @@
         <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E6" s="2">
         <v>1077000</v>
@@ -16730,7 +16744,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E7" s="2">
         <v>1408000</v>
@@ -16741,13 +16755,13 @@
         <v>344</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E8" s="2">
         <v>749900</v>
@@ -16764,7 +16778,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E9" s="2">
         <v>1175000</v>
@@ -16781,7 +16795,7 @@
         <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E10" s="2">
         <v>2149000</v>
@@ -16798,7 +16812,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E11" s="2">
         <v>1660000</v>
@@ -16815,7 +16829,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E12" s="2">
         <v>2020000</v>
@@ -16832,7 +16846,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E13" s="2">
         <v>1859000</v>
@@ -16849,7 +16863,7 @@
         <v>303</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E14" s="2">
         <v>1334900</v>
@@ -16860,13 +16874,13 @@
         <v>176</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E15" s="2">
         <v>3512990</v>
@@ -16883,7 +16897,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E16" s="2">
         <v>2836990</v>
@@ -16900,7 +16914,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E17" s="2">
         <v>1850000</v>
@@ -16917,7 +16931,7 @@
         <v>270</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E18" s="2">
         <v>2749000</v>
@@ -16934,7 +16948,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E19" s="2">
         <v>2179990</v>
@@ -16945,13 +16959,13 @@
         <v>176</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E20" s="2">
         <v>2794990</v>
@@ -16968,7 +16982,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E21" s="2">
         <v>3959990</v>
@@ -16976,7 +16990,7 @@
     </row>
     <row r="22" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -16985,7 +16999,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E22" s="2">
         <v>4499000</v>
@@ -16993,7 +17007,7 @@
     </row>
     <row r="23" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
@@ -17002,7 +17016,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E23" s="2">
         <v>6799000</v>
@@ -17013,13 +17027,13 @@
         <v>344</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E24" s="2">
         <v>778500</v>
@@ -17030,13 +17044,13 @@
         <v>344</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E25" s="2">
         <v>719300</v>
@@ -17047,13 +17061,13 @@
         <v>344</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E26" s="2">
         <v>950900</v>
@@ -17070,7 +17084,7 @@
         <v>380</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E27" s="2">
         <v>1316900</v>
@@ -17081,13 +17095,13 @@
         <v>242</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E28" s="2">
         <v>2769000</v>
@@ -17104,7 +17118,7 @@
         <v>303</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E29" s="2">
         <v>2244900</v>
@@ -17121,7 +17135,7 @@
         <v>259</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E30" s="2">
         <v>1574900</v>
@@ -17138,7 +17152,7 @@
         <v>259</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E31" s="2">
         <v>1434900</v>
@@ -17149,13 +17163,13 @@
         <v>344</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E32" s="2">
         <v>1059000</v>
@@ -17172,7 +17186,7 @@
         <v>259</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E33" s="2">
         <v>3969000</v>
@@ -17189,7 +17203,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E34" s="2">
         <v>1314000</v>
@@ -17200,13 +17214,13 @@
         <v>215</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E35" s="2">
         <v>2149000</v>
@@ -17223,7 +17237,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E36" s="2">
         <v>2599000</v>
@@ -17234,13 +17248,13 @@
         <v>215</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E37" s="2">
         <v>2599000</v>
@@ -17257,7 +17271,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E38" s="2">
         <v>5269000</v>
@@ -17274,7 +17288,7 @@
         <v>303</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E39" s="2">
         <v>2314900</v>
@@ -17285,13 +17299,13 @@
         <v>344</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E40" s="2">
         <v>918900</v>
@@ -17308,7 +17322,7 @@
         <v>259</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E41" s="2">
         <v>2159900</v>
@@ -17325,7 +17339,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E42" s="2">
         <v>1106900</v>
@@ -17342,7 +17356,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E43" s="2">
         <v>1249900</v>
@@ -17359,7 +17373,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E44" s="2">
         <v>2900000</v>
@@ -17370,13 +17384,13 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E45" s="2">
         <v>2439900</v>
@@ -17393,7 +17407,7 @@
         <v>312</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E46" s="2">
         <v>2734900</v>
@@ -17410,7 +17424,7 @@
         <v>312</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E47" s="2">
         <v>1934900</v>
@@ -17427,7 +17441,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E48" s="2">
         <v>2064900</v>
@@ -17444,7 +17458,7 @@
         <v>334</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E49" s="2">
         <v>2849900</v>
@@ -17452,7 +17466,7 @@
     </row>
     <row r="50" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>279</v>
@@ -17461,7 +17475,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E50" s="2">
         <v>1779000</v>
@@ -17469,7 +17483,7 @@
     </row>
     <row r="51" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>273</v>
@@ -17478,7 +17492,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E51" s="2">
         <v>2150000</v>
@@ -17486,7 +17500,7 @@
     </row>
     <row r="52" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>278</v>
@@ -17495,7 +17509,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E52" s="2">
         <v>2129900</v>
@@ -17503,7 +17517,7 @@
     </row>
     <row r="53" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>472</v>
@@ -17512,7 +17526,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E53" s="2">
         <v>2369900</v>
@@ -17529,7 +17543,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E54" s="2">
         <v>1690000</v>
@@ -17546,7 +17560,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E55" s="2">
         <v>2869900</v>
@@ -17557,13 +17571,13 @@
         <v>22</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E56" s="2">
         <v>2569900</v>
@@ -17574,13 +17588,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E57" s="2">
         <v>2839900</v>
@@ -17597,7 +17611,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E58" s="2">
         <v>3969900</v>
@@ -17614,7 +17628,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E59" s="2">
         <v>3069900</v>
@@ -17631,7 +17645,7 @@
         <v>26</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E60" s="2">
         <v>3069900</v>
@@ -17642,13 +17656,13 @@
         <v>22</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E61" s="2">
         <v>2899900</v>
@@ -17656,7 +17670,7 @@
     </row>
     <row r="62" ht="40.35" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>135</v>
@@ -17665,7 +17679,7 @@
         <v>26</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E62" s="2">
         <v>2374000</v>
@@ -17673,7 +17687,7 @@
     </row>
     <row r="63" ht="40.35" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>136</v>
@@ -17682,7 +17696,7 @@
         <v>26</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E63" s="2">
         <v>2411000</v>
@@ -17690,7 +17704,7 @@
     </row>
     <row r="64" ht="40.35" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>137</v>
@@ -17699,7 +17713,7 @@
         <v>26</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E64" s="2">
         <v>2024000</v>
@@ -17716,7 +17730,7 @@
         <v>82</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E65" s="2">
         <v>1124000</v>
@@ -17733,7 +17747,7 @@
         <v>103</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E66" s="2">
         <v>1051000</v>
@@ -17750,7 +17764,7 @@
         <v>534</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E67" s="2">
         <v>1657000</v>
@@ -17767,7 +17781,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E68" s="2">
         <v>1705000</v>
@@ -17784,7 +17798,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E69" s="2">
         <v>1699900</v>
@@ -17801,7 +17815,7 @@
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E70" s="2">
         <v>2489900</v>
@@ -17809,7 +17823,7 @@
     </row>
     <row r="71" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>273</v>
@@ -17818,7 +17832,7 @@
         <v>26</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E71" s="2">
         <v>2959900</v>
@@ -17826,7 +17840,7 @@
     </row>
     <row r="72" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
@@ -17835,7 +17849,7 @@
         <v>26</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E72" s="2">
         <v>1765000</v>
@@ -17852,7 +17866,7 @@
         <v>226</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E73" s="2">
         <v>4409000</v>
@@ -17869,7 +17883,7 @@
         <v>226</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E74" s="2">
         <v>1690000</v>
@@ -17886,7 +17900,7 @@
         <v>85</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E75" s="2">
         <v>950900</v>
@@ -17903,7 +17917,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E76" s="2">
         <v>880900</v>
@@ -17920,7 +17934,7 @@
         <v>82</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E77" s="2">
         <v>953900</v>
@@ -17937,7 +17951,7 @@
         <v>103</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E78" s="2">
         <v>2179000</v>
@@ -17954,7 +17968,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E79" s="2">
         <v>1579000</v>
@@ -17971,7 +17985,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E80" s="2">
         <v>4299000</v>
@@ -17988,7 +18002,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E81" s="2">
         <v>2049000</v>
@@ -18005,7 +18019,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E82" s="2">
         <v>3149000</v>
@@ -18022,7 +18036,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E83" s="2">
         <v>2337000</v>
@@ -18033,13 +18047,13 @@
         <v>457</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E84" s="2">
         <v>2762000</v>
@@ -18056,7 +18070,7 @@
         <v>103</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E85" s="2">
         <v>1618000</v>
@@ -18073,7 +18087,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E86" s="2">
         <v>1301000</v>
@@ -18090,7 +18104,7 @@
         <v>82</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E87" s="2">
         <v>1258000</v>
@@ -18107,7 +18121,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E88" s="2">
         <v>1373000</v>
@@ -18124,7 +18138,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E89" s="2">
         <v>1724000</v>
@@ -18141,7 +18155,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E90" s="2">
         <v>1874000</v>
@@ -18158,7 +18172,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E91" s="2">
         <v>2057000</v>
@@ -18175,7 +18189,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E92" s="2">
         <v>2118900</v>
@@ -18192,7 +18206,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E93" s="2">
         <v>3248000</v>
@@ -18209,7 +18223,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E94" s="2">
         <v>5378000</v>
@@ -18226,7 +18240,7 @@
         <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E95" s="2">
         <v>5806000</v>
@@ -18243,7 +18257,7 @@
         <v>303</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E96" s="2">
         <v>2388000</v>
@@ -18260,7 +18274,7 @@
         <v>303</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E97" s="2">
         <v>2681000</v>
@@ -18277,7 +18291,7 @@
         <v>617</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E98" s="2">
         <v>1385900</v>
@@ -18294,7 +18308,7 @@
         <v>608</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E99" s="2">
         <v>1518000</v>
@@ -18311,7 +18325,7 @@
         <v>82</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E100" s="2">
         <v>3375900</v>
@@ -18328,7 +18342,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E101" s="2">
         <v>2828900</v>
@@ -18345,7 +18359,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E102" s="2">
         <v>4449900</v>
@@ -18362,7 +18376,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E103" s="2">
         <v>1229000</v>
@@ -18379,7 +18393,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E104" s="2">
         <v>2499000</v>
@@ -18387,7 +18401,7 @@
     </row>
     <row r="105" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>595</v>
@@ -18396,7 +18410,7 @@
         <v>596</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E105" s="2">
         <v>1680000</v>
@@ -18404,16 +18418,16 @@
     </row>
     <row r="106" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>596</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E106" s="2">
         <v>1705000</v>
@@ -18421,7 +18435,7 @@
     </row>
     <row r="107" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>39</v>
@@ -18430,7 +18444,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E107" s="2">
         <v>1510000</v>
@@ -18447,7 +18461,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E108" s="2">
         <v>2570000</v>
@@ -18464,7 +18478,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E109" s="2">
         <v>3430000</v>
@@ -18475,13 +18489,13 @@
         <v>54</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E110" s="2">
         <v>2770000</v>
@@ -18498,7 +18512,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E111" s="2">
         <v>1970000</v>
@@ -18509,13 +18523,13 @@
         <v>54</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E112" s="2">
         <v>3250000</v>
@@ -18526,13 +18540,13 @@
         <v>54</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E113" s="2">
         <v>3370000</v>
@@ -18549,7 +18563,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E114" s="2">
         <v>3759900</v>
@@ -18566,7 +18580,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E115" s="2">
         <v>3380000</v>
@@ -18583,7 +18597,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E116" s="2">
         <v>3810000</v>
@@ -18600,7 +18614,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E117" s="2">
         <v>4910000</v>
@@ -18617,7 +18631,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E118" s="2">
         <v>4550000</v>
@@ -18634,7 +18648,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E119" s="2">
         <v>2080000</v>
@@ -18651,7 +18665,7 @@
         <v>8</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E120" s="2">
         <v>2225000</v>
@@ -18668,7 +18682,7 @@
         <v>8</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E121" s="2">
         <v>2970000</v>
@@ -18685,7 +18699,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E122" s="2">
         <v>4350000</v>
@@ -18702,7 +18716,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E123" s="2">
         <v>2999900</v>
@@ -18719,7 +18733,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E124" s="2">
         <v>3479900</v>
@@ -18736,7 +18750,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E125" s="2">
         <v>1990000</v>
@@ -18753,7 +18767,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E126" s="2">
         <v>2149000</v>
@@ -18770,7 +18784,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E127" s="2">
         <v>2115000</v>
@@ -18787,7 +18801,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E128" s="2">
         <v>2238000</v>
@@ -18804,7 +18818,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E129" s="2">
         <v>2514900</v>
@@ -18821,7 +18835,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E130" s="2">
         <v>2997900</v>
@@ -18829,16 +18843,16 @@
     </row>
     <row r="131" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E131" s="2">
         <v>2549900</v>
@@ -18846,16 +18860,16 @@
     </row>
     <row r="132" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E132" s="2">
         <v>2629900</v>
@@ -18863,16 +18877,16 @@
     </row>
     <row r="133" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E133" s="2">
         <v>4100000</v>
@@ -18889,7 +18903,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E134" s="2">
         <v>2219900</v>
@@ -18900,13 +18914,13 @@
         <v>22</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E135" s="2">
         <v>2499900</v>
@@ -18914,7 +18928,7 @@
     </row>
     <row r="136" ht="27.15" customHeight="1" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>145</v>
@@ -18923,7 +18937,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E136" s="2">
         <v>1602000</v>
@@ -18931,7 +18945,7 @@
     </row>
     <row r="137" ht="40.35" customHeight="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>146</v>
@@ -18940,7 +18954,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E137" s="2">
         <v>1508000</v>
@@ -18957,7 +18971,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E138" s="2">
         <v>4549990</v>
@@ -18974,7 +18988,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E139" s="2">
         <v>2479990</v>
@@ -18991,7 +19005,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E140" s="2">
         <v>2075990</v>
@@ -19008,7 +19022,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E141" s="2">
         <v>2080990</v>
@@ -19025,7 +19039,7 @@
         <v>380</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E142" s="2">
         <v>2273000</v>
@@ -19042,7 +19056,7 @@
         <v>380</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E143" s="2">
         <v>2443000</v>
@@ -19059,7 +19073,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E144" s="2">
         <v>1341000</v>
@@ -19070,13 +19084,13 @@
         <v>344</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E145" s="2">
         <v>1381000</v>
@@ -19087,13 +19101,13 @@
         <v>344</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E146" s="2">
         <v>1493000</v>
@@ -19104,13 +19118,13 @@
         <v>344</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E147" s="2">
         <v>1533000</v>
@@ -19127,7 +19141,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E148" s="2">
         <v>1670000</v>
@@ -19144,7 +19158,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E149" s="2">
         <v>1487000</v>
@@ -19155,13 +19169,13 @@
         <v>54</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E150" s="2">
         <v>4850000</v>
@@ -19172,13 +19186,13 @@
         <v>54</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E151" s="2">
         <v>4000000</v>
@@ -19189,13 +19203,13 @@
         <v>54</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E152" s="2">
         <v>4930000</v>
@@ -19212,7 +19226,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E153" s="2">
         <v>3692990</v>
@@ -19229,7 +19243,7 @@
         <v>270</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E154" s="2">
         <v>3979000</v>
@@ -19246,7 +19260,7 @@
         <v>8</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E155" s="2">
         <v>4099000</v>
@@ -19263,7 +19277,7 @@
         <v>8</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E156" s="2">
         <v>3449000</v>
@@ -19280,7 +19294,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E157" s="2">
         <v>2799000</v>
@@ -19291,13 +19305,13 @@
         <v>200</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E158" s="2">
         <v>3549000</v>
@@ -19308,13 +19322,13 @@
         <v>200</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E159" s="2">
         <v>3299000</v>
@@ -19331,7 +19345,7 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E160" s="2">
         <v>7374900</v>
@@ -19348,7 +19362,7 @@
         <v>270</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E161" s="2">
         <v>3789900</v>
@@ -19365,7 +19379,7 @@
         <v>51</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E162" s="2">
         <v>5829900</v>
@@ -19382,7 +19396,7 @@
         <v>270</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E163" s="2">
         <v>4144900</v>
@@ -19390,16 +19404,16 @@
     </row>
     <row r="164" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E164" s="2">
         <v>1672000</v>
@@ -19416,7 +19430,7 @@
         <v>8</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E165" s="2">
         <v>2040546</v>
@@ -19433,7 +19447,7 @@
         <v>8</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E166" s="2">
         <v>3100000</v>
@@ -19450,7 +19464,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E167" s="2">
         <v>2990000</v>
@@ -19467,7 +19481,7 @@
         <v>312</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E168" s="2">
         <v>8669500</v>
@@ -19484,7 +19498,7 @@
         <v>677</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E169" s="2">
         <v>4291000</v>
@@ -19501,7 +19515,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E170" s="2">
         <v>6146500</v>
@@ -19509,7 +19523,7 @@
     </row>
     <row r="171" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>274</v>
@@ -19518,7 +19532,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E171" s="2">
         <v>1889000</v>
@@ -19526,7 +19540,7 @@
     </row>
     <row r="172" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>276</v>
@@ -19535,7 +19549,7 @@
         <v>8</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E172" s="2">
         <v>2399000</v>
@@ -19543,7 +19557,7 @@
     </row>
     <row r="173" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>653</v>
@@ -19552,7 +19566,7 @@
         <v>8</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E173" s="2">
         <v>3059000</v>
@@ -19560,16 +19574,16 @@
     </row>
     <row r="174" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E174" s="2">
         <v>3279000</v>
@@ -19577,7 +19591,7 @@
     </row>
     <row r="175" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>654</v>
@@ -19586,7 +19600,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E175" s="2">
         <v>3599000</v>
@@ -19594,7 +19608,7 @@
     </row>
     <row r="176" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>175</v>
@@ -19603,7 +19617,7 @@
         <v>8</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E176" s="2">
         <v>5499999</v>
@@ -19611,7 +19625,7 @@
     </row>
     <row r="177" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>172</v>
@@ -19620,7 +19634,7 @@
         <v>103</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E177" s="2">
         <v>4099000</v>
@@ -19628,7 +19642,7 @@
     </row>
     <row r="178" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>169</v>
@@ -19637,7 +19651,7 @@
         <v>8</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E178" s="2">
         <v>2449000</v>
@@ -19648,13 +19662,13 @@
         <v>22</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E179" s="2">
         <v>4529900</v>
@@ -19671,7 +19685,7 @@
         <v>8</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E180" s="2">
         <v>3739900</v>
@@ -19682,13 +19696,13 @@
         <v>22</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E181" s="2">
         <v>5219900</v>
@@ -19699,13 +19713,13 @@
         <v>54</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E182" s="2">
         <v>2780000</v>
@@ -19722,7 +19736,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E183" s="2">
         <v>2020000</v>
@@ -19739,7 +19753,7 @@
         <v>8</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E184" s="2">
         <v>2650000</v>
@@ -19756,7 +19770,7 @@
         <v>8</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E185" s="2">
         <v>2080000</v>
@@ -19773,7 +19787,7 @@
         <v>8</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E186" s="2">
         <v>2181000</v>
@@ -19790,7 +19804,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E187" s="2">
         <v>2279000</v>
@@ -19807,7 +19821,7 @@
         <v>103</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E188" s="2">
         <v>2899000</v>
@@ -19824,7 +19838,7 @@
         <v>82</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E189" s="2">
         <v>2379000</v>
@@ -19832,16 +19846,16 @@
     </row>
     <row r="190" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E190" s="2">
         <v>2499000</v>
@@ -19849,7 +19863,7 @@
     </row>
     <row r="191" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>473</v>
@@ -19858,7 +19872,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E191" s="2">
         <v>2479900</v>
@@ -19875,7 +19889,7 @@
         <v>8</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E192" s="2">
         <v>3959000</v>
@@ -19886,13 +19900,13 @@
         <v>121</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E193" s="2">
         <v>2890000</v>
@@ -19903,13 +19917,13 @@
         <v>121</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E194" s="2">
         <v>4080000</v>
@@ -19920,13 +19934,13 @@
         <v>121</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E195" s="2">
         <v>6290000</v>
@@ -19934,7 +19948,7 @@
     </row>
     <row r="196" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B196" s="2">
         <v>6</v>
@@ -19943,7 +19957,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E196" s="2">
         <v>2200000</v>
@@ -19951,7 +19965,7 @@
     </row>
     <row r="197" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>284</v>
@@ -19960,7 +19974,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E197" s="2">
         <v>4599000</v>
@@ -19977,7 +19991,7 @@
         <v>8</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E198" s="2">
         <v>2199000</v>
@@ -19988,13 +20002,13 @@
         <v>215</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E199" s="2">
         <v>4599000</v>
@@ -20005,13 +20019,13 @@
         <v>105</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E200" s="2">
         <v>1990000</v>
@@ -20022,13 +20036,13 @@
         <v>105</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E201" s="2">
         <v>3590000</v>
@@ -20045,7 +20059,7 @@
         <v>8</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E202" s="2">
         <v>2650000</v>
@@ -20056,13 +20070,13 @@
         <v>215</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E203" s="2">
         <v>2849000</v>
@@ -20070,7 +20084,7 @@
     </row>
     <row r="204" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>171</v>
@@ -20079,7 +20093,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E204" s="2">
         <v>2099000</v>
@@ -20096,7 +20110,7 @@
         <v>8</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E205" s="2">
         <v>1263000</v>
@@ -20113,7 +20127,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E206" s="2">
         <v>1546500</v>
@@ -20130,7 +20144,7 @@
         <v>8</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E207" s="2">
         <v>883000</v>
@@ -20147,7 +20161,7 @@
         <v>8</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E208" s="2">
         <v>825000</v>
@@ -20164,7 +20178,7 @@
         <v>8</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E209" s="2">
         <v>851000</v>
@@ -20175,13 +20189,13 @@
         <v>176</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E210" s="2">
         <v>3357990</v>
@@ -20192,13 +20206,13 @@
         <v>215</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E211" s="2">
         <v>3899000</v>
@@ -20215,7 +20229,7 @@
         <v>8</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E212" s="2">
         <v>1990000</v>
@@ -20232,7 +20246,7 @@
         <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E213" s="2">
         <v>2199000</v>
@@ -20249,7 +20263,7 @@
         <v>8</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E214" s="2">
         <v>789900</v>
@@ -20266,7 +20280,7 @@
         <v>51</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E215" s="2">
         <v>869900</v>
@@ -20283,7 +20297,7 @@
         <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E216" s="2">
         <v>1089000</v>
@@ -20300,7 +20314,7 @@
         <v>8</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E217" s="2">
         <v>999900</v>
@@ -20317,7 +20331,7 @@
         <v>8</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E218" s="2">
         <v>1455000</v>
@@ -20334,7 +20348,7 @@
         <v>103</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E219" s="2">
         <v>809900</v>
@@ -20351,7 +20365,7 @@
         <v>8</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E220" s="2">
         <v>2000000</v>
@@ -20368,7 +20382,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E221" s="2">
         <v>1229900</v>
@@ -20385,7 +20399,7 @@
         <v>8</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E222" s="2">
         <v>2656800</v>
@@ -20396,13 +20410,13 @@
         <v>344</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E223" s="2">
         <v>824000</v>
@@ -20413,13 +20427,13 @@
         <v>300</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E224" s="2">
         <v>1204900</v>
@@ -20436,7 +20450,7 @@
         <v>8</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E225" s="2">
         <v>2234900</v>
@@ -20444,7 +20458,7 @@
     </row>
     <row r="226" ht="40.35" customHeight="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>138</v>
@@ -20453,7 +20467,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E226" s="2">
         <v>2673000</v>
@@ -20470,7 +20484,7 @@
         <v>8</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E227" s="2">
         <v>1419990</v>
@@ -20478,7 +20492,7 @@
     </row>
     <row r="228" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>277</v>
@@ -20487,7 +20501,7 @@
         <v>8</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E228" s="2">
         <v>1494000</v>
@@ -20504,7 +20518,7 @@
         <v>8</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E229" s="2">
         <v>2849990</v>
@@ -20518,10 +20532,10 @@
         <v>591</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E230" s="2">
         <v>3173000</v>
@@ -20532,13 +20546,13 @@
         <v>54</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E231" s="2">
         <v>2380000</v>
@@ -20555,7 +20569,7 @@
         <v>8</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E232" s="2">
         <v>2599000</v>
@@ -20563,16 +20577,16 @@
     </row>
     <row r="233" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E233" s="2">
         <v>2999000</v>
@@ -20583,13 +20597,13 @@
         <v>22</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E234" s="2">
         <v>3590000</v>
@@ -20597,16 +20611,16 @@
     </row>
     <row r="235" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E235" s="2">
         <v>2569900</v>
@@ -20623,7 +20637,7 @@
         <v>8</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E236" s="2">
         <v>4750000</v>
@@ -20631,16 +20645,16 @@
     </row>
     <row r="237" ht="40.35" customHeight="1" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E237" s="2">
         <v>2499990</v>
@@ -20648,7 +20662,7 @@
     </row>
     <row r="238" ht="27.15" customHeight="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>793</v>
@@ -20657,7 +20671,7 @@
         <v>8</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E238" s="2">
         <v>2779990</v>
@@ -20674,7 +20688,7 @@
         <v>51</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E239" s="2">
         <v>2649000</v>
@@ -20691,7 +20705,7 @@
         <v>5</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E240" s="2">
         <v>1899000</v>
@@ -20708,7 +20722,7 @@
         <v>8</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E241" s="2">
         <v>2825990</v>
@@ -20716,7 +20730,7 @@
     </row>
     <row r="242" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B242" s="2">
         <v>400</v>
@@ -20725,7 +20739,7 @@
         <v>8</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E242" s="2">
         <v>5799000</v>
@@ -20733,7 +20747,7 @@
     </row>
     <row r="243" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>280</v>
@@ -20742,7 +20756,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E243" s="2">
         <v>2899000</v>
@@ -20759,7 +20773,7 @@
         <v>8</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E244" s="2">
         <v>1887500</v>
@@ -20776,7 +20790,7 @@
         <v>8</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E245" s="2">
         <v>1805000</v>
@@ -20793,7 +20807,7 @@
         <v>8</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E246" s="2">
         <v>1684500</v>
@@ -20801,7 +20815,7 @@
     </row>
     <row r="247" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>785</v>
@@ -20810,7 +20824,7 @@
         <v>8</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E247" s="2">
         <v>3899000</v>
@@ -20818,7 +20832,7 @@
     </row>
     <row r="248" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>784</v>
@@ -20827,7 +20841,7 @@
         <v>8</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E248" s="2">
         <v>3099000</v>
@@ -20835,7 +20849,7 @@
     </row>
     <row r="249" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -20844,7 +20858,7 @@
         <v>8</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E249" s="2">
         <v>4162990</v>

--- a/id.xlsx
+++ b/id.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$925</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$933</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="1098">
   <si>
     <t>Aito</t>
   </si>
@@ -2975,6 +2975,24 @@
   </si>
   <si>
     <t>H7 New</t>
+  </si>
+  <si>
+    <t>GS4 Max</t>
+  </si>
+  <si>
+    <t>Huge</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>BJ90</t>
+  </si>
+  <si>
+    <t>GWM POER New</t>
+  </si>
+  <si>
+    <t>Granta Active Cross Liftback</t>
   </si>
   <si>
     <t>Марка</t>
@@ -4013,6 +4031,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4298,10 +4323,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G926"/>
+  <dimension ref="A1:G934"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A905" workbookViewId="0">
-      <selection activeCell="D925" sqref="D925"/>
+    <sheetView tabSelected="1" topLeftCell="A914" workbookViewId="0">
+      <selection activeCell="C934" sqref="C934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -16611,8 +16636,96 @@
         <v>980</v>
       </c>
     </row>
+    <row r="927" spans="1:3">
+      <c r="A927">
+        <v>1026</v>
+      </c>
+      <c r="B927" t="s">
+        <v>164</v>
+      </c>
+      <c r="C927" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3">
+      <c r="A928">
+        <v>1027</v>
+      </c>
+      <c r="B928" t="s">
+        <v>415</v>
+      </c>
+      <c r="C928" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3">
+      <c r="A929">
+        <v>1028</v>
+      </c>
+      <c r="B929" t="s">
+        <v>105</v>
+      </c>
+      <c r="C929" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3">
+      <c r="A930">
+        <v>1029</v>
+      </c>
+      <c r="B930" t="s">
+        <v>105</v>
+      </c>
+      <c r="C930" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3">
+      <c r="A931">
+        <v>1030</v>
+      </c>
+      <c r="B931" t="s">
+        <v>3</v>
+      </c>
+      <c r="C931" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3">
+      <c r="A932">
+        <v>1031</v>
+      </c>
+      <c r="B932" t="s">
+        <v>215</v>
+      </c>
+      <c r="C932" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3">
+      <c r="A933">
+        <v>1032</v>
+      </c>
+      <c r="B933" t="s">
+        <v>271</v>
+      </c>
+      <c r="C933" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3">
+      <c r="A934">
+        <v>1033</v>
+      </c>
+      <c r="B934" t="s">
+        <v>344</v>
+      </c>
+      <c r="C934" t="s">
+        <v>986</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G925" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G933" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16633,19 +16746,19 @@
   <sheetData>
     <row r="1" ht="27.15" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
     </row>
     <row r="2" ht="40.35" hidden="1" customHeight="1" spans="1:5">
@@ -16653,13 +16766,13 @@
         <v>344</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>380</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E2" s="2">
         <v>1239900</v>
@@ -16676,7 +16789,7 @@
         <v>380</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E3" s="2">
         <v>1759000</v>
@@ -16693,7 +16806,7 @@
         <v>380</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E4" s="2">
         <v>1655000</v>
@@ -16710,7 +16823,7 @@
         <v>380</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E5" s="2">
         <v>1879000</v>
@@ -16721,13 +16834,13 @@
         <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E6" s="2">
         <v>1077000</v>
@@ -16744,7 +16857,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="E7" s="2">
         <v>1408000</v>
@@ -16755,13 +16868,13 @@
         <v>344</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E8" s="2">
         <v>749900</v>
@@ -16778,7 +16891,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E9" s="2">
         <v>1175000</v>
@@ -16795,7 +16908,7 @@
         <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="E10" s="2">
         <v>2149000</v>
@@ -16812,7 +16925,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E11" s="2">
         <v>1660000</v>
@@ -16829,7 +16942,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E12" s="2">
         <v>2020000</v>
@@ -16846,7 +16959,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="2">
         <v>1859000</v>
@@ -16863,7 +16976,7 @@
         <v>303</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E14" s="2">
         <v>1334900</v>
@@ -16874,13 +16987,13 @@
         <v>176</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E15" s="2">
         <v>3512990</v>
@@ -16897,7 +17010,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E16" s="2">
         <v>2836990</v>
@@ -16914,7 +17027,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="E17" s="2">
         <v>1850000</v>
@@ -16931,7 +17044,7 @@
         <v>270</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E18" s="2">
         <v>2749000</v>
@@ -16948,7 +17061,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E19" s="2">
         <v>2179990</v>
@@ -16959,13 +17072,13 @@
         <v>176</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E20" s="2">
         <v>2794990</v>
@@ -16982,7 +17095,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E21" s="2">
         <v>3959990</v>
@@ -16990,7 +17103,7 @@
     </row>
     <row r="22" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -16999,7 +17112,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E22" s="2">
         <v>4499000</v>
@@ -17007,7 +17120,7 @@
     </row>
     <row r="23" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
@@ -17016,7 +17129,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E23" s="2">
         <v>6799000</v>
@@ -17027,13 +17140,13 @@
         <v>344</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E24" s="2">
         <v>778500</v>
@@ -17044,13 +17157,13 @@
         <v>344</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E25" s="2">
         <v>719300</v>
@@ -17061,13 +17174,13 @@
         <v>344</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E26" s="2">
         <v>950900</v>
@@ -17084,7 +17197,7 @@
         <v>380</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E27" s="2">
         <v>1316900</v>
@@ -17095,13 +17208,13 @@
         <v>242</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="E28" s="2">
         <v>2769000</v>
@@ -17118,7 +17231,7 @@
         <v>303</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E29" s="2">
         <v>2244900</v>
@@ -17135,7 +17248,7 @@
         <v>259</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="E30" s="2">
         <v>1574900</v>
@@ -17152,7 +17265,7 @@
         <v>259</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="E31" s="2">
         <v>1434900</v>
@@ -17163,13 +17276,13 @@
         <v>344</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E32" s="2">
         <v>1059000</v>
@@ -17186,7 +17299,7 @@
         <v>259</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="E33" s="2">
         <v>3969000</v>
@@ -17203,7 +17316,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E34" s="2">
         <v>1314000</v>
@@ -17214,13 +17327,13 @@
         <v>215</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E35" s="2">
         <v>2149000</v>
@@ -17237,7 +17350,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="E36" s="2">
         <v>2599000</v>
@@ -17248,13 +17361,13 @@
         <v>215</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="E37" s="2">
         <v>2599000</v>
@@ -17271,7 +17384,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="E38" s="2">
         <v>5269000</v>
@@ -17288,7 +17401,7 @@
         <v>303</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E39" s="2">
         <v>2314900</v>
@@ -17299,13 +17412,13 @@
         <v>344</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E40" s="2">
         <v>918900</v>
@@ -17322,7 +17435,7 @@
         <v>259</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E41" s="2">
         <v>2159900</v>
@@ -17339,7 +17452,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="E42" s="2">
         <v>1106900</v>
@@ -17356,7 +17469,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="E43" s="2">
         <v>1249900</v>
@@ -17373,7 +17486,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E44" s="2">
         <v>2900000</v>
@@ -17384,13 +17497,13 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E45" s="2">
         <v>2439900</v>
@@ -17407,7 +17520,7 @@
         <v>312</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E46" s="2">
         <v>2734900</v>
@@ -17424,7 +17537,7 @@
         <v>312</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E47" s="2">
         <v>1934900</v>
@@ -17441,7 +17554,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E48" s="2">
         <v>2064900</v>
@@ -17458,7 +17571,7 @@
         <v>334</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E49" s="2">
         <v>2849900</v>
@@ -17466,7 +17579,7 @@
     </row>
     <row r="50" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>279</v>
@@ -17475,7 +17588,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E50" s="2">
         <v>1779000</v>
@@ -17483,7 +17596,7 @@
     </row>
     <row r="51" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>273</v>
@@ -17492,7 +17605,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E51" s="2">
         <v>2150000</v>
@@ -17500,7 +17613,7 @@
     </row>
     <row r="52" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>278</v>
@@ -17509,7 +17622,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E52" s="2">
         <v>2129900</v>
@@ -17517,7 +17630,7 @@
     </row>
     <row r="53" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>472</v>
@@ -17526,7 +17639,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E53" s="2">
         <v>2369900</v>
@@ -17543,7 +17656,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E54" s="2">
         <v>1690000</v>
@@ -17560,7 +17673,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E55" s="2">
         <v>2869900</v>
@@ -17571,13 +17684,13 @@
         <v>22</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E56" s="2">
         <v>2569900</v>
@@ -17588,13 +17701,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E57" s="2">
         <v>2839900</v>
@@ -17611,7 +17724,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E58" s="2">
         <v>3969900</v>
@@ -17628,7 +17741,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E59" s="2">
         <v>3069900</v>
@@ -17645,7 +17758,7 @@
         <v>26</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E60" s="2">
         <v>3069900</v>
@@ -17656,13 +17769,13 @@
         <v>22</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="E61" s="2">
         <v>2899900</v>
@@ -17670,7 +17783,7 @@
     </row>
     <row r="62" ht="40.35" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>135</v>
@@ -17679,7 +17792,7 @@
         <v>26</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E62" s="2">
         <v>2374000</v>
@@ -17687,7 +17800,7 @@
     </row>
     <row r="63" ht="40.35" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>136</v>
@@ -17696,7 +17809,7 @@
         <v>26</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E63" s="2">
         <v>2411000</v>
@@ -17704,7 +17817,7 @@
     </row>
     <row r="64" ht="40.35" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>137</v>
@@ -17713,7 +17826,7 @@
         <v>26</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E64" s="2">
         <v>2024000</v>
@@ -17730,7 +17843,7 @@
         <v>82</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="E65" s="2">
         <v>1124000</v>
@@ -17747,7 +17860,7 @@
         <v>103</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E66" s="2">
         <v>1051000</v>
@@ -17764,7 +17877,7 @@
         <v>534</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E67" s="2">
         <v>1657000</v>
@@ -17781,7 +17894,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E68" s="2">
         <v>1705000</v>
@@ -17798,7 +17911,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="E69" s="2">
         <v>1699900</v>
@@ -17815,7 +17928,7 @@
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E70" s="2">
         <v>2489900</v>
@@ -17823,7 +17936,7 @@
     </row>
     <row r="71" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>273</v>
@@ -17832,7 +17945,7 @@
         <v>26</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E71" s="2">
         <v>2959900</v>
@@ -17840,7 +17953,7 @@
     </row>
     <row r="72" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
@@ -17849,7 +17962,7 @@
         <v>26</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E72" s="2">
         <v>1765000</v>
@@ -17866,7 +17979,7 @@
         <v>226</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="E73" s="2">
         <v>4409000</v>
@@ -17883,7 +17996,7 @@
         <v>226</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="E74" s="2">
         <v>1690000</v>
@@ -17900,7 +18013,7 @@
         <v>85</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E75" s="2">
         <v>950900</v>
@@ -17917,7 +18030,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E76" s="2">
         <v>880900</v>
@@ -17934,7 +18047,7 @@
         <v>82</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E77" s="2">
         <v>953900</v>
@@ -17951,7 +18064,7 @@
         <v>103</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E78" s="2">
         <v>2179000</v>
@@ -17968,7 +18081,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="E79" s="2">
         <v>1579000</v>
@@ -17985,7 +18098,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E80" s="2">
         <v>4299000</v>
@@ -18002,7 +18115,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="E81" s="2">
         <v>2049000</v>
@@ -18019,7 +18132,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E82" s="2">
         <v>3149000</v>
@@ -18036,7 +18149,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="E83" s="2">
         <v>2337000</v>
@@ -18047,13 +18160,13 @@
         <v>457</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="E84" s="2">
         <v>2762000</v>
@@ -18070,7 +18183,7 @@
         <v>103</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E85" s="2">
         <v>1618000</v>
@@ -18087,7 +18200,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="E86" s="2">
         <v>1301000</v>
@@ -18104,7 +18217,7 @@
         <v>82</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="E87" s="2">
         <v>1258000</v>
@@ -18121,7 +18234,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="E88" s="2">
         <v>1373000</v>
@@ -18138,7 +18251,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="E89" s="2">
         <v>1724000</v>
@@ -18155,7 +18268,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E90" s="2">
         <v>1874000</v>
@@ -18172,7 +18285,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E91" s="2">
         <v>2057000</v>
@@ -18189,7 +18302,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E92" s="2">
         <v>2118900</v>
@@ -18206,7 +18319,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E93" s="2">
         <v>3248000</v>
@@ -18223,7 +18336,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E94" s="2">
         <v>5378000</v>
@@ -18240,7 +18353,7 @@
         <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E95" s="2">
         <v>5806000</v>
@@ -18257,7 +18370,7 @@
         <v>303</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E96" s="2">
         <v>2388000</v>
@@ -18274,7 +18387,7 @@
         <v>303</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E97" s="2">
         <v>2681000</v>
@@ -18291,7 +18404,7 @@
         <v>617</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="E98" s="2">
         <v>1385900</v>
@@ -18308,7 +18421,7 @@
         <v>608</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="E99" s="2">
         <v>1518000</v>
@@ -18325,7 +18438,7 @@
         <v>82</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E100" s="2">
         <v>3375900</v>
@@ -18342,7 +18455,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E101" s="2">
         <v>2828900</v>
@@ -18359,7 +18472,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E102" s="2">
         <v>4449900</v>
@@ -18376,7 +18489,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="E103" s="2">
         <v>1229000</v>
@@ -18393,7 +18506,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E104" s="2">
         <v>2499000</v>
@@ -18401,7 +18514,7 @@
     </row>
     <row r="105" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>595</v>
@@ -18410,7 +18523,7 @@
         <v>596</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="E105" s="2">
         <v>1680000</v>
@@ -18418,16 +18531,16 @@
     </row>
     <row r="106" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>596</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="E106" s="2">
         <v>1705000</v>
@@ -18435,7 +18548,7 @@
     </row>
     <row r="107" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>39</v>
@@ -18444,7 +18557,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="E107" s="2">
         <v>1510000</v>
@@ -18461,7 +18574,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E108" s="2">
         <v>2570000</v>
@@ -18478,7 +18591,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E109" s="2">
         <v>3430000</v>
@@ -18489,13 +18602,13 @@
         <v>54</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E110" s="2">
         <v>2770000</v>
@@ -18512,7 +18625,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E111" s="2">
         <v>1970000</v>
@@ -18523,13 +18636,13 @@
         <v>54</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E112" s="2">
         <v>3250000</v>
@@ -18540,13 +18653,13 @@
         <v>54</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E113" s="2">
         <v>3370000</v>
@@ -18563,7 +18676,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E114" s="2">
         <v>3759900</v>
@@ -18580,7 +18693,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E115" s="2">
         <v>3380000</v>
@@ -18597,7 +18710,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E116" s="2">
         <v>3810000</v>
@@ -18614,7 +18727,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E117" s="2">
         <v>4910000</v>
@@ -18631,7 +18744,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E118" s="2">
         <v>4550000</v>
@@ -18648,7 +18761,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E119" s="2">
         <v>2080000</v>
@@ -18665,7 +18778,7 @@
         <v>8</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E120" s="2">
         <v>2225000</v>
@@ -18682,7 +18795,7 @@
         <v>8</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E121" s="2">
         <v>2970000</v>
@@ -18699,7 +18812,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E122" s="2">
         <v>4350000</v>
@@ -18716,7 +18829,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E123" s="2">
         <v>2999900</v>
@@ -18733,7 +18846,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E124" s="2">
         <v>3479900</v>
@@ -18750,7 +18863,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E125" s="2">
         <v>1990000</v>
@@ -18767,7 +18880,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E126" s="2">
         <v>2149000</v>
@@ -18784,7 +18897,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E127" s="2">
         <v>2115000</v>
@@ -18801,7 +18914,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E128" s="2">
         <v>2238000</v>
@@ -18818,7 +18931,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E129" s="2">
         <v>2514900</v>
@@ -18835,7 +18948,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E130" s="2">
         <v>2997900</v>
@@ -18843,16 +18956,16 @@
     </row>
     <row r="131" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E131" s="2">
         <v>2549900</v>
@@ -18860,16 +18973,16 @@
     </row>
     <row r="132" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E132" s="2">
         <v>2629900</v>
@@ -18877,16 +18990,16 @@
     </row>
     <row r="133" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E133" s="2">
         <v>4100000</v>
@@ -18903,7 +19016,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="E134" s="2">
         <v>2219900</v>
@@ -18914,13 +19027,13 @@
         <v>22</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E135" s="2">
         <v>2499900</v>
@@ -18928,7 +19041,7 @@
     </row>
     <row r="136" ht="27.15" customHeight="1" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>145</v>
@@ -18937,7 +19050,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="E136" s="2">
         <v>1602000</v>
@@ -18945,7 +19058,7 @@
     </row>
     <row r="137" ht="40.35" customHeight="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>146</v>
@@ -18954,7 +19067,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="E137" s="2">
         <v>1508000</v>
@@ -18971,7 +19084,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E138" s="2">
         <v>4549990</v>
@@ -18988,7 +19101,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E139" s="2">
         <v>2479990</v>
@@ -19005,7 +19118,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="E140" s="2">
         <v>2075990</v>
@@ -19022,7 +19135,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E141" s="2">
         <v>2080990</v>
@@ -19039,7 +19152,7 @@
         <v>380</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E142" s="2">
         <v>2273000</v>
@@ -19056,7 +19169,7 @@
         <v>380</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E143" s="2">
         <v>2443000</v>
@@ -19073,7 +19186,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E144" s="2">
         <v>1341000</v>
@@ -19084,13 +19197,13 @@
         <v>344</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E145" s="2">
         <v>1381000</v>
@@ -19101,13 +19214,13 @@
         <v>344</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E146" s="2">
         <v>1493000</v>
@@ -19118,13 +19231,13 @@
         <v>344</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E147" s="2">
         <v>1533000</v>
@@ -19141,7 +19254,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E148" s="2">
         <v>1670000</v>
@@ -19158,7 +19271,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E149" s="2">
         <v>1487000</v>
@@ -19169,13 +19282,13 @@
         <v>54</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E150" s="2">
         <v>4850000</v>
@@ -19186,13 +19299,13 @@
         <v>54</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E151" s="2">
         <v>4000000</v>
@@ -19203,13 +19316,13 @@
         <v>54</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E152" s="2">
         <v>4930000</v>
@@ -19226,7 +19339,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E153" s="2">
         <v>3692990</v>
@@ -19243,7 +19356,7 @@
         <v>270</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E154" s="2">
         <v>3979000</v>
@@ -19260,7 +19373,7 @@
         <v>8</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E155" s="2">
         <v>4099000</v>
@@ -19277,7 +19390,7 @@
         <v>8</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E156" s="2">
         <v>3449000</v>
@@ -19294,7 +19407,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E157" s="2">
         <v>2799000</v>
@@ -19305,13 +19418,13 @@
         <v>200</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E158" s="2">
         <v>3549000</v>
@@ -19322,13 +19435,13 @@
         <v>200</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E159" s="2">
         <v>3299000</v>
@@ -19345,7 +19458,7 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E160" s="2">
         <v>7374900</v>
@@ -19362,7 +19475,7 @@
         <v>270</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E161" s="2">
         <v>3789900</v>
@@ -19379,7 +19492,7 @@
         <v>51</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E162" s="2">
         <v>5829900</v>
@@ -19396,7 +19509,7 @@
         <v>270</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E163" s="2">
         <v>4144900</v>
@@ -19404,16 +19517,16 @@
     </row>
     <row r="164" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E164" s="2">
         <v>1672000</v>
@@ -19430,7 +19543,7 @@
         <v>8</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E165" s="2">
         <v>2040546</v>
@@ -19447,7 +19560,7 @@
         <v>8</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E166" s="2">
         <v>3100000</v>
@@ -19464,7 +19577,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E167" s="2">
         <v>2990000</v>
@@ -19481,7 +19594,7 @@
         <v>312</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="E168" s="2">
         <v>8669500</v>
@@ -19498,7 +19611,7 @@
         <v>677</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E169" s="2">
         <v>4291000</v>
@@ -19515,7 +19628,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E170" s="2">
         <v>6146500</v>
@@ -19523,7 +19636,7 @@
     </row>
     <row r="171" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>274</v>
@@ -19532,7 +19645,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E171" s="2">
         <v>1889000</v>
@@ -19540,7 +19653,7 @@
     </row>
     <row r="172" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>276</v>
@@ -19549,7 +19662,7 @@
         <v>8</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E172" s="2">
         <v>2399000</v>
@@ -19557,7 +19670,7 @@
     </row>
     <row r="173" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>653</v>
@@ -19566,7 +19679,7 @@
         <v>8</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E173" s="2">
         <v>3059000</v>
@@ -19574,16 +19687,16 @@
     </row>
     <row r="174" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E174" s="2">
         <v>3279000</v>
@@ -19591,7 +19704,7 @@
     </row>
     <row r="175" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>654</v>
@@ -19600,7 +19713,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E175" s="2">
         <v>3599000</v>
@@ -19608,7 +19721,7 @@
     </row>
     <row r="176" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>175</v>
@@ -19617,7 +19730,7 @@
         <v>8</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E176" s="2">
         <v>5499999</v>
@@ -19625,7 +19738,7 @@
     </row>
     <row r="177" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>172</v>
@@ -19634,7 +19747,7 @@
         <v>103</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E177" s="2">
         <v>4099000</v>
@@ -19642,7 +19755,7 @@
     </row>
     <row r="178" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>169</v>
@@ -19651,7 +19764,7 @@
         <v>8</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E178" s="2">
         <v>2449000</v>
@@ -19662,13 +19775,13 @@
         <v>22</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E179" s="2">
         <v>4529900</v>
@@ -19685,7 +19798,7 @@
         <v>8</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E180" s="2">
         <v>3739900</v>
@@ -19696,13 +19809,13 @@
         <v>22</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E181" s="2">
         <v>5219900</v>
@@ -19713,13 +19826,13 @@
         <v>54</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E182" s="2">
         <v>2780000</v>
@@ -19736,7 +19849,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E183" s="2">
         <v>2020000</v>
@@ -19753,7 +19866,7 @@
         <v>8</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E184" s="2">
         <v>2650000</v>
@@ -19770,7 +19883,7 @@
         <v>8</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E185" s="2">
         <v>2080000</v>
@@ -19787,7 +19900,7 @@
         <v>8</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E186" s="2">
         <v>2181000</v>
@@ -19804,7 +19917,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E187" s="2">
         <v>2279000</v>
@@ -19821,7 +19934,7 @@
         <v>103</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E188" s="2">
         <v>2899000</v>
@@ -19838,7 +19951,7 @@
         <v>82</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E189" s="2">
         <v>2379000</v>
@@ -19846,16 +19959,16 @@
     </row>
     <row r="190" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E190" s="2">
         <v>2499000</v>
@@ -19863,7 +19976,7 @@
     </row>
     <row r="191" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>473</v>
@@ -19872,7 +19985,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E191" s="2">
         <v>2479900</v>
@@ -19889,7 +20002,7 @@
         <v>8</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E192" s="2">
         <v>3959000</v>
@@ -19900,13 +20013,13 @@
         <v>121</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E193" s="2">
         <v>2890000</v>
@@ -19917,13 +20030,13 @@
         <v>121</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E194" s="2">
         <v>4080000</v>
@@ -19934,13 +20047,13 @@
         <v>121</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E195" s="2">
         <v>6290000</v>
@@ -19948,7 +20061,7 @@
     </row>
     <row r="196" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="B196" s="2">
         <v>6</v>
@@ -19957,7 +20070,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E196" s="2">
         <v>2200000</v>
@@ -19965,7 +20078,7 @@
     </row>
     <row r="197" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>284</v>
@@ -19974,7 +20087,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E197" s="2">
         <v>4599000</v>
@@ -19991,7 +20104,7 @@
         <v>8</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E198" s="2">
         <v>2199000</v>
@@ -20002,13 +20115,13 @@
         <v>215</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E199" s="2">
         <v>4599000</v>
@@ -20019,13 +20132,13 @@
         <v>105</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E200" s="2">
         <v>1990000</v>
@@ -20036,13 +20149,13 @@
         <v>105</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E201" s="2">
         <v>3590000</v>
@@ -20059,7 +20172,7 @@
         <v>8</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E202" s="2">
         <v>2650000</v>
@@ -20070,13 +20183,13 @@
         <v>215</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E203" s="2">
         <v>2849000</v>
@@ -20084,7 +20197,7 @@
     </row>
     <row r="204" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>171</v>
@@ -20093,7 +20206,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E204" s="2">
         <v>2099000</v>
@@ -20110,7 +20223,7 @@
         <v>8</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="E205" s="2">
         <v>1263000</v>
@@ -20127,7 +20240,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E206" s="2">
         <v>1546500</v>
@@ -20144,7 +20257,7 @@
         <v>8</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="E207" s="2">
         <v>883000</v>
@@ -20161,7 +20274,7 @@
         <v>8</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="E208" s="2">
         <v>825000</v>
@@ -20178,7 +20291,7 @@
         <v>8</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="E209" s="2">
         <v>851000</v>
@@ -20189,13 +20302,13 @@
         <v>176</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E210" s="2">
         <v>3357990</v>
@@ -20206,13 +20319,13 @@
         <v>215</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E211" s="2">
         <v>3899000</v>
@@ -20229,7 +20342,7 @@
         <v>8</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E212" s="2">
         <v>1990000</v>
@@ -20246,7 +20359,7 @@
         <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E213" s="2">
         <v>2199000</v>
@@ -20263,7 +20376,7 @@
         <v>8</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="E214" s="2">
         <v>789900</v>
@@ -20280,7 +20393,7 @@
         <v>51</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="E215" s="2">
         <v>869900</v>
@@ -20297,7 +20410,7 @@
         <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="E216" s="2">
         <v>1089000</v>
@@ -20314,7 +20427,7 @@
         <v>8</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="E217" s="2">
         <v>999900</v>
@@ -20331,7 +20444,7 @@
         <v>8</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="E218" s="2">
         <v>1455000</v>
@@ -20348,7 +20461,7 @@
         <v>103</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="E219" s="2">
         <v>809900</v>
@@ -20365,7 +20478,7 @@
         <v>8</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E220" s="2">
         <v>2000000</v>
@@ -20382,7 +20495,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="E221" s="2">
         <v>1229900</v>
@@ -20399,7 +20512,7 @@
         <v>8</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="E222" s="2">
         <v>2656800</v>
@@ -20410,13 +20523,13 @@
         <v>344</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="E223" s="2">
         <v>824000</v>
@@ -20427,13 +20540,13 @@
         <v>300</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="E224" s="2">
         <v>1204900</v>
@@ -20450,7 +20563,7 @@
         <v>8</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="E225" s="2">
         <v>2234900</v>
@@ -20458,7 +20571,7 @@
     </row>
     <row r="226" ht="40.35" customHeight="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>138</v>
@@ -20467,7 +20580,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="E226" s="2">
         <v>2673000</v>
@@ -20484,7 +20597,7 @@
         <v>8</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="E227" s="2">
         <v>1419990</v>
@@ -20492,7 +20605,7 @@
     </row>
     <row r="228" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>277</v>
@@ -20501,7 +20614,7 @@
         <v>8</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="E228" s="2">
         <v>1494000</v>
@@ -20518,7 +20631,7 @@
         <v>8</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E229" s="2">
         <v>2849990</v>
@@ -20532,10 +20645,10 @@
         <v>591</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E230" s="2">
         <v>3173000</v>
@@ -20546,13 +20659,13 @@
         <v>54</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E231" s="2">
         <v>2380000</v>
@@ -20569,7 +20682,7 @@
         <v>8</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E232" s="2">
         <v>2599000</v>
@@ -20577,16 +20690,16 @@
     </row>
     <row r="233" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E233" s="2">
         <v>2999000</v>
@@ -20597,13 +20710,13 @@
         <v>22</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E234" s="2">
         <v>3590000</v>
@@ -20611,16 +20724,16 @@
     </row>
     <row r="235" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E235" s="2">
         <v>2569900</v>
@@ -20637,7 +20750,7 @@
         <v>8</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E236" s="2">
         <v>4750000</v>
@@ -20645,16 +20758,16 @@
     </row>
     <row r="237" ht="40.35" customHeight="1" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E237" s="2">
         <v>2499990</v>
@@ -20662,7 +20775,7 @@
     </row>
     <row r="238" ht="27.15" customHeight="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>793</v>
@@ -20671,7 +20784,7 @@
         <v>8</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E238" s="2">
         <v>2779990</v>
@@ -20688,7 +20801,7 @@
         <v>51</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E239" s="2">
         <v>2649000</v>
@@ -20705,7 +20818,7 @@
         <v>5</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E240" s="2">
         <v>1899000</v>
@@ -20722,7 +20835,7 @@
         <v>8</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E241" s="2">
         <v>2825990</v>
@@ -20730,7 +20843,7 @@
     </row>
     <row r="242" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="B242" s="2">
         <v>400</v>
@@ -20739,7 +20852,7 @@
         <v>8</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E242" s="2">
         <v>5799000</v>
@@ -20747,7 +20860,7 @@
     </row>
     <row r="243" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>280</v>
@@ -20756,7 +20869,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="E243" s="2">
         <v>2899000</v>
@@ -20773,7 +20886,7 @@
         <v>8</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E244" s="2">
         <v>1887500</v>
@@ -20790,7 +20903,7 @@
         <v>8</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E245" s="2">
         <v>1805000</v>
@@ -20807,7 +20920,7 @@
         <v>8</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E246" s="2">
         <v>1684500</v>
@@ -20815,7 +20928,7 @@
     </row>
     <row r="247" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>785</v>
@@ -20824,7 +20937,7 @@
         <v>8</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E247" s="2">
         <v>3899000</v>
@@ -20832,7 +20945,7 @@
     </row>
     <row r="248" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>784</v>
@@ -20841,7 +20954,7 @@
         <v>8</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E248" s="2">
         <v>3099000</v>
@@ -20849,7 +20962,7 @@
     </row>
     <row r="249" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -20858,7 +20971,7 @@
         <v>8</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E249" s="2">
         <v>4162990</v>

--- a/id.xlsx
+++ b/id.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$933</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$G$934</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="1103">
   <si>
     <t>Aito</t>
   </si>
@@ -2993,6 +2993,21 @@
   </si>
   <si>
     <t>Granta Active Cross Liftback</t>
+  </si>
+  <si>
+    <t>Corolla Cross</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>YU7</t>
+  </si>
+  <si>
+    <t>UNI-V New</t>
+  </si>
+  <si>
+    <t>Niva Legend 3 двери Sport</t>
   </si>
   <si>
     <t>Марка</t>
@@ -4323,10 +4338,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G934"/>
+  <dimension ref="A1:G939"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A914" workbookViewId="0">
-      <selection activeCell="C934" sqref="C934"/>
+      <selection activeCell="G933" sqref="G933"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -16724,8 +16739,63 @@
         <v>986</v>
       </c>
     </row>
+    <row r="935" spans="1:3">
+      <c r="A935">
+        <v>1034</v>
+      </c>
+      <c r="B935" t="s">
+        <v>576</v>
+      </c>
+      <c r="C935" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3">
+      <c r="A936">
+        <v>1035</v>
+      </c>
+      <c r="B936" t="s">
+        <v>988</v>
+      </c>
+      <c r="C936" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3">
+      <c r="A937">
+        <v>1036</v>
+      </c>
+      <c r="B937" t="s">
+        <v>686</v>
+      </c>
+      <c r="C937" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3">
+      <c r="A938">
+        <v>1037</v>
+      </c>
+      <c r="B938" t="s">
+        <v>22</v>
+      </c>
+      <c r="C938" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3">
+      <c r="A939">
+        <v>1038</v>
+      </c>
+      <c r="B939" t="s">
+        <v>344</v>
+      </c>
+      <c r="C939" t="s">
+        <v>991</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G933" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G934" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16746,19 +16816,19 @@
   <sheetData>
     <row r="1" ht="27.15" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="2" ht="40.35" hidden="1" customHeight="1" spans="1:5">
@@ -16766,13 +16836,13 @@
         <v>344</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>380</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E2" s="2">
         <v>1239900</v>
@@ -16789,7 +16859,7 @@
         <v>380</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E3" s="2">
         <v>1759000</v>
@@ -16806,7 +16876,7 @@
         <v>380</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E4" s="2">
         <v>1655000</v>
@@ -16823,7 +16893,7 @@
         <v>380</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E5" s="2">
         <v>1879000</v>
@@ -16834,13 +16904,13 @@
         <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="2">
         <v>1077000</v>
@@ -16857,7 +16927,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="E7" s="2">
         <v>1408000</v>
@@ -16868,13 +16938,13 @@
         <v>344</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="2">
         <v>749900</v>
@@ -16891,7 +16961,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="2">
         <v>1175000</v>
@@ -16908,7 +16978,7 @@
         <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="E10" s="2">
         <v>2149000</v>
@@ -16925,7 +16995,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E11" s="2">
         <v>1660000</v>
@@ -16942,7 +17012,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E12" s="2">
         <v>2020000</v>
@@ -16959,7 +17029,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E13" s="2">
         <v>1859000</v>
@@ -16976,7 +17046,7 @@
         <v>303</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E14" s="2">
         <v>1334900</v>
@@ -16987,13 +17057,13 @@
         <v>176</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E15" s="2">
         <v>3512990</v>
@@ -17010,7 +17080,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E16" s="2">
         <v>2836990</v>
@@ -17027,7 +17097,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="E17" s="2">
         <v>1850000</v>
@@ -17044,7 +17114,7 @@
         <v>270</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="E18" s="2">
         <v>2749000</v>
@@ -17061,7 +17131,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E19" s="2">
         <v>2179990</v>
@@ -17072,13 +17142,13 @@
         <v>176</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E20" s="2">
         <v>2794990</v>
@@ -17095,7 +17165,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E21" s="2">
         <v>3959990</v>
@@ -17103,7 +17173,7 @@
     </row>
     <row r="22" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="B22" s="2">
         <v>300</v>
@@ -17112,7 +17182,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E22" s="2">
         <v>4499000</v>
@@ -17120,7 +17190,7 @@
     </row>
     <row r="23" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="B23" s="2">
         <v>500</v>
@@ -17129,7 +17199,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E23" s="2">
         <v>6799000</v>
@@ -17140,13 +17210,13 @@
         <v>344</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="2">
         <v>778500</v>
@@ -17157,13 +17227,13 @@
         <v>344</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E25" s="2">
         <v>719300</v>
@@ -17174,13 +17244,13 @@
         <v>344</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E26" s="2">
         <v>950900</v>
@@ -17197,7 +17267,7 @@
         <v>380</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E27" s="2">
         <v>1316900</v>
@@ -17208,13 +17278,13 @@
         <v>242</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="E28" s="2">
         <v>2769000</v>
@@ -17231,7 +17301,7 @@
         <v>303</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E29" s="2">
         <v>2244900</v>
@@ -17248,7 +17318,7 @@
         <v>259</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="E30" s="2">
         <v>1574900</v>
@@ -17265,7 +17335,7 @@
         <v>259</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="E31" s="2">
         <v>1434900</v>
@@ -17276,13 +17346,13 @@
         <v>344</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E32" s="2">
         <v>1059000</v>
@@ -17299,7 +17369,7 @@
         <v>259</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="E33" s="2">
         <v>3969000</v>
@@ -17316,7 +17386,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="E34" s="2">
         <v>1314000</v>
@@ -17327,13 +17397,13 @@
         <v>215</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E35" s="2">
         <v>2149000</v>
@@ -17350,7 +17420,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="E36" s="2">
         <v>2599000</v>
@@ -17361,13 +17431,13 @@
         <v>215</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="E37" s="2">
         <v>2599000</v>
@@ -17384,7 +17454,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="E38" s="2">
         <v>5269000</v>
@@ -17401,7 +17471,7 @@
         <v>303</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E39" s="2">
         <v>2314900</v>
@@ -17412,13 +17482,13 @@
         <v>344</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E40" s="2">
         <v>918900</v>
@@ -17435,7 +17505,7 @@
         <v>259</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E41" s="2">
         <v>2159900</v>
@@ -17452,7 +17522,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="E42" s="2">
         <v>1106900</v>
@@ -17469,7 +17539,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="E43" s="2">
         <v>1249900</v>
@@ -17486,7 +17556,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E44" s="2">
         <v>2900000</v>
@@ -17497,13 +17567,13 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E45" s="2">
         <v>2439900</v>
@@ -17520,7 +17590,7 @@
         <v>312</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E46" s="2">
         <v>2734900</v>
@@ -17537,7 +17607,7 @@
         <v>312</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E47" s="2">
         <v>1934900</v>
@@ -17554,7 +17624,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E48" s="2">
         <v>2064900</v>
@@ -17571,7 +17641,7 @@
         <v>334</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E49" s="2">
         <v>2849900</v>
@@ -17579,7 +17649,7 @@
     </row>
     <row r="50" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>279</v>
@@ -17588,7 +17658,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E50" s="2">
         <v>1779000</v>
@@ -17596,7 +17666,7 @@
     </row>
     <row r="51" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>273</v>
@@ -17605,7 +17675,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E51" s="2">
         <v>2150000</v>
@@ -17613,7 +17683,7 @@
     </row>
     <row r="52" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>278</v>
@@ -17622,7 +17692,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E52" s="2">
         <v>2129900</v>
@@ -17630,7 +17700,7 @@
     </row>
     <row r="53" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>472</v>
@@ -17639,7 +17709,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E53" s="2">
         <v>2369900</v>
@@ -17656,7 +17726,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E54" s="2">
         <v>1690000</v>
@@ -17673,7 +17743,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E55" s="2">
         <v>2869900</v>
@@ -17684,13 +17754,13 @@
         <v>22</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E56" s="2">
         <v>2569900</v>
@@ -17701,13 +17771,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E57" s="2">
         <v>2839900</v>
@@ -17724,7 +17794,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E58" s="2">
         <v>3969900</v>
@@ -17741,7 +17811,7 @@
         <v>26</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E59" s="2">
         <v>3069900</v>
@@ -17758,7 +17828,7 @@
         <v>26</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E60" s="2">
         <v>3069900</v>
@@ -17769,13 +17839,13 @@
         <v>22</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="E61" s="2">
         <v>2899900</v>
@@ -17783,7 +17853,7 @@
     </row>
     <row r="62" ht="40.35" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>135</v>
@@ -17792,7 +17862,7 @@
         <v>26</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E62" s="2">
         <v>2374000</v>
@@ -17800,7 +17870,7 @@
     </row>
     <row r="63" ht="40.35" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>136</v>
@@ -17809,7 +17879,7 @@
         <v>26</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E63" s="2">
         <v>2411000</v>
@@ -17817,7 +17887,7 @@
     </row>
     <row r="64" ht="40.35" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>137</v>
@@ -17826,7 +17896,7 @@
         <v>26</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E64" s="2">
         <v>2024000</v>
@@ -17843,7 +17913,7 @@
         <v>82</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="E65" s="2">
         <v>1124000</v>
@@ -17860,7 +17930,7 @@
         <v>103</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E66" s="2">
         <v>1051000</v>
@@ -17877,7 +17947,7 @@
         <v>534</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E67" s="2">
         <v>1657000</v>
@@ -17894,7 +17964,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E68" s="2">
         <v>1705000</v>
@@ -17911,7 +17981,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="E69" s="2">
         <v>1699900</v>
@@ -17928,7 +17998,7 @@
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E70" s="2">
         <v>2489900</v>
@@ -17936,7 +18006,7 @@
     </row>
     <row r="71" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>273</v>
@@ -17945,7 +18015,7 @@
         <v>26</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E71" s="2">
         <v>2959900</v>
@@ -17953,7 +18023,7 @@
     </row>
     <row r="72" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
@@ -17962,7 +18032,7 @@
         <v>26</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E72" s="2">
         <v>1765000</v>
@@ -17979,7 +18049,7 @@
         <v>226</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="E73" s="2">
         <v>4409000</v>
@@ -17996,7 +18066,7 @@
         <v>226</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="E74" s="2">
         <v>1690000</v>
@@ -18013,7 +18083,7 @@
         <v>85</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E75" s="2">
         <v>950900</v>
@@ -18030,7 +18100,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="E76" s="2">
         <v>880900</v>
@@ -18047,7 +18117,7 @@
         <v>82</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E77" s="2">
         <v>953900</v>
@@ -18064,7 +18134,7 @@
         <v>103</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E78" s="2">
         <v>2179000</v>
@@ -18081,7 +18151,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="E79" s="2">
         <v>1579000</v>
@@ -18098,7 +18168,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="E80" s="2">
         <v>4299000</v>
@@ -18115,7 +18185,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="E81" s="2">
         <v>2049000</v>
@@ -18132,7 +18202,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E82" s="2">
         <v>3149000</v>
@@ -18149,7 +18219,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="E83" s="2">
         <v>2337000</v>
@@ -18160,13 +18230,13 @@
         <v>457</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="E84" s="2">
         <v>2762000</v>
@@ -18183,7 +18253,7 @@
         <v>103</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E85" s="2">
         <v>1618000</v>
@@ -18200,7 +18270,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="E86" s="2">
         <v>1301000</v>
@@ -18217,7 +18287,7 @@
         <v>82</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="E87" s="2">
         <v>1258000</v>
@@ -18234,7 +18304,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="E88" s="2">
         <v>1373000</v>
@@ -18251,7 +18321,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="E89" s="2">
         <v>1724000</v>
@@ -18268,7 +18338,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E90" s="2">
         <v>1874000</v>
@@ -18285,7 +18355,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E91" s="2">
         <v>2057000</v>
@@ -18302,7 +18372,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E92" s="2">
         <v>2118900</v>
@@ -18319,7 +18389,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E93" s="2">
         <v>3248000</v>
@@ -18336,7 +18406,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E94" s="2">
         <v>5378000</v>
@@ -18353,7 +18423,7 @@
         <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E95" s="2">
         <v>5806000</v>
@@ -18370,7 +18440,7 @@
         <v>303</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E96" s="2">
         <v>2388000</v>
@@ -18387,7 +18457,7 @@
         <v>303</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E97" s="2">
         <v>2681000</v>
@@ -18404,7 +18474,7 @@
         <v>617</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="E98" s="2">
         <v>1385900</v>
@@ -18421,7 +18491,7 @@
         <v>608</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="E99" s="2">
         <v>1518000</v>
@@ -18438,7 +18508,7 @@
         <v>82</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E100" s="2">
         <v>3375900</v>
@@ -18455,7 +18525,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E101" s="2">
         <v>2828900</v>
@@ -18472,7 +18542,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E102" s="2">
         <v>4449900</v>
@@ -18489,7 +18559,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="E103" s="2">
         <v>1229000</v>
@@ -18506,7 +18576,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E104" s="2">
         <v>2499000</v>
@@ -18514,7 +18584,7 @@
     </row>
     <row r="105" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>595</v>
@@ -18523,7 +18593,7 @@
         <v>596</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="E105" s="2">
         <v>1680000</v>
@@ -18531,16 +18601,16 @@
     </row>
     <row r="106" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>596</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="E106" s="2">
         <v>1705000</v>
@@ -18548,7 +18618,7 @@
     </row>
     <row r="107" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>39</v>
@@ -18557,7 +18627,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="E107" s="2">
         <v>1510000</v>
@@ -18574,7 +18644,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E108" s="2">
         <v>2570000</v>
@@ -18591,7 +18661,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E109" s="2">
         <v>3430000</v>
@@ -18602,13 +18672,13 @@
         <v>54</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E110" s="2">
         <v>2770000</v>
@@ -18625,7 +18695,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E111" s="2">
         <v>1970000</v>
@@ -18636,13 +18706,13 @@
         <v>54</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E112" s="2">
         <v>3250000</v>
@@ -18653,13 +18723,13 @@
         <v>54</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E113" s="2">
         <v>3370000</v>
@@ -18676,7 +18746,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E114" s="2">
         <v>3759900</v>
@@ -18693,7 +18763,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E115" s="2">
         <v>3380000</v>
@@ -18710,7 +18780,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E116" s="2">
         <v>3810000</v>
@@ -18727,7 +18797,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E117" s="2">
         <v>4910000</v>
@@ -18744,7 +18814,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E118" s="2">
         <v>4550000</v>
@@ -18761,7 +18831,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E119" s="2">
         <v>2080000</v>
@@ -18778,7 +18848,7 @@
         <v>8</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E120" s="2">
         <v>2225000</v>
@@ -18795,7 +18865,7 @@
         <v>8</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E121" s="2">
         <v>2970000</v>
@@ -18812,7 +18882,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E122" s="2">
         <v>4350000</v>
@@ -18829,7 +18899,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E123" s="2">
         <v>2999900</v>
@@ -18846,7 +18916,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E124" s="2">
         <v>3479900</v>
@@ -18863,7 +18933,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E125" s="2">
         <v>1990000</v>
@@ -18880,7 +18950,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E126" s="2">
         <v>2149000</v>
@@ -18897,7 +18967,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E127" s="2">
         <v>2115000</v>
@@ -18914,7 +18984,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E128" s="2">
         <v>2238000</v>
@@ -18931,7 +19001,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E129" s="2">
         <v>2514900</v>
@@ -18948,7 +19018,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E130" s="2">
         <v>2997900</v>
@@ -18956,16 +19026,16 @@
     </row>
     <row r="131" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E131" s="2">
         <v>2549900</v>
@@ -18973,16 +19043,16 @@
     </row>
     <row r="132" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E132" s="2">
         <v>2629900</v>
@@ -18990,16 +19060,16 @@
     </row>
     <row r="133" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E133" s="2">
         <v>4100000</v>
@@ -19016,7 +19086,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="E134" s="2">
         <v>2219900</v>
@@ -19027,13 +19097,13 @@
         <v>22</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E135" s="2">
         <v>2499900</v>
@@ -19041,7 +19111,7 @@
     </row>
     <row r="136" ht="27.15" customHeight="1" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>145</v>
@@ -19050,7 +19120,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="E136" s="2">
         <v>1602000</v>
@@ -19058,7 +19128,7 @@
     </row>
     <row r="137" ht="40.35" customHeight="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>146</v>
@@ -19067,7 +19137,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="E137" s="2">
         <v>1508000</v>
@@ -19084,7 +19154,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E138" s="2">
         <v>4549990</v>
@@ -19101,7 +19171,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E139" s="2">
         <v>2479990</v>
@@ -19118,7 +19188,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="E140" s="2">
         <v>2075990</v>
@@ -19135,7 +19205,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E141" s="2">
         <v>2080990</v>
@@ -19152,7 +19222,7 @@
         <v>380</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E142" s="2">
         <v>2273000</v>
@@ -19169,7 +19239,7 @@
         <v>380</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E143" s="2">
         <v>2443000</v>
@@ -19186,7 +19256,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E144" s="2">
         <v>1341000</v>
@@ -19197,13 +19267,13 @@
         <v>344</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E145" s="2">
         <v>1381000</v>
@@ -19214,13 +19284,13 @@
         <v>344</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E146" s="2">
         <v>1493000</v>
@@ -19231,13 +19301,13 @@
         <v>344</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E147" s="2">
         <v>1533000</v>
@@ -19254,7 +19324,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E148" s="2">
         <v>1670000</v>
@@ -19271,7 +19341,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E149" s="2">
         <v>1487000</v>
@@ -19282,13 +19352,13 @@
         <v>54</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E150" s="2">
         <v>4850000</v>
@@ -19299,13 +19369,13 @@
         <v>54</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E151" s="2">
         <v>4000000</v>
@@ -19316,13 +19386,13 @@
         <v>54</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E152" s="2">
         <v>4930000</v>
@@ -19339,7 +19409,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E153" s="2">
         <v>3692990</v>
@@ -19356,7 +19426,7 @@
         <v>270</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="E154" s="2">
         <v>3979000</v>
@@ -19373,7 +19443,7 @@
         <v>8</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E155" s="2">
         <v>4099000</v>
@@ -19390,7 +19460,7 @@
         <v>8</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E156" s="2">
         <v>3449000</v>
@@ -19407,7 +19477,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E157" s="2">
         <v>2799000</v>
@@ -19418,13 +19488,13 @@
         <v>200</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E158" s="2">
         <v>3549000</v>
@@ -19435,13 +19505,13 @@
         <v>200</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E159" s="2">
         <v>3299000</v>
@@ -19458,7 +19528,7 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E160" s="2">
         <v>7374900</v>
@@ -19475,7 +19545,7 @@
         <v>270</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E161" s="2">
         <v>3789900</v>
@@ -19492,7 +19562,7 @@
         <v>51</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E162" s="2">
         <v>5829900</v>
@@ -19509,7 +19579,7 @@
         <v>270</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E163" s="2">
         <v>4144900</v>
@@ -19517,16 +19587,16 @@
     </row>
     <row r="164" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E164" s="2">
         <v>1672000</v>
@@ -19543,7 +19613,7 @@
         <v>8</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E165" s="2">
         <v>2040546</v>
@@ -19560,7 +19630,7 @@
         <v>8</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E166" s="2">
         <v>3100000</v>
@@ -19577,7 +19647,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E167" s="2">
         <v>2990000</v>
@@ -19594,7 +19664,7 @@
         <v>312</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="E168" s="2">
         <v>8669500</v>
@@ -19611,7 +19681,7 @@
         <v>677</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E169" s="2">
         <v>4291000</v>
@@ -19628,7 +19698,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E170" s="2">
         <v>6146500</v>
@@ -19636,7 +19706,7 @@
     </row>
     <row r="171" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>274</v>
@@ -19645,7 +19715,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E171" s="2">
         <v>1889000</v>
@@ -19653,7 +19723,7 @@
     </row>
     <row r="172" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>276</v>
@@ -19662,7 +19732,7 @@
         <v>8</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E172" s="2">
         <v>2399000</v>
@@ -19670,7 +19740,7 @@
     </row>
     <row r="173" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>653</v>
@@ -19679,7 +19749,7 @@
         <v>8</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E173" s="2">
         <v>3059000</v>
@@ -19687,16 +19757,16 @@
     </row>
     <row r="174" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E174" s="2">
         <v>3279000</v>
@@ -19704,7 +19774,7 @@
     </row>
     <row r="175" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>654</v>
@@ -19713,7 +19783,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E175" s="2">
         <v>3599000</v>
@@ -19721,7 +19791,7 @@
     </row>
     <row r="176" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>175</v>
@@ -19730,7 +19800,7 @@
         <v>8</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E176" s="2">
         <v>5499999</v>
@@ -19738,7 +19808,7 @@
     </row>
     <row r="177" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>172</v>
@@ -19747,7 +19817,7 @@
         <v>103</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E177" s="2">
         <v>4099000</v>
@@ -19755,7 +19825,7 @@
     </row>
     <row r="178" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>169</v>
@@ -19764,7 +19834,7 @@
         <v>8</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E178" s="2">
         <v>2449000</v>
@@ -19775,13 +19845,13 @@
         <v>22</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E179" s="2">
         <v>4529900</v>
@@ -19798,7 +19868,7 @@
         <v>8</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E180" s="2">
         <v>3739900</v>
@@ -19809,13 +19879,13 @@
         <v>22</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E181" s="2">
         <v>5219900</v>
@@ -19826,13 +19896,13 @@
         <v>54</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E182" s="2">
         <v>2780000</v>
@@ -19849,7 +19919,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E183" s="2">
         <v>2020000</v>
@@ -19866,7 +19936,7 @@
         <v>8</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E184" s="2">
         <v>2650000</v>
@@ -19883,7 +19953,7 @@
         <v>8</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E185" s="2">
         <v>2080000</v>
@@ -19900,7 +19970,7 @@
         <v>8</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E186" s="2">
         <v>2181000</v>
@@ -19917,7 +19987,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="E187" s="2">
         <v>2279000</v>
@@ -19934,7 +20004,7 @@
         <v>103</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="E188" s="2">
         <v>2899000</v>
@@ -19951,7 +20021,7 @@
         <v>82</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="E189" s="2">
         <v>2379000</v>
@@ -19959,16 +20029,16 @@
     </row>
     <row r="190" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E190" s="2">
         <v>2499000</v>
@@ -19976,7 +20046,7 @@
     </row>
     <row r="191" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>473</v>
@@ -19985,7 +20055,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E191" s="2">
         <v>2479900</v>
@@ -20002,7 +20072,7 @@
         <v>8</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E192" s="2">
         <v>3959000</v>
@@ -20013,13 +20083,13 @@
         <v>121</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E193" s="2">
         <v>2890000</v>
@@ -20030,13 +20100,13 @@
         <v>121</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E194" s="2">
         <v>4080000</v>
@@ -20047,13 +20117,13 @@
         <v>121</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E195" s="2">
         <v>6290000</v>
@@ -20061,7 +20131,7 @@
     </row>
     <row r="196" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="B196" s="2">
         <v>6</v>
@@ -20070,7 +20140,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E196" s="2">
         <v>2200000</v>
@@ -20078,7 +20148,7 @@
     </row>
     <row r="197" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>284</v>
@@ -20087,7 +20157,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E197" s="2">
         <v>4599000</v>
@@ -20104,7 +20174,7 @@
         <v>8</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E198" s="2">
         <v>2199000</v>
@@ -20115,13 +20185,13 @@
         <v>215</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E199" s="2">
         <v>4599000</v>
@@ -20132,13 +20202,13 @@
         <v>105</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E200" s="2">
         <v>1990000</v>
@@ -20149,13 +20219,13 @@
         <v>105</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E201" s="2">
         <v>3590000</v>
@@ -20172,7 +20242,7 @@
         <v>8</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="E202" s="2">
         <v>2650000</v>
@@ -20183,13 +20253,13 @@
         <v>215</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E203" s="2">
         <v>2849000</v>
@@ -20197,7 +20267,7 @@
     </row>
     <row r="204" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>171</v>
@@ -20206,7 +20276,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E204" s="2">
         <v>2099000</v>
@@ -20223,7 +20293,7 @@
         <v>8</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="E205" s="2">
         <v>1263000</v>
@@ -20240,7 +20310,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E206" s="2">
         <v>1546500</v>
@@ -20257,7 +20327,7 @@
         <v>8</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="E207" s="2">
         <v>883000</v>
@@ -20274,7 +20344,7 @@
         <v>8</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="E208" s="2">
         <v>825000</v>
@@ -20291,7 +20361,7 @@
         <v>8</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="E209" s="2">
         <v>851000</v>
@@ -20302,13 +20372,13 @@
         <v>176</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E210" s="2">
         <v>3357990</v>
@@ -20319,13 +20389,13 @@
         <v>215</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E211" s="2">
         <v>3899000</v>
@@ -20342,7 +20412,7 @@
         <v>8</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E212" s="2">
         <v>1990000</v>
@@ -20359,7 +20429,7 @@
         <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E213" s="2">
         <v>2199000</v>
@@ -20376,7 +20446,7 @@
         <v>8</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="E214" s="2">
         <v>789900</v>
@@ -20393,7 +20463,7 @@
         <v>51</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="E215" s="2">
         <v>869900</v>
@@ -20410,7 +20480,7 @@
         <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="E216" s="2">
         <v>1089000</v>
@@ -20427,7 +20497,7 @@
         <v>8</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="E217" s="2">
         <v>999900</v>
@@ -20444,7 +20514,7 @@
         <v>8</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="E218" s="2">
         <v>1455000</v>
@@ -20461,7 +20531,7 @@
         <v>103</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="E219" s="2">
         <v>809900</v>
@@ -20478,7 +20548,7 @@
         <v>8</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="E220" s="2">
         <v>2000000</v>
@@ -20495,7 +20565,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="E221" s="2">
         <v>1229900</v>
@@ -20512,7 +20582,7 @@
         <v>8</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="E222" s="2">
         <v>2656800</v>
@@ -20523,13 +20593,13 @@
         <v>344</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="E223" s="2">
         <v>824000</v>
@@ -20540,13 +20610,13 @@
         <v>300</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="E224" s="2">
         <v>1204900</v>
@@ -20563,7 +20633,7 @@
         <v>8</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="E225" s="2">
         <v>2234900</v>
@@ -20571,7 +20641,7 @@
     </row>
     <row r="226" ht="40.35" customHeight="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>138</v>
@@ -20580,7 +20650,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="E226" s="2">
         <v>2673000</v>
@@ -20597,7 +20667,7 @@
         <v>8</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="E227" s="2">
         <v>1419990</v>
@@ -20605,7 +20675,7 @@
     </row>
     <row r="228" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>277</v>
@@ -20614,7 +20684,7 @@
         <v>8</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="E228" s="2">
         <v>1494000</v>
@@ -20631,7 +20701,7 @@
         <v>8</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E229" s="2">
         <v>2849990</v>
@@ -20645,10 +20715,10 @@
         <v>591</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E230" s="2">
         <v>3173000</v>
@@ -20659,13 +20729,13 @@
         <v>54</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E231" s="2">
         <v>2380000</v>
@@ -20682,7 +20752,7 @@
         <v>8</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E232" s="2">
         <v>2599000</v>
@@ -20690,16 +20760,16 @@
     </row>
     <row r="233" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E233" s="2">
         <v>2999000</v>
@@ -20710,13 +20780,13 @@
         <v>22</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E234" s="2">
         <v>3590000</v>
@@ -20724,16 +20794,16 @@
     </row>
     <row r="235" ht="40.35" hidden="1" customHeight="1" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E235" s="2">
         <v>2569900</v>
@@ -20750,7 +20820,7 @@
         <v>8</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E236" s="2">
         <v>4750000</v>
@@ -20758,16 +20828,16 @@
     </row>
     <row r="237" ht="40.35" customHeight="1" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E237" s="2">
         <v>2499990</v>
@@ -20775,7 +20845,7 @@
     </row>
     <row r="238" ht="27.15" customHeight="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>793</v>
@@ -20784,7 +20854,7 @@
         <v>8</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E238" s="2">
         <v>2779990</v>
@@ -20801,7 +20871,7 @@
         <v>51</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E239" s="2">
         <v>2649000</v>
@@ -20818,7 +20888,7 @@
         <v>5</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E240" s="2">
         <v>1899000</v>
@@ -20835,7 +20905,7 @@
         <v>8</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E241" s="2">
         <v>2825990</v>
@@ -20843,7 +20913,7 @@
     </row>
     <row r="242" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="B242" s="2">
         <v>400</v>
@@ -20852,7 +20922,7 @@
         <v>8</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E242" s="2">
         <v>5799000</v>
@@ -20860,7 +20930,7 @@
     </row>
     <row r="243" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>280</v>
@@ -20869,7 +20939,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="E243" s="2">
         <v>2899000</v>
@@ -20886,7 +20956,7 @@
         <v>8</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E244" s="2">
         <v>1887500</v>
@@ -20903,7 +20973,7 @@
         <v>8</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E245" s="2">
         <v>1805000</v>
@@ -20920,7 +20990,7 @@
         <v>8</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E246" s="2">
         <v>1684500</v>
@@ -20928,7 +20998,7 @@
     </row>
     <row r="247" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>785</v>
@@ -20937,7 +21007,7 @@
         <v>8</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E247" s="2">
         <v>3899000</v>
@@ -20945,7 +21015,7 @@
     </row>
     <row r="248" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>784</v>
@@ -20954,7 +21024,7 @@
         <v>8</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E248" s="2">
         <v>3099000</v>
@@ -20962,7 +21032,7 @@
     </row>
     <row r="249" ht="27.15" hidden="1" customHeight="1" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="B249" s="2">
         <v>1</v>
@@ -20971,7 +21041,7 @@
         <v>8</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="E249" s="2">
         <v>4162990</v>
